--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-m-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49608B2B-53C4-47DA-A54E-032C4F72F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E29666-9BE1-4B04-8470-DFE5BF5DE621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6E7C8C21-2ADE-4386-BCF7-8CB047E0B5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6E7C8C21-2ADE-4386-BCF7-8CB047E0B5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="formatos" sheetId="1" r:id="rId1"/>
     <sheet name="series" sheetId="2" r:id="rId2"/>
+    <sheet name="empleados" sheetId="3" r:id="rId3"/>
+    <sheet name="ventas" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="cant_venta">ventas!$D:$D</definedName>
+    <definedName name="iva_venta">ventas!$I$2</definedName>
+    <definedName name="precio_venta">ventas!$C:$C</definedName>
+    <definedName name="total_venta">ventas!$E:$E</definedName>
+    <definedName name="valor_iva_venta">ventas!$F:$F</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
   <si>
     <t>Tipos de datos</t>
   </si>
@@ -220,16 +229,186 @@
   </si>
   <si>
     <t>Con texto</t>
+  </si>
+  <si>
+    <t>cada 5</t>
+  </si>
+  <si>
+    <t>cada 6</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>fecha nac</t>
+  </si>
+  <si>
+    <t>tipo doc</t>
+  </si>
+  <si>
+    <t>numero doc</t>
+  </si>
+  <si>
+    <t>cristian</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>lopez</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>chavez</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>parker</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>ATAJOS de Teclado</t>
+  </si>
+  <si>
+    <t>seleccionar columna</t>
+  </si>
+  <si>
+    <t>seleccionar fila</t>
+  </si>
+  <si>
+    <t>agregar fila/columna</t>
+  </si>
+  <si>
+    <t>eliminar fila/columna</t>
+  </si>
+  <si>
+    <t>CTRL + Signo MAS</t>
+  </si>
+  <si>
+    <t>CTRL + Signo MENOS</t>
+  </si>
+  <si>
+    <t>CTRL + Barra Espaciadora</t>
+  </si>
+  <si>
+    <t>SHIFT + Barra Espaciadora</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>localidad</t>
+  </si>
+  <si>
+    <t>sucasa 91</t>
+  </si>
+  <si>
+    <t>glew</t>
+  </si>
+  <si>
+    <t>cuchacucha 2020</t>
+  </si>
+  <si>
+    <t>banfield</t>
+  </si>
+  <si>
+    <t>chacabuco 105</t>
+  </si>
+  <si>
+    <t>lanus</t>
+  </si>
+  <si>
+    <t>Racedo</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>precio u</t>
+  </si>
+  <si>
+    <t>cant</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>jarra electrica</t>
+  </si>
+  <si>
+    <t>pava electrica</t>
+  </si>
+  <si>
+    <t>aire acondicionado</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>total + iva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>formulas</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>resta</t>
+  </si>
+  <si>
+    <t>multiplicacion</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>valor a</t>
+  </si>
+  <si>
+    <t>valor b</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>funciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -260,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +463,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -294,29 +493,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="9">
     <cellStyle name="Énfasis1" xfId="3" builtinId="29"/>
+    <cellStyle name="Énfasis2" xfId="5" builtinId="33"/>
+    <cellStyle name="Énfasis3" xfId="6" builtinId="37"/>
+    <cellStyle name="Énfasis5" xfId="7" builtinId="45"/>
+    <cellStyle name="Énfasis6" xfId="8" builtinId="49"/>
+    <cellStyle name="Millares" xfId="4" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
@@ -731,20 +957,20 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -796,48 +1022,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFC5BD-F6C6-48BD-9506-9E08FEF8A981}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="G1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="16">
         <v>44470</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="17" t="s">
         <v>47</v>
       </c>
+      <c r="F2" s="11"/>
       <c r="G2">
         <v>5</v>
       </c>
@@ -846,19 +1081,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="16">
         <v>44471</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G3">
@@ -869,19 +1104,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="16">
         <v>44472</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="17" t="s">
         <v>49</v>
       </c>
       <c r="G4">
@@ -892,19 +1127,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="16">
         <v>44473</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G5">
@@ -915,19 +1150,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="16">
         <v>44474</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G6">
@@ -938,19 +1173,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="16">
         <v>44475</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G7">
@@ -961,19 +1196,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="16">
         <v>44476</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G8">
@@ -984,19 +1219,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="16">
         <v>44477</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="G9">
@@ -1007,19 +1242,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="16">
         <v>44478</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="17" t="s">
         <v>55</v>
       </c>
       <c r="G10">
@@ -1030,19 +1265,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="16">
         <v>44479</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="17" t="s">
         <v>56</v>
       </c>
       <c r="G11">
@@ -1053,19 +1288,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="16">
         <v>44480</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="17" t="s">
         <v>57</v>
       </c>
       <c r="G12">
@@ -1076,19 +1311,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="16">
         <v>44481</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="17" t="s">
         <v>58</v>
       </c>
       <c r="G13">
@@ -1099,19 +1334,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="16">
         <v>44482</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G14">
@@ -1122,19 +1357,19 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="16">
         <v>44483</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G15">
@@ -1148,4 +1383,510 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95464C8-8898-49E8-8E63-00736CD085DC}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33346</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2">
+        <v>35336446</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1">
+        <v>31613</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>30567273</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36664</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>9123874</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1">
+        <v>29247</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>1023472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D1B43-CEA5-41CC-BCC1-E10369D4477F}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>2999.99</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <f>precio_venta*cant_venta</f>
+        <v>5999.98</v>
+      </c>
+      <c r="F2" s="6">
+        <f>total_venta*iva_venta</f>
+        <v>629.99789999999996</v>
+      </c>
+      <c r="G2" s="5">
+        <f>total_venta+valor_iva_venta</f>
+        <v>6629.9778999999999</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3">
+        <v>4999</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <f>precio_venta*cant_venta</f>
+        <v>4999</v>
+      </c>
+      <c r="F3" s="6">
+        <f>total_venta*iva_venta</f>
+        <v>524.89499999999998</v>
+      </c>
+      <c r="G3" s="5">
+        <f>total_venta+valor_iva_venta</f>
+        <v>5523.8950000000004</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="21">
+        <v>55000</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <f>precio_venta*cant_venta</f>
+        <v>110000</v>
+      </c>
+      <c r="F4" s="6">
+        <f>total_venta*iva_venta</f>
+        <v>11550</v>
+      </c>
+      <c r="G4" s="5">
+        <f>total_venta+valor_iva_venta</f>
+        <v>121550</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="19">
+        <v>1200</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <f>precio_venta*cant_venta</f>
+        <v>6000</v>
+      </c>
+      <c r="F5" s="6">
+        <f>total_venta*iva_venta</f>
+        <v>630</v>
+      </c>
+      <c r="G5" s="5">
+        <f>total_venta+valor_iva_venta</f>
+        <v>6630</v>
+      </c>
+      <c r="I5" s="5">
+        <f>SUM(total_venta)</f>
+        <v>126998.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f>J8+K8</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f>J9-K9</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f>J10*K10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f>J11/K11</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f>SUM(J14:K14)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <f>PRODUCT(J16:K16)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <f>MOD(J17,K17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC341918-78B9-41B3-AD18-1A18F39DD013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD981C-1D07-4FFB-AE7A-D6E40A94A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="intro" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>codigo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>apellido</t>
   </si>
@@ -48,9 +45,6 @@
     <t>edad</t>
   </si>
   <si>
-    <t>fecha nac</t>
-  </si>
-  <si>
     <t>direccion</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Juan</t>
   </si>
   <si>
-    <t>Cristian</t>
-  </si>
-  <si>
     <t>Formatos</t>
   </si>
   <si>
@@ -118,6 +109,96 @@
   </si>
   <si>
     <t>fecha larga</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>alegria 33</t>
+  </si>
+  <si>
+    <t>11-0293-4903</t>
+  </si>
+  <si>
+    <t>cod.</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>dinamarca 3920</t>
+  </si>
+  <si>
+    <t>11-2309-2039</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>nueva york 1929</t>
+  </si>
+  <si>
+    <t>11-9493-2392</t>
+  </si>
+  <si>
+    <t>fecha nac.</t>
+  </si>
+  <si>
+    <t>absoluta</t>
+  </si>
+  <si>
+    <t>columna</t>
+  </si>
+  <si>
+    <t>filas</t>
+  </si>
+  <si>
+    <t>relativa</t>
+  </si>
+  <si>
+    <t>A:A ; B:B ; C:C</t>
+  </si>
+  <si>
+    <t>1:1 ; 2:2 ; 3:3</t>
+  </si>
+  <si>
+    <t>$A:$A</t>
+  </si>
+  <si>
+    <t>$1:$1</t>
+  </si>
+  <si>
+    <t>$A$1:$C$3</t>
+  </si>
+  <si>
+    <t>Cristián</t>
+  </si>
+  <si>
+    <t>$A1 ; A$1 ; $A$1</t>
+  </si>
+  <si>
+    <t>celda</t>
+  </si>
+  <si>
+    <t>A1 ; A2 ; A3</t>
+  </si>
+  <si>
+    <t>A1:C1 ; A1:A3 ; A1:C3</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>Rango</t>
   </si>
 </sst>
 </file>
@@ -127,10 +208,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +233,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +255,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -180,57 +323,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -258,8 +413,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Entrada de lápiz 47">
@@ -278,7 +433,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Entrada de lápiz 47">
@@ -342,11 +497,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{594F6E04-414F-4DB0-BF3E-B02942CD0740}" name="Tabla1" displayName="Tabla1" ref="I1:J11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="I1:J11" xr:uid="{594F6E04-414F-4DB0-BF3E-B02942CD0740}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B1DC29C3-6A14-4324-97F4-009A0CAF9CA1}" name="Formatos"/>
-    <tableColumn id="2" xr3:uid="{0D6935A0-ECB4-4938-89D2-FEF1F2CFB029}" name="ejemplo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B0EB8BC-64DA-43DC-B721-19443D314ED5}" name="Tabla1" displayName="Tabla1" ref="I13:K17" totalsRowShown="0">
+  <autoFilter ref="I13:K17" xr:uid="{5B0EB8BC-64DA-43DC-B721-19443D314ED5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{874E36F0-D33D-4D28-97BD-9F062C53369A}" name="Referencia"/>
+    <tableColumn id="2" xr3:uid="{4C8EBDBE-CF0E-447D-9913-9B05A10F98CF}" name="relativa"/>
+    <tableColumn id="3" xr3:uid="{FEC0AA46-4F2A-4DDB-BC62-072851717873}" name="absoluta"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -649,183 +805,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117B3FF-61B0-4BBD-B7C7-F6DFDE9130BD}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="22">
+        <v>31</v>
+      </c>
+      <c r="E2" s="23">
+        <v>33346</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="22">
+        <v>25</v>
+      </c>
+      <c r="E3" s="23">
+        <v>35632</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="22">
+        <v>45</v>
+      </c>
+      <c r="E4" s="23">
+        <v>32048</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J4" s="9">
+        <v>33346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="22">
+        <v>33</v>
+      </c>
+      <c r="E5" s="23">
+        <v>32745</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
+      <c r="J5" s="10">
+        <v>33346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3">
-        <v>33346</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="C6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="22">
+        <v>28</v>
+      </c>
+      <c r="E6" s="23">
+        <v>34169</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3">
-        <v>35632</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J6" s="12">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+      <c r="J7" s="13">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3">
-        <v>33346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="5">
-        <v>33346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="7" t="s">
+      <c r="J8" s="14">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="4">
-        <v>0.3263888888888889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+      <c r="J9" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="I10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="8">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="J10" s="16">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="I11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="J11" s="18">
         <v>4294967296</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J12" s="12"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.94488188976377963" bottom="0.94488188976377963" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD981C-1D07-4FFB-AE7A-D6E40A94A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC913E3-B853-4174-9FA1-275B297052DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
+    <sheet name="operadores" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>apellido</t>
   </si>
@@ -199,6 +225,135 @@
   </si>
   <si>
     <t>Rango</t>
+  </si>
+  <si>
+    <t>cuil</t>
+  </si>
+  <si>
+    <t>20-35336446-5</t>
+  </si>
+  <si>
+    <t>20-43128323-1</t>
+  </si>
+  <si>
+    <t>20-30283492-6</t>
+  </si>
+  <si>
+    <t>27-33230498-2</t>
+  </si>
+  <si>
+    <t>27-38578293-4</t>
+  </si>
+  <si>
+    <t>atajos</t>
+  </si>
+  <si>
+    <t>utilizacion</t>
+  </si>
+  <si>
+    <t>ctrl +</t>
+  </si>
+  <si>
+    <t>shift espacio</t>
+  </si>
+  <si>
+    <t>ctrl espacio</t>
+  </si>
+  <si>
+    <t>selecciona una columna</t>
+  </si>
+  <si>
+    <t>selecciona una fila</t>
+  </si>
+  <si>
+    <t>ctrl -</t>
+  </si>
+  <si>
+    <t>quita una o mas celdas</t>
+  </si>
+  <si>
+    <t>agrega una o mas celdas</t>
+  </si>
+  <si>
+    <t>ctrl C</t>
+  </si>
+  <si>
+    <t>ctrl X</t>
+  </si>
+  <si>
+    <t>ctrl V</t>
+  </si>
+  <si>
+    <t>copia las celdas</t>
+  </si>
+  <si>
+    <t>corta las celdas</t>
+  </si>
+  <si>
+    <t>pega las celdas</t>
+  </si>
+  <si>
+    <t>Formulas</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>operación</t>
+  </si>
+  <si>
+    <t>valor a</t>
+  </si>
+  <si>
+    <t>valor b</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>RESTA</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>Metodos definididos con nombres reservados para realizar una operación determinada (verifican los datos con los que se trabaja)</t>
+  </si>
+  <si>
+    <t>valor c</t>
+  </si>
+  <si>
+    <t>RESIDUO</t>
+  </si>
+  <si>
+    <t>ERRORES</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>El tipo de dato utilizado es erroneo</t>
+  </si>
+  <si>
+    <t>La formula no se reconoce el texto</t>
+  </si>
+  <si>
+    <t>Division entre cero o celdas vacias</t>
+  </si>
+  <si>
+    <t>La celda de referencia no es valida</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Operación aritmetica que se realiza utilizando las referencias brindadas (los valores de las mismas deben validos o se devolvera un error)</t>
   </si>
 </sst>
 </file>
@@ -227,6 +382,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -235,14 +391,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +417,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -318,19 +480,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -356,29 +538,112 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -402,13 +667,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>179520</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>-7193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>180600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>16560</xdr:rowOff>
@@ -468,6 +733,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="pepe"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -494,18 +772,6 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 35 3201,'0'0'2512,"0"-34"-2457</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 3896,'-1'16'-375</inkml:trace>
 </inkml:ink>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B0EB8BC-64DA-43DC-B721-19443D314ED5}" name="Tabla1" displayName="Tabla1" ref="I13:K17" totalsRowShown="0">
-  <autoFilter ref="I13:K17" xr:uid="{5B0EB8BC-64DA-43DC-B721-19443D314ED5}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{874E36F0-D33D-4D28-97BD-9F062C53369A}" name="Referencia"/>
-    <tableColumn id="2" xr3:uid="{4C8EBDBE-CF0E-447D-9913-9B05A10F98CF}" name="relativa"/>
-    <tableColumn id="3" xr3:uid="{FEC0AA46-4F2A-4DDB-BC62-072851717873}" name="absoluta"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,307 +1071,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117B3FF-61B0-4BBD-B7C7-F6DFDE9130BD}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="39">
         <v>31</v>
       </c>
-      <c r="E2" s="23">
+      <c r="F2" s="40">
         <v>33346</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="43">
         <v>25</v>
       </c>
-      <c r="E3" s="23">
+      <c r="F3" s="44">
         <v>35632</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="39">
         <v>45</v>
       </c>
-      <c r="E4" s="23">
+      <c r="F4" s="40">
         <v>32048</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>33346</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="43">
         <v>33</v>
       </c>
-      <c r="E5" s="23">
+      <c r="F5" s="44">
         <v>32745</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>33346</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="47">
         <v>28</v>
       </c>
-      <c r="E6" s="23">
+      <c r="F6" s="48">
         <v>34169</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>65000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="I8" s="5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K8" s="14">
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="I9" s="7" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="15">
+      <c r="K9" s="15">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="I10" s="5" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16">
+      <c r="K10" s="16">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="I11" s="17" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="18">
+      <c r="K11" s="18">
         <v>4294967296</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="K14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="K15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="K16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="L16" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="33" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1113,8 +1463,279 @@
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.94488188976377963" bottom="0.94488188976377963" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2B8AC-09BD-41EA-AD96-E9EEC5276A50}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="54">
+        <v>8</v>
+      </c>
+      <c r="C3" s="54">
+        <v>8</v>
+      </c>
+      <c r="D3" s="54">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <f>B3+C3+D3</f>
+        <v>28</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="54">
+        <v>8</v>
+      </c>
+      <c r="I3" s="54">
+        <v>8</v>
+      </c>
+      <c r="J3" s="54">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6">
+        <f>SUM(G3:J3)</f>
+        <v>28</v>
+      </c>
+      <c r="M3" s="27" t="e">
+        <f>$B3+$C3+D3+A3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="55">
+        <v>53</v>
+      </c>
+      <c r="C4" s="55">
+        <v>20</v>
+      </c>
+      <c r="D4" s="55">
+        <v>14</v>
+      </c>
+      <c r="E4" s="56">
+        <f>B4-C4-D4</f>
+        <v>19</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="55">
+        <v>53</v>
+      </c>
+      <c r="I4" s="55">
+        <v>20</v>
+      </c>
+      <c r="J4" s="55">
+        <v>14</v>
+      </c>
+      <c r="K4" s="56">
+        <f>AVERAGE(G4:J4)</f>
+        <v>29</v>
+      </c>
+      <c r="M4" s="30" t="e" cm="1">
+        <f t="array" ref="M4">$B4-$C4-D4-resta</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="54">
+        <v>3</v>
+      </c>
+      <c r="C5" s="54">
+        <v>8</v>
+      </c>
+      <c r="D5" s="54">
+        <f>$B5*$C5</f>
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <f>B5*C5*D5</f>
+        <v>576</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="54">
+        <v>3</v>
+      </c>
+      <c r="I5" s="54">
+        <v>8</v>
+      </c>
+      <c r="J5" s="54">
+        <f>$B5*$C5</f>
+        <v>24</v>
+      </c>
+      <c r="K5" s="6">
+        <f>PRODUCT(H5:J5)</f>
+        <v>576</v>
+      </c>
+      <c r="M5" s="27" t="e">
+        <f>-D5-[1]pepe!A3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="23">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>8</v>
+      </c>
+      <c r="D6" s="23">
+        <f>$B6/$C6</f>
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="52">
+        <f>B6/C6/D6</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="23">
+        <v>4</v>
+      </c>
+      <c r="I6" s="23">
+        <v>8</v>
+      </c>
+      <c r="J6" s="23">
+        <f>$B6/$C6</f>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="52">
+        <f>MOD(H6,I6)</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="22" t="e">
+        <f>$B6/$C6/D6/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC913E3-B853-4174-9FA1-275B297052DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E8F081-A823-4008-BBC8-BACCAE33DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
-    <sheet name="operadores" sheetId="3" r:id="rId2"/>
+    <sheet name="asist." sheetId="5" r:id="rId2"/>
+    <sheet name="operadores" sheetId="3" r:id="rId3"/>
+    <sheet name="ventas" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="cant_ventas">ventas!$B$2:$B$16</definedName>
+    <definedName name="iva_total">ventas!$E$2:$E$16</definedName>
+    <definedName name="iva_ventas">ventas!$J$1</definedName>
+    <definedName name="precio_ventas">ventas!$C$2:$C$16</definedName>
+    <definedName name="total_ventas">ventas!$D$2:$D$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,8 +48,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -51,16 +61,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>apellido</t>
   </si>
@@ -332,9 +356,6 @@
     <t>RESIDUO</t>
   </si>
   <si>
-    <t>ERRORES</t>
-  </si>
-  <si>
     <t>PROMEDIO</t>
   </si>
   <si>
@@ -354,17 +375,76 @@
   </si>
   <si>
     <t>Operación aritmetica que se realiza utilizando las referencias brindadas (los valores de las mismas deben validos o se devolvera un error)</t>
+  </si>
+  <si>
+    <t>Errores</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>El valor supera la capacidad de la celda</t>
+  </si>
+  <si>
+    <t>POTENCIA</t>
+  </si>
+  <si>
+    <t>Cuando trabajamos con funciones y formulas nos podemos topar con algunos codigos que excel nos brindara para identificar cual es el problema.</t>
+  </si>
+  <si>
+    <t>precio + iva</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>cant</t>
+  </si>
+  <si>
+    <t>precio x U</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Estadisticas</t>
+  </si>
+  <si>
+    <t>Mas Baja</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>Mas Alta</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Recaudado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -398,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +503,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -500,12 +592,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -613,31 +744,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,9 +815,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -772,6 +956,68 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 35 3201,'0'0'2512,"0"-34"-2457</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 3896,'-1'16'-375</inkml:trace>
 </inkml:ink>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>0</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,8 +1320,8 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,11 +1713,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38092-0CDD-4546-9420-12554152D19D}">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>intro!B2</f>
+        <v>Racedo</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>intro!B3</f>
+        <v>Perez</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>intro!B4</f>
+        <v>Gomez</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>intro!B5</f>
+        <v>Fernandez</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>intro!B6</f>
+        <v>Lopez</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2B8AC-09BD-41EA-AD96-E9EEC5276A50}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,28 +1772,39 @@
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="8" max="11" width="7.7109375" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="17" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="M1" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="N1" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1517,7 +1819,7 @@
       <c r="D2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="24" t="s">
@@ -1532,30 +1834,30 @@
       <c r="J2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>82</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+        <v>98</v>
+      </c>
+      <c r="N2" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="53">
         <v>8</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53">
         <v>8</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="53">
         <v>12</v>
       </c>
       <c r="E3" s="6">
@@ -1565,13 +1867,13 @@
       <c r="G3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="53">
         <v>8</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="53">
         <v>8</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="53">
         <v>12</v>
       </c>
       <c r="K3" s="6">
@@ -1582,43 +1884,43 @@
         <f>$B3+$C3+D3+A3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="N3" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="81"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="54">
         <v>53</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <v>20</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="54">
         <v>14</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <f>B4-C4-D4</f>
         <v>19</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="55">
+        <v>90</v>
+      </c>
+      <c r="H4" s="54">
         <v>53</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="54">
         <v>20</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="54">
         <v>14</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="55">
         <f>AVERAGE(G4:J4)</f>
         <v>29</v>
       </c>
@@ -1626,24 +1928,24 @@
         <f t="array" ref="M4">$B4-$C4-D4-resta</f>
         <v>#NAME?</v>
       </c>
-      <c r="N4" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
+      <c r="N4" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>3</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="53">
         <v>8</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="53">
         <f>$B5*$C5</f>
         <v>24</v>
       </c>
@@ -1654,13 +1956,13 @@
       <c r="G5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="53">
         <v>3</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="53">
         <v>8</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="53">
         <f>$B5*$C5</f>
         <v>24</v>
       </c>
@@ -1669,15 +1971,15 @@
         <v>576</v>
       </c>
       <c r="M5" s="27" t="e">
-        <f>-D5-[1]pepe!A3</f>
+        <f>-D5*[1]pepe!A3</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
+      <c r="N5" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -1693,7 +1995,7 @@
         <f>$B6/$C6</f>
         <v>0.5</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <f>B6/C6/D6</f>
         <v>1</v>
       </c>
@@ -1710,7 +2012,7 @@
         <f>$B6/$C6</f>
         <v>0.5</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="51">
         <f>MOD(H6,I6)</f>
         <v>4</v>
       </c>
@@ -1718,15 +2020,60 @@
         <f>$B6/$C6/D6/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="60"/>
+      <c r="N6" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="76"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="53">
+        <v>2</v>
+      </c>
+      <c r="C7" s="53">
+        <v>1</v>
+      </c>
+      <c r="D7" s="53">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <f>B7^C7^D7</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="53">
+        <v>2</v>
+      </c>
+      <c r="I7" s="53">
+        <v>1</v>
+      </c>
+      <c r="J7" s="53">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <f>POWER(H7,I7)</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="27" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="M7" ca="1">A:A</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="N7:Q7"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="N6:Q6"/>
@@ -1734,6 +2081,472 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B4E47B-831B-4617-94F6-1B9F8B2C5B52}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="61">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="58">
+        <v>5600</v>
+      </c>
+      <c r="D2" s="58" cm="1">
+        <f t="array" ref="D2:D16">cant_ventas * precio_ventas</f>
+        <v>28000</v>
+      </c>
+      <c r="E2" s="58" cm="1">
+        <f t="array" ref="E2:E16">total_ventas*iva_ventas</f>
+        <v>5880</v>
+      </c>
+      <c r="F2" s="58" cm="1">
+        <f t="array" ref="F2:F16">total_ventas + iva_total</f>
+        <v>33880</v>
+      </c>
+      <c r="G2" s="57">
+        <v>44824</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="58">
+        <v>8000</v>
+      </c>
+      <c r="D3" s="58">
+        <v>16000</v>
+      </c>
+      <c r="E3" s="58">
+        <v>3360</v>
+      </c>
+      <c r="F3" s="58">
+        <v>19360</v>
+      </c>
+      <c r="G3" s="57">
+        <v>44824</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="58">
+        <v>7300</v>
+      </c>
+      <c r="D4" s="58">
+        <v>21900</v>
+      </c>
+      <c r="E4" s="58">
+        <v>4599</v>
+      </c>
+      <c r="F4" s="58">
+        <v>26499</v>
+      </c>
+      <c r="G4" s="57">
+        <v>44824</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="65">
+        <f>COUNT(cant_ventas)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3500</v>
+      </c>
+      <c r="D5" s="58">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="58">
+        <v>735</v>
+      </c>
+      <c r="F5" s="58">
+        <v>4235</v>
+      </c>
+      <c r="G5" s="57">
+        <v>44825</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="67">
+        <f>SUM(total_ventas)</f>
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="58">
+        <v>5600</v>
+      </c>
+      <c r="D6" s="58">
+        <v>11200</v>
+      </c>
+      <c r="E6" s="58">
+        <v>2352</v>
+      </c>
+      <c r="F6" s="58">
+        <v>13552</v>
+      </c>
+      <c r="G6" s="57">
+        <v>44825</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="68">
+        <f>MIN(D2:D16)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="58">
+        <v>9400</v>
+      </c>
+      <c r="D7" s="58">
+        <v>28200</v>
+      </c>
+      <c r="E7" s="58">
+        <v>5922</v>
+      </c>
+      <c r="F7" s="58">
+        <v>34122</v>
+      </c>
+      <c r="G7" s="57">
+        <v>44826</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="67">
+        <f>MAX(total_ventas)</f>
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="58">
+        <v>8500</v>
+      </c>
+      <c r="D8" s="58">
+        <v>8500</v>
+      </c>
+      <c r="E8" s="58">
+        <v>1785</v>
+      </c>
+      <c r="F8" s="58">
+        <v>10285</v>
+      </c>
+      <c r="G8" s="57">
+        <v>44827</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="68">
+        <f>AVERAGE(D2:D16)</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="58">
+        <v>4500</v>
+      </c>
+      <c r="D9" s="58">
+        <v>13500</v>
+      </c>
+      <c r="E9" s="58">
+        <v>2835</v>
+      </c>
+      <c r="F9" s="58">
+        <v>16335</v>
+      </c>
+      <c r="G9" s="57">
+        <v>44827</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="72">
+        <f>MODE(A:A)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="58">
+        <v>7200</v>
+      </c>
+      <c r="D10" s="58">
+        <v>14400</v>
+      </c>
+      <c r="E10" s="58">
+        <v>3024</v>
+      </c>
+      <c r="F10" s="58">
+        <v>17424</v>
+      </c>
+      <c r="G10" s="57">
+        <v>44827</v>
+      </c>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="58">
+        <v>3500</v>
+      </c>
+      <c r="D11" s="58">
+        <v>17500</v>
+      </c>
+      <c r="E11" s="58">
+        <v>3675</v>
+      </c>
+      <c r="F11" s="58">
+        <v>21175</v>
+      </c>
+      <c r="G11" s="57">
+        <v>44828</v>
+      </c>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="58">
+        <v>4400</v>
+      </c>
+      <c r="D12" s="58">
+        <v>17600</v>
+      </c>
+      <c r="E12" s="58">
+        <v>3696</v>
+      </c>
+      <c r="F12" s="58">
+        <v>21296</v>
+      </c>
+      <c r="G12" s="57">
+        <v>44828</v>
+      </c>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="58">
+        <v>3500</v>
+      </c>
+      <c r="D13" s="58">
+        <v>10500</v>
+      </c>
+      <c r="E13" s="58">
+        <v>2205</v>
+      </c>
+      <c r="F13" s="58">
+        <v>12705</v>
+      </c>
+      <c r="G13" s="57">
+        <v>44829</v>
+      </c>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="58">
+        <v>7300</v>
+      </c>
+      <c r="D14" s="58">
+        <v>14600</v>
+      </c>
+      <c r="E14" s="58">
+        <v>3066</v>
+      </c>
+      <c r="F14" s="58">
+        <v>17666</v>
+      </c>
+      <c r="G14" s="57">
+        <v>44829</v>
+      </c>
+      <c r="I14" s="59"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="58">
+        <v>6200</v>
+      </c>
+      <c r="D15" s="58">
+        <v>18600</v>
+      </c>
+      <c r="E15" s="58">
+        <v>3906</v>
+      </c>
+      <c r="F15" s="58">
+        <v>22506</v>
+      </c>
+      <c r="G15" s="57">
+        <v>44830</v>
+      </c>
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="58">
+        <v>3500</v>
+      </c>
+      <c r="D16" s="58">
+        <v>7000</v>
+      </c>
+      <c r="E16" s="58">
+        <v>1470</v>
+      </c>
+      <c r="F16" s="58">
+        <v>8470</v>
+      </c>
+      <c r="G16" s="57">
+        <v>44830</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,25 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E8F081-A823-4008-BBC8-BACCAE33DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3A5BCF-87C8-446C-A68C-F527C6A28AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
-    <sheet name="asist." sheetId="5" r:id="rId2"/>
-    <sheet name="operadores" sheetId="3" r:id="rId3"/>
-    <sheet name="ventas" sheetId="4" r:id="rId4"/>
+    <sheet name="listas" sheetId="6" r:id="rId2"/>
+    <sheet name="asist." sheetId="5" r:id="rId3"/>
+    <sheet name="operadores" sheetId="3" r:id="rId4"/>
+    <sheet name="ventas" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="cant_ventas">ventas!$B$2:$B$16</definedName>
-    <definedName name="iva_total">ventas!$E$2:$E$16</definedName>
-    <definedName name="iva_ventas">ventas!$J$1</definedName>
-    <definedName name="precio_ventas">ventas!$C$2:$C$16</definedName>
-    <definedName name="total_ventas">ventas!$D$2:$D$16</definedName>
+    <definedName name="iva_ventas">ventas!$L$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="139">
   <si>
     <t>apellido</t>
   </si>
@@ -392,46 +389,115 @@
     <t>Cuando trabajamos con funciones y formulas nos podemos topar con algunos codigos que excel nos brindara para identificar cual es el problema.</t>
   </si>
   <si>
-    <t>precio + iva</t>
-  </si>
-  <si>
     <t>iva</t>
   </si>
   <si>
     <t>cant</t>
   </si>
   <si>
-    <t>precio x U</t>
-  </si>
-  <si>
-    <t>Ventas</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
     <t>IVA</t>
   </si>
   <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Estadisticas</t>
-  </si>
-  <si>
-    <t>Mas Baja</t>
-  </si>
-  <si>
     <t>Moda</t>
   </si>
   <si>
-    <t>Mas Alta</t>
-  </si>
-  <si>
     <t>Promedio</t>
   </si>
   <si>
-    <t>Recaudado</t>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>precio+iva</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>numeros</t>
+  </si>
+  <si>
+    <t>dias</t>
+  </si>
+  <si>
+    <t>meses</t>
+  </si>
+  <si>
+    <t>fechas</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Presentismo</t>
+  </si>
+  <si>
+    <t>asistencias</t>
+  </si>
+  <si>
+    <t>inasistencias</t>
   </si>
 </sst>
 </file>
@@ -446,7 +512,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +539,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -516,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -629,6 +701,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -636,7 +717,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -656,9 +737,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -761,36 +839,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -824,8 +881,37 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="75"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -834,7 +920,222 @@
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1018,6 +1319,38 @@
     <k n="subType" t="i"/>
   </s>
 </rvStructures>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA1150EE-196F-4E3B-984E-194751FC9728}" name="empleados" displayName="empleados" ref="J6:J7" insertRow="1" insertRowShift="1" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="3">
+  <autoFilter ref="J6:J7" xr:uid="{EA1150EE-196F-4E3B-984E-194751FC9728}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A1BA6DD3-67CB-4A2B-AB21-8071CBEB8DD0}" name="hora" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
+  <autoFilter ref="D1:J19" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3AC5DBD6-A04E-4E7D-B94E-AE2A136DF070}" name="codigo"/>
+    <tableColumn id="2" xr3:uid="{274BE5D4-57A6-4F62-AF29-6B2030F1B528}" name="cant"/>
+    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="10" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="6" dataCellStyle="Moneda">
+      <calculatedColumnFormula>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="5" dataCellStyle="Moneda">
+      <calculatedColumnFormula>ventas[[#This Row],[total]]*iva_ventas</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="4" dataCellStyle="Moneda">
+      <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1317,23 +1650,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117B3FF-61B0-4BBD-B7C7-F6DFDE9130BD}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -1341,28 +1674,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1373,28 +1706,28 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="38">
         <v>31</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="39">
         <v>33346</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1405,28 +1738,28 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>25</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="43">
         <v>35632</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -1437,28 +1770,28 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>45</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>32048</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="40" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -1469,28 +1802,28 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <v>33</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <v>32745</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -1501,156 +1834,156 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>28</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <v>34169</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="82"/>
+      <c r="K7" s="12">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="J8" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="13">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="13">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="J9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="14">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="J10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="15">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="J10" s="5" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="J11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="16">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="J11" s="17" t="s">
+      <c r="K11" s="17">
+        <v>4294967296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="18">
-        <v>4294967296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F12" s="19"/>
-      <c r="H12" s="19"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J13" s="24" t="s">
+      <c r="K13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14" s="27" t="s">
+      <c r="K14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15" s="30" t="s">
+      <c r="K15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J16" s="27" t="s">
+      <c r="K16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J17" s="22" t="s">
+      <c r="K17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>61</v>
-      </c>
       <c r="K19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
         <v>66</v>
@@ -1658,7 +1991,7 @@
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
         <v>67</v>
@@ -1666,7 +1999,7 @@
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
@@ -1674,7 +2007,7 @@
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
         <v>69</v>
@@ -1682,7 +2015,7 @@
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
         <v>74</v>
@@ -1690,7 +2023,7 @@
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
         <v>75</v>
@@ -1698,10 +2031,15 @@
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1709,55 +2047,361 @@
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.94488188976377963" bottom="0.94488188976377963" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38092-0CDD-4546-9420-12554152D19D}">
-  <dimension ref="A2:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F921C-C865-4A35-A062-281C1CB55D2D}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>intro!B2</f>
-        <v>Racedo</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>intro!B3</f>
-        <v>Perez</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>intro!B4</f>
-        <v>Gomez</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>intro!B5</f>
-        <v>Fernandez</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>intro!B6</f>
-        <v>Lopez</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="81">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="81">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="81">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="81">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="81">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="81">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="81">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="81">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="81">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="81">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="81">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="81">
+        <v>44816</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38092-0CDD-4546-9420-12554152D19D}">
+  <dimension ref="A1:AG6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="31" width="3.7109375" style="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="86">
+        <v>44805</v>
+      </c>
+      <c r="C1" s="86">
+        <v>44806</v>
+      </c>
+      <c r="D1" s="86">
+        <v>44807</v>
+      </c>
+      <c r="E1" s="86">
+        <v>44808</v>
+      </c>
+      <c r="F1" s="86">
+        <v>44809</v>
+      </c>
+      <c r="G1" s="86">
+        <v>44810</v>
+      </c>
+      <c r="H1" s="86">
+        <v>44811</v>
+      </c>
+      <c r="I1" s="86">
+        <v>44812</v>
+      </c>
+      <c r="J1" s="86">
+        <v>44813</v>
+      </c>
+      <c r="K1" s="86">
+        <v>44814</v>
+      </c>
+      <c r="L1" s="86">
+        <v>44815</v>
+      </c>
+      <c r="M1" s="86">
+        <v>44816</v>
+      </c>
+      <c r="N1" s="86">
+        <v>44817</v>
+      </c>
+      <c r="O1" s="86">
+        <v>44818</v>
+      </c>
+      <c r="P1" s="86">
+        <v>44819</v>
+      </c>
+      <c r="Q1" s="86">
+        <v>44820</v>
+      </c>
+      <c r="R1" s="86">
+        <v>44821</v>
+      </c>
+      <c r="S1" s="86">
+        <v>44822</v>
+      </c>
+      <c r="T1" s="86">
+        <v>44823</v>
+      </c>
+      <c r="U1" s="86">
+        <v>44824</v>
+      </c>
+      <c r="V1" s="86">
+        <v>44825</v>
+      </c>
+      <c r="W1" s="86">
+        <v>44826</v>
+      </c>
+      <c r="X1" s="86">
+        <v>44827</v>
+      </c>
+      <c r="Y1" s="86">
+        <v>44828</v>
+      </c>
+      <c r="Z1" s="86">
+        <v>44829</v>
+      </c>
+      <c r="AA1" s="86">
+        <v>44830</v>
+      </c>
+      <c r="AB1" s="86">
+        <v>44831</v>
+      </c>
+      <c r="AC1" s="86">
+        <v>44832</v>
+      </c>
+      <c r="AD1" s="86">
+        <v>44833</v>
+      </c>
+      <c r="AE1" s="86">
+        <v>44834</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>intro!B2</f>
+        <v>Racedo</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>intro!B3</f>
+        <v>Perez</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>intro!B4</f>
+        <v>Gomez</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>intro!B5</f>
+        <v>Fernandez</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>intro!B6</f>
+        <v>Lopez</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2B8AC-09BD-41EA-AD96-E9EEC5276A50}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -1777,175 +2421,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="56" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="M1" s="56" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="M1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="82" t="s">
+      <c r="N1" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="52">
         <v>8</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="52">
         <v>8</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="52">
         <v>12</v>
       </c>
       <c r="E3" s="6">
         <f>B3+C3+D3</f>
         <v>28</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="52">
         <v>8</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="52">
         <v>8</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="52">
         <v>12</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(G3:J3)</f>
         <v>28</v>
       </c>
-      <c r="M3" s="27" t="e">
+      <c r="M3" s="26" t="e">
         <f>$B3+$C3+D3+A3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="81"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <v>53</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="53">
         <v>20</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="53">
         <v>14</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="54">
         <f>B4-C4-D4</f>
         <v>19</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>53</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="53">
         <v>20</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="53">
         <v>14</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="54">
         <f>AVERAGE(G4:J4)</f>
         <v>29</v>
       </c>
-      <c r="M4" s="30" t="e" cm="1">
+      <c r="M4" s="29" t="e" cm="1">
         <f t="array" ref="M4">$B4-$C4-D4-resta</f>
         <v>#NAME?</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="52">
         <v>8</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="52">
         <f>$B5*$C5</f>
         <v>24</v>
       </c>
@@ -1953,16 +2597,16 @@
         <f>B5*C5*D5</f>
         <v>576</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="52">
         <v>3</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="52">
         <v>8</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="52">
         <f>$B5*$C5</f>
         <v>24</v>
       </c>
@@ -1970,106 +2614,106 @@
         <f>PRODUCT(H5:J5)</f>
         <v>576</v>
       </c>
-      <c r="M5" s="27" t="e">
+      <c r="M5" s="26" t="e">
         <f>-D5*[1]pepe!A3</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>8</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <f>$B6/$C6</f>
         <v>0.5</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="50">
         <f>B6/C6/D6</f>
         <v>1</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>4</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>8</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <f>$B6/$C6</f>
         <v>0.5</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="50">
         <f>MOD(H6,I6)</f>
         <v>4</v>
       </c>
-      <c r="M6" s="22" t="e">
+      <c r="M6" s="21" t="e">
         <f>$B6/$C6/D6/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="75" t="s">
+      <c r="N6" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="68"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="52">
         <v>2</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>1</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <v>2</v>
       </c>
       <c r="E7" s="6">
         <f>B7^C7^D7</f>
         <v>4</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="52">
         <v>2</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="52">
         <v>1</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="52">
         <v>2</v>
       </c>
       <c r="K7" s="6">
         <f>POWER(H7,I7)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="27" t="e" cm="1" vm="1">
+      <c r="M7" s="26" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="M7" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="73" t="s">
+      <c r="N7" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="74"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2088,467 +2732,588 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B4E47B-831B-4617-94F6-1B9F8B2C5B52}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.28515625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="61">
+        <f>COUNT(ventas[codigo])</f>
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="58" t="s">
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="61">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="62">
+        <f>SUM(ventas[total])</f>
+        <v>287500</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="57">
+        <v>5600</v>
+      </c>
+      <c r="G2" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>28000</v>
+      </c>
+      <c r="H2" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>5880</v>
+      </c>
+      <c r="I2" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>33880</v>
+      </c>
+      <c r="J2" s="56">
+        <v>44824</v>
+      </c>
+      <c r="L2" s="60">
         <v>0.21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="63">
+        <f>MIN(ventas[total])</f>
+        <v>3500</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="57">
+        <v>8000</v>
+      </c>
+      <c r="G3" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>16000</v>
+      </c>
+      <c r="H3" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>3360</v>
+      </c>
+      <c r="I3" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>19360</v>
+      </c>
+      <c r="J3" s="56">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="62">
+        <f>MAX(ventas[total])</f>
+        <v>36500</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="F4" s="57">
+        <v>7300</v>
+      </c>
+      <c r="G4" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>21900</v>
+      </c>
+      <c r="H4" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>4599</v>
+      </c>
+      <c r="I4" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>26499</v>
+      </c>
+      <c r="J4" s="56">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="63">
+        <f>AVERAGE(ventas[total])</f>
+        <v>15972.222222222223</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="57">
+        <v>3500</v>
+      </c>
+      <c r="G5" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>3500</v>
+      </c>
+      <c r="H5" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>735</v>
+      </c>
+      <c r="I5" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>4235</v>
+      </c>
+      <c r="J5" s="56">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="64">
+        <f>MODE(D:D)</f>
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="57">
+        <v>5600</v>
+      </c>
+      <c r="G6" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>11200</v>
+      </c>
+      <c r="H6" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>2352</v>
+      </c>
+      <c r="I6" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>13552</v>
+      </c>
+      <c r="J6" s="56">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="57">
+        <v>9400</v>
+      </c>
+      <c r="G7" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>28200</v>
+      </c>
+      <c r="H7" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>5922</v>
+      </c>
+      <c r="I7" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>34122</v>
+      </c>
+      <c r="J7" s="56">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="57">
+        <v>8500</v>
+      </c>
+      <c r="G8" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>8500</v>
+      </c>
+      <c r="H8" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>1785</v>
+      </c>
+      <c r="I8" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>10285</v>
+      </c>
+      <c r="J8" s="56">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="57">
+        <v>4500</v>
+      </c>
+      <c r="G9" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>13500</v>
+      </c>
+      <c r="H9" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>2835</v>
+      </c>
+      <c r="I9" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>16335</v>
+      </c>
+      <c r="J9" s="56">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="57">
+        <v>7200</v>
+      </c>
+      <c r="G10" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>14400</v>
+      </c>
+      <c r="H10" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>3024</v>
+      </c>
+      <c r="I10" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>17424</v>
+      </c>
+      <c r="J10" s="56">
+        <v>44827</v>
+      </c>
+      <c r="L10" s="58"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="C2" s="58">
+      <c r="F11" s="57">
+        <v>3500</v>
+      </c>
+      <c r="G11" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>17500</v>
+      </c>
+      <c r="H11" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>3675</v>
+      </c>
+      <c r="I11" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>21175</v>
+      </c>
+      <c r="J11" s="56">
+        <v>44828</v>
+      </c>
+      <c r="L11" s="58"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="57">
+        <v>4400</v>
+      </c>
+      <c r="G12" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>17600</v>
+      </c>
+      <c r="H12" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>3696</v>
+      </c>
+      <c r="I12" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>21296</v>
+      </c>
+      <c r="J12" s="56">
+        <v>44828</v>
+      </c>
+      <c r="L12" s="58"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="57">
+        <v>3500</v>
+      </c>
+      <c r="G13" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>10500</v>
+      </c>
+      <c r="H13" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>2205</v>
+      </c>
+      <c r="I13" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>12705</v>
+      </c>
+      <c r="J13" s="56">
+        <v>44829</v>
+      </c>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="57">
+        <v>7300</v>
+      </c>
+      <c r="G14" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>14600</v>
+      </c>
+      <c r="H14" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>3066</v>
+      </c>
+      <c r="I14" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>17666</v>
+      </c>
+      <c r="J14" s="56">
+        <v>44829</v>
+      </c>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="57">
+        <v>6200</v>
+      </c>
+      <c r="G15" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>18600</v>
+      </c>
+      <c r="H15" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>3906</v>
+      </c>
+      <c r="I15" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>22506</v>
+      </c>
+      <c r="J15" s="56">
+        <v>44830</v>
+      </c>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="57">
+        <v>3500</v>
+      </c>
+      <c r="G16" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>7000</v>
+      </c>
+      <c r="H16" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>1470</v>
+      </c>
+      <c r="I16" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>8470</v>
+      </c>
+      <c r="J16" s="56">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="57">
+        <v>4400</v>
+      </c>
+      <c r="G17" s="57">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>8800</v>
+      </c>
+      <c r="H17" s="57">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>1848</v>
+      </c>
+      <c r="I17" s="57">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>10648</v>
+      </c>
+      <c r="J17" s="56">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="57">
+        <v>7300</v>
+      </c>
+      <c r="G18" s="80">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>36500</v>
+      </c>
+      <c r="H18" s="80">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
+        <v>7665</v>
+      </c>
+      <c r="I18" s="80">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
+        <v>44165</v>
+      </c>
+      <c r="J18" s="56">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="57">
         <v>5600</v>
       </c>
-      <c r="D2" s="58" cm="1">
-        <f t="array" ref="D2:D16">cant_ventas * precio_ventas</f>
-        <v>28000</v>
-      </c>
-      <c r="E2" s="58" cm="1">
-        <f t="array" ref="E2:E16">total_ventas*iva_ventas</f>
-        <v>5880</v>
-      </c>
-      <c r="F2" s="58" cm="1">
-        <f t="array" ref="F2:F16">total_ventas + iva_total</f>
-        <v>33880</v>
-      </c>
-      <c r="G2" s="57">
-        <v>44824</v>
-      </c>
-      <c r="I2" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="83"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="58">
-        <v>8000</v>
-      </c>
-      <c r="D3" s="58">
-        <v>16000</v>
-      </c>
-      <c r="E3" s="58">
-        <v>3360</v>
-      </c>
-      <c r="F3" s="58">
-        <v>19360</v>
-      </c>
-      <c r="G3" s="57">
-        <v>44824</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="58">
-        <v>7300</v>
-      </c>
-      <c r="D4" s="58">
-        <v>21900</v>
-      </c>
-      <c r="E4" s="58">
-        <v>4599</v>
-      </c>
-      <c r="F4" s="58">
-        <v>26499</v>
-      </c>
-      <c r="G4" s="57">
-        <v>44824</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="65">
-        <f>COUNT(cant_ventas)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="58">
-        <v>3500</v>
-      </c>
-      <c r="D5" s="58">
-        <v>3500</v>
-      </c>
-      <c r="E5" s="58">
-        <v>735</v>
-      </c>
-      <c r="F5" s="58">
-        <v>4235</v>
-      </c>
-      <c r="G5" s="57">
-        <v>44825</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="67">
-        <f>SUM(total_ventas)</f>
-        <v>231000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="58">
-        <v>5600</v>
-      </c>
-      <c r="D6" s="58">
+      <c r="G19" s="80">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>11200</v>
       </c>
-      <c r="E6" s="58">
+      <c r="H19" s="80">
+        <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>2352</v>
       </c>
-      <c r="F6" s="58">
+      <c r="I19" s="80">
+        <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>13552</v>
       </c>
-      <c r="G6" s="57">
-        <v>44825</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="68">
-        <f>MIN(D2:D16)</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="58">
-        <v>9400</v>
-      </c>
-      <c r="D7" s="58">
-        <v>28200</v>
-      </c>
-      <c r="E7" s="58">
-        <v>5922</v>
-      </c>
-      <c r="F7" s="58">
-        <v>34122</v>
-      </c>
-      <c r="G7" s="57">
-        <v>44826</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="67">
-        <f>MAX(total_ventas)</f>
-        <v>28200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="58">
-        <v>8500</v>
-      </c>
-      <c r="D8" s="58">
-        <v>8500</v>
-      </c>
-      <c r="E8" s="58">
-        <v>1785</v>
-      </c>
-      <c r="F8" s="58">
-        <v>10285</v>
-      </c>
-      <c r="G8" s="57">
-        <v>44827</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="68">
-        <f>AVERAGE(D2:D16)</f>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="58">
-        <v>4500</v>
-      </c>
-      <c r="D9" s="58">
-        <v>13500</v>
-      </c>
-      <c r="E9" s="58">
-        <v>2835</v>
-      </c>
-      <c r="F9" s="58">
-        <v>16335</v>
-      </c>
-      <c r="G9" s="57">
-        <v>44827</v>
-      </c>
-      <c r="I9" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="72">
-        <f>MODE(A:A)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="58">
-        <v>7200</v>
-      </c>
-      <c r="D10" s="58">
-        <v>14400</v>
-      </c>
-      <c r="E10" s="58">
-        <v>3024</v>
-      </c>
-      <c r="F10" s="58">
-        <v>17424</v>
-      </c>
-      <c r="G10" s="57">
-        <v>44827</v>
-      </c>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="58">
-        <v>3500</v>
-      </c>
-      <c r="D11" s="58">
-        <v>17500</v>
-      </c>
-      <c r="E11" s="58">
-        <v>3675</v>
-      </c>
-      <c r="F11" s="58">
-        <v>21175</v>
-      </c>
-      <c r="G11" s="57">
-        <v>44828</v>
-      </c>
-      <c r="I11" s="59"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="58">
-        <v>4400</v>
-      </c>
-      <c r="D12" s="58">
-        <v>17600</v>
-      </c>
-      <c r="E12" s="58">
-        <v>3696</v>
-      </c>
-      <c r="F12" s="58">
-        <v>21296</v>
-      </c>
-      <c r="G12" s="57">
-        <v>44828</v>
-      </c>
-      <c r="I12" s="59"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" s="58">
-        <v>3500</v>
-      </c>
-      <c r="D13" s="58">
-        <v>10500</v>
-      </c>
-      <c r="E13" s="58">
-        <v>2205</v>
-      </c>
-      <c r="F13" s="58">
-        <v>12705</v>
-      </c>
-      <c r="G13" s="57">
-        <v>44829</v>
-      </c>
-      <c r="I13" s="59"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="58">
-        <v>7300</v>
-      </c>
-      <c r="D14" s="58">
-        <v>14600</v>
-      </c>
-      <c r="E14" s="58">
-        <v>3066</v>
-      </c>
-      <c r="F14" s="58">
-        <v>17666</v>
-      </c>
-      <c r="G14" s="57">
-        <v>44829</v>
-      </c>
-      <c r="I14" s="59"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="58">
-        <v>6200</v>
-      </c>
-      <c r="D15" s="58">
-        <v>18600</v>
-      </c>
-      <c r="E15" s="58">
-        <v>3906</v>
-      </c>
-      <c r="F15" s="58">
-        <v>22506</v>
-      </c>
-      <c r="G15" s="57">
-        <v>44830</v>
-      </c>
-      <c r="I15" s="59"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="58">
-        <v>3500</v>
-      </c>
-      <c r="D16" s="58">
-        <v>7000</v>
-      </c>
-      <c r="E16" s="58">
-        <v>1470</v>
-      </c>
-      <c r="F16" s="58">
-        <v>8470</v>
-      </c>
-      <c r="G16" s="57">
-        <v>44830</v>
+      <c r="J19" s="56">
+        <v>44806</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:J2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3A5BCF-87C8-446C-A68C-F527C6A28AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662DE0D7-5AE1-4BD9-AE0E-DDD8D1846638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
@@ -23,7 +23,11 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="asist">asist.!$AG$2:$AG$11</definedName>
+    <definedName name="aus">asist.!$AF$2:$AF$11</definedName>
     <definedName name="iva_ventas">ventas!$L$2</definedName>
+    <definedName name="jornada">asist.!$AO$2</definedName>
+    <definedName name="valor_hora">asist.!$AN$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="207">
   <si>
     <t>apellido</t>
   </si>
@@ -422,9 +426,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>numeros</t>
-  </si>
-  <si>
     <t>dias</t>
   </si>
   <si>
@@ -491,13 +492,220 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Presentismo</t>
+    <t>fecha corta</t>
+  </si>
+  <si>
+    <t>decimales</t>
+  </si>
+  <si>
+    <t>enteros</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>factura 001</t>
+  </si>
+  <si>
+    <t>factura 012</t>
+  </si>
+  <si>
+    <t>factura 002</t>
+  </si>
+  <si>
+    <t>factura 003</t>
+  </si>
+  <si>
+    <t>factura 004</t>
+  </si>
+  <si>
+    <t>factura 005</t>
+  </si>
+  <si>
+    <t>factura 006</t>
+  </si>
+  <si>
+    <t>factura 007</t>
+  </si>
+  <si>
+    <t>factura 008</t>
+  </si>
+  <si>
+    <t>factura 009</t>
+  </si>
+  <si>
+    <t>factura 010</t>
+  </si>
+  <si>
+    <t>factura 011</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Gimenez</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>empleado</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>01/09/22</t>
+  </si>
+  <si>
+    <t>02/09/22</t>
+  </si>
+  <si>
+    <t>03/09/22</t>
+  </si>
+  <si>
+    <t>04/09/22</t>
+  </si>
+  <si>
+    <t>05/09/22</t>
+  </si>
+  <si>
+    <t>06/09/22</t>
+  </si>
+  <si>
+    <t>07/09/22</t>
+  </si>
+  <si>
+    <t>08/09/22</t>
+  </si>
+  <si>
+    <t>09/09/22</t>
+  </si>
+  <si>
+    <t>10/09/22</t>
+  </si>
+  <si>
+    <t>11/09/22</t>
+  </si>
+  <si>
+    <t>12/09/22</t>
+  </si>
+  <si>
+    <t>13/09/22</t>
+  </si>
+  <si>
+    <t>14/09/22</t>
+  </si>
+  <si>
+    <t>15/09/22</t>
+  </si>
+  <si>
+    <t>16/09/22</t>
+  </si>
+  <si>
+    <t>17/09/22</t>
+  </si>
+  <si>
+    <t>18/09/22</t>
+  </si>
+  <si>
+    <t>19/09/22</t>
+  </si>
+  <si>
+    <t>20/09/22</t>
+  </si>
+  <si>
+    <t>21/09/22</t>
+  </si>
+  <si>
+    <t>22/09/22</t>
+  </si>
+  <si>
+    <t>23/09/22</t>
+  </si>
+  <si>
+    <t>24/09/22</t>
+  </si>
+  <si>
+    <t>25/09/22</t>
+  </si>
+  <si>
+    <t>26/09/22</t>
+  </si>
+  <si>
+    <t>27/09/22</t>
+  </si>
+  <si>
+    <t>28/09/22</t>
+  </si>
+  <si>
+    <t>29/09/22</t>
+  </si>
+  <si>
+    <t>30/09/22</t>
+  </si>
+  <si>
+    <t>Asist.</t>
+  </si>
+  <si>
+    <t>Aus.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Inasistencia</t>
   </si>
   <si>
     <t>asistencias</t>
   </si>
   <si>
-    <t>inasistencias</t>
+    <t>mayor</t>
+  </si>
+  <si>
+    <t>menor</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>Asist</t>
+  </si>
+  <si>
+    <t>Aus</t>
+  </si>
+  <si>
+    <t>Estadistica</t>
+  </si>
+  <si>
+    <t>sueldo</t>
+  </si>
+  <si>
+    <t>jornada</t>
+  </si>
+  <si>
+    <t>valor hora</t>
   </si>
 </sst>
 </file>
@@ -588,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -710,6 +918,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -717,7 +934,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -807,9 +1024,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -851,6 +1065,54 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="75"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -881,37 +1143,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="75"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+      <alignment horizontal="left" textRotation="75"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -920,106 +1174,9 @@
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="7">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     </dxf>
     <dxf>
       <font>
@@ -1113,9 +1270,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     </dxf>
     <dxf>
       <font>
@@ -1322,32 +1476,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA1150EE-196F-4E3B-984E-194751FC9728}" name="empleados" displayName="empleados" ref="J6:J7" insertRow="1" insertRowShift="1" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="3">
-  <autoFilter ref="J6:J7" xr:uid="{EA1150EE-196F-4E3B-984E-194751FC9728}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A1BA6DD3-67CB-4A2B-AB21-8071CBEB8DD0}" name="hora" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
   <autoFilter ref="D1:J19" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3AC5DBD6-A04E-4E7D-B94E-AE2A136DF070}" name="codigo"/>
     <tableColumn id="2" xr3:uid="{274BE5D4-57A6-4F62-AF29-6B2030F1B528}" name="cant"/>
-    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="10" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="6" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="5" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*iva_ventas</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="4" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1650,16 +1794,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117B3FF-61B0-4BBD-B7C7-F6DFDE9130BD}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
@@ -1677,11 +1821,11 @@
       <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="85" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -1709,11 +1853,11 @@
       <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>56</v>
@@ -1741,11 +1885,11 @@
       <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>57</v>
@@ -1773,11 +1917,11 @@
       <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>58</v>
@@ -1795,7 +1939,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="K4" s="9">
         <v>33346</v>
@@ -1805,11 +1949,11 @@
       <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>59</v>
@@ -1834,31 +1978,31 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>28</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>34169</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="11">
@@ -1866,60 +2010,119 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J7" s="82"/>
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="12">
         <v>65000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="J8" s="84" t="s">
-        <v>17</v>
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="J8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="K8" s="13">
         <v>120000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>8</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>154</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="J9" s="5" t="s">
-        <v>18</v>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="K9" s="14">
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="J10" s="7" t="s">
-        <v>19</v>
+      <c r="A10" s="37">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K10" s="15">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>10</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="J11" s="5" t="s">
-        <v>20</v>
+      <c r="J11" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="K11" s="17">
         <v>4294967296</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>194</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="J12" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="K13" s="24" t="s">
         <v>42</v>
       </c>
@@ -1928,8 +2131,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14" s="23" t="s">
-        <v>53</v>
+      <c r="J14" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>43</v>
@@ -1939,8 +2142,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15" s="26" t="s">
-        <v>40</v>
+      <c r="J15" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="K15" s="30" t="s">
         <v>44</v>
@@ -1950,8 +2153,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J16" s="29" t="s">
-        <v>41</v>
+      <c r="J16" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>51</v>
@@ -1961,8 +2164,8 @@
       </c>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J17" s="26" t="s">
-        <v>50</v>
+      <c r="J17" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="K17" s="22" t="s">
         <v>52</v>
@@ -1971,19 +2174,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J18" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
       <c r="K19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
         <v>66</v>
@@ -1991,7 +2192,7 @@
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
         <v>67</v>
@@ -1999,7 +2200,7 @@
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
@@ -2007,7 +2208,7 @@
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
         <v>69</v>
@@ -2015,7 +2216,7 @@
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
         <v>74</v>
@@ -2023,7 +2224,7 @@
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
         <v>75</v>
@@ -2031,15 +2232,10 @@
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K26" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2047,202 +2243,322 @@
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.94488188976377963" bottom="0.94488188976377963" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F921C-C865-4A35-A062-281C1CB55D2D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="81">
+      <c r="F2" s="70">
         <v>44805</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="81">
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="70">
         <v>44806</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="74">
+        <v>4.1666666666666699E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="81">
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="70">
         <v>44807</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" s="74">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="81">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="70">
         <v>44808</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="74">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="81">
+      <c r="B6">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="70">
         <v>44809</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" s="74">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="81">
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="70">
         <v>44810</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" s="74">
+        <v>0.20833333333333301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="81">
+      <c r="B8">
+        <v>1.75</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="70">
         <v>44811</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" s="74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="81">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="70">
         <v>44812</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" s="74">
+        <v>0.29166666666666702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="81">
+      <c r="B10">
+        <v>2.25</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="70">
         <v>44813</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" s="74">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="81">
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="70">
         <v>44814</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" s="74">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="81">
+      <c r="B12">
+        <v>2.75</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="70">
         <v>44815</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" s="74">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="81">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="70">
         <v>44816</v>
+      </c>
+      <c r="G13" s="74">
+        <v>0.45833333333333298</v>
       </c>
     </row>
   </sheetData>
@@ -2253,151 +2569,1444 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38092-0CDD-4546-9420-12554152D19D}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="31" width="3.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="4.7109375" style="72" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="13" max="31" width="4.7109375" style="72" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="86">
-        <v>44805</v>
-      </c>
-      <c r="C1" s="86">
-        <v>44806</v>
-      </c>
-      <c r="D1" s="86">
-        <v>44807</v>
-      </c>
-      <c r="E1" s="86">
-        <v>44808</v>
-      </c>
-      <c r="F1" s="86">
-        <v>44809</v>
-      </c>
-      <c r="G1" s="86">
-        <v>44810</v>
-      </c>
-      <c r="H1" s="86">
-        <v>44811</v>
-      </c>
-      <c r="I1" s="86">
-        <v>44812</v>
-      </c>
-      <c r="J1" s="86">
-        <v>44813</v>
-      </c>
-      <c r="K1" s="86">
-        <v>44814</v>
-      </c>
-      <c r="L1" s="86">
-        <v>44815</v>
-      </c>
-      <c r="M1" s="86">
-        <v>44816</v>
-      </c>
-      <c r="N1" s="86">
-        <v>44817</v>
-      </c>
-      <c r="O1" s="86">
-        <v>44818</v>
-      </c>
-      <c r="P1" s="86">
-        <v>44819</v>
-      </c>
-      <c r="Q1" s="86">
-        <v>44820</v>
-      </c>
-      <c r="R1" s="86">
-        <v>44821</v>
-      </c>
-      <c r="S1" s="86">
-        <v>44822</v>
-      </c>
-      <c r="T1" s="86">
-        <v>44823</v>
-      </c>
-      <c r="U1" s="86">
-        <v>44824</v>
-      </c>
-      <c r="V1" s="86">
-        <v>44825</v>
-      </c>
-      <c r="W1" s="86">
-        <v>44826</v>
-      </c>
-      <c r="X1" s="86">
-        <v>44827</v>
-      </c>
-      <c r="Y1" s="86">
-        <v>44828</v>
-      </c>
-      <c r="Z1" s="86">
-        <v>44829</v>
-      </c>
-      <c r="AA1" s="86">
-        <v>44830</v>
-      </c>
-      <c r="AB1" s="86">
-        <v>44831</v>
-      </c>
-      <c r="AC1" s="86">
-        <v>44832</v>
-      </c>
-      <c r="AD1" s="86">
-        <v>44833</v>
-      </c>
-      <c r="AE1" s="86">
-        <v>44834</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>intro!B2</f>
-        <v>Racedo</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>intro!B3</f>
-        <v>Perez</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>intro!B4</f>
-        <v>Gomez</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>intro!B5</f>
-        <v>Fernandez</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>intro!B6</f>
-        <v>Lopez</v>
-      </c>
+    <row r="1" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="U1" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="V1" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="X1" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y1" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA1" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB1" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC1" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD1" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE1" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF1" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG1" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH1" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL1" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN1" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO1" s="109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="str">
+        <f>_xlfn.CONCAT(intro!C2&amp;" "&amp;intro!B2)</f>
+        <v>Racedo Cristián</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="T2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="W2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z2" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF2" s="83">
+        <f>COUNTBLANK(B2:AE2)</f>
+        <v>8</v>
+      </c>
+      <c r="AG2" s="100">
+        <f>COUNTA($B$1:$AE$1) - AF2</f>
+        <v>22</v>
+      </c>
+      <c r="AH2" s="103" cm="1">
+        <f t="array" ref="AH2">AG2*valor_hora*jornada</f>
+        <v>88000</v>
+      </c>
+      <c r="AJ2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" s="105">
+        <f>AVERAGE(asist)</f>
+        <v>16.7</v>
+      </c>
+      <c r="AL2" s="106">
+        <f>AVERAGE(aus)</f>
+        <v>13.3</v>
+      </c>
+      <c r="AN2" s="110">
+        <v>500</v>
+      </c>
+      <c r="AO2" s="111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="str">
+        <f>_xlfn.CONCAT(intro!C3&amp;" "&amp;intro!B3)</f>
+        <v>Perez Juan</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="T3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="U3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="W3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z3" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF3" s="84">
+        <f>COUNTBLANK(B3:AE3)</f>
+        <v>13</v>
+      </c>
+      <c r="AG3" s="100">
+        <f t="shared" ref="AG3:AG11" si="0">COUNTA($B$1:$AE$1) - AF3</f>
+        <v>17</v>
+      </c>
+      <c r="AH3" s="103" cm="1">
+        <f t="array" ref="AH3">AG3*valor_hora*jornada</f>
+        <v>68000</v>
+      </c>
+      <c r="AJ3" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK3" s="52">
+        <f>MAX(asist)</f>
+        <v>22</v>
+      </c>
+      <c r="AL3" s="53">
+        <f>MAX(aus)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="str">
+        <f>_xlfn.CONCAT(intro!C4&amp;" "&amp;intro!B4)</f>
+        <v>Gomez Gonzalo</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="U4" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="V4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="W4" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="X4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z4" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD4" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="83">
+        <f>COUNTBLANK(B4:AE4)</f>
+        <v>16</v>
+      </c>
+      <c r="AG4" s="100">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AH4" s="103" cm="1">
+        <f t="array" ref="AH4">AG4*valor_hora*jornada</f>
+        <v>56000</v>
+      </c>
+      <c r="AJ4" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK4" s="51">
+        <f>MIN(asist)</f>
+        <v>13</v>
+      </c>
+      <c r="AL4" s="6">
+        <f>MIN(aus)</f>
+        <v>8</v>
+      </c>
+      <c r="AO4" s="73"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="str">
+        <f>_xlfn.CONCAT(intro!C5&amp;" "&amp;intro!B5)</f>
+        <v>Fernandez Daniela</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="P5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="S5" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="T5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="V5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="W5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="X5" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z5" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF5" s="84">
+        <f>COUNTBLANK(B5:AE5)</f>
+        <v>11</v>
+      </c>
+      <c r="AG5" s="100">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AH5" s="103" cm="1">
+        <f t="array" ref="AH5">AG5*valor_hora*jornada</f>
+        <v>76000</v>
+      </c>
+      <c r="AJ5" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK5" s="52">
+        <f>MODE(asist)</f>
+        <v>17</v>
+      </c>
+      <c r="AL5" s="53">
+        <f>MODE(aus)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="str">
+        <f>_xlfn.CONCAT(intro!C6&amp;" "&amp;intro!B6)</f>
+        <v>Lopez Carla</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="N6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="R6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="S6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="T6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="V6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="W6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="X6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB6" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD6" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="83">
+        <f>COUNTBLANK(B6:AE6)</f>
+        <v>13</v>
+      </c>
+      <c r="AG6" s="100">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AH6" s="103" cm="1">
+        <f t="array" ref="AH6">AG6*valor_hora*jornada</f>
+        <v>68000</v>
+      </c>
+      <c r="AJ6" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK6" s="105">
+        <f>MEDIAN(asist)</f>
+        <v>16.5</v>
+      </c>
+      <c r="AL6" s="106">
+        <f>MEDIAN(aus)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="str">
+        <f>_xlfn.CONCAT(intro!C7&amp;" "&amp;intro!B7)</f>
+        <v>Martinez Mariano</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="S7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="T7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="V7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="W7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="X7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF7" s="84">
+        <f>COUNTBLANK(B7:AE7)</f>
+        <v>14</v>
+      </c>
+      <c r="AG7" s="100">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AH7" s="103" cm="1">
+        <f t="array" ref="AH7">AG7*valor_hora*jornada</f>
+        <v>64000</v>
+      </c>
+      <c r="AJ7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK7" s="107">
+        <f>SUM(asist)</f>
+        <v>167</v>
+      </c>
+      <c r="AL7" s="49">
+        <f>SUM(aus)</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="str">
+        <f>_xlfn.CONCAT(intro!C8&amp;" "&amp;intro!B8)</f>
+        <v>Gonzalez Gonzalo</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N8" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="S8" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="X8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE8" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF8" s="83">
+        <f>COUNTBLANK(B8:AE8)</f>
+        <v>17</v>
+      </c>
+      <c r="AG8" s="100">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AH8" s="103" cm="1">
+        <f t="array" ref="AH8">AG8*valor_hora*jornada</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="str">
+        <f>_xlfn.CONCAT(intro!C9&amp;" "&amp;intro!B9)</f>
+        <v>Jimenez Jorge</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="P9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="R9" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="S9" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="T9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="U9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="V9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="W9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="X9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF9" s="84">
+        <f>COUNTBLANK(B9:AE9)</f>
+        <v>12</v>
+      </c>
+      <c r="AG9" s="100">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AH9" s="103" cm="1">
+        <f t="array" ref="AH9">AG9*valor_hora*jornada</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="str">
+        <f>_xlfn.CONCAT(intro!C10&amp;" "&amp;intro!B10)</f>
+        <v>Gimenez Gabriela</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="S10" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="V10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="W10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD10" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="83">
+        <f>COUNTBLANK(B10:AE10)</f>
+        <v>15</v>
+      </c>
+      <c r="AG10" s="100">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AH10" s="103" cm="1">
+        <f t="array" ref="AH10">AG10*valor_hora*jornada</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="str">
+        <f>_xlfn.CONCAT(intro!C11&amp;" "&amp;intro!B11)</f>
+        <v>Lopez Laura</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="S11" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="T11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="V11" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="W11" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="X11" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z11" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA11" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="84">
+        <f>COUNTBLANK(B11:AE11)</f>
+        <v>14</v>
+      </c>
+      <c r="AG11" s="100">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AH11" s="103" cm="1">
+        <f t="array" ref="AH11">AG11*valor_hora*jornada</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="75">
+        <f>COUNTBLANK(B2:B11)</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="75">
+        <f t="shared" ref="C12:AE12" si="1">COUNTBLANK(C2:C11)</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="75">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="75">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="75">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K12" s="75">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="75">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M12" s="75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="75">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="75">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P12" s="75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R12" s="75">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S12" s="75">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T12" s="75">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U12" s="75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V12" s="75">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W12" s="75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="X12" s="75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y12" s="75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="75">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA12" s="75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="75">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC12" s="75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AE12" s="75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AF12" s="98">
+        <f>SUM(AF2:AF11)</f>
+        <v>133</v>
+      </c>
+      <c r="AG12" s="101">
+        <f>SUM(AG2:AG11)</f>
+        <v>167</v>
+      </c>
+      <c r="AH12" s="103"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="75">
+        <f>COUNTA($A$2:$A$11) - B12</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="75">
+        <f t="shared" ref="C13:M13" si="2">COUNTA($A$2:$A$11) - C12</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="75">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="75">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="75">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="75">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="75">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J13" s="75">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K13" s="75">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L13" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="75">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N13" s="75">
+        <f t="shared" ref="N13" si="3">COUNTA($A$2:$A$11) - N12</f>
+        <v>8</v>
+      </c>
+      <c r="O13" s="75">
+        <f t="shared" ref="O13" si="4">COUNTA($A$2:$A$11) - O12</f>
+        <v>5</v>
+      </c>
+      <c r="P13" s="75">
+        <f t="shared" ref="P13" si="5">COUNTA($A$2:$A$11) - P12</f>
+        <v>9</v>
+      </c>
+      <c r="Q13" s="75">
+        <f t="shared" ref="Q13" si="6">COUNTA($A$2:$A$11) - Q12</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="75">
+        <f t="shared" ref="R13" si="7">COUNTA($A$2:$A$11) - R12</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="75">
+        <f t="shared" ref="S13" si="8">COUNTA($A$2:$A$11) - S12</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="75">
+        <f t="shared" ref="T13" si="9">COUNTA($A$2:$A$11) - T12</f>
+        <v>8</v>
+      </c>
+      <c r="U13" s="75">
+        <f t="shared" ref="U13" si="10">COUNTA($A$2:$A$11) - U12</f>
+        <v>6</v>
+      </c>
+      <c r="V13" s="75">
+        <f t="shared" ref="V13" si="11">COUNTA($A$2:$A$11) - V12</f>
+        <v>5</v>
+      </c>
+      <c r="W13" s="75">
+        <f t="shared" ref="W13" si="12">COUNTA($A$2:$A$11) - W12</f>
+        <v>7</v>
+      </c>
+      <c r="X13" s="75">
+        <f t="shared" ref="X13" si="13">COUNTA($A$2:$A$11) - X12</f>
+        <v>6</v>
+      </c>
+      <c r="Y13" s="75">
+        <f t="shared" ref="Y13" si="14">COUNTA($A$2:$A$11) - Y12</f>
+        <v>6</v>
+      </c>
+      <c r="Z13" s="75">
+        <f t="shared" ref="Z13" si="15">COUNTA($A$2:$A$11) - Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="75">
+        <f t="shared" ref="AA13" si="16">COUNTA($A$2:$A$11) - AA12</f>
+        <v>9</v>
+      </c>
+      <c r="AB13" s="75">
+        <f t="shared" ref="AB13" si="17">COUNTA($A$2:$A$11) - AB12</f>
+        <v>5</v>
+      </c>
+      <c r="AC13" s="75">
+        <f t="shared" ref="AC13" si="18">COUNTA($A$2:$A$11) - AC12</f>
+        <v>9</v>
+      </c>
+      <c r="AD13" s="75">
+        <f t="shared" ref="AD13" si="19">COUNTA($A$2:$A$11) - AD12</f>
+        <v>6</v>
+      </c>
+      <c r="AE13" s="75">
+        <f t="shared" ref="AE13" si="20">COUNTA($A$2:$A$11) - AE12</f>
+        <v>6</v>
+      </c>
+      <c r="AF13" s="102">
+        <f>SUM(B13:AE13)</f>
+        <v>167</v>
+      </c>
+      <c r="AG13" s="101">
+        <f>SUM(B12:AE12)</f>
+        <v>133</v>
+      </c>
+      <c r="AH13" s="103"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D15" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B1:AE1 B24:AE1048576" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2421,34 +4030,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="55" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="M1" s="55" t="s">
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="M1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -2463,7 +4072,7 @@
       <c r="D2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="23" t="s">
@@ -2478,30 +4087,30 @@
       <c r="J2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="50" t="s">
         <v>82</v>
       </c>
       <c r="M2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>8</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="51">
         <v>8</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="51">
         <v>12</v>
       </c>
       <c r="E3" s="6">
@@ -2511,13 +4120,13 @@
       <c r="G3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="51">
         <v>8</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="51">
         <v>8</v>
       </c>
-      <c r="J3" s="52">
+      <c r="J3" s="51">
         <v>12</v>
       </c>
       <c r="K3" s="6">
@@ -2528,43 +4137,43 @@
         <f>$B3+$C3+D3+A3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" s="72" t="s">
+      <c r="N3" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="96"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="52">
         <v>53</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="52">
         <v>20</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="52">
         <v>14</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="53">
         <f>B4-C4-D4</f>
         <v>19</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>53</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="52">
         <v>20</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="52">
         <v>14</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="53">
         <f>AVERAGE(G4:J4)</f>
         <v>29</v>
       </c>
@@ -2572,24 +4181,24 @@
         <f t="array" ref="M4">$B4-$C4-D4-resta</f>
         <v>#NAME?</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="51">
         <v>3</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="51">
         <v>8</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="51">
         <f>$B5*$C5</f>
         <v>24</v>
       </c>
@@ -2600,13 +4209,13 @@
       <c r="G5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <v>3</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="51">
         <v>8</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="51">
         <f>$B5*$C5</f>
         <v>24</v>
       </c>
@@ -2618,12 +4227,12 @@
         <f>-D5*[1]pepe!A3</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -2639,7 +4248,7 @@
         <f>$B6/$C6</f>
         <v>0.5</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="49">
         <f>B6/C6/D6</f>
         <v>1</v>
       </c>
@@ -2656,7 +4265,7 @@
         <f>$B6/$C6</f>
         <v>0.5</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="49">
         <f>MOD(H6,I6)</f>
         <v>4</v>
       </c>
@@ -2664,24 +4273,24 @@
         <f>$B6/$C6/D6/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="68"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="91"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="51">
         <v>2</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="51">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <v>2</v>
       </c>
       <c r="E7" s="6">
@@ -2691,13 +4300,13 @@
       <c r="G7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <v>2</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="51">
         <v>1</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="51">
         <v>2</v>
       </c>
       <c r="K7" s="6">
@@ -2708,12 +4317,12 @@
         <f t="array" aca="1" ref="M7" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="66"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2740,7 +4349,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,11 +4359,11 @@
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" customWidth="1"/>
@@ -2766,7 +4375,7 @@
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="61">
+      <c r="B1" s="60">
         <f>COUNT(ventas[codigo])</f>
         <v>18</v>
       </c>
@@ -2776,30 +4385,30 @@
       <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="58" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <f>SUM(ventas[total])</f>
         <v>287500</v>
       </c>
@@ -2809,25 +4418,25 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="56">
         <v>5600</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>28000</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>5880</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>33880</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="55">
         <v>44824</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="59">
         <v>0.21</v>
       </c>
     </row>
@@ -2835,7 +4444,7 @@
       <c r="A3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="62">
         <f>MIN(ventas[total])</f>
         <v>3500</v>
       </c>
@@ -2845,30 +4454,30 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>8000</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>16000</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>3360</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>19360</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="55">
         <v>44824</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="61">
         <f>MAX(ventas[total])</f>
         <v>36500</v>
       </c>
@@ -2878,30 +4487,30 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="56">
         <v>7300</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>21900</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>4599</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>26499</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="55">
         <v>44824</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="62">
         <f>AVERAGE(ventas[total])</f>
         <v>15972.222222222223</v>
       </c>
@@ -2911,30 +4520,30 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="56">
         <v>3500</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>3500</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>735</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>4235</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="55">
         <v>44825</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="63">
         <f>MODE(D:D)</f>
         <v>20</v>
       </c>
@@ -2944,22 +4553,22 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="56">
         <v>5600</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>11200</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>2352</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>13552</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="55">
         <v>44825</v>
       </c>
     </row>
@@ -2970,50 +4579,50 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="56">
         <v>9400</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>28200</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>5922</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>34122</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="55">
         <v>44826</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
       <c r="D8">
         <v>44</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="56">
         <v>8500</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>8500</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>1785</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>10285</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="55">
         <v>44827</v>
       </c>
     </row>
@@ -3024,22 +4633,22 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="56">
         <v>4500</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>13500</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>2835</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>16335</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="55">
         <v>44827</v>
       </c>
     </row>
@@ -3050,25 +4659,25 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="56">
         <v>7200</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>14400</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>3024</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>17424</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="55">
         <v>44827</v>
       </c>
-      <c r="L10" s="58"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11">
@@ -3077,25 +4686,25 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="56">
         <v>3500</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>17500</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>3675</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>21175</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="55">
         <v>44828</v>
       </c>
-      <c r="L11" s="58"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12">
@@ -3104,25 +4713,25 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="56">
         <v>4400</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>17600</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>3696</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>21296</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="55">
         <v>44828</v>
       </c>
-      <c r="L12" s="58"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13">
@@ -3131,25 +4740,25 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="56">
         <v>3500</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>10500</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>2205</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>12705</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="55">
         <v>44829</v>
       </c>
-      <c r="L13" s="58"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14">
@@ -3158,25 +4767,25 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="56">
         <v>7300</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>14600</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>3066</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>17666</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="55">
         <v>44829</v>
       </c>
-      <c r="L14" s="58"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15">
@@ -3185,25 +4794,25 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="56">
         <v>6200</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>18600</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>3906</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>22506</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="55">
         <v>44830</v>
       </c>
-      <c r="L15" s="58"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16">
@@ -3212,22 +4821,22 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="56">
         <v>3500</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>7000</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>1470</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>8470</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="55">
         <v>44830</v>
       </c>
     </row>
@@ -3238,22 +4847,22 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="56">
         <v>4400</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="56">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>8800</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="56">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>1848</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="56">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>10648</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="55">
         <v>44830</v>
       </c>
     </row>
@@ -3264,22 +4873,22 @@
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="56">
         <v>7300</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="69">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>36500</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="69">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>7665</v>
       </c>
-      <c r="I18" s="80">
+      <c r="I18" s="69">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>44165</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="55">
         <v>44831</v>
       </c>
     </row>
@@ -3290,22 +4899,22 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="56">
         <v>5600</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="69">
         <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>11200</v>
       </c>
-      <c r="H19" s="80">
+      <c r="H19" s="69">
         <f>ventas[[#This Row],[total]]*iva_ventas</f>
         <v>2352</v>
       </c>
-      <c r="I19" s="80">
+      <c r="I19" s="69">
         <f>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</f>
         <v>13552</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="55">
         <v>44806</v>
       </c>
     </row>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662DE0D7-5AE1-4BD9-AE0E-DDD8D1846638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE517E-5EB8-4D7C-8BE4-2F2D5CF19B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="205">
   <si>
     <t>apellido</t>
   </si>
@@ -670,12 +670,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Inasistencia</t>
-  </si>
-  <si>
-    <t>asistencias</t>
   </si>
   <si>
     <t>mayor</t>
@@ -934,7 +928,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1092,15 +1086,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1112,6 +1102,27 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" textRotation="75"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -1143,30 +1154,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" textRotation="75"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -1174,7 +1163,1762 @@
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="76">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     </dxf>
@@ -1476,22 +3220,133 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC3F7D3-FC16-4ADE-983E-0C1610F35EF9}" name="Tabla2" displayName="Tabla2" ref="A1:AH12" totalsRowCount="1" tableBorderDxfId="68">
+  <autoFilter ref="A1:AH11" xr:uid="{EEC3F7D3-FC16-4ADE-983E-0C1610F35EF9}"/>
+  <tableColumns count="34">
+    <tableColumn id="1" xr3:uid="{3BC12B46-9136-46E3-A223-F3CF03180032}" name="empleado" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="33">
+      <calculatedColumnFormula>_xlfn.CONCAT(intro!C2&amp;" "&amp;intro!B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{EFF3AF5F-195C-4F10-99FE-785728D28C5D}" name="01/09/22" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="32">
+      <totalsRowFormula>COUNTBLANK(B2:B11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B4FC7CAF-FA55-407A-842E-0460E09C85C1}" name="02/09/22" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="31">
+      <totalsRowFormula>COUNTBLANK(C2:C11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E3097182-23B6-425A-92EE-36978BF0DE3F}" name="03/09/22" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="30">
+      <totalsRowFormula>COUNTBLANK(D2:D11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DF3AAB83-0485-4F05-AB00-2545B38349C9}" name="04/09/22" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="29">
+      <totalsRowFormula>COUNTBLANK(E2:E11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{289CDE49-86B5-4A2E-AD2A-88E654D99550}" name="05/09/22" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="28">
+      <totalsRowFormula>COUNTBLANK(F2:F11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B8394F89-B921-4F8B-AA99-9D70F20F82B4}" name="06/09/22" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="27">
+      <totalsRowFormula>COUNTBLANK(G2:G11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{04DACE89-3D92-4FF3-924F-906DDE5F88B3}" name="07/09/22" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="26">
+      <totalsRowFormula>COUNTBLANK(H2:H11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{100270AA-B53D-40EC-9CC2-9A86D03E7B63}" name="08/09/22" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="25">
+      <totalsRowFormula>COUNTBLANK(I2:I11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{4E7AE930-4F87-46DB-BC25-755B9FCE8334}" name="09/09/22" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="24">
+      <totalsRowFormula>COUNTBLANK(J2:J11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{A290F754-25C9-4725-AA39-A5F7E917CEA6}" name="10/09/22" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="23">
+      <totalsRowFormula>COUNTBLANK(K2:K11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{345E4699-6960-4F8C-AD5A-FC38BC637812}" name="11/09/22" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="22">
+      <totalsRowFormula>COUNTBLANK(L2:L11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{C319BC6B-F023-4B30-9FCA-7A754DD55FCA}" name="12/09/22" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="21">
+      <totalsRowFormula>COUNTBLANK(M2:M11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{F4EF58AA-21FE-4B55-AF40-32A717EFAAA3}" name="13/09/22" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="20">
+      <totalsRowFormula>COUNTBLANK(N2:N11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{955F3CC8-384F-4109-8FB3-2C8F52EBA258}" name="14/09/22" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="19">
+      <totalsRowFormula>COUNTBLANK(O2:O11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{D935C57A-202A-4379-9882-456376A20791}" name="15/09/22" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="18">
+      <totalsRowFormula>COUNTBLANK(P2:P11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{F750011F-0079-4A58-9A16-9F54B96B628F}" name="16/09/22" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="17">
+      <totalsRowFormula>COUNTBLANK(Q2:Q11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{49CFC2CB-DEE3-4084-A9B1-400173500FC7}" name="17/09/22" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="16">
+      <totalsRowFormula>COUNTBLANK(R2:R11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{2A070A00-21A5-4C85-B22C-18F7C4299E76}" name="18/09/22" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="15">
+      <totalsRowFormula>COUNTBLANK(S2:S11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{2F3848F7-9FC8-41C7-8B8E-3DC1AD7E2B2D}" name="19/09/22" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="14">
+      <totalsRowFormula>COUNTBLANK(T2:T11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{6A19B4F0-48D3-45DB-8374-12908F15B6F9}" name="20/09/22" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="13">
+      <totalsRowFormula>COUNTBLANK(U2:U11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{63A6939A-E9E8-45CF-9088-805582F92540}" name="21/09/22" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="12">
+      <totalsRowFormula>COUNTBLANK(V2:V11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{3A8081AE-FFEF-453A-8C5D-2875AC04E830}" name="22/09/22" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="11">
+      <totalsRowFormula>COUNTBLANK(W2:W11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{22272C23-A90F-452D-A9AF-31FBA76B0A93}" name="23/09/22" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="10">
+      <totalsRowFormula>COUNTBLANK(X2:X11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{6E7886D9-9761-4982-9981-31BD04607333}" name="24/09/22" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="9">
+      <totalsRowFormula>COUNTBLANK(Y2:Y11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{276376AC-8E31-43E4-B91B-745F172ADC35}" name="25/09/22" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="8">
+      <totalsRowFormula>COUNTBLANK(Z2:Z11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{9109FB9F-7440-421E-9446-9E9B6FFFD256}" name="26/09/22" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="7">
+      <totalsRowFormula>COUNTBLANK(AA2:AA11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{5AB2CC28-856B-4321-9762-31254B1969CD}" name="27/09/22" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="6">
+      <totalsRowFormula>COUNTBLANK(AB2:AB11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="29" xr3:uid="{D0BEEA5E-C393-4746-B9FC-46416AD86643}" name="28/09/22" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="5">
+      <totalsRowFormula>COUNTBLANK(AC2:AC11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="30" xr3:uid="{E0D345F5-0F48-4975-898E-C883BCB5929B}" name="29/09/22" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="4">
+      <totalsRowFormula>COUNTBLANK(AD2:AD11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{856CECCD-AA83-412F-B271-E7AA0322CB2D}" name="30/09/22" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="3">
+      <totalsRowFormula>COUNTBLANK(AE2:AE11)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="32" xr3:uid="{C973201C-8133-4990-9E6A-D4CB26C5239F}" name="Aus." totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="2">
+      <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" xr3:uid="{A098E373-FD51-4C9C-AC35-D747B01EFBF0}" name="Asist." totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="1">
+      <calculatedColumnFormula>COUNTA($B$1:$AE$1) - AF2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{12FDB034-D9E1-4441-837B-7BA9DF3F084B}" name="sueldo" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="0">
+      <calculatedColumnFormula array="1">AG2*valor_hora*jornada</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
   <autoFilter ref="D1:J19" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3AC5DBD6-A04E-4E7D-B94E-AE2A136DF070}" name="codigo"/>
     <tableColumn id="2" xr3:uid="{274BE5D4-57A6-4F62-AF29-6B2030F1B528}" name="cant"/>
-    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="3" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="73" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="72" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="71" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*iva_ventas</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="70" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1821,10 +3676,10 @@
       <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="34" t="s">
@@ -1853,10 +3708,10 @@
       <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="82" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -1885,10 +3740,10 @@
       <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="42" t="s">
@@ -1949,10 +3804,10 @@
       <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="83" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="42" t="s">
@@ -2013,10 +3868,10 @@
       <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>152</v>
       </c>
       <c r="J7" s="71" t="s">
@@ -2052,10 +3907,10 @@
       <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="83" t="s">
         <v>154</v>
       </c>
       <c r="F9" s="18"/>
@@ -2093,10 +3948,10 @@
       <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="83" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="18"/>
@@ -2569,24 +4424,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38092-0CDD-4546-9420-12554152D19D}">
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="4.7109375" style="72" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="31" width="4.7109375" style="72" customWidth="1"/>
-    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="5.140625" style="72" customWidth="1"/>
+    <col min="32" max="32" width="6.28515625" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" customWidth="1"/>
     <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4" customWidth="1"/>
     <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2599,342 +4451,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="S1" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="U1" s="76" t="s">
+      <c r="U1" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="V1" s="76" t="s">
+      <c r="V1" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="W1" s="76" t="s">
+      <c r="W1" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="X1" s="76" t="s">
+      <c r="X1" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="Y1" s="76" t="s">
+      <c r="Y1" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="Z1" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" s="76" t="s">
+      <c r="AA1" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="AB1" s="76" t="s">
+      <c r="AB1" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="AC1" s="76" t="s">
+      <c r="AC1" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="AD1" s="76" t="s">
+      <c r="AD1" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="AE1" s="76" t="s">
+      <c r="AE1" s="75" t="s">
         <v>191</v>
       </c>
       <c r="AF1" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="AG1" s="99" t="s">
+      <c r="AG1" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="AH1" s="99" t="s">
+      <c r="AH1" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL1" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN1" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AO1" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="AK1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL1" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN1" s="108" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO1" s="109" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="str">
+      <c r="A2" s="76" t="str">
         <f>_xlfn.CONCAT(intro!C2&amp;" "&amp;intro!B2)</f>
         <v>Racedo Cristián</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="77" t="s">
+      <c r="B2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="77" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="O2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="T2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="U2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="V2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="W2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="X2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y2" s="77" t="s">
+      <c r="T2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="W2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Z2" s="77" t="s">
+      <c r="Z2" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE2" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF2" s="83">
-        <f>COUNTBLANK(B2:AE2)</f>
+      <c r="AA2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF2" s="79">
+        <f t="shared" ref="AF2:AF11" si="0">COUNTBLANK(B2:AE2)</f>
         <v>8</v>
       </c>
-      <c r="AG2" s="100">
+      <c r="AG2" s="85">
         <f>COUNTA($B$1:$AE$1) - AF2</f>
         <v>22</v>
       </c>
-      <c r="AH2" s="103" cm="1">
+      <c r="AH2" s="86" cm="1">
         <f t="array" ref="AH2">AG2*valor_hora*jornada</f>
         <v>88000</v>
       </c>
       <c r="AJ2" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AK2" s="105">
+      <c r="AK2" s="88">
         <f>AVERAGE(asist)</f>
         <v>16.7</v>
       </c>
-      <c r="AL2" s="106">
+      <c r="AL2" s="89">
         <f>AVERAGE(aus)</f>
         <v>13.3</v>
       </c>
-      <c r="AN2" s="110">
+      <c r="AN2" s="93">
         <v>500</v>
       </c>
-      <c r="AO2" s="111">
+      <c r="AO2" s="94">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="str">
+      <c r="A3" s="77" t="str">
         <f>_xlfn.CONCAT(intro!C3&amp;" "&amp;intro!B3)</f>
         <v>Perez Juan</v>
       </c>
-      <c r="B3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="78" t="s">
+      <c r="B3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="78" t="s">
+      <c r="I3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="78" t="s">
+      <c r="K3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="O3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" s="78" t="s">
+      <c r="O3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="S3" s="78" t="s">
+      <c r="S3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="T3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="V3" s="78" t="s">
+      <c r="T3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="U3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="W3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="X3" s="78" t="s">
+      <c r="W3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="Y3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z3" s="78" t="s">
+      <c r="Y3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="AA3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF3" s="84">
-        <f>COUNTBLANK(B3:AE3)</f>
+      <c r="AA3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF3" s="80">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AG3" s="100">
-        <f t="shared" ref="AG3:AG11" si="0">COUNTA($B$1:$AE$1) - AF3</f>
+      <c r="AG3" s="85">
+        <f t="shared" ref="AG3:AG11" si="1">COUNTA($B$1:$AE$1) - AF3</f>
         <v>17</v>
       </c>
-      <c r="AH3" s="103" cm="1">
+      <c r="AH3" s="86" cm="1">
         <f t="array" ref="AH3">AG3*valor_hora*jornada</f>
         <v>68000</v>
       </c>
       <c r="AJ3" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AK3" s="52">
         <f>MAX(asist)</f>
@@ -2946,98 +4798,98 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="str">
+      <c r="A4" s="76" t="str">
         <f>_xlfn.CONCAT(intro!C4&amp;" "&amp;intro!B4)</f>
         <v>Gomez Gonzalo</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="77" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="P4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q4" s="77" t="s">
+      <c r="P4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="U4" s="77" t="s">
+      <c r="S4" s="76"/>
+      <c r="T4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="U4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="V4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="W4" s="77" t="s">
+      <c r="V4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="W4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="X4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y4" s="77" t="s">
+      <c r="X4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Z4" s="77" t="s">
+      <c r="Z4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB4" s="77" t="s">
+      <c r="AA4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="AC4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD4" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="83">
+      <c r="AC4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD4" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="79">
         <f>COUNTBLANK(B4:AE4)</f>
         <v>16</v>
       </c>
-      <c r="AG4" s="100">
-        <f t="shared" si="0"/>
+      <c r="AG4" s="85">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AH4" s="103" cm="1">
+      <c r="AH4" s="86" cm="1">
         <f t="array" ref="AH4">AG4*valor_hora*jornada</f>
         <v>56000</v>
       </c>
       <c r="AJ4" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AK4" s="51">
         <f>MIN(asist)</f>
@@ -3050,104 +4902,104 @@
       <c r="AO4" s="73"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="str">
+      <c r="A5" s="77" t="str">
         <f>_xlfn.CONCAT(intro!C5&amp;" "&amp;intro!B5)</f>
         <v>Fernandez Daniela</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="N5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="O5" s="78" t="s">
+      <c r="B5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="P5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="R5" s="78" t="s">
+      <c r="P5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="S5" s="78" t="s">
+      <c r="S5" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="T5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="U5" s="78" t="s">
+      <c r="T5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="V5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="W5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="X5" s="78" t="s">
+      <c r="V5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="W5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="X5" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="Y5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z5" s="78" t="s">
+      <c r="Y5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z5" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="AA5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF5" s="84">
-        <f>COUNTBLANK(B5:AE5)</f>
+      <c r="AA5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF5" s="80">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AG5" s="100">
-        <f t="shared" si="0"/>
+      <c r="AG5" s="85">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AH5" s="103" cm="1">
+      <c r="AH5" s="86" cm="1">
         <f t="array" ref="AH5">AG5*valor_hora*jornada</f>
         <v>76000</v>
       </c>
       <c r="AJ5" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AK5" s="52">
         <f>MODE(asist)</f>
@@ -3159,209 +5011,209 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="str">
+      <c r="A6" s="76" t="str">
         <f>_xlfn.CONCAT(intro!C6&amp;" "&amp;intro!B6)</f>
         <v>Lopez Carla</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77" t="s">
+      <c r="B6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="O6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="P6" s="77" t="s">
+      <c r="N6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Q6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="R6" s="77" t="s">
+      <c r="Q6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="R6" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="S6" s="77" t="s">
+      <c r="S6" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="T6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="U6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="V6" s="77" t="s">
+      <c r="T6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="V6" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="W6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="X6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y6" s="77" t="s">
+      <c r="W6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="X6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y6" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="Z6" s="77" t="s">
+      <c r="Z6" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="AA6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB6" s="77" t="s">
+      <c r="AA6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB6" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="AC6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD6" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="83">
-        <f>COUNTBLANK(B6:AE6)</f>
+      <c r="AC6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD6" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="79">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AG6" s="100">
-        <f t="shared" si="0"/>
+      <c r="AG6" s="85">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AH6" s="103" cm="1">
+      <c r="AH6" s="86" cm="1">
         <f t="array" ref="AH6">AG6*valor_hora*jornada</f>
         <v>68000</v>
       </c>
       <c r="AJ6" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK6" s="105">
+        <v>198</v>
+      </c>
+      <c r="AK6" s="88">
         <f>MEDIAN(asist)</f>
         <v>16.5</v>
       </c>
-      <c r="AL6" s="106">
+      <c r="AL6" s="89">
         <f>MEDIAN(aus)</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="str">
+      <c r="A7" s="77" t="str">
         <f>_xlfn.CONCAT(intro!C7&amp;" "&amp;intro!B7)</f>
         <v>Martinez Mariano</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="N7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="O7" s="78" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="O7" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="P7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="R7" s="78" t="s">
+      <c r="P7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="S7" s="78" t="s">
+      <c r="S7" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="T7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="U7" s="78" t="s">
+      <c r="T7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="V7" s="78" t="s">
+      <c r="V7" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="W7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="X7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z7" s="78" t="s">
+      <c r="W7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="X7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z7" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="AA7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF7" s="84">
-        <f>COUNTBLANK(B7:AE7)</f>
+      <c r="AA7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF7" s="80">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AG7" s="100">
-        <f t="shared" si="0"/>
+      <c r="AG7" s="85">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="AH7" s="103" cm="1">
+      <c r="AH7" s="86" cm="1">
         <f t="array" ref="AH7">AG7*valor_hora*jornada</f>
         <v>64000</v>
       </c>
       <c r="AJ7" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="AK7" s="107">
+      <c r="AK7" s="90">
         <f>SUM(asist)</f>
         <v>167</v>
       </c>
@@ -3371,642 +5223,518 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="str">
+      <c r="A8" s="76" t="str">
         <f>_xlfn.CONCAT(intro!C8&amp;" "&amp;intro!B8)</f>
         <v>Gonzalez Gonzalo</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="77" t="s">
+      <c r="B8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="77" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="N8" s="77" t="s">
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="N8" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="O8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="P8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="R8" s="77" t="s">
+      <c r="O8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="S8" s="77" t="s">
+      <c r="S8" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77" t="s">
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="X8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE8" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF8" s="83">
-        <f>COUNTBLANK(B8:AE8)</f>
+      <c r="X8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE8" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF8" s="79">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AG8" s="100">
-        <f t="shared" si="0"/>
+      <c r="AG8" s="85">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AH8" s="103" cm="1">
+      <c r="AH8" s="86" cm="1">
         <f t="array" ref="AH8">AG8*valor_hora*jornada</f>
         <v>52000</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="str">
+      <c r="A9" s="77" t="str">
         <f>_xlfn.CONCAT(intro!C9&amp;" "&amp;intro!B9)</f>
         <v>Jimenez Jorge</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="N9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" s="78" t="s">
+      <c r="B9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="P9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q9" s="78" t="s">
+      <c r="P9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="R9" s="78" t="s">
+      <c r="R9" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="S9" s="78" t="s">
+      <c r="S9" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="T9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="U9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="V9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="W9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="X9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF9" s="84">
-        <f>COUNTBLANK(B9:AE9)</f>
+      <c r="T9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="U9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="V9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="W9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="X9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE9" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF9" s="80">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AG9" s="100">
-        <f t="shared" si="0"/>
+      <c r="AG9" s="85">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AH9" s="103" cm="1">
+      <c r="AH9" s="86" cm="1">
         <f t="array" ref="AH9">AG9*valor_hora*jornada</f>
         <v>72000</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="str">
+      <c r="A10" s="76" t="str">
         <f>_xlfn.CONCAT(intro!C10&amp;" "&amp;intro!B10)</f>
         <v>Gimenez Gabriela</v>
       </c>
-      <c r="B10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="77" t="s">
+      <c r="B10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="O10" s="77" t="s">
+      <c r="L10" s="76"/>
+      <c r="M10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q10" s="77" t="s">
+      <c r="P10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="R10" s="77" t="s">
+      <c r="R10" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="S10" s="77" t="s">
+      <c r="S10" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="V10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="W10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="83">
-        <f>COUNTBLANK(B10:AE10)</f>
-        <v>15</v>
-      </c>
-      <c r="AG10" s="100">
+      <c r="T10" s="76"/>
+      <c r="U10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="V10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="W10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD10" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="79">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AH10" s="103" cm="1">
+      <c r="AG10" s="85">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AH10" s="86" cm="1">
         <f t="array" ref="AH10">AG10*valor_hora*jornada</f>
         <v>60000</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="str">
+      <c r="A11" s="78" t="str">
         <f>_xlfn.CONCAT(intro!C11&amp;" "&amp;intro!B11)</f>
         <v>Lopez Laura</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="K11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="N11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="R11" s="82" t="s">
+      <c r="B11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="S11" s="82" t="s">
+      <c r="S11" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="T11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="U11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="V11" s="82" t="s">
+      <c r="T11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="U11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="V11" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="W11" s="82" t="s">
+      <c r="W11" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="X11" s="82" t="s">
+      <c r="X11" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="Y11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z11" s="82" t="s">
+      <c r="Y11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z11" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="AA11" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="84">
-        <f>COUNTBLANK(B11:AE11)</f>
+      <c r="AA11" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="80">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AG11" s="100">
-        <f t="shared" si="0"/>
+      <c r="AG11" s="85">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="AH11" s="103" cm="1">
+      <c r="AH11" s="86" cm="1">
         <f t="array" ref="AH11">AG11*valor_hora*jornada</f>
         <v>64000</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="75">
-        <f>COUNTBLANK(B2:B11)</f>
+      <c r="A12" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="105">
+        <f t="shared" ref="B12:AD12" si="2">COUNTBLANK(B2:B11)</f>
         <v>2</v>
       </c>
-      <c r="C12" s="75">
-        <f t="shared" ref="C12:AE12" si="1">COUNTBLANK(C2:C11)</f>
+      <c r="C12" s="105">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D12" s="75">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="75">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="75">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G12" s="75">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H12" s="75">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="75">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J12" s="75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K12" s="75">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="75">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M12" s="75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="75">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O12" s="75">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="75">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R12" s="75">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S12" s="75">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T12" s="75">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U12" s="75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="V12" s="75">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W12" s="75">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="X12" s="75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y12" s="75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Z12" s="75">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AA12" s="75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB12" s="75">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AC12" s="75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD12" s="75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AE12" s="75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AF12" s="98">
-        <f>SUM(AF2:AF11)</f>
-        <v>133</v>
-      </c>
-      <c r="AG12" s="101">
-        <f>SUM(AG2:AG11)</f>
-        <v>167</v>
-      </c>
-      <c r="AH12" s="103"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="75">
-        <f>COUNTA($A$2:$A$11) - B12</f>
-        <v>8</v>
-      </c>
-      <c r="C13" s="75">
-        <f t="shared" ref="C13:M13" si="2">COUNTA($A$2:$A$11) - C12</f>
-        <v>6</v>
-      </c>
-      <c r="D13" s="75">
+      <c r="D12" s="105">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E12" s="105">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="75">
+        <v>10</v>
+      </c>
+      <c r="F12" s="105">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G13" s="75">
+        <v>3</v>
+      </c>
+      <c r="G12" s="105">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H13" s="75">
+        <v>3</v>
+      </c>
+      <c r="H12" s="105">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I12" s="105">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J13" s="75">
+        <v>3</v>
+      </c>
+      <c r="J12" s="105">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K13" s="75">
+        <v>4</v>
+      </c>
+      <c r="K12" s="105">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L12" s="105">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="75">
+        <v>10</v>
+      </c>
+      <c r="M12" s="105">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N13" s="75">
-        <f t="shared" ref="N13" si="3">COUNTA($A$2:$A$11) - N12</f>
-        <v>8</v>
-      </c>
-      <c r="O13" s="75">
-        <f t="shared" ref="O13" si="4">COUNTA($A$2:$A$11) - O12</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="105">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="105">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P13" s="75">
-        <f t="shared" ref="P13" si="5">COUNTA($A$2:$A$11) - P12</f>
-        <v>9</v>
-      </c>
-      <c r="Q13" s="75">
-        <f t="shared" ref="Q13" si="6">COUNTA($A$2:$A$11) - Q12</f>
-        <v>7</v>
-      </c>
-      <c r="R13" s="75">
-        <f t="shared" ref="R13" si="7">COUNTA($A$2:$A$11) - R12</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="75">
-        <f t="shared" ref="S13" si="8">COUNTA($A$2:$A$11) - S12</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="75">
-        <f t="shared" ref="T13" si="9">COUNTA($A$2:$A$11) - T12</f>
-        <v>8</v>
-      </c>
-      <c r="U13" s="75">
-        <f t="shared" ref="U13" si="10">COUNTA($A$2:$A$11) - U12</f>
-        <v>6</v>
-      </c>
-      <c r="V13" s="75">
-        <f t="shared" ref="V13" si="11">COUNTA($A$2:$A$11) - V12</f>
+      <c r="P12" s="105">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="105">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R12" s="105">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="S12" s="105">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T12" s="105">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U12" s="105">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V12" s="105">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="W13" s="75">
-        <f t="shared" ref="W13" si="12">COUNTA($A$2:$A$11) - W12</f>
-        <v>7</v>
-      </c>
-      <c r="X13" s="75">
-        <f t="shared" ref="X13" si="13">COUNTA($A$2:$A$11) - X12</f>
-        <v>6</v>
-      </c>
-      <c r="Y13" s="75">
-        <f t="shared" ref="Y13" si="14">COUNTA($A$2:$A$11) - Y12</f>
-        <v>6</v>
-      </c>
-      <c r="Z13" s="75">
-        <f t="shared" ref="Z13" si="15">COUNTA($A$2:$A$11) - Z12</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="75">
-        <f t="shared" ref="AA13" si="16">COUNTA($A$2:$A$11) - AA12</f>
-        <v>9</v>
-      </c>
-      <c r="AB13" s="75">
-        <f t="shared" ref="AB13" si="17">COUNTA($A$2:$A$11) - AB12</f>
+      <c r="W12" s="105">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X12" s="105">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Y12" s="105">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="105">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AA12" s="105">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="105">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AC13" s="75">
-        <f t="shared" ref="AC13" si="18">COUNTA($A$2:$A$11) - AC12</f>
-        <v>9</v>
-      </c>
-      <c r="AD13" s="75">
-        <f t="shared" ref="AD13" si="19">COUNTA($A$2:$A$11) - AD12</f>
-        <v>6</v>
-      </c>
-      <c r="AE13" s="75">
-        <f t="shared" ref="AE13" si="20">COUNTA($A$2:$A$11) - AE12</f>
-        <v>6</v>
-      </c>
-      <c r="AF13" s="102">
-        <f>SUM(B13:AE13)</f>
+      <c r="AC12" s="105">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="105">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE12" s="105">
+        <f>COUNTBLANK(AE2:AE11)</f>
+        <v>4</v>
+      </c>
+      <c r="AF12" s="106">
+        <f>SUBTOTAL(109,Tabla2[Aus.])</f>
+        <v>133</v>
+      </c>
+      <c r="AG12" s="85">
+        <f>SUBTOTAL(109,Tabla2[Asist.])</f>
         <v>167</v>
       </c>
-      <c r="AG13" s="101">
-        <f>SUM(B12:AE12)</f>
-        <v>133</v>
-      </c>
-      <c r="AH13" s="103"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="D15" s="104"/>
+      <c r="AH12" s="86">
+        <f>SUBTOTAL(109,Tabla2[sueldo])</f>
+        <v>668000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH13" s="86"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D14" s="87"/>
+      <c r="AH14" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:AE1 B24:AE1048576" twoDigitTextYear="1"/>
+    <ignoredError sqref="B23:AE1048576" twoDigitTextYear="1"/>
   </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4033,31 +5761,31 @@
       <c r="A1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="48"/>
       <c r="G1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
       <c r="M1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="97" t="s">
+      <c r="N1" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -4093,12 +5821,12 @@
       <c r="M2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="101"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4137,12 +5865,12 @@
         <f>$B3+$C3+D3+A3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" s="95" t="s">
+      <c r="N3" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="96"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -4181,12 +5909,12 @@
         <f t="array" ref="M4">$B4-$C4-D4-resta</f>
         <v>#NAME?</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="91"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -4227,12 +5955,12 @@
         <f>-D5*[1]pepe!A3</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="96"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -4273,12 +6001,12 @@
         <f>$B6/$C6/D6/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="90" t="s">
+      <c r="N6" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="91"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="98"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -4317,12 +6045,12 @@
         <f t="array" aca="1" ref="M7" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="89"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,26 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE517E-5EB8-4D7C-8BE4-2F2D5CF19B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72255BD7-5FB5-4A8B-B6E2-DAB485835279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="intro" sheetId="1" r:id="rId1"/>
-    <sheet name="listas" sheetId="6" r:id="rId2"/>
-    <sheet name="asist." sheetId="5" r:id="rId3"/>
+    <sheet name="menu" sheetId="8" r:id="rId1"/>
+    <sheet name="introduccion" sheetId="1" r:id="rId2"/>
+    <sheet name="listas" sheetId="6" r:id="rId3"/>
     <sheet name="operadores" sheetId="3" r:id="rId4"/>
-    <sheet name="ventas" sheetId="4" r:id="rId5"/>
+    <sheet name="asistencia" sheetId="5" r:id="rId5"/>
+    <sheet name="empleados" sheetId="7" r:id="rId6"/>
+    <sheet name="ventas" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="asist">asist.!$AG$2:$AG$11</definedName>
-    <definedName name="aus">asist.!$AF$2:$AF$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">asistencia!$A:$AH</definedName>
+    <definedName name="asist">asistencia!$AG$2:$AG$11</definedName>
+    <definedName name="aus">asistencia!$AF$2:$AF$11</definedName>
+    <definedName name="datos_hoy">empleados!$P$4</definedName>
+    <definedName name="hoy">empleados!$P$4</definedName>
     <definedName name="iva_ventas">ventas!$L$2</definedName>
-    <definedName name="jornada">asist.!$AO$2</definedName>
-    <definedName name="valor_hora">asist.!$AN$2</definedName>
+    <definedName name="jornada">asistencia!$AP$2</definedName>
+    <definedName name="separador">empleados!$P$1</definedName>
+    <definedName name="sueldos">Tabla3[sueldo]</definedName>
+    <definedName name="valor_hora">asistencia!$AO$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="234">
   <si>
     <t>apellido</t>
   </si>
@@ -93,9 +100,6 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>edad</t>
-  </si>
-  <si>
     <t>direccion</t>
   </si>
   <si>
@@ -501,9 +505,6 @@
     <t>enteros</t>
   </si>
   <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>horas</t>
   </si>
   <si>
@@ -567,9 +568,6 @@
     <t>Laura</t>
   </si>
   <si>
-    <t>empleado</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -700,21 +698,119 @@
   </si>
   <si>
     <t>valor hora</t>
+  </si>
+  <si>
+    <t>Sueldo</t>
+  </si>
+  <si>
+    <t>EMPLEADO</t>
+  </si>
+  <si>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>VERIF</t>
+  </si>
+  <si>
+    <t>SEPARADOR</t>
+  </si>
+  <si>
+    <t>20-39128371-1</t>
+  </si>
+  <si>
+    <t>20-45019105-2</t>
+  </si>
+  <si>
+    <t>27-31203948-8</t>
+  </si>
+  <si>
+    <t>27-30192834-4</t>
+  </si>
+  <si>
+    <t>APELLIDO</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>LARGO</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>NACIMIENTO</t>
+  </si>
+  <si>
+    <t>HOY</t>
+  </si>
+  <si>
+    <t>AHORA</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>HORAS</t>
+  </si>
+  <si>
+    <t>MINUTOS</t>
+  </si>
+  <si>
+    <t>SEGUNDOS</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>FUNCION</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>AÑOS</t>
+  </si>
+  <si>
+    <t>20-28234973-3</t>
+  </si>
+  <si>
+    <t>num al final</t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,8 +847,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,6 +890,40 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -922,13 +1059,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1085,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -1105,6 +1248,8 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="75"/>
@@ -1124,6 +1269,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -1154,825 +1305,45 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="8"/>
+    <xf numFmtId="20" fontId="1" fillId="11" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="10">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
+    <cellStyle name="40% - Énfasis3" xfId="6" builtinId="39"/>
+    <cellStyle name="60% - Énfasis2" xfId="5" builtinId="36"/>
+    <cellStyle name="60% - Énfasis3" xfId="7" builtinId="40"/>
+    <cellStyle name="60% - Énfasis4" xfId="8" builtinId="44"/>
+    <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
+    <cellStyle name="Énfasis6" xfId="9" builtinId="49"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="58">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -2900,7 +2271,330 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2917,7 +2611,58 @@
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
@@ -3033,6 +2778,13 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3050,13 +2802,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>179520</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>-7193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>180600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>16560</xdr:rowOff>
@@ -3111,6 +2863,132 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>27212</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4D3C3A-B055-4647-B987-592F75FF3844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="11559" b="6208"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1238249" y="2694213"/>
+          <a:ext cx="10640785" cy="4259035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>483577</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>512885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B2971C-47ED-4AF1-86A5-293DBD9C3ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="31556" y1="26222" x2="25778" y2="69778"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="-25000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29308"/>
+          <a:ext cx="483577" cy="483577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3220,133 +3098,189 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC3F7D3-FC16-4ADE-983E-0C1610F35EF9}" name="Tabla2" displayName="Tabla2" ref="A1:AH12" totalsRowCount="1" tableBorderDxfId="68">
-  <autoFilter ref="A1:AH11" xr:uid="{EEC3F7D3-FC16-4ADE-983E-0C1610F35EF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}" name="Tabla3" displayName="Tabla3" ref="A1:AH12" totalsRowCount="1" tableBorderDxfId="57">
+  <autoFilter ref="A1:AH11" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{3BC12B46-9136-46E3-A223-F3CF03180032}" name="empleado" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="33">
-      <calculatedColumnFormula>_xlfn.CONCAT(intro!C2&amp;" "&amp;intro!B2)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{FFB40CFD-2FB0-4BA8-9AD2-20F41FFE821E}" name="EMPLEADOS" totalsRowLabel="Total" dataDxfId="34">
+      <calculatedColumnFormula>_xlfn.CONCAT(introduccion!C2&amp;", "&amp;introduccion!B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EFF3AF5F-195C-4F10-99FE-785728D28C5D}" name="01/09/22" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="32">
-      <totalsRowFormula>COUNTBLANK(B2:B11)</totalsRowFormula>
+    <tableColumn id="2" xr3:uid="{7CD2E68C-D07C-4635-B469-EBACA13F9D82}" name="01/09/22" totalsRowFunction="custom" dataDxfId="33">
+      <totalsRowFormula>COUNTA($A$2:$A$11) - COUNTBLANK(B2:B11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B4FC7CAF-FA55-407A-842E-0460E09C85C1}" name="02/09/22" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="31">
+    <tableColumn id="3" xr3:uid="{6782312C-2AED-4FF2-B804-F6EC82A9B619}" name="02/09/22" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTBLANK(C2:C11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E3097182-23B6-425A-92EE-36978BF0DE3F}" name="03/09/22" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="30">
+    <tableColumn id="4" xr3:uid="{C6A44F1E-D0D7-4343-B875-865BCF5DE859}" name="03/09/22" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTBLANK(D2:D11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DF3AAB83-0485-4F05-AB00-2545B38349C9}" name="04/09/22" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="29">
+    <tableColumn id="5" xr3:uid="{1B6A406D-2E5A-4E52-9AF8-9BBB22029492}" name="04/09/22" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTBLANK(E2:E11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{289CDE49-86B5-4A2E-AD2A-88E654D99550}" name="05/09/22" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="28">
+    <tableColumn id="6" xr3:uid="{8B393F8F-816E-412F-8868-DE374FC96561}" name="05/09/22" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTBLANK(F2:F11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8394F89-B921-4F8B-AA99-9D70F20F82B4}" name="06/09/22" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="27">
+    <tableColumn id="7" xr3:uid="{A3EEB526-D699-481A-B321-F21F70B94670}" name="06/09/22" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTBLANK(G2:G11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{04DACE89-3D92-4FF3-924F-906DDE5F88B3}" name="07/09/22" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="26">
+    <tableColumn id="8" xr3:uid="{F22C56C5-CB9F-40AD-81E2-33C9F951222A}" name="07/09/22" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTBLANK(H2:H11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{100270AA-B53D-40EC-9CC2-9A86D03E7B63}" name="08/09/22" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="25">
+    <tableColumn id="9" xr3:uid="{73160653-73D2-4AB2-AF88-C92D864411FC}" name="08/09/22" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTBLANK(I2:I11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4E7AE930-4F87-46DB-BC25-755B9FCE8334}" name="09/09/22" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="24">
+    <tableColumn id="10" xr3:uid="{81C87D0C-5C80-4ADA-9017-C1883C821D5F}" name="09/09/22" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTBLANK(J2:J11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A290F754-25C9-4725-AA39-A5F7E917CEA6}" name="10/09/22" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="23">
+    <tableColumn id="11" xr3:uid="{C452CA74-AE98-4EBE-B4AF-BFD228DE07E6}" name="10/09/22" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTBLANK(K2:K11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{345E4699-6960-4F8C-AD5A-FC38BC637812}" name="11/09/22" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="22">
+    <tableColumn id="12" xr3:uid="{58FFD11A-AC9F-4F8E-8D7E-4F699E6FFAF5}" name="11/09/22" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTBLANK(L2:L11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C319BC6B-F023-4B30-9FCA-7A754DD55FCA}" name="12/09/22" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="21">
+    <tableColumn id="13" xr3:uid="{EF89081F-FC50-4D28-B748-E215BB32BF49}" name="12/09/22" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTBLANK(M2:M11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F4EF58AA-21FE-4B55-AF40-32A717EFAAA3}" name="13/09/22" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="20">
+    <tableColumn id="14" xr3:uid="{9DC5AC26-133B-4292-A104-18BDAEB4A78F}" name="13/09/22" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTBLANK(N2:N11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{955F3CC8-384F-4109-8FB3-2C8F52EBA258}" name="14/09/22" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="19">
+    <tableColumn id="15" xr3:uid="{A771D892-D621-46F4-9537-1B265C8E9A36}" name="14/09/22" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTBLANK(O2:O11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D935C57A-202A-4379-9882-456376A20791}" name="15/09/22" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="18">
+    <tableColumn id="16" xr3:uid="{1F6F4D30-C62F-4312-9A7E-E1167AF5A05D}" name="15/09/22" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTBLANK(P2:P11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F750011F-0079-4A58-9A16-9F54B96B628F}" name="16/09/22" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="17">
+    <tableColumn id="17" xr3:uid="{2D64B6B4-4A83-487B-9E69-1C35894B58C5}" name="16/09/22" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTBLANK(Q2:Q11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{49CFC2CB-DEE3-4084-A9B1-400173500FC7}" name="17/09/22" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="16">
+    <tableColumn id="18" xr3:uid="{66F27389-1D9E-4B4E-AF0D-D7BB5386C4E2}" name="17/09/22" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTBLANK(R2:R11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{2A070A00-21A5-4C85-B22C-18F7C4299E76}" name="18/09/22" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="15">
+    <tableColumn id="19" xr3:uid="{DC182874-F7F9-48B4-BA09-DF7DD0C46D02}" name="18/09/22" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTBLANK(S2:S11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{2F3848F7-9FC8-41C7-8B8E-3DC1AD7E2B2D}" name="19/09/22" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="14">
+    <tableColumn id="20" xr3:uid="{F211762A-904D-400D-8935-B6F09029DC73}" name="19/09/22" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTBLANK(T2:T11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{6A19B4F0-48D3-45DB-8374-12908F15B6F9}" name="20/09/22" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="13">
+    <tableColumn id="21" xr3:uid="{3C17D129-9505-44DD-BBE0-ABF261CDE4BE}" name="20/09/22" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTBLANK(U2:U11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{63A6939A-E9E8-45CF-9088-805582F92540}" name="21/09/22" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="12">
+    <tableColumn id="22" xr3:uid="{3839BFCA-649A-4DA4-9CC5-401179A69E94}" name="21/09/22" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTBLANK(V2:V11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{3A8081AE-FFEF-453A-8C5D-2875AC04E830}" name="22/09/22" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="11">
+    <tableColumn id="23" xr3:uid="{CFA2F06A-8EE1-416E-910B-59D7BC443557}" name="22/09/22" totalsRowFunction="custom" dataDxfId="12">
       <totalsRowFormula>COUNTBLANK(W2:W11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{22272C23-A90F-452D-A9AF-31FBA76B0A93}" name="23/09/22" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="10">
+    <tableColumn id="24" xr3:uid="{FF543CC5-D769-401F-B919-8083D15D1E25}" name="23/09/22" totalsRowFunction="custom" dataDxfId="11">
       <totalsRowFormula>COUNTBLANK(X2:X11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{6E7886D9-9761-4982-9981-31BD04607333}" name="24/09/22" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="9">
+    <tableColumn id="25" xr3:uid="{19785421-596B-4949-9FE6-AC04B9A8A0B8}" name="24/09/22" totalsRowFunction="custom" dataDxfId="10">
       <totalsRowFormula>COUNTBLANK(Y2:Y11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{276376AC-8E31-43E4-B91B-745F172ADC35}" name="25/09/22" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="8">
+    <tableColumn id="26" xr3:uid="{77DCF724-123A-4A25-A01B-4B525F174906}" name="25/09/22" totalsRowFunction="custom" dataDxfId="9">
       <totalsRowFormula>COUNTBLANK(Z2:Z11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{9109FB9F-7440-421E-9446-9E9B6FFFD256}" name="26/09/22" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="7">
+    <tableColumn id="27" xr3:uid="{AC499496-18FA-4796-B6D1-8CB8B24D4635}" name="26/09/22" totalsRowFunction="custom" dataDxfId="8">
       <totalsRowFormula>COUNTBLANK(AA2:AA11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{5AB2CC28-856B-4321-9762-31254B1969CD}" name="27/09/22" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="6">
+    <tableColumn id="28" xr3:uid="{D4ED44DE-9137-499F-85ED-BCD7ECD9A1EA}" name="27/09/22" totalsRowFunction="custom" dataDxfId="7">
       <totalsRowFormula>COUNTBLANK(AB2:AB11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{D0BEEA5E-C393-4746-B9FC-46416AD86643}" name="28/09/22" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="5">
+    <tableColumn id="29" xr3:uid="{E385E835-FA8B-4251-9748-1E5B35CF35FC}" name="28/09/22" totalsRowFunction="custom" dataDxfId="6">
       <totalsRowFormula>COUNTBLANK(AC2:AC11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{E0D345F5-0F48-4975-898E-C883BCB5929B}" name="29/09/22" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="4">
+    <tableColumn id="30" xr3:uid="{0D4459DA-D655-4F90-A83C-FD20F4AD3F3E}" name="29/09/22" totalsRowFunction="custom" dataDxfId="5">
       <totalsRowFormula>COUNTBLANK(AD2:AD11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{856CECCD-AA83-412F-B271-E7AA0322CB2D}" name="30/09/22" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="3">
+    <tableColumn id="31" xr3:uid="{32451497-3DB8-4B31-ADDF-E9C1A2599C46}" name="30/09/22" totalsRowFunction="custom" dataDxfId="4">
       <totalsRowFormula>COUNTBLANK(AE2:AE11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{C973201C-8133-4990-9E6A-D4CB26C5239F}" name="Aus." totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="2">
+    <tableColumn id="32" xr3:uid="{3DD562B3-0719-4D45-8340-C2ACEA5547A7}" name="Aus." totalsRowFunction="sum" dataDxfId="3">
       <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{A098E373-FD51-4C9C-AC35-D747B01EFBF0}" name="Asist." totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="1">
+    <tableColumn id="33" xr3:uid="{FB33E439-6F10-43AB-8172-EF83DE1E891A}" name="Asist." totalsRowFunction="sum" dataDxfId="2">
       <calculatedColumnFormula>COUNTA($B$1:$AE$1) - AF2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{12FDB034-D9E1-4441-837B-7BA9DF3F084B}" name="sueldo" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="0">
+    <tableColumn id="34" xr3:uid="{0D66ED41-FA53-4A07-8873-DA93C74A6065}" name="sueldo" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula array="1">AG2*valor_hora*jornada</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}" name="Tabla4" displayName="Tabla4" ref="A1:L11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
+  <autoFilter ref="A1:L11" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{AD2BFDC6-9212-4AF1-A883-4F5292CC8670}" name="EMPLEADO" dataDxfId="46">
+      <calculatedColumnFormula>asistencia!A2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9941B11B-F67E-4F32-82D2-B86FEB7E9F6E}" name="APELLIDO" dataDxfId="45">
+      <calculatedColumnFormula>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{DEEF5E54-5054-45B9-B8EE-A5D09A981708}" name="NOMBRE" dataDxfId="44">
+      <calculatedColumnFormula>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4F40C219-FD97-4CAB-B243-ECFB4C424AFF}" name="CUIL" dataDxfId="43">
+      <calculatedColumnFormula>introduccion!D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{62C6429F-DFB5-4F13-9C8C-F4F9A8B2BFF4}" name="TIPO" dataDxfId="42">
+      <calculatedColumnFormula>LEFT(Tabla4[[#This Row],[CUIL]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{19B71444-5CC4-45F1-8222-5A8DBAD1B101}" name="DOCUMENTO" dataDxfId="41" dataCellStyle="Millares">
+      <calculatedColumnFormula>MID(Tabla4[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E886725E-39BE-415C-979A-1175DA7DBC26}" name="VERIF" dataDxfId="40">
+      <calculatedColumnFormula>RIGHT(Tabla4[[#This Row],[CUIL]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C0528248-53F2-4B9A-B0FC-54DAC797D388}" name="CHAR" dataDxfId="39">
+      <calculatedColumnFormula>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7ACF23E0-4058-4529-87E3-89A0F10EDEE7}" name="LARGO" dataDxfId="38">
+      <calculatedColumnFormula>LEN(Tabla4[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C0311DC3-1821-46B4-BAF2-F825CC93183C}" name="NACIMIENTO" dataDxfId="37">
+      <calculatedColumnFormula>introduccion!E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{C5EF39FB-0151-4B57-8F47-0735E6F3917B}" name="EDAD" dataDxfId="36">
+      <calculatedColumnFormula>(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{A025954B-A9FF-49BA-A580-9FA9F8B233C2}" name="AÑOS" dataDxfId="35">
+      <calculatedColumnFormula>$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{87222F79-CD71-4A63-90A3-41A2C008D14D}" name="Tabla5" displayName="Tabla5" ref="O3:P11" totalsRowShown="0">
+  <autoFilter ref="O3:P11" xr:uid="{87222F79-CD71-4A63-90A3-41A2C008D14D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B1C8C891-E7E4-433B-A848-68CBB4EF2B99}" name="FUNCION"/>
+    <tableColumn id="2" xr3:uid="{9312EEEF-C98D-4969-A056-95997DAF5EDF}" name="VALOR"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
   <autoFilter ref="D1:J19" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3AC5DBD6-A04E-4E7D-B94E-AE2A136DF070}" name="codigo"/>
     <tableColumn id="2" xr3:uid="{274BE5D4-57A6-4F62-AF29-6B2030F1B528}" name="cant"/>
-    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="73" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="72" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="54" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="53" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="71" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="52" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*iva_ventas</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="70" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="51" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3648,12 +3582,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AC326A-D860-495A-AF68-0E18AA2E36F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117B3FF-61B0-4BBD-B7C7-F6DFDE9130BD}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,19 +3608,18 @@
     <col min="2" max="2" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="81" t="s">
         <v>1</v>
@@ -3683,414 +3628,418 @@
         <v>0</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="38">
-        <v>31</v>
-      </c>
-      <c r="F2" s="39">
+        <v>55</v>
+      </c>
+      <c r="E2" s="39">
         <v>33346</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="42">
-        <v>25</v>
-      </c>
-      <c r="F3" s="43">
+        <v>56</v>
+      </c>
+      <c r="E3" s="43">
         <v>35632</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>3</v>
       </c>
       <c r="B4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="39">
+        <v>32048</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="38">
-        <v>45</v>
-      </c>
-      <c r="F4" s="39">
-        <v>32048</v>
-      </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="I4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="9">
         <v>33346</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>4</v>
       </c>
       <c r="B5" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="43">
+        <v>32745</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="42">
+      <c r="G5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="43">
-        <v>32745</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="10">
         <v>33346</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>5</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="46">
+        <v>34169</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="45">
-        <v>28</v>
-      </c>
-      <c r="F6" s="46">
-        <v>34169</v>
-      </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="11">
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>6</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="12">
+        <v>150</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="19">
+        <v>31901</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="12">
         <v>65000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>7</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+        <v>151</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="46">
+        <v>34553</v>
+      </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="J8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="13">
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="13">
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>8</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="J9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="14">
+        <v>152</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="19">
+        <v>37891</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="14">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>9</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+        <v>153</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="46">
+        <v>31458</v>
+      </c>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="J10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="15">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>10</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="J11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="17">
+        <v>30</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="19">
+        <v>31130</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="I11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="17">
         <v>4294967296</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J13" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="31" t="s">
+      <c r="J17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
       <c r="J19" t="s">
         <v>61</v>
       </c>
-      <c r="K19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
       <c r="J20" t="s">
         <v>65</v>
       </c>
-      <c r="K20" t="s">
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" t="s">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>68</v>
       </c>
-      <c r="K23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
       <c r="J24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
         <v>71</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
         <v>72</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J26" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4101,1640 +4050,600 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F921C-C865-4A35-A062-281C1CB55D2D}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+    <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="128" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="124" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" s="128">
+        <v>1</v>
+      </c>
+      <c r="K1" s="128">
+        <v>2</v>
+      </c>
+      <c r="L1" s="128">
+        <v>3</v>
+      </c>
+      <c r="M1" s="128">
+        <v>4</v>
+      </c>
+      <c r="N1" s="128">
+        <v>5</v>
+      </c>
+      <c r="O1" s="128">
+        <v>6</v>
+      </c>
+      <c r="P1" s="128">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="128">
+        <v>8</v>
+      </c>
+      <c r="R1" s="128">
+        <v>9</v>
+      </c>
+      <c r="S1" s="128">
+        <v>10</v>
+      </c>
+      <c r="T1" s="128">
+        <v>11</v>
+      </c>
+      <c r="U1" s="128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="128">
+        <v>1</v>
+      </c>
+      <c r="B2" s="130">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="125">
+        <v>44805</v>
+      </c>
+      <c r="G2" s="127">
+        <v>0</v>
+      </c>
+      <c r="I2" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="130">
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="130">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="130">
+        <v>0.75</v>
+      </c>
+      <c r="M2" s="130">
+        <v>1</v>
+      </c>
+      <c r="N2" s="130">
+        <v>1.25</v>
+      </c>
+      <c r="O2" s="130">
+        <v>1.5</v>
+      </c>
+      <c r="P2" s="130">
+        <v>1.75</v>
+      </c>
+      <c r="Q2" s="130">
+        <v>2</v>
+      </c>
+      <c r="R2" s="130">
+        <v>2.25</v>
+      </c>
+      <c r="S2" s="130">
+        <v>2.5</v>
+      </c>
+      <c r="T2" s="130">
+        <v>2.75</v>
+      </c>
+      <c r="U2" s="130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="128">
+        <v>2</v>
+      </c>
+      <c r="B3" s="130">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="125">
+        <v>44806</v>
+      </c>
+      <c r="G3" s="127">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="I3" s="128" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="129" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="U3" s="129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="128">
+        <v>3</v>
+      </c>
+      <c r="B4" s="130">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="125">
+        <v>44807</v>
+      </c>
+      <c r="G4" s="127">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="I4" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="T4" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="U4" s="123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="128">
+        <v>4</v>
+      </c>
+      <c r="B5" s="130">
+        <v>1</v>
+      </c>
+      <c r="C5" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="125">
+        <v>44808</v>
+      </c>
+      <c r="G5" s="127">
+        <v>0.125</v>
+      </c>
+      <c r="I5" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J5" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="T5" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="128">
+        <v>5</v>
+      </c>
+      <c r="B6" s="130">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="125">
+        <v>44809</v>
+      </c>
+      <c r="G6" s="127">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I6" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J6" s="125">
+        <v>44805</v>
+      </c>
+      <c r="K6" s="125">
+        <v>44806</v>
+      </c>
+      <c r="L6" s="125">
+        <v>44807</v>
+      </c>
+      <c r="M6" s="125">
+        <v>44808</v>
+      </c>
+      <c r="N6" s="125">
+        <v>44809</v>
+      </c>
+      <c r="O6" s="125">
+        <v>44810</v>
+      </c>
+      <c r="P6" s="125">
+        <v>44811</v>
+      </c>
+      <c r="Q6" s="125">
+        <v>44812</v>
+      </c>
+      <c r="R6" s="125">
+        <v>44813</v>
+      </c>
+      <c r="S6" s="125">
+        <v>44814</v>
+      </c>
+      <c r="T6" s="125">
+        <v>44815</v>
+      </c>
+      <c r="U6" s="125">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="128">
+        <v>6</v>
+      </c>
+      <c r="B7" s="130">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="125">
+        <v>44810</v>
+      </c>
+      <c r="G7" s="127">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="I7" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="127">
+        <v>0</v>
+      </c>
+      <c r="K7" s="127">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="L7" s="127">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="M7" s="127">
+        <v>0.125</v>
+      </c>
+      <c r="N7" s="127">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="O7" s="127">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="P7" s="127">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="127">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="R7" s="127">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="S7" s="127">
+        <v>0.375</v>
+      </c>
+      <c r="T7" s="127">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="U7" s="127">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="128">
+        <v>7</v>
+      </c>
+      <c r="B8" s="130">
+        <v>1.75</v>
+      </c>
+      <c r="C8" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="125">
+        <v>44811</v>
+      </c>
+      <c r="G8" s="127">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="128">
+        <v>8</v>
+      </c>
+      <c r="B9" s="130">
+        <v>2</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E9" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="125">
+        <v>44812</v>
+      </c>
+      <c r="G9" s="127">
+        <v>0.29166666666666702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="128">
+        <v>9</v>
+      </c>
+      <c r="B10" s="130">
+        <v>2.25</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="125">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="127">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="128">
+        <v>10</v>
+      </c>
+      <c r="B11" s="130">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="125">
+        <v>44814</v>
+      </c>
+      <c r="G11" s="127">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="128">
+        <v>11</v>
+      </c>
+      <c r="B12" s="130">
+        <v>2.75</v>
+      </c>
+      <c r="C12" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="125">
+        <v>44815</v>
+      </c>
+      <c r="G12" s="127">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="128">
+        <v>12</v>
+      </c>
+      <c r="B13" s="130">
+        <v>3</v>
+      </c>
+      <c r="C13" s="129" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.25</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="70">
-        <v>44805</v>
-      </c>
-      <c r="G2" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="70">
-        <v>44806</v>
-      </c>
-      <c r="G3" s="74">
-        <v>4.1666666666666699E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.75</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="70">
-        <v>44807</v>
-      </c>
-      <c r="G4" s="74">
-        <v>8.3333333333333301E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D13" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="E5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="70">
-        <v>44808</v>
-      </c>
-      <c r="G5" s="74">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1.25</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="70">
-        <v>44809</v>
-      </c>
-      <c r="G6" s="74">
-        <v>0.16666666666666699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="70">
-        <v>44810</v>
-      </c>
-      <c r="G7" s="74">
-        <v>0.20833333333333301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1.75</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="70">
-        <v>44811</v>
-      </c>
-      <c r="G8" s="74">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="70">
-        <v>44812</v>
-      </c>
-      <c r="G9" s="74">
-        <v>0.29166666666666702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2.25</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="70">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="74">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="70">
-        <v>44814</v>
-      </c>
-      <c r="G11" s="74">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2.75</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E13" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="70">
-        <v>44815</v>
-      </c>
-      <c r="G12" s="74">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="70">
+      <c r="F13" s="125">
         <v>44816</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="127">
         <v>0.45833333333333298</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38092-0CDD-4546-9420-12554152D19D}">
-  <dimension ref="A1:AO14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="31" width="5.140625" style="72" customWidth="1"/>
-    <col min="32" max="32" width="6.28515625" customWidth="1"/>
-    <col min="33" max="33" width="7.42578125" customWidth="1"/>
-    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="R1" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="T1" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="U1" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="V1" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="W1" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="X1" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y1" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z1" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA1" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB1" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC1" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD1" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE1" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF1" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG1" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH1" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL1" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN1" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO1" s="92" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="str">
-        <f>_xlfn.CONCAT(intro!C2&amp;" "&amp;intro!B2)</f>
-        <v>Racedo Cristián</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="O2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="T2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="V2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="W2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="X2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y2" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z2" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE2" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF2" s="79">
-        <f t="shared" ref="AF2:AF11" si="0">COUNTBLANK(B2:AE2)</f>
-        <v>8</v>
-      </c>
-      <c r="AG2" s="85">
-        <f>COUNTA($B$1:$AE$1) - AF2</f>
-        <v>22</v>
-      </c>
-      <c r="AH2" s="86" cm="1">
-        <f t="array" ref="AH2">AG2*valor_hora*jornada</f>
-        <v>88000</v>
-      </c>
-      <c r="AJ2" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK2" s="88">
-        <f>AVERAGE(asist)</f>
-        <v>16.7</v>
-      </c>
-      <c r="AL2" s="89">
-        <f>AVERAGE(aus)</f>
-        <v>13.3</v>
-      </c>
-      <c r="AN2" s="93">
-        <v>500</v>
-      </c>
-      <c r="AO2" s="94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="str">
-        <f>_xlfn.CONCAT(intro!C3&amp;" "&amp;intro!B3)</f>
-        <v>Perez Juan</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="I3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="S3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="T3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="V3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="W3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="X3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z3" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF3" s="80">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AG3" s="85">
-        <f t="shared" ref="AG3:AG11" si="1">COUNTA($B$1:$AE$1) - AF3</f>
-        <v>17</v>
-      </c>
-      <c r="AH3" s="86" cm="1">
-        <f t="array" ref="AH3">AG3*valor_hora*jornada</f>
-        <v>68000</v>
-      </c>
-      <c r="AJ3" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK3" s="52">
-        <f>MAX(asist)</f>
-        <v>22</v>
-      </c>
-      <c r="AL3" s="53">
-        <f>MAX(aus)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="str">
-        <f>_xlfn.CONCAT(intro!C4&amp;" "&amp;intro!B4)</f>
-        <v>Gomez Gonzalo</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="P4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q4" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="R4" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="U4" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="V4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="W4" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="X4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y4" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z4" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB4" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD4" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="79">
-        <f>COUNTBLANK(B4:AE4)</f>
-        <v>16</v>
-      </c>
-      <c r="AG4" s="85">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="AH4" s="86" cm="1">
-        <f t="array" ref="AH4">AG4*valor_hora*jornada</f>
-        <v>56000</v>
-      </c>
-      <c r="AJ4" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK4" s="51">
-        <f>MIN(asist)</f>
-        <v>13</v>
-      </c>
-      <c r="AL4" s="6">
-        <f>MIN(aus)</f>
-        <v>8</v>
-      </c>
-      <c r="AO4" s="73"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="str">
-        <f>_xlfn.CONCAT(intro!C5&amp;" "&amp;intro!B5)</f>
-        <v>Fernandez Daniela</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="N5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="O5" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="P5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="R5" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="S5" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="T5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="U5" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="V5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="W5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="X5" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z5" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF5" s="80">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AG5" s="85">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AH5" s="86" cm="1">
-        <f t="array" ref="AH5">AG5*valor_hora*jornada</f>
-        <v>76000</v>
-      </c>
-      <c r="AJ5" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK5" s="52">
-        <f>MODE(asist)</f>
-        <v>17</v>
-      </c>
-      <c r="AL5" s="53">
-        <f>MODE(aus)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="str">
-        <f>_xlfn.CONCAT(intro!C6&amp;" "&amp;intro!B6)</f>
-        <v>Lopez Carla</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="N6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="O6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="P6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="R6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="S6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="T6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="U6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="V6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="W6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="X6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD6" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="79">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AG6" s="85">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AH6" s="86" cm="1">
-        <f t="array" ref="AH6">AG6*valor_hora*jornada</f>
-        <v>68000</v>
-      </c>
-      <c r="AJ6" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK6" s="88">
-        <f>MEDIAN(asist)</f>
-        <v>16.5</v>
-      </c>
-      <c r="AL6" s="89">
-        <f>MEDIAN(aus)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="str">
-        <f>_xlfn.CONCAT(intro!C7&amp;" "&amp;intro!B7)</f>
-        <v>Martinez Mariano</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="N7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="O7" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="P7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="R7" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="S7" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="T7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="U7" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="V7" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="W7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="X7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z7" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF7" s="80">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AG7" s="85">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AH7" s="86" cm="1">
-        <f t="array" ref="AH7">AG7*valor_hora*jornada</f>
-        <v>64000</v>
-      </c>
-      <c r="AJ7" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK7" s="90">
-        <f>SUM(asist)</f>
-        <v>167</v>
-      </c>
-      <c r="AL7" s="49">
-        <f>SUM(aus)</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="str">
-        <f>_xlfn.CONCAT(intro!C8&amp;" "&amp;intro!B8)</f>
-        <v>Gonzalez Gonzalo</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="N8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="O8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="P8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="R8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="S8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="X8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE8" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF8" s="79">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AG8" s="85">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AH8" s="86" cm="1">
-        <f t="array" ref="AH8">AG8*valor_hora*jornada</f>
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="str">
-        <f>_xlfn.CONCAT(intro!C9&amp;" "&amp;intro!B9)</f>
-        <v>Jimenez Jorge</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="N9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="P9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q9" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="R9" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="S9" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="T9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="U9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="V9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="W9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="X9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE9" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF9" s="80">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AG9" s="85">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AH9" s="86" cm="1">
-        <f t="array" ref="AH9">AG9*valor_hora*jornada</f>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="str">
-        <f>_xlfn.CONCAT(intro!C10&amp;" "&amp;intro!B10)</f>
-        <v>Gimenez Gabriela</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="O10" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="P10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q10" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="R10" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="S10" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="V10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="W10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="79">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AG10" s="85">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AH10" s="86" cm="1">
-        <f t="array" ref="AH10">AG10*valor_hora*jornada</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="str">
-        <f>_xlfn.CONCAT(intro!C11&amp;" "&amp;intro!B11)</f>
-        <v>Lopez Laura</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="N11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="R11" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="S11" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="T11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="U11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="V11" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="W11" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="X11" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z11" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA11" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="80">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AG11" s="85">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AH11" s="86" cm="1">
-        <f t="array" ref="AH11">AG11*valor_hora*jornada</f>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="105">
-        <f t="shared" ref="B12:AD12" si="2">COUNTBLANK(B2:B11)</f>
-        <v>2</v>
-      </c>
-      <c r="C12" s="105">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D12" s="105">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="105">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="105">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G12" s="105">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H12" s="105">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="105">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J12" s="105">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K12" s="105">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="105">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="M12" s="105">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="105">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O12" s="105">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="105">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="105">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="R12" s="105">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="S12" s="105">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T12" s="105">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="U12" s="105">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V12" s="105">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W12" s="105">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="X12" s="105">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Y12" s="105">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Z12" s="105">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AA12" s="105">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB12" s="105">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AC12" s="105">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AD12" s="105">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AE12" s="105">
-        <f>COUNTBLANK(AE2:AE11)</f>
-        <v>4</v>
-      </c>
-      <c r="AF12" s="106">
-        <f>SUBTOTAL(109,Tabla2[Aus.])</f>
-        <v>133</v>
-      </c>
-      <c r="AG12" s="85">
-        <f>SUBTOTAL(109,Tabla2[Asist.])</f>
-        <v>167</v>
-      </c>
-      <c r="AH12" s="86">
-        <f>SUBTOTAL(109,Tabla2[sueldo])</f>
-        <v>668000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AH13" s="86"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="D14" s="87"/>
-      <c r="AH14" s="86"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B23:AE1048576" twoDigitTextYear="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -5743,7 +4652,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5753,84 +4662,84 @@
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="8" max="11" width="7.7109375" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+        <v>76</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="48"/>
       <c r="G1" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+        <v>77</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
       <c r="M1" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+        <v>96</v>
+      </c>
+      <c r="N1" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>82</v>
-      </c>
       <c r="G2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>82</v>
-      </c>
       <c r="M2" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
+        <v>97</v>
+      </c>
+      <c r="N2" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="51">
         <v>8</v>
@@ -5846,7 +4755,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="51">
         <v>8</v>
@@ -5865,16 +4774,16 @@
         <f>$B3+$C3+D3+A3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="103"/>
+      <c r="N3" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="111"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="52">
         <v>53</v>
@@ -5890,7 +4799,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="52">
         <v>53</v>
@@ -5909,16 +4818,16 @@
         <f t="array" ref="M4">$B4-$C4-D4-resta</f>
         <v>#NAME?</v>
       </c>
-      <c r="N4" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
+      <c r="N4" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="51">
         <v>3</v>
@@ -5935,7 +4844,7 @@
         <v>576</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="51">
         <v>3</v>
@@ -5955,16 +4864,16 @@
         <f>-D5*[1]pepe!A3</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
+      <c r="N5" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="104"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="22">
         <v>4</v>
@@ -5981,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="22">
         <v>4</v>
@@ -6001,16 +4910,16 @@
         <f>$B6/$C6/D6/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="98"/>
+      <c r="N6" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="51">
         <v>2</v>
@@ -6026,7 +4935,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="51">
         <v>2</v>
@@ -6045,12 +4954,12 @@
         <f t="array" aca="1" ref="M7" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="96"/>
+      <c r="N7" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6070,6 +4979,2057 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38092-0CDD-4546-9420-12554152D19D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AP16"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:AG11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="5.140625" style="72" customWidth="1"/>
+    <col min="32" max="32" width="6.28515625" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="W1" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y1" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z1" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA1" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC1" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD1" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE1" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF1" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG1" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH1" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL1" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM1" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO1" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP1" s="94" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="str">
+        <f>_xlfn.CONCAT(introduccion!C2&amp;", "&amp;introduccion!B2)</f>
+        <v>Racedo, Cristián</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="W2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="X2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z2" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE2" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF2" s="79">
+        <f t="shared" ref="AF2:AF11" si="0">COUNTBLANK(B2:AE2)</f>
+        <v>8</v>
+      </c>
+      <c r="AG2" s="85">
+        <f>COUNTA($B$1:$AE$1) - AF2</f>
+        <v>22</v>
+      </c>
+      <c r="AH2" s="88" cm="1">
+        <f t="array" ref="AH2">AG2*valor_hora*jornada</f>
+        <v>88000</v>
+      </c>
+      <c r="AJ2" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK2" s="90">
+        <f>AVERAGE(asist)</f>
+        <v>16.7</v>
+      </c>
+      <c r="AL2" s="91">
+        <f>AVERAGE(aus)</f>
+        <v>13.3</v>
+      </c>
+      <c r="AM2" s="100">
+        <f>AVERAGE(sueldos)</f>
+        <v>66800</v>
+      </c>
+      <c r="AO2" s="95">
+        <v>500</v>
+      </c>
+      <c r="AP2" s="96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="str">
+        <f>_xlfn.CONCAT(introduccion!C3&amp;", "&amp;introduccion!B3)</f>
+        <v>Perez, Juan</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="S3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="V3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="W3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF3" s="80">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AG3" s="85">
+        <f t="shared" ref="AG3:AG11" si="1">COUNTA($B$1:$AE$1) - AF3</f>
+        <v>17</v>
+      </c>
+      <c r="AH3" s="88" cm="1">
+        <f t="array" ref="AH3">AG3*valor_hora*jornada</f>
+        <v>68000</v>
+      </c>
+      <c r="AJ3" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK3" s="52">
+        <f>MAX(asist)</f>
+        <v>22</v>
+      </c>
+      <c r="AL3" s="53">
+        <f>MAX(aus)</f>
+        <v>17</v>
+      </c>
+      <c r="AM3" s="101">
+        <f>MAX(sueldos)</f>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="str">
+        <f>_xlfn.CONCAT(introduccion!C4&amp;", "&amp;introduccion!B4)</f>
+        <v>Gomez, Gonzalo</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="V4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="X4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y4" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z4" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB4" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD4" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="79">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AG4" s="85">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AH4" s="88" cm="1">
+        <f t="array" ref="AH4">AG4*valor_hora*jornada</f>
+        <v>56000</v>
+      </c>
+      <c r="AJ4" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK4" s="51">
+        <f>MIN(asist)</f>
+        <v>13</v>
+      </c>
+      <c r="AL4" s="6">
+        <f>MIN(aus)</f>
+        <v>8</v>
+      </c>
+      <c r="AM4" s="100">
+        <f>MIN(sueldos)</f>
+        <v>52000</v>
+      </c>
+      <c r="AP4" s="73"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="str">
+        <f>_xlfn.CONCAT(introduccion!C5&amp;", "&amp;introduccion!B5)</f>
+        <v>Fernandez, Daniela</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="R5" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="V5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="W5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="X5" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z5" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF5" s="80">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AG5" s="85">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AH5" s="88" cm="1">
+        <f t="array" ref="AH5">AG5*valor_hora*jornada</f>
+        <v>76000</v>
+      </c>
+      <c r="AJ5" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK5" s="52">
+        <f>MODE(asist)</f>
+        <v>17</v>
+      </c>
+      <c r="AL5" s="53">
+        <f>MODE(aus)</f>
+        <v>13</v>
+      </c>
+      <c r="AM5" s="101">
+        <f>MODE(sueldos)</f>
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="str">
+        <f>_xlfn.CONCAT(introduccion!C6&amp;", "&amp;introduccion!B6)</f>
+        <v>Lopez, Carla</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="O6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="S6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="T6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="U6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="V6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="W6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="X6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB6" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD6" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="79">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AG6" s="85">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AH6" s="88" cm="1">
+        <f t="array" ref="AH6">AG6*valor_hora*jornada</f>
+        <v>68000</v>
+      </c>
+      <c r="AJ6" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK6" s="90">
+        <f>MEDIAN(asist)</f>
+        <v>16.5</v>
+      </c>
+      <c r="AL6" s="91">
+        <f>MEDIAN(aus)</f>
+        <v>13.5</v>
+      </c>
+      <c r="AM6" s="100">
+        <f>MEDIAN(sueldos)</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="str">
+        <f>_xlfn.CONCAT(introduccion!C7&amp;", "&amp;introduccion!B7)</f>
+        <v>Martinez, Mariano</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="S7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="U7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="V7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="W7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="X7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF7" s="80">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AG7" s="85">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AH7" s="88" cm="1">
+        <f t="array" ref="AH7">AG7*valor_hora*jornada</f>
+        <v>64000</v>
+      </c>
+      <c r="AJ7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK7" s="92">
+        <f>SUM(asist)</f>
+        <v>167</v>
+      </c>
+      <c r="AL7" s="49">
+        <f>SUM(aus)</f>
+        <v>133</v>
+      </c>
+      <c r="AM7" s="102">
+        <f>SUM(sueldos)</f>
+        <v>668000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="str">
+        <f>_xlfn.CONCAT(introduccion!C8&amp;", "&amp;introduccion!B8)</f>
+        <v>Gonzalez, Gonzalo</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R8" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="S8" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="X8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF8" s="79">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AG8" s="85">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AH8" s="88" cm="1">
+        <f t="array" ref="AH8">AG8*valor_hora*jornada</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="str">
+        <f>_xlfn.CONCAT(introduccion!C9&amp;", "&amp;introduccion!B9)</f>
+        <v>Jimenez, Jorge</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="P9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="S9" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="U9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="V9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="W9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="X9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE9" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF9" s="80">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG9" s="85">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AH9" s="88" cm="1">
+        <f t="array" ref="AH9">AG9*valor_hora*jornada</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="str">
+        <f>_xlfn.CONCAT(introduccion!C10&amp;", "&amp;introduccion!B10)</f>
+        <v>Gimenez, Gabriela</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="R10" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="S10" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="V10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="W10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD10" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="79">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AG10" s="85">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AH10" s="88" cm="1">
+        <f t="array" ref="AH10">AG10*valor_hora*jornada</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="str">
+        <f>_xlfn.CONCAT(introduccion!C11&amp;", "&amp;introduccion!B11)</f>
+        <v>Lopez, Laura</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="P11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="S11" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="T11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="U11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="V11" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="W11" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="X11" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z11" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA11" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="80">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AG11" s="85">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AH11" s="88" cm="1">
+        <f t="array" ref="AH11">AG11*valor_hora*jornada</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="97">
+        <f>COUNTA($A$2:$A$11) - COUNTBLANK(B2:B11)</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="97">
+        <f>COUNTBLANK(C2:C11)</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="97">
+        <f>COUNTBLANK(D2:D11)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="97">
+        <f t="shared" ref="E12:S12" si="2">COUNTBLANK(E2:E11)</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="97">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="97">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="97">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="97">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="97">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K12" s="97">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="97">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M12" s="97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="97">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="97">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P12" s="97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="97">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R12" s="97">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="S12" s="97">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T12" s="97">
+        <f t="shared" ref="T12" si="3">COUNTBLANK(T2:T11)</f>
+        <v>2</v>
+      </c>
+      <c r="U12" s="97">
+        <f t="shared" ref="U12" si="4">COUNTBLANK(U2:U11)</f>
+        <v>4</v>
+      </c>
+      <c r="V12" s="97">
+        <f t="shared" ref="V12" si="5">COUNTBLANK(V2:V11)</f>
+        <v>5</v>
+      </c>
+      <c r="W12" s="97">
+        <f t="shared" ref="W12" si="6">COUNTBLANK(W2:W11)</f>
+        <v>3</v>
+      </c>
+      <c r="X12" s="97">
+        <f t="shared" ref="X12" si="7">COUNTBLANK(X2:X11)</f>
+        <v>4</v>
+      </c>
+      <c r="Y12" s="97">
+        <f t="shared" ref="Y12" si="8">COUNTBLANK(Y2:Y11)</f>
+        <v>4</v>
+      </c>
+      <c r="Z12" s="97">
+        <f t="shared" ref="Z12" si="9">COUNTBLANK(Z2:Z11)</f>
+        <v>10</v>
+      </c>
+      <c r="AA12" s="97">
+        <f t="shared" ref="AA12" si="10">COUNTBLANK(AA2:AA11)</f>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="97">
+        <f t="shared" ref="AB12" si="11">COUNTBLANK(AB2:AB11)</f>
+        <v>5</v>
+      </c>
+      <c r="AC12" s="97">
+        <f t="shared" ref="AC12" si="12">COUNTBLANK(AC2:AC11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="97">
+        <f t="shared" ref="AD12" si="13">COUNTBLANK(AD2:AD11)</f>
+        <v>4</v>
+      </c>
+      <c r="AE12" s="97">
+        <f t="shared" ref="AE12" si="14">COUNTBLANK(AE2:AE11)</f>
+        <v>4</v>
+      </c>
+      <c r="AF12" s="98">
+        <f>SUBTOTAL(109,Tabla3[Aus.])</f>
+        <v>133</v>
+      </c>
+      <c r="AG12" s="85">
+        <f>SUBTOTAL(109,Tabla3[Asist.])</f>
+        <v>167</v>
+      </c>
+      <c r="AH12" s="88">
+        <f>SUBTOTAL(109,Tabla3[sueldo])</f>
+        <v>668000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="88"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="88"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="D16" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B25:AE1048576" twoDigitTextYear="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3201E-A01B-475D-B6B7-7FA9E8CFEA3C}">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="115" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="str">
+        <f>asistencia!A2</f>
+        <v>Racedo, Cristián</v>
+      </c>
+      <c r="B2" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Racedo</v>
+      </c>
+      <c r="C2" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Cristián</v>
+      </c>
+      <c r="D2" s="51" t="str">
+        <f>introduccion!D2</f>
+        <v>20-35336446-5</v>
+      </c>
+      <c r="E2" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="F2" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>35336446</v>
+      </c>
+      <c r="G2" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>7</v>
+      </c>
+      <c r="I2" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>16</v>
+      </c>
+      <c r="J2" s="116">
+        <f>introduccion!E2</f>
+        <v>33346</v>
+      </c>
+      <c r="K2" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>31.490410958904111</v>
+      </c>
+      <c r="L2" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="str">
+        <f>asistencia!A3</f>
+        <v>Perez, Juan</v>
+      </c>
+      <c r="B3" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Perez</v>
+      </c>
+      <c r="C3" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Juan</v>
+      </c>
+      <c r="D3" s="52" t="str">
+        <f>introduccion!D3</f>
+        <v>20-43128323-1</v>
+      </c>
+      <c r="E3" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>43128323</v>
+      </c>
+      <c r="G3" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>11</v>
+      </c>
+      <c r="J3" s="116">
+        <f>introduccion!E3</f>
+        <v>35632</v>
+      </c>
+      <c r="K3" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>25.227397260273971</v>
+      </c>
+      <c r="L3" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="str">
+        <f>asistencia!A4</f>
+        <v>Gomez, Gonzalo</v>
+      </c>
+      <c r="B4" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Gomez</v>
+      </c>
+      <c r="C4" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Gonzalo</v>
+      </c>
+      <c r="D4" s="51" t="str">
+        <f>introduccion!D4</f>
+        <v>20-30283492-6</v>
+      </c>
+      <c r="E4" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="F4" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>30283492</v>
+      </c>
+      <c r="G4" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>14</v>
+      </c>
+      <c r="J4" s="116">
+        <f>introduccion!E4</f>
+        <v>32048</v>
+      </c>
+      <c r="K4" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>35.046575342465751</v>
+      </c>
+      <c r="L4" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="70">
+        <f ca="1">TODAY()</f>
+        <v>44840</v>
+      </c>
+      <c r="Q4" s="119"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="str">
+        <f>asistencia!A5</f>
+        <v>Fernandez, Daniela</v>
+      </c>
+      <c r="B5" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Fernandez</v>
+      </c>
+      <c r="C5" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Daniela</v>
+      </c>
+      <c r="D5" s="52" t="str">
+        <f>introduccion!D5</f>
+        <v>27-33230498-2</v>
+      </c>
+      <c r="E5" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="F5" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>33230498</v>
+      </c>
+      <c r="G5" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>18</v>
+      </c>
+      <c r="J5" s="116">
+        <f>introduccion!E5</f>
+        <v>32745</v>
+      </c>
+      <c r="K5" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>33.136986301369866</v>
+      </c>
+      <c r="L5" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" s="117">
+        <f ca="1">NOW()</f>
+        <v>44840.475589120368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="str">
+        <f>asistencia!A6</f>
+        <v>Lopez, Carla</v>
+      </c>
+      <c r="B6" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Lopez</v>
+      </c>
+      <c r="C6" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Carla</v>
+      </c>
+      <c r="D6" s="51" t="str">
+        <f>introduccion!D6</f>
+        <v>27-38578293-4</v>
+      </c>
+      <c r="E6" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="F6" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>38578293</v>
+      </c>
+      <c r="G6" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>6</v>
+      </c>
+      <c r="I6" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>12</v>
+      </c>
+      <c r="J6" s="116">
+        <f>introduccion!E6</f>
+        <v>34169</v>
+      </c>
+      <c r="K6" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>29.235616438356164</v>
+      </c>
+      <c r="L6" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>223</v>
+      </c>
+      <c r="P6">
+        <f ca="1">YEAR(datos_hoy)</f>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="str">
+        <f>asistencia!A7</f>
+        <v>Martinez, Mariano</v>
+      </c>
+      <c r="B7" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Martinez</v>
+      </c>
+      <c r="C7" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Mariano</v>
+      </c>
+      <c r="D7" s="52" t="str">
+        <f>introduccion!D7</f>
+        <v>20-28234973-3</v>
+      </c>
+      <c r="E7" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>28234973</v>
+      </c>
+      <c r="G7" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>9</v>
+      </c>
+      <c r="I7" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>17</v>
+      </c>
+      <c r="J7" s="116">
+        <f>introduccion!E7</f>
+        <v>31901</v>
+      </c>
+      <c r="K7" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>35.449315068493149</v>
+      </c>
+      <c r="L7" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P7">
+        <f ca="1">MONTH(datos_hoy)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="str">
+        <f>asistencia!A8</f>
+        <v>Gonzalez, Gonzalo</v>
+      </c>
+      <c r="B8" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Gonzalez</v>
+      </c>
+      <c r="C8" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Gonzalo</v>
+      </c>
+      <c r="D8" s="51" t="str">
+        <f>introduccion!D8</f>
+        <v>20-39128371-1</v>
+      </c>
+      <c r="E8" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="F8" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>39128371</v>
+      </c>
+      <c r="G8" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>9</v>
+      </c>
+      <c r="I8" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>17</v>
+      </c>
+      <c r="J8" s="116">
+        <f>introduccion!E8</f>
+        <v>34553</v>
+      </c>
+      <c r="K8" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>28.183561643835617</v>
+      </c>
+      <c r="L8" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P8">
+        <f ca="1">DAY(datos_hoy)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="str">
+        <f>asistencia!A9</f>
+        <v>Jimenez, Jorge</v>
+      </c>
+      <c r="B9" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Jimenez</v>
+      </c>
+      <c r="C9" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Jorge</v>
+      </c>
+      <c r="D9" s="52" t="str">
+        <f>introduccion!D9</f>
+        <v>20-45019105-2</v>
+      </c>
+      <c r="E9" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="F9" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>45019105</v>
+      </c>
+      <c r="G9" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>14</v>
+      </c>
+      <c r="J9" s="116">
+        <f>introduccion!E9</f>
+        <v>37891</v>
+      </c>
+      <c r="K9" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>19.038356164383561</v>
+      </c>
+      <c r="L9" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>224</v>
+      </c>
+      <c r="P9">
+        <f ca="1">HOUR(P5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="str">
+        <f>asistencia!A10</f>
+        <v>Gimenez, Gabriela</v>
+      </c>
+      <c r="B10" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Gimenez</v>
+      </c>
+      <c r="C10" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Gabriela</v>
+      </c>
+      <c r="D10" s="51" t="str">
+        <f>introduccion!D10</f>
+        <v>27-31203948-8</v>
+      </c>
+      <c r="E10" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="F10" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>31203948</v>
+      </c>
+      <c r="G10" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="H10" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>17</v>
+      </c>
+      <c r="J10" s="116">
+        <f>introduccion!E10</f>
+        <v>31458</v>
+      </c>
+      <c r="K10" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>36.663013698630138</v>
+      </c>
+      <c r="L10" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10">
+        <f ca="1">MINUTE(P5)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="str">
+        <f>asistencia!A11</f>
+        <v>Lopez, Laura</v>
+      </c>
+      <c r="B11" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Lopez</v>
+      </c>
+      <c r="C11" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Laura</v>
+      </c>
+      <c r="D11" s="52" t="str">
+        <f>introduccion!D11</f>
+        <v>27-30192834-4</v>
+      </c>
+      <c r="E11" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="F11" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>30192834</v>
+      </c>
+      <c r="G11" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>12</v>
+      </c>
+      <c r="J11" s="116">
+        <f>introduccion!E11</f>
+        <v>31130</v>
+      </c>
+      <c r="K11" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>37.561643835616437</v>
+      </c>
+      <c r="L11" s="120">
+        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>226</v>
+      </c>
+      <c r="P11">
+        <f ca="1">SECOND(P5)</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B4E47B-831B-4617-94F6-1B9F8B2C5B52}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -6101,40 +7061,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="60">
         <f>COUNT(ventas[codigo])</f>
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>109</v>
-      </c>
       <c r="J1" s="55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="61">
         <f>SUM(ventas[total])</f>
@@ -6170,7 +7130,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="62">
         <f>MIN(ventas[total])</f>
@@ -6203,7 +7163,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="61">
         <f>MAX(ventas[total])</f>
@@ -6236,7 +7196,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="62">
         <f>AVERAGE(ventas[total])</f>
@@ -6269,7 +7229,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="63">
         <f>MODE(D:D)</f>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72255BD7-5FB5-4A8B-B6E2-DAB485835279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE570F-FB0F-4180-8411-12C0321F611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
@@ -17,22 +17,23 @@
     <sheet name="introduccion" sheetId="1" r:id="rId2"/>
     <sheet name="listas" sheetId="6" r:id="rId3"/>
     <sheet name="operadores" sheetId="3" r:id="rId4"/>
-    <sheet name="asistencia" sheetId="5" r:id="rId5"/>
-    <sheet name="empleados" sheetId="7" r:id="rId6"/>
-    <sheet name="ventas" sheetId="4" r:id="rId7"/>
+    <sheet name="empleados" sheetId="7" r:id="rId5"/>
+    <sheet name="asistencia" sheetId="5" r:id="rId6"/>
+    <sheet name="productos" sheetId="10" r:id="rId7"/>
+    <sheet name="ventas" sheetId="4" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">asistencia!$A:$AH</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">asistencia!$A:$AH</definedName>
     <definedName name="asist">asistencia!$AG$2:$AG$11</definedName>
     <definedName name="aus">asistencia!$AF$2:$AF$11</definedName>
-    <definedName name="datos_hoy">empleados!$P$4</definedName>
-    <definedName name="hoy">empleados!$P$4</definedName>
+    <definedName name="datos_hoy">empleados!$B$4</definedName>
+    <definedName name="hoy">empleados!$B$4</definedName>
     <definedName name="iva_ventas">ventas!$L$2</definedName>
     <definedName name="jornada">asistencia!$AP$2</definedName>
-    <definedName name="separador">empleados!$P$1</definedName>
+    <definedName name="separador">empleados!$B$1</definedName>
     <definedName name="sueldos">Tabla3[sueldo]</definedName>
     <definedName name="valor_hora">asistencia!$AO$2</definedName>
   </definedNames>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="245">
   <si>
     <t>apellido</t>
   </si>
@@ -794,6 +795,39 @@
   </si>
   <si>
     <t>EMPLEADOS</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>Asistencia</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Atajos</t>
+  </si>
+  <si>
+    <t>Repositorio</t>
+  </si>
+  <si>
+    <t>Estadisticas</t>
+  </si>
+  <si>
+    <t>Interno</t>
+  </si>
+  <si>
+    <t>Externo</t>
+  </si>
+  <si>
+    <t>Correo</t>
   </si>
 </sst>
 </file>
@@ -810,7 +844,7 @@
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,6 +884,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1059,7 +1101,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1070,8 +1112,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1327,8 +1370,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
     <cellStyle name="40% - Énfasis3" xfId="6" builtinId="39"/>
     <cellStyle name="60% - Énfasis2" xfId="5" builtinId="36"/>
@@ -1336,6 +1388,7 @@
     <cellStyle name="60% - Énfasis4" xfId="8" builtinId="44"/>
     <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
     <cellStyle name="Énfasis6" xfId="9" builtinId="49"/>
+    <cellStyle name="Hipervínculo" xfId="10" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2802,6 +2855,675 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>743812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>767625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Identificación de empleado con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5832F222-D868-4434-B07A-575F4DD5D9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="369093" y="238125"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>743812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Gráfico 4" descr="Gráfico de barras con tendencia alcista con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F354C0-4089-4441-8F95-2F3EE8B17652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321843" y="250032"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30936</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>750936</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>762842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Gráfico 6" descr="Lista de comprobación con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AD911B-8B63-491F-9972-F7680607DF6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1900217" y="233342"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21373</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>741373</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>767625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Gráfico 10" descr="Calendario con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43E33A6-B85B-41AD-B9FB-0AA834EC0525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1128654" y="238125"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>576188</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>728588</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Gráfico 12" descr="Hogar con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C7C510-6179-4884-9B01-BFFDDDBBA8E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588219" y="2135905"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17766</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>467766</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Gráfico 14" descr="Flecha lineal: giro a la izquierda con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C157EF5B-9C81-4AA8-9A03-B6C543EB8D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="267797" y="2256140"/>
+          <a:ext cx="450000" cy="450000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24891</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>744891</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>750843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Gráfico 16" descr="Dinero con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A328DB67-68C5-4D3D-979D-D5AD2ECB0385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2656172" y="221343"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53579</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>701579</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>707532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AF6CC2-2936-42BF-BF3A-2B3DA1807E39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId17">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000" contrast="40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId18"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2684860" y="1214438"/>
+          <a:ext cx="648000" cy="648000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="720000" cy="233205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CuadroTexto 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C830833-A678-4643-BC81-441F5ED3C2E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2631281" y="4726781"/>
+          <a:ext cx="720000" cy="233205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18" tooltip="https://ru.wikinews.org/wiki/%D0%A0%D0%BE%D1%81%D0%BA%D0%BE%D0%BC%D0%BD%D0%B0%D0%B4%D0%B7%D0%BE%D1%80_%D0%B7%D0%B0%D0%B1%D0%BB%D0%BE%D0%BA%D0%B8%D1%80%D0%BE%D0%B2%D0%B0%D0%BB_GitHub_%D0%B7%D0%B0_%C2%AB%D0%A1%D0%BF%D0%BE%D1%81%D0%BE%D0%B1%D1%8B_%D1%81%D0%B0%D0%BC%D0%BE%D1%83%D0%B1%D0%B8%D0%B9%D1%81%D1%82%D0%B2%D0%B0%C2%BB"/>
+            </a:rPr>
+            <a:t>Esta foto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900"/>
+            <a:t> de Autor desconocido está bajo licencia </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tooltip="https://creativecommons.org/licenses/by/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>749765</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>743812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Gráfico 21" descr="Documento con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5795139-A3D8-4187-9AA4-1961A579B862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375046" y="1178718"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>36890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>744985</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Gráfico 23" descr="Trueno con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD4E284-7E41-4B99-8EB4-ECBBA3CBB6DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1132266" y="1191796"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>743813</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>737859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Gráfico 26" descr="Correo electrónico con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FFFD05-9D55-4F48-858E-5518E98A20C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797844" y="1172765"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>179520</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2865,10 +3587,241 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>73270</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>178905</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Flecha lineal: giro a la izquierda con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00263D4-B54F-4AF0-A1ED-D1954A7918E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73270" y="2264019"/>
+          <a:ext cx="450000" cy="450000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541965</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Flecha lineal: giro a la izquierda con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEAFCDD-FB14-4AE1-8D97-A44A8BB6A31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6050017" y="1504294"/>
+          <a:ext cx="450000" cy="450000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>479308</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Flecha lineal: giro a la izquierda con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0294D96F-2F6F-4879-94C1-B0D2EC890033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29308" y="2080847"/>
+          <a:ext cx="450000" cy="450000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72259</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>522259</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Flecha lineal: giro a la izquierda con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76FF102-6DFE-4573-88E2-790E41914817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72259" y="2095500"/>
+          <a:ext cx="450000" cy="450000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2991,6 +3944,119 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466565</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Gráfico 7" descr="Flecha lineal: giro a la izquierda con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1860AD-B977-4F95-8E37-DB185096115F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16565" y="2691848"/>
+          <a:ext cx="450000" cy="450000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Gráfico 1" descr="Flecha lineal: giro a la izquierda con relleno sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5760EB93-DAEB-49E9-A21E-CBEB8DDA9C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1282211"/>
+          <a:ext cx="450000" cy="450000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3098,6 +4164,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}" name="Tabla4" displayName="Tabla4" ref="D1:O11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
+  <autoFilter ref="D1:O11" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{AD2BFDC6-9212-4AF1-A883-4F5292CC8670}" name="EMPLEADO" dataDxfId="46">
+      <calculatedColumnFormula>asistencia!A2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9941B11B-F67E-4F32-82D2-B86FEB7E9F6E}" name="APELLIDO" dataDxfId="45">
+      <calculatedColumnFormula>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{DEEF5E54-5054-45B9-B8EE-A5D09A981708}" name="NOMBRE" dataDxfId="44">
+      <calculatedColumnFormula>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4F40C219-FD97-4CAB-B243-ECFB4C424AFF}" name="CUIL" dataDxfId="43">
+      <calculatedColumnFormula>introduccion!D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{62C6429F-DFB5-4F13-9C8C-F4F9A8B2BFF4}" name="TIPO" dataDxfId="42">
+      <calculatedColumnFormula>LEFT(Tabla4[[#This Row],[CUIL]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{19B71444-5CC4-45F1-8222-5A8DBAD1B101}" name="DOCUMENTO" dataDxfId="41" dataCellStyle="Millares">
+      <calculatedColumnFormula>MID(Tabla4[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E886725E-39BE-415C-979A-1175DA7DBC26}" name="VERIF" dataDxfId="40">
+      <calculatedColumnFormula>RIGHT(Tabla4[[#This Row],[CUIL]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C0528248-53F2-4B9A-B0FC-54DAC797D388}" name="CHAR" dataDxfId="39">
+      <calculatedColumnFormula>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7ACF23E0-4058-4529-87E3-89A0F10EDEE7}" name="LARGO" dataDxfId="38">
+      <calculatedColumnFormula>LEN(Tabla4[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C0311DC3-1821-46B4-BAF2-F825CC93183C}" name="NACIMIENTO" dataDxfId="37">
+      <calculatedColumnFormula>introduccion!E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{C5EF39FB-0151-4B57-8F47-0735E6F3917B}" name="EDAD" dataDxfId="36">
+      <calculatedColumnFormula>(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{A025954B-A9FF-49BA-A580-9FA9F8B233C2}" name="AÑOS" dataDxfId="35">
+      <calculatedColumnFormula>$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{87222F79-CD71-4A63-90A3-41A2C008D14D}" name="Tabla5" displayName="Tabla5" ref="A3:B11" totalsRowShown="0">
+  <autoFilter ref="A3:B11" xr:uid="{87222F79-CD71-4A63-90A3-41A2C008D14D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B1C8C891-E7E4-433B-A848-68CBB4EF2B99}" name="FUNCION"/>
+    <tableColumn id="2" xr3:uid="{9312EEEF-C98D-4969-A056-95997DAF5EDF}" name="VALOR"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}" name="Tabla3" displayName="Tabla3" ref="A1:AH12" totalsRowCount="1" tableBorderDxfId="57">
   <autoFilter ref="A1:AH11" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}"/>
   <tableColumns count="34">
@@ -3203,62 +4325,6 @@
     <tableColumn id="34" xr3:uid="{0D66ED41-FA53-4A07-8873-DA93C74A6065}" name="sueldo" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula array="1">AG2*valor_hora*jornada</calculatedColumnFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}" name="Tabla4" displayName="Tabla4" ref="A1:L11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
-  <autoFilter ref="A1:L11" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AD2BFDC6-9212-4AF1-A883-4F5292CC8670}" name="EMPLEADO" dataDxfId="46">
-      <calculatedColumnFormula>asistencia!A2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{9941B11B-F67E-4F32-82D2-B86FEB7E9F6E}" name="APELLIDO" dataDxfId="45">
-      <calculatedColumnFormula>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{DEEF5E54-5054-45B9-B8EE-A5D09A981708}" name="NOMBRE" dataDxfId="44">
-      <calculatedColumnFormula>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{4F40C219-FD97-4CAB-B243-ECFB4C424AFF}" name="CUIL" dataDxfId="43">
-      <calculatedColumnFormula>introduccion!D2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{62C6429F-DFB5-4F13-9C8C-F4F9A8B2BFF4}" name="TIPO" dataDxfId="42">
-      <calculatedColumnFormula>LEFT(Tabla4[[#This Row],[CUIL]],2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{19B71444-5CC4-45F1-8222-5A8DBAD1B101}" name="DOCUMENTO" dataDxfId="41" dataCellStyle="Millares">
-      <calculatedColumnFormula>MID(Tabla4[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{E886725E-39BE-415C-979A-1175DA7DBC26}" name="VERIF" dataDxfId="40">
-      <calculatedColumnFormula>RIGHT(Tabla4[[#This Row],[CUIL]],1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{C0528248-53F2-4B9A-B0FC-54DAC797D388}" name="CHAR" dataDxfId="39">
-      <calculatedColumnFormula>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{7ACF23E0-4058-4529-87E3-89A0F10EDEE7}" name="LARGO" dataDxfId="38">
-      <calculatedColumnFormula>LEN(Tabla4[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{C0311DC3-1821-46B4-BAF2-F825CC93183C}" name="NACIMIENTO" dataDxfId="37">
-      <calculatedColumnFormula>introduccion!E2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{C5EF39FB-0151-4B57-8F47-0735E6F3917B}" name="EDAD" dataDxfId="36">
-      <calculatedColumnFormula>(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{A025954B-A9FF-49BA-A580-9FA9F8B233C2}" name="AÑOS" dataDxfId="35">
-      <calculatedColumnFormula>$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{87222F79-CD71-4A63-90A3-41A2C008D14D}" name="Tabla5" displayName="Tabla5" ref="O3:P11" totalsRowShown="0">
-  <autoFilter ref="O3:P11" xr:uid="{87222F79-CD71-4A63-90A3-41A2C008D14D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B1C8C891-E7E4-433B-A848-68CBB4EF2B99}" name="FUNCION"/>
-    <tableColumn id="2" xr3:uid="{9312EEEF-C98D-4969-A056-95997DAF5EDF}" name="VALOR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3583,13 +4649,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AC326A-D860-495A-AF68-0E18AA2E36F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="132" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="132"/>
+      <c r="B3" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="133" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="132"/>
+      <c r="B5" s="133" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" location="empleados!A1" display="Empleados" xr:uid="{919F88BF-D0E1-4B06-9EE8-CB5DBB880573}"/>
+    <hyperlink ref="C3" location="asistencia!A1" display="Asistencia" xr:uid="{45573217-DB38-46CD-8437-6B3423E8E3EC}"/>
+    <hyperlink ref="D3" location="productos!A1" display="Productos" xr:uid="{58721D55-2978-4D2F-BD26-D7CED7AB97CA}"/>
+    <hyperlink ref="E3" location="ventas!A1" display="Ventas" xr:uid="{DD018C12-86A9-4B4F-947D-DBC880CBC4B3}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{F12823F8-3016-4C47-B8AD-2758926500EF}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{13B71C77-D4E3-4A36-B2A4-0B0F6D26A32C}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6A952D04-3486-4A1F-A173-73801EDE9564}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{7A9D3122-3A0F-4B5E-8F90-21C71B83C799}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4055,7 +5185,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,6 +5774,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4652,7 +5783,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4975,10 +6106,657 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3201E-A01B-475D-B6B7-7FA9E8CFEA3C}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D2" s="51" t="str">
+        <f>asistencia!A2</f>
+        <v>Racedo, Cristián</v>
+      </c>
+      <c r="E2" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Racedo</v>
+      </c>
+      <c r="F2" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Cristián</v>
+      </c>
+      <c r="G2" s="51" t="str">
+        <f>introduccion!D2</f>
+        <v>20-35336446-5</v>
+      </c>
+      <c r="H2" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="I2" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>35336446</v>
+      </c>
+      <c r="J2" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="K2" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>7</v>
+      </c>
+      <c r="L2" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>16</v>
+      </c>
+      <c r="M2" s="116">
+        <f>introduccion!E2</f>
+        <v>33346</v>
+      </c>
+      <c r="N2" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>31.490410958904111</v>
+      </c>
+      <c r="O2" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="52" t="str">
+        <f>asistencia!A3</f>
+        <v>Perez, Juan</v>
+      </c>
+      <c r="E3" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Perez</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Juan</v>
+      </c>
+      <c r="G3" s="52" t="str">
+        <f>introduccion!D3</f>
+        <v>20-43128323-1</v>
+      </c>
+      <c r="H3" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="I3" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>43128323</v>
+      </c>
+      <c r="J3" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>11</v>
+      </c>
+      <c r="M3" s="116">
+        <f>introduccion!E3</f>
+        <v>35632</v>
+      </c>
+      <c r="N3" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>25.227397260273971</v>
+      </c>
+      <c r="O3" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="70">
+        <f ca="1">TODAY()</f>
+        <v>44840</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="51" t="str">
+        <f>asistencia!A4</f>
+        <v>Gomez, Gonzalo</v>
+      </c>
+      <c r="E4" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Gomez</v>
+      </c>
+      <c r="F4" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Gonzalo</v>
+      </c>
+      <c r="G4" s="51" t="str">
+        <f>introduccion!D4</f>
+        <v>20-30283492-6</v>
+      </c>
+      <c r="H4" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="I4" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>30283492</v>
+      </c>
+      <c r="J4" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="K4" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>14</v>
+      </c>
+      <c r="M4" s="116">
+        <f>introduccion!E4</f>
+        <v>32048</v>
+      </c>
+      <c r="N4" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>35.046575342465751</v>
+      </c>
+      <c r="O4" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="117">
+        <f ca="1">NOW()</f>
+        <v>44840.504845833333</v>
+      </c>
+      <c r="D5" s="52" t="str">
+        <f>asistencia!A5</f>
+        <v>Fernandez, Daniela</v>
+      </c>
+      <c r="E5" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Fernandez</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Daniela</v>
+      </c>
+      <c r="G5" s="52" t="str">
+        <f>introduccion!D5</f>
+        <v>27-33230498-2</v>
+      </c>
+      <c r="H5" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="I5" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>33230498</v>
+      </c>
+      <c r="J5" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>10</v>
+      </c>
+      <c r="L5" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>18</v>
+      </c>
+      <c r="M5" s="116">
+        <f>introduccion!E5</f>
+        <v>32745</v>
+      </c>
+      <c r="N5" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>33.136986301369866</v>
+      </c>
+      <c r="O5" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6">
+        <f ca="1">YEAR(datos_hoy)</f>
+        <v>2022</v>
+      </c>
+      <c r="D6" s="51" t="str">
+        <f>asistencia!A6</f>
+        <v>Lopez, Carla</v>
+      </c>
+      <c r="E6" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Lopez</v>
+      </c>
+      <c r="F6" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Carla</v>
+      </c>
+      <c r="G6" s="51" t="str">
+        <f>introduccion!D6</f>
+        <v>27-38578293-4</v>
+      </c>
+      <c r="H6" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="I6" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>38578293</v>
+      </c>
+      <c r="J6" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>6</v>
+      </c>
+      <c r="L6" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>12</v>
+      </c>
+      <c r="M6" s="116">
+        <f>introduccion!E6</f>
+        <v>34169</v>
+      </c>
+      <c r="N6" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>29.235616438356164</v>
+      </c>
+      <c r="O6" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7">
+        <f ca="1">MONTH(datos_hoy)</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="52" t="str">
+        <f>asistencia!A7</f>
+        <v>Martinez, Mariano</v>
+      </c>
+      <c r="E7" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Martinez</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Mariano</v>
+      </c>
+      <c r="G7" s="52" t="str">
+        <f>introduccion!D7</f>
+        <v>20-28234973-3</v>
+      </c>
+      <c r="H7" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="I7" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>28234973</v>
+      </c>
+      <c r="J7" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>9</v>
+      </c>
+      <c r="L7" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>17</v>
+      </c>
+      <c r="M7" s="116">
+        <f>introduccion!E7</f>
+        <v>31901</v>
+      </c>
+      <c r="N7" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>35.449315068493149</v>
+      </c>
+      <c r="O7" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8">
+        <f ca="1">DAY(datos_hoy)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="51" t="str">
+        <f>asistencia!A8</f>
+        <v>Gonzalez, Gonzalo</v>
+      </c>
+      <c r="E8" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Gonzalez</v>
+      </c>
+      <c r="F8" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Gonzalo</v>
+      </c>
+      <c r="G8" s="51" t="str">
+        <f>introduccion!D8</f>
+        <v>20-39128371-1</v>
+      </c>
+      <c r="H8" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>39128371</v>
+      </c>
+      <c r="J8" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>9</v>
+      </c>
+      <c r="L8" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>17</v>
+      </c>
+      <c r="M8" s="116">
+        <f>introduccion!E8</f>
+        <v>34553</v>
+      </c>
+      <c r="N8" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>28.183561643835617</v>
+      </c>
+      <c r="O8" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9">
+        <f ca="1">HOUR(B5)</f>
+        <v>12</v>
+      </c>
+      <c r="D9" s="52" t="str">
+        <f>asistencia!A9</f>
+        <v>Jimenez, Jorge</v>
+      </c>
+      <c r="E9" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Jimenez</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Jorge</v>
+      </c>
+      <c r="G9" s="52" t="str">
+        <f>introduccion!D9</f>
+        <v>20-45019105-2</v>
+      </c>
+      <c r="H9" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>20</v>
+      </c>
+      <c r="I9" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>45019105</v>
+      </c>
+      <c r="J9" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>14</v>
+      </c>
+      <c r="M9" s="116">
+        <f>introduccion!E9</f>
+        <v>37891</v>
+      </c>
+      <c r="N9" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>19.038356164383561</v>
+      </c>
+      <c r="O9" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10">
+        <f ca="1">MINUTE(B5)</f>
+        <v>6</v>
+      </c>
+      <c r="D10" s="51" t="str">
+        <f>asistencia!A10</f>
+        <v>Gimenez, Gabriela</v>
+      </c>
+      <c r="E10" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Gimenez</v>
+      </c>
+      <c r="F10" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Gabriela</v>
+      </c>
+      <c r="G10" s="51" t="str">
+        <f>introduccion!D10</f>
+        <v>27-31203948-8</v>
+      </c>
+      <c r="H10" s="51" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="I10" s="113" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>31203948</v>
+      </c>
+      <c r="J10" s="51" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="51">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="51">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>17</v>
+      </c>
+      <c r="M10" s="116">
+        <f>introduccion!E10</f>
+        <v>31458</v>
+      </c>
+      <c r="N10" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>36.663013698630138</v>
+      </c>
+      <c r="O10" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11">
+        <f ca="1">SECOND(B5)</f>
+        <v>59</v>
+      </c>
+      <c r="D11" s="52" t="str">
+        <f>asistencia!A11</f>
+        <v>Lopez, Laura</v>
+      </c>
+      <c r="E11" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <v>Lopez</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <v>Laura</v>
+      </c>
+      <c r="G11" s="52" t="str">
+        <f>introduccion!D11</f>
+        <v>27-30192834-4</v>
+      </c>
+      <c r="H11" s="52" t="str">
+        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+        <v>27</v>
+      </c>
+      <c r="I11" s="114" t="str">
+        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+        <v>30192834</v>
+      </c>
+      <c r="J11" s="52" t="str">
+        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="52">
+        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>6</v>
+      </c>
+      <c r="L11" s="52">
+        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <v>12</v>
+      </c>
+      <c r="M11" s="116">
+        <f>introduccion!E11</f>
+        <v>31130</v>
+      </c>
+      <c r="N11" s="118">
+        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>37.561643835616437</v>
+      </c>
+      <c r="O11" s="120">
+        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B38092-0CDD-4546-9420-12554152D19D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4986,10 +6764,10 @@
   <dimension ref="A1:AP16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AG11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6387,649 +8165,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3201E-A01B-475D-B6B7-7FA9E8CFEA3C}">
-  <dimension ref="A1:Q11"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DFCC1-0733-4BBC-8410-31F61302687F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="99" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="99" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="115" t="s">
-        <v>230</v>
-      </c>
-      <c r="O1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="str">
-        <f>asistencia!A2</f>
-        <v>Racedo, Cristián</v>
-      </c>
-      <c r="B2" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Racedo</v>
-      </c>
-      <c r="C2" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Cristián</v>
-      </c>
-      <c r="D2" s="51" t="str">
-        <f>introduccion!D2</f>
-        <v>20-35336446-5</v>
-      </c>
-      <c r="E2" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="F2" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>35336446</v>
-      </c>
-      <c r="G2" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>5</v>
-      </c>
-      <c r="H2" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>7</v>
-      </c>
-      <c r="I2" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>16</v>
-      </c>
-      <c r="J2" s="116">
-        <f>introduccion!E2</f>
-        <v>33346</v>
-      </c>
-      <c r="K2" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>31.490410958904111</v>
-      </c>
-      <c r="L2" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="str">
-        <f>asistencia!A3</f>
-        <v>Perez, Juan</v>
-      </c>
-      <c r="B3" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Perez</v>
-      </c>
-      <c r="C3" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Juan</v>
-      </c>
-      <c r="D3" s="52" t="str">
-        <f>introduccion!D3</f>
-        <v>20-43128323-1</v>
-      </c>
-      <c r="E3" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>43128323</v>
-      </c>
-      <c r="G3" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>6</v>
-      </c>
-      <c r="I3" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>11</v>
-      </c>
-      <c r="J3" s="116">
-        <f>introduccion!E3</f>
-        <v>35632</v>
-      </c>
-      <c r="K3" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>25.227397260273971</v>
-      </c>
-      <c r="L3" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="str">
-        <f>asistencia!A4</f>
-        <v>Gomez, Gonzalo</v>
-      </c>
-      <c r="B4" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Gomez</v>
-      </c>
-      <c r="C4" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Gonzalo</v>
-      </c>
-      <c r="D4" s="51" t="str">
-        <f>introduccion!D4</f>
-        <v>20-30283492-6</v>
-      </c>
-      <c r="E4" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="F4" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>30283492</v>
-      </c>
-      <c r="G4" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>6</v>
-      </c>
-      <c r="H4" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>6</v>
-      </c>
-      <c r="I4" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>14</v>
-      </c>
-      <c r="J4" s="116">
-        <f>introduccion!E4</f>
-        <v>32048</v>
-      </c>
-      <c r="K4" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>35.046575342465751</v>
-      </c>
-      <c r="L4" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>219</v>
-      </c>
-      <c r="P4" s="70">
-        <f ca="1">TODAY()</f>
-        <v>44840</v>
-      </c>
-      <c r="Q4" s="119"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="str">
-        <f>asistencia!A5</f>
-        <v>Fernandez, Daniela</v>
-      </c>
-      <c r="B5" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Fernandez</v>
-      </c>
-      <c r="C5" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Daniela</v>
-      </c>
-      <c r="D5" s="52" t="str">
-        <f>introduccion!D5</f>
-        <v>27-33230498-2</v>
-      </c>
-      <c r="E5" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="F5" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>33230498</v>
-      </c>
-      <c r="G5" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>2</v>
-      </c>
-      <c r="H5" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>10</v>
-      </c>
-      <c r="I5" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>18</v>
-      </c>
-      <c r="J5" s="116">
-        <f>introduccion!E5</f>
-        <v>32745</v>
-      </c>
-      <c r="K5" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>33.136986301369866</v>
-      </c>
-      <c r="L5" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>220</v>
-      </c>
-      <c r="P5" s="117">
-        <f ca="1">NOW()</f>
-        <v>44840.475589120368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="str">
-        <f>asistencia!A6</f>
-        <v>Lopez, Carla</v>
-      </c>
-      <c r="B6" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Lopez</v>
-      </c>
-      <c r="C6" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Carla</v>
-      </c>
-      <c r="D6" s="51" t="str">
-        <f>introduccion!D6</f>
-        <v>27-38578293-4</v>
-      </c>
-      <c r="E6" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="F6" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>38578293</v>
-      </c>
-      <c r="G6" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>4</v>
-      </c>
-      <c r="H6" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>6</v>
-      </c>
-      <c r="I6" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>12</v>
-      </c>
-      <c r="J6" s="116">
-        <f>introduccion!E6</f>
-        <v>34169</v>
-      </c>
-      <c r="K6" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>29.235616438356164</v>
-      </c>
-      <c r="L6" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P6">
-        <f ca="1">YEAR(datos_hoy)</f>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="str">
-        <f>asistencia!A7</f>
-        <v>Martinez, Mariano</v>
-      </c>
-      <c r="B7" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Martinez</v>
-      </c>
-      <c r="C7" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Mariano</v>
-      </c>
-      <c r="D7" s="52" t="str">
-        <f>introduccion!D7</f>
-        <v>20-28234973-3</v>
-      </c>
-      <c r="E7" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="F7" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>28234973</v>
-      </c>
-      <c r="G7" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>3</v>
-      </c>
-      <c r="H7" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>9</v>
-      </c>
-      <c r="I7" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>17</v>
-      </c>
-      <c r="J7" s="116">
-        <f>introduccion!E7</f>
-        <v>31901</v>
-      </c>
-      <c r="K7" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>35.449315068493149</v>
-      </c>
-      <c r="L7" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>35</v>
-      </c>
-      <c r="O7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P7">
-        <f ca="1">MONTH(datos_hoy)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="str">
-        <f>asistencia!A8</f>
-        <v>Gonzalez, Gonzalo</v>
-      </c>
-      <c r="B8" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Gonzalez</v>
-      </c>
-      <c r="C8" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Gonzalo</v>
-      </c>
-      <c r="D8" s="51" t="str">
-        <f>introduccion!D8</f>
-        <v>20-39128371-1</v>
-      </c>
-      <c r="E8" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="F8" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>39128371</v>
-      </c>
-      <c r="G8" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>9</v>
-      </c>
-      <c r="I8" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>17</v>
-      </c>
-      <c r="J8" s="116">
-        <f>introduccion!E8</f>
-        <v>34553</v>
-      </c>
-      <c r="K8" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>28.183561643835617</v>
-      </c>
-      <c r="L8" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>28</v>
-      </c>
-      <c r="O8" t="s">
-        <v>221</v>
-      </c>
-      <c r="P8">
-        <f ca="1">DAY(datos_hoy)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="str">
-        <f>asistencia!A9</f>
-        <v>Jimenez, Jorge</v>
-      </c>
-      <c r="B9" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Jimenez</v>
-      </c>
-      <c r="C9" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Jorge</v>
-      </c>
-      <c r="D9" s="52" t="str">
-        <f>introduccion!D9</f>
-        <v>20-45019105-2</v>
-      </c>
-      <c r="E9" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="F9" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>45019105</v>
-      </c>
-      <c r="G9" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>8</v>
-      </c>
-      <c r="I9" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>14</v>
-      </c>
-      <c r="J9" s="116">
-        <f>introduccion!E9</f>
-        <v>37891</v>
-      </c>
-      <c r="K9" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>19.038356164383561</v>
-      </c>
-      <c r="L9" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>224</v>
-      </c>
-      <c r="P9">
-        <f ca="1">HOUR(P5)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="str">
-        <f>asistencia!A10</f>
-        <v>Gimenez, Gabriela</v>
-      </c>
-      <c r="B10" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Gimenez</v>
-      </c>
-      <c r="C10" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Gabriela</v>
-      </c>
-      <c r="D10" s="51" t="str">
-        <f>introduccion!D10</f>
-        <v>27-31203948-8</v>
-      </c>
-      <c r="E10" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="F10" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>31203948</v>
-      </c>
-      <c r="G10" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>8</v>
-      </c>
-      <c r="H10" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>8</v>
-      </c>
-      <c r="I10" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>17</v>
-      </c>
-      <c r="J10" s="116">
-        <f>introduccion!E10</f>
-        <v>31458</v>
-      </c>
-      <c r="K10" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>36.663013698630138</v>
-      </c>
-      <c r="L10" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>36</v>
-      </c>
-      <c r="O10" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10">
-        <f ca="1">MINUTE(P5)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="str">
-        <f>asistencia!A11</f>
-        <v>Lopez, Laura</v>
-      </c>
-      <c r="B11" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
-        <v>Lopez</v>
-      </c>
-      <c r="C11" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
-        <v>Laura</v>
-      </c>
-      <c r="D11" s="52" t="str">
-        <f>introduccion!D11</f>
-        <v>27-30192834-4</v>
-      </c>
-      <c r="E11" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="F11" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
-        <v>30192834</v>
-      </c>
-      <c r="G11" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
-        <v>4</v>
-      </c>
-      <c r="H11" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>6</v>
-      </c>
-      <c r="I11" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
-        <v>12</v>
-      </c>
-      <c r="J11" s="116">
-        <f>introduccion!E11</f>
-        <v>31130</v>
-      </c>
-      <c r="K11" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>37.561643835616437</v>
-      </c>
-      <c r="L11" s="120">
-        <f ca="1">$P$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
-        <v>37</v>
-      </c>
-      <c r="O11" t="s">
-        <v>226</v>
-      </c>
-      <c r="P11">
-        <f ca="1">SECOND(P5)</f>
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B4E47B-831B-4617-94F6-1B9F8B2C5B52}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -7037,7 +8185,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7609,8 +8757,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE570F-FB0F-4180-8411-12C0321F611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE31F6-D1F8-4AF4-8A13-1D5349354E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="410" firstSheet="4" activeTab="6" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -26,19 +26,29 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">asistencia!$A:$AH</definedName>
     <definedName name="asist">asistencia!$AG$2:$AG$11</definedName>
     <definedName name="aus">asistencia!$AF$2:$AF$11</definedName>
     <definedName name="datos_hoy">empleados!$B$4</definedName>
     <definedName name="hoy">empleados!$B$4</definedName>
     <definedName name="iva_ventas">ventas!$L$2</definedName>
     <definedName name="jornada">asistencia!$AP$2</definedName>
+    <definedName name="SegmentaciónDeDatos_categoria">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_proveedor">#N/A</definedName>
     <definedName name="separador">empleados!$B$1</definedName>
-    <definedName name="sueldos">Tabla3[sueldo]</definedName>
+    <definedName name="sueldos">asistencia[sueldo]</definedName>
     <definedName name="valor_hora">asistencia!$AO$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -93,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="325">
   <si>
     <t>apellido</t>
   </si>
@@ -828,23 +838,264 @@
   </si>
   <si>
     <t>Correo</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>salida</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>tecnologia</t>
+  </si>
+  <si>
+    <t>logitech</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>campera</t>
+  </si>
+  <si>
+    <t>indumentaria</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>pesas</t>
+  </si>
+  <si>
+    <t>deportes</t>
+  </si>
+  <si>
+    <t>dunlop</t>
+  </si>
+  <si>
+    <t>pelotas tenis 3u</t>
+  </si>
+  <si>
+    <t>placard 6 puertas</t>
+  </si>
+  <si>
+    <t>muebles</t>
+  </si>
+  <si>
+    <t>ikkea</t>
+  </si>
+  <si>
+    <t>Tablet 10''</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Filtro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funcion </t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Es igual a</t>
+  </si>
+  <si>
+    <t>No es igual a</t>
+  </si>
+  <si>
+    <t>Mayor que</t>
+  </si>
+  <si>
+    <t>Menor que</t>
+  </si>
+  <si>
+    <t>Menor o igual</t>
+  </si>
+  <si>
+    <t>Mayor o igual</t>
+  </si>
+  <si>
+    <t>A1 == 2</t>
+  </si>
+  <si>
+    <t>A1 != 2</t>
+  </si>
+  <si>
+    <t>A1 &lt; 2</t>
+  </si>
+  <si>
+    <t>A1 &lt;= 2</t>
+  </si>
+  <si>
+    <t>A1 &gt; 2</t>
+  </si>
+  <si>
+    <t>A1 &gt;= 2</t>
+  </si>
+  <si>
+    <t>valores</t>
+  </si>
+  <si>
+    <t>muestra</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>1,3,4,5</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>Comieza por</t>
+  </si>
+  <si>
+    <t>Termina con</t>
+  </si>
+  <si>
+    <t>Contiene</t>
+  </si>
+  <si>
+    <t>No Contiene</t>
+  </si>
+  <si>
+    <t>"alfa"</t>
+  </si>
+  <si>
+    <t>A1 == "alfa"</t>
+  </si>
+  <si>
+    <t>"alfa","beta", "gama", "delta", "epsilon", "zeta"</t>
+  </si>
+  <si>
+    <t>"beta", "gama", "delta", "epsilon", "zeta"</t>
+  </si>
+  <si>
+    <t>A1 != "alfa"</t>
+  </si>
+  <si>
+    <t>A1 == %a</t>
+  </si>
+  <si>
+    <t>A1 == a%</t>
+  </si>
+  <si>
+    <t>"alfa","beta", "gama", "delta", "zeta"</t>
+  </si>
+  <si>
+    <t>A1 == %e%</t>
+  </si>
+  <si>
+    <t>"beta", "delta", "epsilon", "zeta"</t>
+  </si>
+  <si>
+    <t>A1 != %e%</t>
+  </si>
+  <si>
+    <t>"alfa","gama"</t>
+  </si>
+  <si>
+    <t>electrodomesticos</t>
+  </si>
+  <si>
+    <t>Microondas</t>
+  </si>
+  <si>
+    <t>Lavarropas</t>
+  </si>
+  <si>
+    <t>Consola SONY PS4</t>
+  </si>
+  <si>
+    <t>entretenimiento</t>
+  </si>
+  <si>
+    <t>drean</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>Consola XBOX One</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Pantalones</t>
+  </si>
+  <si>
+    <t>levis</t>
+  </si>
+  <si>
+    <t>Horno Electrico</t>
+  </si>
+  <si>
+    <t>aire acondicionado 3500w</t>
+  </si>
+  <si>
+    <t>LED SmartTv 49''</t>
+  </si>
+  <si>
+    <t>reponer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +1143,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1114,7 +1373,7 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1261,7 +1520,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1318,6 +1576,36 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="8"/>
+    <xf numFmtId="20" fontId="1" fillId="11" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -1348,36 +1636,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="5"/>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="8"/>
-    <xf numFmtId="20" fontId="1" fillId="11" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1393,7 +1667,894 @@
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkVertical">
+          <fgColor theme="9"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2338,325 +3499,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
+      <border outline="0">
+        <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -2716,127 +3562,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3067,59 +3792,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>576188</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>40405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>728588</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2305</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Gráfico 12" descr="Hogar con relleno sólido">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C7C510-6179-4884-9B01-BFFDDDBBA8E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1588219" y="2135905"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17766</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3134,7 +3806,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="Gráfico 14" descr="Flecha lineal: giro a la izquierda con relleno sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C157EF5B-9C81-4AA8-9A03-B6C543EB8D4C}"/>
@@ -3146,13 +3818,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3199,13 +3871,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3252,11 +3924,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId17">
+                <a14:imgLayer r:embed="rId15">
                   <a14:imgEffect>
                     <a14:brightnessContrast bright="-40000" contrast="40000"/>
                   </a14:imgEffect>
@@ -3267,7 +3939,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId18"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3338,7 +4010,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="900">
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18" tooltip="https://ru.wikinews.org/wiki/%D0%A0%D0%BE%D1%81%D0%BA%D0%BE%D0%BC%D0%BD%D0%B0%D0%B4%D0%B7%D0%BE%D1%80_%D0%B7%D0%B0%D0%B1%D0%BB%D0%BE%D0%BA%D0%B8%D1%80%D0%BE%D0%B2%D0%B0%D0%BB_GitHub_%D0%B7%D0%B0_%C2%AB%D0%A1%D0%BF%D0%BE%D1%81%D0%BE%D0%B1%D1%8B_%D1%81%D0%B0%D0%BC%D0%BE%D1%83%D0%B1%D0%B8%D0%B9%D1%81%D1%82%D0%B2%D0%B0%C2%BB"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16" tooltip="https://ru.wikinews.org/wiki/%D0%A0%D0%BE%D1%81%D0%BA%D0%BE%D0%BC%D0%BD%D0%B0%D0%B4%D0%B7%D0%BE%D1%80_%D0%B7%D0%B0%D0%B1%D0%BB%D0%BE%D0%BA%D0%B8%D1%80%D0%BE%D0%B2%D0%B0%D0%BB_GitHub_%D0%B7%D0%B0_%C2%AB%D0%A1%D0%BF%D0%BE%D1%81%D0%BE%D0%B1%D1%8B_%D1%81%D0%B0%D0%BC%D0%BE%D1%83%D0%B1%D0%B8%D0%B9%D1%81%D1%82%D0%B2%D0%B0%C2%BB"/>
             </a:rPr>
             <a:t>Esta foto</a:t>
           </a:r>
@@ -3348,7 +4020,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-AR" sz="900">
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tooltip="https://creativecommons.org/licenses/by/3.0/"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17" tooltip="https://creativecommons.org/licenses/by/3.0/"/>
             </a:rPr>
             <a:t>CC BY</a:t>
           </a:r>
@@ -3385,13 +4057,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3438,13 +4110,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3491,6 +4163,59 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797844" y="1172765"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>737860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>737859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Gráfico 3" descr="Lápiz con relleno sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB25067-B545-4815-B76F-ED770D0F0885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -3507,7 +4232,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1797844" y="1172765"/>
+          <a:off x="3315891" y="1172765"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3589,16 +4314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>73270</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161192</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241790</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>178905</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>39692</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>691790</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3631,7 +4356,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73270" y="2264019"/>
+          <a:off x="8323386" y="0"/>
           <a:ext cx="450000" cy="450000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4003,6 +4728,167 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1598543</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="categoria">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A7C878-09E6-4A6C-8A45-846B5B279FDE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="categoria"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="1598543" cy="1134717"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1590261</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="proveedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1C05D2-0D8F-4120-9886-B545FA6465C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="proveedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1200979"/>
+              <a:ext cx="1590261" cy="2029238"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4163,45 +5049,90 @@
 </rvStructures>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_categoria" xr10:uid="{3B74A92D-C978-4043-8418-F967FC17DB58}" sourceName="categoria">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="7"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_proveedor" xr10:uid="{4732BE59-547F-410A-98EF-B13DC7BC77B6}" sourceName="proveedor">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="5"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="categoria" xr10:uid="{4A55108E-A759-412F-9C3A-6BA9599CD00A}" cache="SegmentaciónDeDatos_categoria" caption="categoria" startItem="4" rowHeight="241300"/>
+  <slicer name="proveedor" xr10:uid="{92DF7A0E-5226-4496-8EB3-F368669361C8}" cache="SegmentaciónDeDatos_proveedor" caption="proveedor" startItem="3" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}" name="Tabla4" displayName="Tabla4" ref="D1:O11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
-  <autoFilter ref="D1:O11" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AD2BFDC6-9212-4AF1-A883-4F5292CC8670}" name="EMPLEADO" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}" name="empleados" displayName="empleados" ref="D1:S12" totalsRowCount="1" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80">
+  <autoFilter ref="D1:S11" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{AD2BFDC6-9212-4AF1-A883-4F5292CC8670}" name="EMPLEADO" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="20">
       <calculatedColumnFormula>asistencia!A2</calculatedColumnFormula>
+      <totalsRowFormula>COUNTA(empleados[EMPLEADO])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9941B11B-F67E-4F32-82D2-B86FEB7E9F6E}" name="APELLIDO" dataDxfId="45">
-      <calculatedColumnFormula>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{9941B11B-F67E-4F32-82D2-B86FEB7E9F6E}" name="APELLIDO" dataDxfId="35" totalsRowDxfId="19">
+      <calculatedColumnFormula>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DEEF5E54-5054-45B9-B8EE-A5D09A981708}" name="NOMBRE" dataDxfId="44">
-      <calculatedColumnFormula>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{DEEF5E54-5054-45B9-B8EE-A5D09A981708}" name="NOMBRE" dataDxfId="34" totalsRowDxfId="18">
+      <calculatedColumnFormula>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4F40C219-FD97-4CAB-B243-ECFB4C424AFF}" name="CUIL" dataDxfId="43">
+    <tableColumn id="2" xr3:uid="{4F40C219-FD97-4CAB-B243-ECFB4C424AFF}" name="CUIL" dataDxfId="33" totalsRowDxfId="17">
       <calculatedColumnFormula>introduccion!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{62C6429F-DFB5-4F13-9C8C-F4F9A8B2BFF4}" name="TIPO" dataDxfId="42">
-      <calculatedColumnFormula>LEFT(Tabla4[[#This Row],[CUIL]],2)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{62C6429F-DFB5-4F13-9C8C-F4F9A8B2BFF4}" name="TIPO" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="16">
+      <calculatedColumnFormula>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</calculatedColumnFormula>
+      <totalsRowFormula>MODE(empleados[TIPO])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{19B71444-5CC4-45F1-8222-5A8DBAD1B101}" name="DOCUMENTO" dataDxfId="41" dataCellStyle="Millares">
-      <calculatedColumnFormula>MID(Tabla4[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{19B71444-5CC4-45F1-8222-5A8DBAD1B101}" name="DOCUMENTO" dataDxfId="31" totalsRowDxfId="15" dataCellStyle="Millares">
+      <calculatedColumnFormula>MID(empleados[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E886725E-39BE-415C-979A-1175DA7DBC26}" name="VERIF" dataDxfId="40">
-      <calculatedColumnFormula>RIGHT(Tabla4[[#This Row],[CUIL]],1)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{E886725E-39BE-415C-979A-1175DA7DBC26}" name="VERIF" dataDxfId="30" totalsRowDxfId="14">
+      <calculatedColumnFormula>RIGHT(empleados[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C0528248-53F2-4B9A-B0FC-54DAC797D388}" name="CHAR" dataDxfId="39">
-      <calculatedColumnFormula>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{C0528248-53F2-4B9A-B0FC-54DAC797D388}" name="CHAR" dataDxfId="29" totalsRowDxfId="13">
+      <calculatedColumnFormula>FIND(separador,empleados[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7ACF23E0-4058-4529-87E3-89A0F10EDEE7}" name="LARGO" dataDxfId="38">
-      <calculatedColumnFormula>LEN(Tabla4[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{7ACF23E0-4058-4529-87E3-89A0F10EDEE7}" name="LARGO" totalsRowFunction="max" dataDxfId="28" totalsRowDxfId="12">
+      <calculatedColumnFormula>LEN(empleados[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C0311DC3-1821-46B4-BAF2-F825CC93183C}" name="NACIMIENTO" dataDxfId="37">
+    <tableColumn id="10" xr3:uid="{C0311DC3-1821-46B4-BAF2-F825CC93183C}" name="NACIMIENTO" dataDxfId="27" totalsRowDxfId="11">
       <calculatedColumnFormula>introduccion!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C5EF39FB-0151-4B57-8F47-0735E6F3917B}" name="EDAD" dataDxfId="36">
-      <calculatedColumnFormula>(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{C5EF39FB-0151-4B57-8F47-0735E6F3917B}" name="EDAD" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="10">
+      <calculatedColumnFormula>(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(empleados[EDAD])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A025954B-A9FF-49BA-A580-9FA9F8B233C2}" name="AÑOS" dataDxfId="35">
-      <calculatedColumnFormula>$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{A025954B-A9FF-49BA-A580-9FA9F8B233C2}" name="AÑOS" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="9">
+      <calculatedColumnFormula>$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(empleados[AÑOS])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{2EAA4AB1-5773-4D81-8119-48C5A0C08F69}" name="entrada" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="8">
+      <totalsRowFormula>MEDIAN(empleados[entrada])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{341FD674-15E1-44A6-B749-E39DAB5E740A}" name="salida" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="7">
+      <totalsRowFormula>MEDIAN(empleados[salida])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{3C8E616C-CB51-4D78-B9BD-1CEB59933A8F}" name="H" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="6">
+      <calculatedColumnFormula>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(empleados[H])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{21F27A62-D009-45A5-A9C8-60FBC9C20CF7}" name="mm" totalsRowFunction="custom" dataDxfId="21">
+      <calculatedColumnFormula>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(empleados[mm])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4209,120 +5140,109 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{87222F79-CD71-4A63-90A3-41A2C008D14D}" name="Tabla5" displayName="Tabla5" ref="A3:B11" totalsRowShown="0">
-  <autoFilter ref="A3:B11" xr:uid="{87222F79-CD71-4A63-90A3-41A2C008D14D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B1C8C891-E7E4-433B-A848-68CBB4EF2B99}" name="FUNCION"/>
-    <tableColumn id="2" xr3:uid="{9312EEEF-C98D-4969-A056-95997DAF5EDF}" name="VALOR"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}" name="Tabla3" displayName="Tabla3" ref="A1:AH12" totalsRowCount="1" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}" name="asistencia" displayName="asistencia" ref="A1:AH12" totalsRowCount="1" tableBorderDxfId="79">
   <autoFilter ref="A1:AH11" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{FFB40CFD-2FB0-4BA8-9AD2-20F41FFE821E}" name="EMPLEADOS" totalsRowLabel="Total" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{FFB40CFD-2FB0-4BA8-9AD2-20F41FFE821E}" name="EMPLEADOS" totalsRowLabel="Total" dataDxfId="78">
       <calculatedColumnFormula>_xlfn.CONCAT(introduccion!C2&amp;", "&amp;introduccion!B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7CD2E68C-D07C-4635-B469-EBACA13F9D82}" name="01/09/22" totalsRowFunction="custom" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{7CD2E68C-D07C-4635-B469-EBACA13F9D82}" name="01/09/22" totalsRowFunction="custom" dataDxfId="77">
       <totalsRowFormula>COUNTA($A$2:$A$11) - COUNTBLANK(B2:B11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6782312C-2AED-4FF2-B804-F6EC82A9B619}" name="02/09/22" totalsRowFunction="custom" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{6782312C-2AED-4FF2-B804-F6EC82A9B619}" name="02/09/22" totalsRowFunction="custom" dataDxfId="76">
       <totalsRowFormula>COUNTBLANK(C2:C11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6A44F1E-D0D7-4343-B875-865BCF5DE859}" name="03/09/22" totalsRowFunction="custom" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{C6A44F1E-D0D7-4343-B875-865BCF5DE859}" name="03/09/22" totalsRowFunction="custom" dataDxfId="75">
       <totalsRowFormula>COUNTBLANK(D2:D11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1B6A406D-2E5A-4E52-9AF8-9BBB22029492}" name="04/09/22" totalsRowFunction="custom" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{1B6A406D-2E5A-4E52-9AF8-9BBB22029492}" name="04/09/22" totalsRowFunction="custom" dataDxfId="74">
       <totalsRowFormula>COUNTBLANK(E2:E11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8B393F8F-816E-412F-8868-DE374FC96561}" name="05/09/22" totalsRowFunction="custom" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{8B393F8F-816E-412F-8868-DE374FC96561}" name="05/09/22" totalsRowFunction="custom" dataDxfId="73">
       <totalsRowFormula>COUNTBLANK(F2:F11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A3EEB526-D699-481A-B321-F21F70B94670}" name="06/09/22" totalsRowFunction="custom" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{A3EEB526-D699-481A-B321-F21F70B94670}" name="06/09/22" totalsRowFunction="custom" dataDxfId="72">
       <totalsRowFormula>COUNTBLANK(G2:G11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F22C56C5-CB9F-40AD-81E2-33C9F951222A}" name="07/09/22" totalsRowFunction="custom" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{F22C56C5-CB9F-40AD-81E2-33C9F951222A}" name="07/09/22" totalsRowFunction="custom" dataDxfId="71">
       <totalsRowFormula>COUNTBLANK(H2:H11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{73160653-73D2-4AB2-AF88-C92D864411FC}" name="08/09/22" totalsRowFunction="custom" dataDxfId="26">
+    <tableColumn id="9" xr3:uid="{73160653-73D2-4AB2-AF88-C92D864411FC}" name="08/09/22" totalsRowFunction="custom" dataDxfId="70">
       <totalsRowFormula>COUNTBLANK(I2:I11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81C87D0C-5C80-4ADA-9017-C1883C821D5F}" name="09/09/22" totalsRowFunction="custom" dataDxfId="25">
+    <tableColumn id="10" xr3:uid="{81C87D0C-5C80-4ADA-9017-C1883C821D5F}" name="09/09/22" totalsRowFunction="custom" dataDxfId="69">
       <totalsRowFormula>COUNTBLANK(J2:J11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C452CA74-AE98-4EBE-B4AF-BFD228DE07E6}" name="10/09/22" totalsRowFunction="custom" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{C452CA74-AE98-4EBE-B4AF-BFD228DE07E6}" name="10/09/22" totalsRowFunction="custom" dataDxfId="68">
       <totalsRowFormula>COUNTBLANK(K2:K11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{58FFD11A-AC9F-4F8E-8D7E-4F699E6FFAF5}" name="11/09/22" totalsRowFunction="custom" dataDxfId="23">
+    <tableColumn id="12" xr3:uid="{58FFD11A-AC9F-4F8E-8D7E-4F699E6FFAF5}" name="11/09/22" totalsRowFunction="custom" dataDxfId="67">
       <totalsRowFormula>COUNTBLANK(L2:L11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{EF89081F-FC50-4D28-B748-E215BB32BF49}" name="12/09/22" totalsRowFunction="custom" dataDxfId="22">
+    <tableColumn id="13" xr3:uid="{EF89081F-FC50-4D28-B748-E215BB32BF49}" name="12/09/22" totalsRowFunction="custom" dataDxfId="66">
       <totalsRowFormula>COUNTBLANK(M2:M11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9DC5AC26-133B-4292-A104-18BDAEB4A78F}" name="13/09/22" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="14" xr3:uid="{9DC5AC26-133B-4292-A104-18BDAEB4A78F}" name="13/09/22" totalsRowFunction="custom" dataDxfId="65">
       <totalsRowFormula>COUNTBLANK(N2:N11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A771D892-D621-46F4-9537-1B265C8E9A36}" name="14/09/22" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="15" xr3:uid="{A771D892-D621-46F4-9537-1B265C8E9A36}" name="14/09/22" totalsRowFunction="custom" dataDxfId="64">
       <totalsRowFormula>COUNTBLANK(O2:O11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1F6F4D30-C62F-4312-9A7E-E1167AF5A05D}" name="15/09/22" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="16" xr3:uid="{1F6F4D30-C62F-4312-9A7E-E1167AF5A05D}" name="15/09/22" totalsRowFunction="custom" dataDxfId="63">
       <totalsRowFormula>COUNTBLANK(P2:P11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2D64B6B4-4A83-487B-9E69-1C35894B58C5}" name="16/09/22" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="17" xr3:uid="{2D64B6B4-4A83-487B-9E69-1C35894B58C5}" name="16/09/22" totalsRowFunction="custom" dataDxfId="62">
       <totalsRowFormula>COUNTBLANK(Q2:Q11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{66F27389-1D9E-4B4E-AF0D-D7BB5386C4E2}" name="17/09/22" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="18" xr3:uid="{66F27389-1D9E-4B4E-AF0D-D7BB5386C4E2}" name="17/09/22" totalsRowFunction="custom" dataDxfId="61">
       <totalsRowFormula>COUNTBLANK(R2:R11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DC182874-F7F9-48B4-BA09-DF7DD0C46D02}" name="18/09/22" totalsRowFunction="custom" dataDxfId="16">
+    <tableColumn id="19" xr3:uid="{DC182874-F7F9-48B4-BA09-DF7DD0C46D02}" name="18/09/22" totalsRowFunction="custom" dataDxfId="60">
       <totalsRowFormula>COUNTBLANK(S2:S11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{F211762A-904D-400D-8935-B6F09029DC73}" name="19/09/22" totalsRowFunction="custom" dataDxfId="15">
+    <tableColumn id="20" xr3:uid="{F211762A-904D-400D-8935-B6F09029DC73}" name="19/09/22" totalsRowFunction="custom" dataDxfId="59">
       <totalsRowFormula>COUNTBLANK(T2:T11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{3C17D129-9505-44DD-BBE0-ABF261CDE4BE}" name="20/09/22" totalsRowFunction="custom" dataDxfId="14">
+    <tableColumn id="21" xr3:uid="{3C17D129-9505-44DD-BBE0-ABF261CDE4BE}" name="20/09/22" totalsRowFunction="custom" dataDxfId="58">
       <totalsRowFormula>COUNTBLANK(U2:U11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3839BFCA-649A-4DA4-9CC5-401179A69E94}" name="21/09/22" totalsRowFunction="custom" dataDxfId="13">
+    <tableColumn id="22" xr3:uid="{3839BFCA-649A-4DA4-9CC5-401179A69E94}" name="21/09/22" totalsRowFunction="custom" dataDxfId="57">
       <totalsRowFormula>COUNTBLANK(V2:V11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{CFA2F06A-8EE1-416E-910B-59D7BC443557}" name="22/09/22" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="23" xr3:uid="{CFA2F06A-8EE1-416E-910B-59D7BC443557}" name="22/09/22" totalsRowFunction="custom" dataDxfId="56">
       <totalsRowFormula>COUNTBLANK(W2:W11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{FF543CC5-D769-401F-B919-8083D15D1E25}" name="23/09/22" totalsRowFunction="custom" dataDxfId="11">
+    <tableColumn id="24" xr3:uid="{FF543CC5-D769-401F-B919-8083D15D1E25}" name="23/09/22" totalsRowFunction="custom" dataDxfId="55">
       <totalsRowFormula>COUNTBLANK(X2:X11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{19785421-596B-4949-9FE6-AC04B9A8A0B8}" name="24/09/22" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="25" xr3:uid="{19785421-596B-4949-9FE6-AC04B9A8A0B8}" name="24/09/22" totalsRowFunction="custom" dataDxfId="54">
       <totalsRowFormula>COUNTBLANK(Y2:Y11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{77DCF724-123A-4A25-A01B-4B525F174906}" name="25/09/22" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="26" xr3:uid="{77DCF724-123A-4A25-A01B-4B525F174906}" name="25/09/22" totalsRowFunction="custom" dataDxfId="53">
       <totalsRowFormula>COUNTBLANK(Z2:Z11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{AC499496-18FA-4796-B6D1-8CB8B24D4635}" name="26/09/22" totalsRowFunction="custom" dataDxfId="8">
+    <tableColumn id="27" xr3:uid="{AC499496-18FA-4796-B6D1-8CB8B24D4635}" name="26/09/22" totalsRowFunction="custom" dataDxfId="52">
       <totalsRowFormula>COUNTBLANK(AA2:AA11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{D4ED44DE-9137-499F-85ED-BCD7ECD9A1EA}" name="27/09/22" totalsRowFunction="custom" dataDxfId="7">
+    <tableColumn id="28" xr3:uid="{D4ED44DE-9137-499F-85ED-BCD7ECD9A1EA}" name="27/09/22" totalsRowFunction="custom" dataDxfId="51">
       <totalsRowFormula>COUNTBLANK(AB2:AB11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{E385E835-FA8B-4251-9748-1E5B35CF35FC}" name="28/09/22" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="29" xr3:uid="{E385E835-FA8B-4251-9748-1E5B35CF35FC}" name="28/09/22" totalsRowFunction="custom" dataDxfId="50">
       <totalsRowFormula>COUNTBLANK(AC2:AC11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{0D4459DA-D655-4F90-A83C-FD20F4AD3F3E}" name="29/09/22" totalsRowFunction="custom" dataDxfId="5">
+    <tableColumn id="30" xr3:uid="{0D4459DA-D655-4F90-A83C-FD20F4AD3F3E}" name="29/09/22" totalsRowFunction="custom" dataDxfId="49">
       <totalsRowFormula>COUNTBLANK(AD2:AD11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{32451497-3DB8-4B31-ADDF-E9C1A2599C46}" name="30/09/22" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="31" xr3:uid="{32451497-3DB8-4B31-ADDF-E9C1A2599C46}" name="30/09/22" totalsRowFunction="custom" dataDxfId="48">
       <totalsRowFormula>COUNTBLANK(AE2:AE11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{3DD562B3-0719-4D45-8340-C2ACEA5547A7}" name="Aus." totalsRowFunction="sum" dataDxfId="3">
+    <tableColumn id="32" xr3:uid="{3DD562B3-0719-4D45-8340-C2ACEA5547A7}" name="Aus." totalsRowFunction="sum" dataDxfId="47">
       <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{FB33E439-6F10-43AB-8172-EF83DE1E891A}" name="Asist." totalsRowFunction="sum" dataDxfId="2">
+    <tableColumn id="33" xr3:uid="{FB33E439-6F10-43AB-8172-EF83DE1E891A}" name="Asist." totalsRowFunction="sum" dataDxfId="46">
       <calculatedColumnFormula>COUNTA($B$1:$AE$1) - AF2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{0D66ED41-FA53-4A07-8873-DA93C74A6065}" name="sueldo" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="34" xr3:uid="{0D66ED41-FA53-4A07-8873-DA93C74A6065}" name="sueldo" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula array="1">AG2*valor_hora*jornada</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4330,23 +5250,44 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{999E0200-E4B7-466D-8D1A-BFC48C41AEAD}" name="Tabla2" displayName="Tabla2" ref="C1:I17" totalsRowShown="0">
+  <autoFilter ref="C1:I17" xr:uid="{999E0200-E4B7-466D-8D1A-BFC48C41AEAD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:I17">
+    <sortCondition ref="C1:C17"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{219F5B7E-D8F1-4D71-A7D2-CE12FFC1D082}" name="codigo"/>
+    <tableColumn id="2" xr3:uid="{466C7B34-0A79-4FE0-9FA5-31DEDBF20899}" name="producto"/>
+    <tableColumn id="3" xr3:uid="{A6107C8B-32BB-4ED2-B185-CE6F6D183D48}" name="stock"/>
+    <tableColumn id="4" xr3:uid="{767E403C-9FBB-4BCE-9865-EF64259A8953}" name="precio" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{A963D90F-E9F8-4FC4-8718-F7142DB1FD23}" name="categoria"/>
+    <tableColumn id="5" xr3:uid="{94932026-CF59-4D21-87B8-F036F8B814F6}" name="proveedor"/>
+    <tableColumn id="6" xr3:uid="{07D0E63B-FFEF-4AD5-9550-F9F71A9F24CB}" name="reponer" dataDxfId="2">
+      <calculatedColumnFormula>Tabla2[[#This Row],[stock]]&lt;=5000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
   <autoFilter ref="D1:J19" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3AC5DBD6-A04E-4E7D-B94E-AE2A136DF070}" name="codigo"/>
     <tableColumn id="2" xr3:uid="{274BE5D4-57A6-4F62-AF29-6B2030F1B528}" name="cant"/>
-    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="54" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="53" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="41" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="40" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="52" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="39" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*iva_ventas</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="51" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="38" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4649,10 +5590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AC326A-D860-495A-AF68-0E18AA2E36F9}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,46 +5605,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="121" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="119" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="121" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="120" t="s">
         <v>240</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4717,9 +5664,10 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{13B71C77-D4E3-4A36-B2A4-0B0F6D26A32C}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{6A952D04-3486-4A1F-A173-73801EDE9564}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{7A9D3122-3A0F-4B5E-8F90-21C71B83C799}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{3E6E8C30-2042-4A90-8941-81977A4B9F8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4729,7 +5677,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,10 +5699,10 @@
       <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="34" t="s">
@@ -4780,10 +5728,10 @@
       <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="81" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -4809,10 +5757,10 @@
       <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="42" t="s">
@@ -4867,10 +5815,10 @@
       <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="42" t="s">
@@ -4925,10 +5873,10 @@
       <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="82" t="s">
         <v>150</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -4937,7 +5885,7 @@
       <c r="E7" s="19">
         <v>31901</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="70" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="12">
@@ -4973,10 +5921,10 @@
       <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="82" t="s">
         <v>152</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -5022,10 +5970,10 @@
       <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="82" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -5184,7 +6132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F921C-C865-4A35-A062-281C1CB55D2D}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -5200,574 +6148,574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="128">
+      <c r="J1" s="116">
         <v>1</v>
       </c>
-      <c r="K1" s="128">
+      <c r="K1" s="116">
         <v>2</v>
       </c>
-      <c r="L1" s="128">
+      <c r="L1" s="116">
         <v>3</v>
       </c>
-      <c r="M1" s="128">
+      <c r="M1" s="116">
         <v>4</v>
       </c>
-      <c r="N1" s="128">
+      <c r="N1" s="116">
         <v>5</v>
       </c>
-      <c r="O1" s="128">
+      <c r="O1" s="116">
         <v>6</v>
       </c>
-      <c r="P1" s="128">
+      <c r="P1" s="116">
         <v>7</v>
       </c>
-      <c r="Q1" s="128">
+      <c r="Q1" s="116">
         <v>8</v>
       </c>
-      <c r="R1" s="128">
+      <c r="R1" s="116">
         <v>9</v>
       </c>
-      <c r="S1" s="128">
+      <c r="S1" s="116">
         <v>10</v>
       </c>
-      <c r="T1" s="128">
+      <c r="T1" s="116">
         <v>11</v>
       </c>
-      <c r="U1" s="128">
+      <c r="U1" s="116">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="128">
+      <c r="A2" s="116">
         <v>1</v>
       </c>
-      <c r="B2" s="130">
+      <c r="B2" s="118">
         <v>0.25</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="125">
+      <c r="F2" s="113">
         <v>44805</v>
       </c>
-      <c r="G2" s="127">
+      <c r="G2" s="115">
         <v>0</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="130">
+      <c r="J2" s="118">
         <v>0.25</v>
       </c>
-      <c r="K2" s="130">
+      <c r="K2" s="118">
         <v>0.5</v>
       </c>
-      <c r="L2" s="130">
+      <c r="L2" s="118">
         <v>0.75</v>
       </c>
-      <c r="M2" s="130">
+      <c r="M2" s="118">
         <v>1</v>
       </c>
-      <c r="N2" s="130">
+      <c r="N2" s="118">
         <v>1.25</v>
       </c>
-      <c r="O2" s="130">
+      <c r="O2" s="118">
         <v>1.5</v>
       </c>
-      <c r="P2" s="130">
+      <c r="P2" s="118">
         <v>1.75</v>
       </c>
-      <c r="Q2" s="130">
+      <c r="Q2" s="118">
         <v>2</v>
       </c>
-      <c r="R2" s="130">
+      <c r="R2" s="118">
         <v>2.25</v>
       </c>
-      <c r="S2" s="130">
+      <c r="S2" s="118">
         <v>2.5</v>
       </c>
-      <c r="T2" s="130">
+      <c r="T2" s="118">
         <v>2.75</v>
       </c>
-      <c r="U2" s="130">
+      <c r="U2" s="118">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="128">
+      <c r="A3" s="116">
         <v>2</v>
       </c>
-      <c r="B3" s="130">
+      <c r="B3" s="118">
         <v>0.5</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="125">
+      <c r="F3" s="113">
         <v>44806</v>
       </c>
-      <c r="G3" s="127">
+      <c r="G3" s="115">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="I3" s="128" t="s">
+      <c r="I3" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="129" t="s">
+      <c r="J3" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="K3" s="129" t="s">
+      <c r="K3" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="129" t="s">
+      <c r="L3" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="129" t="s">
+      <c r="M3" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="N3" s="129" t="s">
+      <c r="N3" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="O3" s="129" t="s">
+      <c r="O3" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="129" t="s">
+      <c r="P3" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="Q3" s="129" t="s">
+      <c r="Q3" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="R3" s="129" t="s">
+      <c r="R3" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="129" t="s">
+      <c r="S3" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="T3" s="129" t="s">
+      <c r="T3" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="U3" s="129" t="s">
+      <c r="U3" s="117" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="128">
+      <c r="A4" s="116">
         <v>3</v>
       </c>
-      <c r="B4" s="130">
+      <c r="B4" s="118">
         <v>0.75</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F4" s="113">
         <v>44807</v>
       </c>
-      <c r="G4" s="127">
+      <c r="G4" s="115">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="123" t="s">
+      <c r="M4" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="123" t="s">
+      <c r="N4" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="123" t="s">
+      <c r="O4" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="123" t="s">
+      <c r="P4" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="123" t="s">
+      <c r="Q4" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="123" t="s">
+      <c r="R4" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="S4" s="123" t="s">
+      <c r="S4" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="T4" s="123" t="s">
+      <c r="T4" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="111" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="128">
+      <c r="A5" s="116">
         <v>4</v>
       </c>
-      <c r="B5" s="130">
+      <c r="B5" s="118">
         <v>1</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="122" t="s">
+      <c r="E5" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="113">
         <v>44808</v>
       </c>
-      <c r="G5" s="127">
+      <c r="G5" s="115">
         <v>0.125</v>
       </c>
-      <c r="I5" s="122" t="s">
+      <c r="I5" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="122" t="s">
+      <c r="J5" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="122" t="s">
+      <c r="K5" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="L5" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="122" t="s">
+      <c r="M5" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="122" t="s">
+      <c r="N5" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="O5" s="122" t="s">
+      <c r="O5" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="P5" s="122" t="s">
+      <c r="P5" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="Q5" s="122" t="s">
+      <c r="Q5" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="R5" s="122" t="s">
+      <c r="R5" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="S5" s="122" t="s">
+      <c r="S5" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="T5" s="122" t="s">
+      <c r="T5" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="U5" s="122" t="s">
+      <c r="U5" s="110" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="128">
+      <c r="A6" s="116">
         <v>5</v>
       </c>
-      <c r="B6" s="130">
+      <c r="B6" s="118">
         <v>1.25</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="113">
         <v>44809</v>
       </c>
-      <c r="G6" s="127">
+      <c r="G6" s="115">
         <v>0.16666666666666699</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="125">
+      <c r="J6" s="113">
         <v>44805</v>
       </c>
-      <c r="K6" s="125">
+      <c r="K6" s="113">
         <v>44806</v>
       </c>
-      <c r="L6" s="125">
+      <c r="L6" s="113">
         <v>44807</v>
       </c>
-      <c r="M6" s="125">
+      <c r="M6" s="113">
         <v>44808</v>
       </c>
-      <c r="N6" s="125">
+      <c r="N6" s="113">
         <v>44809</v>
       </c>
-      <c r="O6" s="125">
+      <c r="O6" s="113">
         <v>44810</v>
       </c>
-      <c r="P6" s="125">
+      <c r="P6" s="113">
         <v>44811</v>
       </c>
-      <c r="Q6" s="125">
+      <c r="Q6" s="113">
         <v>44812</v>
       </c>
-      <c r="R6" s="125">
+      <c r="R6" s="113">
         <v>44813</v>
       </c>
-      <c r="S6" s="125">
+      <c r="S6" s="113">
         <v>44814</v>
       </c>
-      <c r="T6" s="125">
+      <c r="T6" s="113">
         <v>44815</v>
       </c>
-      <c r="U6" s="125">
+      <c r="U6" s="113">
         <v>44816</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="128">
+      <c r="A7" s="116">
         <v>6</v>
       </c>
-      <c r="B7" s="130">
+      <c r="B7" s="118">
         <v>1.5</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="113">
         <v>44810</v>
       </c>
-      <c r="G7" s="127">
+      <c r="G7" s="115">
         <v>0.20833333333333301</v>
       </c>
-      <c r="I7" s="126" t="s">
+      <c r="I7" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="127">
+      <c r="J7" s="115">
         <v>0</v>
       </c>
-      <c r="K7" s="127">
+      <c r="K7" s="115">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="L7" s="127">
+      <c r="L7" s="115">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="M7" s="127">
+      <c r="M7" s="115">
         <v>0.125</v>
       </c>
-      <c r="N7" s="127">
+      <c r="N7" s="115">
         <v>0.16666666666666699</v>
       </c>
-      <c r="O7" s="127">
+      <c r="O7" s="115">
         <v>0.20833333333333301</v>
       </c>
-      <c r="P7" s="127">
+      <c r="P7" s="115">
         <v>0.25</v>
       </c>
-      <c r="Q7" s="127">
+      <c r="Q7" s="115">
         <v>0.29166666666666702</v>
       </c>
-      <c r="R7" s="127">
+      <c r="R7" s="115">
         <v>0.33333333333333298</v>
       </c>
-      <c r="S7" s="127">
+      <c r="S7" s="115">
         <v>0.375</v>
       </c>
-      <c r="T7" s="127">
+      <c r="T7" s="115">
         <v>0.41666666666666702</v>
       </c>
-      <c r="U7" s="127">
+      <c r="U7" s="115">
         <v>0.45833333333333298</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="128">
+      <c r="A8" s="116">
         <v>7</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="118">
         <v>1.75</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="113">
         <v>44811</v>
       </c>
-      <c r="G8" s="127">
+      <c r="G8" s="115">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="128">
+      <c r="A9" s="116">
         <v>8</v>
       </c>
-      <c r="B9" s="130">
+      <c r="B9" s="118">
         <v>2</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="113">
         <v>44812</v>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="115">
         <v>0.29166666666666702</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="128">
+      <c r="A10" s="116">
         <v>9</v>
       </c>
-      <c r="B10" s="130">
+      <c r="B10" s="118">
         <v>2.25</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="113">
         <v>44813</v>
       </c>
-      <c r="G10" s="127">
+      <c r="G10" s="115">
         <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="128">
+      <c r="A11" s="116">
         <v>10</v>
       </c>
-      <c r="B11" s="130">
+      <c r="B11" s="118">
         <v>2.5</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="113">
         <v>44814</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="115">
         <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="128">
+      <c r="A12" s="116">
         <v>11</v>
       </c>
-      <c r="B12" s="130">
+      <c r="B12" s="118">
         <v>2.75</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="125">
+      <c r="F12" s="113">
         <v>44815</v>
       </c>
-      <c r="G12" s="127">
+      <c r="G12" s="115">
         <v>0.41666666666666702</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="128">
+      <c r="A13" s="116">
         <v>12</v>
       </c>
-      <c r="B13" s="130">
+      <c r="B13" s="118">
         <v>3</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="113">
         <v>44816</v>
       </c>
-      <c r="G13" s="127">
+      <c r="G13" s="115">
         <v>0.45833333333333298</v>
       </c>
     </row>
@@ -5801,31 +6749,31 @@
       <c r="A1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
       <c r="F1" s="48"/>
       <c r="G1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
       <c r="M1" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="112" t="s">
+      <c r="N1" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -5861,12 +6809,12 @@
       <c r="M2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="109"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="128"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5905,12 +6853,12 @@
         <f>$B3+$C3+D3+A3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="130"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -5949,12 +6897,12 @@
         <f t="array" ref="M4">$B4-$C4-D4-resta</f>
         <v>#NAME?</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="106"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="125"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -5995,12 +6943,12 @@
         <f>-D5*[1]pepe!A3</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="103" t="s">
+      <c r="N5" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="104"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="123"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -6041,12 +6989,12 @@
         <f>$B6/$C6/D6/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="106"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="125"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -6085,12 +7033,12 @@
         <f t="array" aca="1" ref="M7" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="104"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6112,132 +7060,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3201E-A01B-475D-B6B7-7FA9E8CFEA3C}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="0.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="0.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
+    <col min="16" max="17" width="13.28515625" style="142" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="139" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>208</v>
       </c>
       <c r="B1" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="115" t="s">
+      <c r="M1" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="115" t="s">
+      <c r="N1" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="O1" s="115" t="s">
+      <c r="O1" s="104" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q1" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="R1" s="138" t="s">
+        <v>248</v>
+      </c>
+      <c r="S1" s="104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D2" s="51" t="str">
         <f>asistencia!A2</f>
         <v>Racedo, Cristián</v>
       </c>
       <c r="E2" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Racedo</v>
       </c>
       <c r="F2" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Cristián</v>
       </c>
       <c r="G2" s="51" t="str">
         <f>introduccion!D2</f>
         <v>20-35336446-5</v>
       </c>
-      <c r="H2" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H2" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
-      <c r="I2" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I2" s="102" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>35336446</v>
       </c>
       <c r="J2" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>5</v>
       </c>
       <c r="K2" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>7</v>
       </c>
       <c r="L2" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>16</v>
       </c>
-      <c r="M2" s="116">
+      <c r="M2" s="105">
         <f>introduccion!E2</f>
         <v>33346</v>
       </c>
-      <c r="N2" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>31.490410958904111</v>
-      </c>
-      <c r="O2" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N2" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>31.504109589041096</v>
+      </c>
+      <c r="O2" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="P2" s="141">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="Q2" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>2</v>
+      </c>
+      <c r="S2" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="50" t="s">
         <v>227</v>
       </c>
       <c r="D3" s="52" t="str">
@@ -6245,170 +7223,212 @@
         <v>Perez, Juan</v>
       </c>
       <c r="E3" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Perez</v>
       </c>
       <c r="F3" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Juan</v>
       </c>
       <c r="G3" s="52" t="str">
         <f>introduccion!D3</f>
         <v>20-43128323-1</v>
       </c>
-      <c r="H3" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H3" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
-      <c r="I3" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I3" s="103" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>43128323</v>
       </c>
       <c r="J3" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>1</v>
       </c>
       <c r="K3" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>6</v>
       </c>
       <c r="L3" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>11</v>
       </c>
-      <c r="M3" s="116">
+      <c r="M3" s="105">
         <f>introduccion!E3</f>
         <v>35632</v>
       </c>
-      <c r="N3" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>25.227397260273971</v>
-      </c>
-      <c r="O3" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N3" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>25.241095890410961</v>
+      </c>
+      <c r="O3" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P3" s="141">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q3" s="141">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="R3" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="9">
         <f ca="1">TODAY()</f>
-        <v>44840</v>
-      </c>
-      <c r="C4" s="119"/>
+        <v>44845</v>
+      </c>
+      <c r="C4" s="107"/>
       <c r="D4" s="51" t="str">
         <f>asistencia!A4</f>
         <v>Gomez, Gonzalo</v>
       </c>
       <c r="E4" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Gomez</v>
       </c>
       <c r="F4" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Gonzalo</v>
       </c>
       <c r="G4" s="51" t="str">
         <f>introduccion!D4</f>
         <v>20-30283492-6</v>
       </c>
-      <c r="H4" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H4" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
-      <c r="I4" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I4" s="102" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>30283492</v>
       </c>
       <c r="J4" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>6</v>
       </c>
       <c r="K4" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>6</v>
       </c>
       <c r="L4" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>14</v>
       </c>
-      <c r="M4" s="116">
+      <c r="M4" s="105">
         <f>introduccion!E4</f>
         <v>32048</v>
       </c>
-      <c r="N4" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>35.046575342465751</v>
-      </c>
-      <c r="O4" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N4" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>35.060273972602737</v>
+      </c>
+      <c r="O4" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="P4" s="141">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q4" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>2</v>
+      </c>
+      <c r="S4" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="132">
         <f ca="1">NOW()</f>
-        <v>44840.504845833333</v>
+        <v>44845.496178703703</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>asistencia!A5</f>
         <v>Fernandez, Daniela</v>
       </c>
       <c r="E5" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Fernandez</v>
       </c>
       <c r="F5" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Daniela</v>
       </c>
       <c r="G5" s="52" t="str">
         <f>introduccion!D5</f>
         <v>27-33230498-2</v>
       </c>
-      <c r="H5" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H5" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>27</v>
       </c>
-      <c r="I5" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I5" s="103" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>33230498</v>
       </c>
       <c r="J5" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
       <c r="K5" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>10</v>
       </c>
       <c r="L5" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>18</v>
       </c>
-      <c r="M5" s="116">
+      <c r="M5" s="105">
         <f>introduccion!E5</f>
         <v>32745</v>
       </c>
-      <c r="N5" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>33.136986301369866</v>
-      </c>
-      <c r="O5" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N5" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>33.150684931506852</v>
+      </c>
+      <c r="O5" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="P5" s="141">
+        <v>0.4375</v>
+      </c>
+      <c r="Q5" s="141">
+        <v>0.53125</v>
+      </c>
+      <c r="R5" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <f ca="1">YEAR(datos_hoy)</f>
         <v>2022</v>
       </c>
@@ -6417,55 +7437,69 @@
         <v>Lopez, Carla</v>
       </c>
       <c r="E6" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Lopez</v>
       </c>
       <c r="F6" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Carla</v>
       </c>
       <c r="G6" s="51" t="str">
         <f>introduccion!D6</f>
         <v>27-38578293-4</v>
       </c>
-      <c r="H6" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H6" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>27</v>
       </c>
-      <c r="I6" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I6" s="102" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>38578293</v>
       </c>
       <c r="J6" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>4</v>
       </c>
       <c r="K6" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>6</v>
       </c>
       <c r="L6" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>12</v>
       </c>
-      <c r="M6" s="116">
+      <c r="M6" s="105">
         <f>introduccion!E6</f>
         <v>34169</v>
       </c>
-      <c r="N6" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>29.235616438356164</v>
-      </c>
-      <c r="O6" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N6" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>29.24931506849315</v>
+      </c>
+      <c r="O6" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="P6" s="141">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="Q6" s="141">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="R6" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="53">
         <f ca="1">MONTH(datos_hoy)</f>
         <v>10</v>
       </c>
@@ -6474,283 +7508,402 @@
         <v>Martinez, Mariano</v>
       </c>
       <c r="E7" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Martinez</v>
       </c>
       <c r="F7" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Mariano</v>
       </c>
       <c r="G7" s="52" t="str">
         <f>introduccion!D7</f>
         <v>20-28234973-3</v>
       </c>
-      <c r="H7" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H7" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
-      <c r="I7" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I7" s="103" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>28234973</v>
       </c>
       <c r="J7" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>3</v>
       </c>
       <c r="K7" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>9</v>
       </c>
       <c r="L7" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>17</v>
       </c>
-      <c r="M7" s="116">
+      <c r="M7" s="105">
         <f>introduccion!E7</f>
         <v>31901</v>
       </c>
-      <c r="N7" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>35.449315068493149</v>
-      </c>
-      <c r="O7" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N7" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>35.463013698630135</v>
+      </c>
+      <c r="O7" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="P7" s="141">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q7" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>2</v>
+      </c>
+      <c r="S7" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <f ca="1">DAY(datos_hoy)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" s="51" t="str">
         <f>asistencia!A8</f>
         <v>Gonzalez, Gonzalo</v>
       </c>
       <c r="E8" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Gonzalez</v>
       </c>
       <c r="F8" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Gonzalo</v>
       </c>
       <c r="G8" s="51" t="str">
         <f>introduccion!D8</f>
         <v>20-39128371-1</v>
       </c>
-      <c r="H8" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H8" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
-      <c r="I8" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I8" s="102" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>39128371</v>
       </c>
       <c r="J8" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>1</v>
       </c>
       <c r="K8" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>9</v>
       </c>
       <c r="L8" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>17</v>
       </c>
-      <c r="M8" s="116">
+      <c r="M8" s="105">
         <f>introduccion!E8</f>
         <v>34553</v>
       </c>
-      <c r="N8" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>28.183561643835617</v>
-      </c>
-      <c r="O8" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N8" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>28.197260273972603</v>
+      </c>
+      <c r="O8" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="P8" s="141">
+        <v>0.375</v>
+      </c>
+      <c r="Q8" s="141">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R8" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>4</v>
+      </c>
+      <c r="S8" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="53">
         <f ca="1">HOUR(B5)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="52" t="str">
         <f>asistencia!A9</f>
         <v>Jimenez, Jorge</v>
       </c>
       <c r="E9" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Jimenez</v>
       </c>
       <c r="F9" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Jorge</v>
       </c>
       <c r="G9" s="52" t="str">
         <f>introduccion!D9</f>
         <v>20-45019105-2</v>
       </c>
-      <c r="H9" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H9" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
-      <c r="I9" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I9" s="103" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>45019105</v>
       </c>
       <c r="J9" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>2</v>
       </c>
       <c r="K9" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>8</v>
       </c>
       <c r="L9" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>14</v>
       </c>
-      <c r="M9" s="116">
+      <c r="M9" s="105">
         <f>introduccion!E9</f>
         <v>37891</v>
       </c>
-      <c r="N9" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>19.038356164383561</v>
-      </c>
-      <c r="O9" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N9" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>19.052054794520547</v>
+      </c>
+      <c r="O9" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="P9" s="141">
+        <v>0.4375</v>
+      </c>
+      <c r="Q9" s="141">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="R9" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>2</v>
+      </c>
+      <c r="S9" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <f ca="1">MINUTE(B5)</f>
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D10" s="51" t="str">
         <f>asistencia!A10</f>
         <v>Gimenez, Gabriela</v>
       </c>
       <c r="E10" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Gimenez</v>
       </c>
       <c r="F10" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Gabriela</v>
       </c>
       <c r="G10" s="51" t="str">
         <f>introduccion!D10</f>
         <v>27-31203948-8</v>
       </c>
-      <c r="H10" s="51" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H10" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>27</v>
       </c>
-      <c r="I10" s="113" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I10" s="102" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>31203948</v>
       </c>
       <c r="J10" s="51" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>8</v>
       </c>
       <c r="K10" s="51">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>8</v>
       </c>
       <c r="L10" s="51">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>17</v>
       </c>
-      <c r="M10" s="116">
+      <c r="M10" s="105">
         <f>introduccion!E10</f>
         <v>31458</v>
       </c>
-      <c r="N10" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>36.663013698630138</v>
-      </c>
-      <c r="O10" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N10" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>36.676712328767124</v>
+      </c>
+      <c r="O10" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="P10" s="141">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="Q10" s="141">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R10" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>3</v>
+      </c>
+      <c r="S10" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="49">
         <f ca="1">SECOND(B5)</f>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D11" s="52" t="str">
         <f>asistencia!A11</f>
         <v>Lopez, Laura</v>
       </c>
       <c r="E11" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[CHAR]] - 1)</f>
+        <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
         <v>Lopez</v>
       </c>
       <c r="F11" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[EMPLEADO]], Tabla4[[#This Row],[LARGO]] - (LEN(Tabla4[[#This Row],[APELLIDO]]) + 2))</f>
+        <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
         <v>Laura</v>
       </c>
       <c r="G11" s="52" t="str">
         <f>introduccion!D11</f>
         <v>27-30192834-4</v>
       </c>
-      <c r="H11" s="52" t="str">
-        <f>LEFT(Tabla4[[#This Row],[CUIL]],2)</f>
+      <c r="H11" s="137">
+        <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>27</v>
       </c>
-      <c r="I11" s="114" t="str">
-        <f>MID(Tabla4[[#This Row],[CUIL]],4,8)</f>
+      <c r="I11" s="103" t="str">
+        <f>MID(empleados[[#This Row],[CUIL]],4,8)</f>
         <v>30192834</v>
       </c>
       <c r="J11" s="52" t="str">
-        <f>RIGHT(Tabla4[[#This Row],[CUIL]],1)</f>
+        <f>RIGHT(empleados[[#This Row],[CUIL]],1)</f>
         <v>4</v>
       </c>
       <c r="K11" s="52">
-        <f>FIND(separador,Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
         <v>6</v>
       </c>
       <c r="L11" s="52">
-        <f>LEN(Tabla4[[#This Row],[EMPLEADO]])</f>
+        <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
         <v>12</v>
       </c>
-      <c r="M11" s="116">
+      <c r="M11" s="105">
         <f>introduccion!E11</f>
         <v>31130</v>
       </c>
-      <c r="N11" s="118">
-        <f ca="1">(datos_hoy - Tabla4[[#This Row],[NACIMIENTO]]) / 365</f>
-        <v>37.561643835616437</v>
-      </c>
-      <c r="O11" s="120">
-        <f ca="1">$B$6 - YEAR(Tabla4[[#This Row],[NACIMIENTO]])</f>
+      <c r="N11" s="106">
+        <f ca="1">(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</f>
+        <v>37.575342465753423</v>
+      </c>
+      <c r="O11" s="108">
+        <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>37</v>
       </c>
+      <c r="P11" s="141">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q11" s="141">
+        <v>0.53125</v>
+      </c>
+      <c r="R11" s="108">
+        <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
+        <v>2</v>
+      </c>
+      <c r="S11" s="135">
+        <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12" s="52">
+        <f>COUNTA(empleados[EMPLEADO])</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="136">
+        <f>MODE(empleados[TIPO])</f>
+        <v>20</v>
+      </c>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133">
+        <f>SUBTOTAL(104,empleados[LARGO])</f>
+        <v>18</v>
+      </c>
+      <c r="M12" s="134"/>
+      <c r="N12" s="106">
+        <f ca="1">AVERAGE(empleados[EDAD])</f>
+        <v>31.11698630136986</v>
+      </c>
+      <c r="O12" s="106">
+        <f ca="1">AVERAGE(empleados[AÑOS])</f>
+        <v>30.8</v>
+      </c>
+      <c r="P12" s="142">
+        <f>MEDIAN(empleados[entrada])</f>
+        <v>0.421875</v>
+      </c>
+      <c r="Q12" s="142">
+        <f>MEDIAN(empleados[salida])</f>
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="R12" s="139">
+        <f>AVERAGE(empleados[H])</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S12">
+        <f>AVERAGE(empleados[mm])</f>
+        <v>25.5</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V1:V6">
+    <sortCondition ref="V1:V6"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
@@ -6764,7 +7917,7 @@
   <dimension ref="A1:AP16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -6773,10 +7926,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="31" width="5.140625" style="72" customWidth="1"/>
+    <col min="2" max="31" width="5.140625" style="71" customWidth="1"/>
     <col min="32" max="32" width="6.28515625" customWidth="1"/>
     <col min="33" max="33" width="7.42578125" customWidth="1"/>
-    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4" customWidth="1"/>
     <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.140625" bestFit="1" customWidth="1"/>
@@ -6789,106 +7942,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="P1" s="75" t="s">
+      <c r="P1" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="V1" s="75" t="s">
+      <c r="V1" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="W1" s="75" t="s">
+      <c r="W1" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="X1" s="75" t="s">
+      <c r="X1" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="75" t="s">
+      <c r="Y1" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="Z1" s="75" t="s">
+      <c r="Z1" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="AA1" s="75" t="s">
+      <c r="AA1" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="AB1" s="75" t="s">
+      <c r="AB1" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="AC1" s="75" t="s">
+      <c r="AC1" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="75" t="s">
+      <c r="AD1" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="AE1" s="75" t="s">
+      <c r="AE1" s="74" t="s">
         <v>188</v>
       </c>
       <c r="AF1" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="AG1" s="84" t="s">
+      <c r="AG1" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="AH1" s="84" t="s">
+      <c r="AH1" s="83" t="s">
         <v>199</v>
       </c>
       <c r="AJ1" s="23" t="s">
@@ -6900,231 +8053,231 @@
       <c r="AL1" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="AM1" s="99" t="s">
+      <c r="AM1" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="AO1" s="93" t="s">
+      <c r="AO1" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="AP1" s="94" t="s">
+      <c r="AP1" s="93" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="str">
+      <c r="A2" s="75" t="str">
         <f>_xlfn.CONCAT(introduccion!C2&amp;", "&amp;introduccion!B2)</f>
         <v>Racedo, Cristián</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="76" t="s">
+      <c r="B2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="N2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="P2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76" t="s">
+      <c r="L2" s="75"/>
+      <c r="M2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="T2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="V2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="W2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="X2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y2" s="76" t="s">
+      <c r="T2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="U2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="W2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="X2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z2" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE2" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF2" s="79">
+      <c r="AA2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF2" s="78">
         <f t="shared" ref="AF2:AF11" si="0">COUNTBLANK(B2:AE2)</f>
         <v>8</v>
       </c>
-      <c r="AG2" s="85">
+      <c r="AG2" s="84">
         <f>COUNTA($B$1:$AE$1) - AF2</f>
         <v>22</v>
       </c>
-      <c r="AH2" s="88" cm="1">
+      <c r="AH2" s="87" cm="1">
         <f t="array" ref="AH2">AG2*valor_hora*jornada</f>
         <v>88000</v>
       </c>
       <c r="AJ2" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="AK2" s="90">
+      <c r="AK2" s="89">
         <f>AVERAGE(asist)</f>
         <v>16.7</v>
       </c>
-      <c r="AL2" s="91">
+      <c r="AL2" s="90">
         <f>AVERAGE(aus)</f>
         <v>13.3</v>
       </c>
-      <c r="AM2" s="100">
+      <c r="AM2" s="99">
         <f>AVERAGE(sueldos)</f>
         <v>66800</v>
       </c>
-      <c r="AO2" s="95">
+      <c r="AO2" s="94">
         <v>500</v>
       </c>
-      <c r="AP2" s="96">
+      <c r="AP2" s="95">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="str">
+      <c r="A3" s="76" t="str">
         <f>_xlfn.CONCAT(introduccion!C3&amp;", "&amp;introduccion!B3)</f>
         <v>Perez, Juan</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="77" t="s">
+      <c r="B3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="77" t="s">
+      <c r="K3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" s="77" t="s">
+      <c r="O3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="V3" s="77" t="s">
+      <c r="T3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="V3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="W3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="X3" s="77" t="s">
+      <c r="W3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="Y3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z3" s="77" t="s">
+      <c r="Y3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z3" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="AA3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF3" s="80">
+      <c r="AA3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF3" s="79">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AG3" s="85">
+      <c r="AG3" s="84">
         <f t="shared" ref="AG3:AG11" si="1">COUNTA($B$1:$AE$1) - AF3</f>
         <v>17</v>
       </c>
-      <c r="AH3" s="88" cm="1">
+      <c r="AH3" s="87" cm="1">
         <f t="array" ref="AH3">AG3*valor_hora*jornada</f>
         <v>68000</v>
       </c>
@@ -7139,99 +8292,99 @@
         <f>MAX(aus)</f>
         <v>17</v>
       </c>
-      <c r="AM3" s="101">
+      <c r="AM3" s="100">
         <f>MAX(sueldos)</f>
         <v>88000</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="str">
+      <c r="A4" s="75" t="str">
         <f>_xlfn.CONCAT(introduccion!C4&amp;", "&amp;introduccion!B4)</f>
         <v>Gomez, Gonzalo</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="O4" s="76" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="P4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q4" s="76" t="s">
+      <c r="P4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="U4" s="76" t="s">
+      <c r="S4" s="75"/>
+      <c r="T4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="V4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="W4" s="76" t="s">
+      <c r="V4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="X4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y4" s="76" t="s">
+      <c r="X4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y4" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="AA4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AA4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB4" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="AC4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD4" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="79">
+      <c r="AC4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD4" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="78">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AG4" s="85">
+      <c r="AG4" s="84">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AH4" s="88" cm="1">
+      <c r="AH4" s="87" cm="1">
         <f t="array" ref="AH4">AG4*valor_hora*jornada</f>
         <v>56000</v>
       </c>
@@ -7246,106 +8399,106 @@
         <f>MIN(aus)</f>
         <v>8</v>
       </c>
-      <c r="AM4" s="100">
+      <c r="AM4" s="99">
         <f>MIN(sueldos)</f>
         <v>52000</v>
       </c>
-      <c r="AP4" s="73"/>
+      <c r="AP4" s="72"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="str">
+      <c r="A5" s="76" t="str">
         <f>_xlfn.CONCAT(introduccion!C5&amp;", "&amp;introduccion!B5)</f>
         <v>Fernandez, Daniela</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="N5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="O5" s="77" t="s">
+      <c r="B5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="P5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="R5" s="77" t="s">
+      <c r="P5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R5" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="S5" s="77" t="s">
+      <c r="S5" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="T5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="U5" s="77" t="s">
+      <c r="T5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="W5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="X5" s="77" t="s">
+      <c r="V5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="W5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="X5" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="Y5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z5" s="77" t="s">
+      <c r="Y5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z5" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="AA5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF5" s="80">
+      <c r="AA5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF5" s="79">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AG5" s="85">
+      <c r="AG5" s="84">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AH5" s="88" cm="1">
+      <c r="AH5" s="87" cm="1">
         <f t="array" ref="AH5">AG5*valor_hora*jornada</f>
         <v>76000</v>
       </c>
@@ -7360,219 +8513,219 @@
         <f>MODE(aus)</f>
         <v>13</v>
       </c>
-      <c r="AM5" s="101">
+      <c r="AM5" s="100">
         <f>MODE(sueldos)</f>
         <v>68000</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="str">
+      <c r="A6" s="75" t="str">
         <f>_xlfn.CONCAT(introduccion!C6&amp;", "&amp;introduccion!B6)</f>
         <v>Lopez, Carla</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76" t="s">
+      <c r="B6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="N6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="O6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="P6" s="76" t="s">
+      <c r="N6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="O6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="Q6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="R6" s="76" t="s">
+      <c r="Q6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="S6" s="76" t="s">
+      <c r="S6" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="T6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="U6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="V6" s="76" t="s">
+      <c r="T6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="U6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="V6" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="W6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="X6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y6" s="76" t="s">
+      <c r="W6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="X6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y6" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="Z6" s="76" t="s">
+      <c r="Z6" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="AA6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB6" s="76" t="s">
+      <c r="AA6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB6" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="AC6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD6" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="79">
+      <c r="AC6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD6" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="78">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AG6" s="85">
+      <c r="AG6" s="84">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AH6" s="88" cm="1">
+      <c r="AH6" s="87" cm="1">
         <f t="array" ref="AH6">AG6*valor_hora*jornada</f>
         <v>68000</v>
       </c>
       <c r="AJ6" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="AK6" s="90">
+      <c r="AK6" s="89">
         <f>MEDIAN(asist)</f>
         <v>16.5</v>
       </c>
-      <c r="AL6" s="91">
+      <c r="AL6" s="90">
         <f>MEDIAN(aus)</f>
         <v>13.5</v>
       </c>
-      <c r="AM6" s="100">
+      <c r="AM6" s="99">
         <f>MEDIAN(sueldos)</f>
         <v>66000</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="str">
+      <c r="A7" s="76" t="str">
         <f>_xlfn.CONCAT(introduccion!C7&amp;", "&amp;introduccion!B7)</f>
         <v>Martinez, Mariano</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="N7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" s="77" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="P7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="R7" s="77" t="s">
+      <c r="P7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="S7" s="77" t="s">
+      <c r="S7" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="T7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="U7" s="77" t="s">
+      <c r="T7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="U7" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="77" t="s">
+      <c r="V7" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="W7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="X7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z7" s="77" t="s">
+      <c r="W7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="X7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z7" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="AA7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF7" s="80">
+      <c r="AA7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF7" s="79">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AG7" s="85">
+      <c r="AG7" s="84">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="AH7" s="88" cm="1">
+      <c r="AH7" s="87" cm="1">
         <f t="array" ref="AH7">AG7*valor_hora*jornada</f>
         <v>64000</v>
       </c>
       <c r="AJ7" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AK7" s="92">
+      <c r="AK7" s="91">
         <f>SUM(asist)</f>
         <v>167</v>
       </c>
@@ -7580,581 +8733,581 @@
         <f>SUM(aus)</f>
         <v>133</v>
       </c>
-      <c r="AM7" s="102">
+      <c r="AM7" s="101">
         <f>SUM(sueldos)</f>
         <v>668000</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="str">
+      <c r="A8" s="75" t="str">
         <f>_xlfn.CONCAT(introduccion!C8&amp;", "&amp;introduccion!B8)</f>
         <v>Gonzalez, Gonzalo</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="76" t="s">
+      <c r="B8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="N8" s="76" t="s">
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="O8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="R8" s="76" t="s">
+      <c r="O8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="R8" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="S8" s="76" t="s">
+      <c r="S8" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76" t="s">
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="X8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE8" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF8" s="79">
+      <c r="X8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE8" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF8" s="78">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AG8" s="85">
+      <c r="AG8" s="84">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AH8" s="88" cm="1">
+      <c r="AH8" s="87" cm="1">
         <f t="array" ref="AH8">AG8*valor_hora*jornada</f>
         <v>52000</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="str">
+      <c r="A9" s="76" t="str">
         <f>_xlfn.CONCAT(introduccion!C9&amp;", "&amp;introduccion!B9)</f>
         <v>Jimenez, Jorge</v>
       </c>
-      <c r="B9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="N9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="O9" s="77" t="s">
+      <c r="B9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="P9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q9" s="77" t="s">
+      <c r="P9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="R9" s="77" t="s">
+      <c r="R9" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="S9" s="77" t="s">
+      <c r="S9" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="T9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="U9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="V9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="W9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="X9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE9" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF9" s="80">
+      <c r="T9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="U9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="V9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="W9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="X9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE9" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF9" s="79">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AG9" s="85">
+      <c r="AG9" s="84">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AH9" s="88" cm="1">
+      <c r="AH9" s="87" cm="1">
         <f t="array" ref="AH9">AG9*valor_hora*jornada</f>
         <v>72000</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="str">
+      <c r="A10" s="75" t="str">
         <f>_xlfn.CONCAT(introduccion!C10&amp;", "&amp;introduccion!B10)</f>
         <v>Gimenez, Gabriela</v>
       </c>
-      <c r="B10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" s="76" t="s">
+      <c r="B10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="N10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="O10" s="76" t="s">
+      <c r="L10" s="75"/>
+      <c r="M10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="P10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="76" t="s">
+      <c r="P10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="R10" s="76" t="s">
+      <c r="R10" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="S10" s="76" t="s">
+      <c r="S10" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="V10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="W10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD10" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="79">
+      <c r="T10" s="75"/>
+      <c r="U10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="V10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="W10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD10" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="78">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AG10" s="85">
+      <c r="AG10" s="84">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AH10" s="88" cm="1">
+      <c r="AH10" s="87" cm="1">
         <f t="array" ref="AH10">AG10*valor_hora*jornada</f>
         <v>60000</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="str">
+      <c r="A11" s="77" t="str">
         <f>_xlfn.CONCAT(introduccion!C11&amp;", "&amp;introduccion!B11)</f>
         <v>Lopez, Laura</v>
       </c>
-      <c r="B11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="N11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="O11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="P11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="R11" s="78" t="s">
+      <c r="B11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="P11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="S11" s="78" t="s">
+      <c r="S11" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="T11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="U11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="V11" s="78" t="s">
+      <c r="T11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="U11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="V11" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="W11" s="78" t="s">
+      <c r="W11" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="X11" s="78" t="s">
+      <c r="X11" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="Y11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z11" s="78" t="s">
+      <c r="Y11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z11" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="AA11" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="80">
+      <c r="AA11" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="79">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AG11" s="85">
+      <c r="AG11" s="84">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="AH11" s="88" cm="1">
+      <c r="AH11" s="87" cm="1">
         <f t="array" ref="AH11">AG11*valor_hora*jornada</f>
         <v>64000</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="96">
         <f>COUNTA($A$2:$A$11) - COUNTBLANK(B2:B11)</f>
         <v>8</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="96">
         <f>COUNTBLANK(C2:C11)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="96">
         <f>COUNTBLANK(D2:D11)</f>
         <v>5</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="96">
         <f t="shared" ref="E12:S12" si="2">COUNTBLANK(E2:E11)</f>
         <v>10</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="96">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="96">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H12" s="97">
+      <c r="H12" s="96">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I12" s="97">
+      <c r="I12" s="96">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J12" s="97">
+      <c r="J12" s="96">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K12" s="97">
+      <c r="K12" s="96">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L12" s="97">
+      <c r="L12" s="96">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M12" s="97">
+      <c r="M12" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N12" s="97">
+      <c r="N12" s="96">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O12" s="97">
+      <c r="O12" s="96">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P12" s="97">
+      <c r="P12" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="97">
+      <c r="Q12" s="96">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R12" s="97">
+      <c r="R12" s="96">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S12" s="97">
+      <c r="S12" s="96">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="T12" s="97">
+      <c r="T12" s="96">
         <f t="shared" ref="T12" si="3">COUNTBLANK(T2:T11)</f>
         <v>2</v>
       </c>
-      <c r="U12" s="97">
+      <c r="U12" s="96">
         <f t="shared" ref="U12" si="4">COUNTBLANK(U2:U11)</f>
         <v>4</v>
       </c>
-      <c r="V12" s="97">
+      <c r="V12" s="96">
         <f t="shared" ref="V12" si="5">COUNTBLANK(V2:V11)</f>
         <v>5</v>
       </c>
-      <c r="W12" s="97">
+      <c r="W12" s="96">
         <f t="shared" ref="W12" si="6">COUNTBLANK(W2:W11)</f>
         <v>3</v>
       </c>
-      <c r="X12" s="97">
+      <c r="X12" s="96">
         <f t="shared" ref="X12" si="7">COUNTBLANK(X2:X11)</f>
         <v>4</v>
       </c>
-      <c r="Y12" s="97">
+      <c r="Y12" s="96">
         <f t="shared" ref="Y12" si="8">COUNTBLANK(Y2:Y11)</f>
         <v>4</v>
       </c>
-      <c r="Z12" s="97">
+      <c r="Z12" s="96">
         <f t="shared" ref="Z12" si="9">COUNTBLANK(Z2:Z11)</f>
         <v>10</v>
       </c>
-      <c r="AA12" s="97">
+      <c r="AA12" s="96">
         <f t="shared" ref="AA12" si="10">COUNTBLANK(AA2:AA11)</f>
         <v>1</v>
       </c>
-      <c r="AB12" s="97">
+      <c r="AB12" s="96">
         <f t="shared" ref="AB12" si="11">COUNTBLANK(AB2:AB11)</f>
         <v>5</v>
       </c>
-      <c r="AC12" s="97">
+      <c r="AC12" s="96">
         <f t="shared" ref="AC12" si="12">COUNTBLANK(AC2:AC11)</f>
         <v>1</v>
       </c>
-      <c r="AD12" s="97">
+      <c r="AD12" s="96">
         <f t="shared" ref="AD12" si="13">COUNTBLANK(AD2:AD11)</f>
         <v>4</v>
       </c>
-      <c r="AE12" s="97">
+      <c r="AE12" s="96">
         <f t="shared" ref="AE12" si="14">COUNTBLANK(AE2:AE11)</f>
         <v>4</v>
       </c>
-      <c r="AF12" s="98">
-        <f>SUBTOTAL(109,Tabla3[Aus.])</f>
+      <c r="AF12" s="97">
+        <f>SUBTOTAL(109,asistencia[Aus.])</f>
         <v>133</v>
       </c>
-      <c r="AG12" s="85">
-        <f>SUBTOTAL(109,Tabla3[Asist.])</f>
+      <c r="AG12" s="84">
+        <f>SUBTOTAL(109,asistencia[Asist.])</f>
         <v>167</v>
       </c>
-      <c r="AH12" s="88">
-        <f>SUBTOTAL(109,Tabla3[sueldo])</f>
+      <c r="AH12" s="87">
+        <f>SUBTOTAL(109,asistencia[sueldo])</f>
         <v>668000</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="88"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="87"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="88"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="87"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="D16" s="89"/>
+      <c r="D16" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B25:AE1048576" twoDigitTextYear="1"/>
   </ignoredErrors>
@@ -8167,13 +9320,677 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DFCC1-0733-4BBC-8410-31F61302687F}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="143" t="s">
+        <v>272</v>
+      </c>
+      <c r="M1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" t="s">
+        <v>287</v>
+      </c>
+      <c r="O1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2" s="56">
+        <v>3800</v>
+      </c>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N2" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" s="144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3">
+        <v>1200</v>
+      </c>
+      <c r="F3" s="56">
+        <v>25800</v>
+      </c>
+      <c r="G3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="121"/>
+      <c r="L3" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" t="s">
+        <v>282</v>
+      </c>
+      <c r="N3" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="O3" s="144" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="56">
+        <v>17800</v>
+      </c>
+      <c r="G4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="121"/>
+      <c r="L4" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="M4" t="s">
+        <v>283</v>
+      </c>
+      <c r="N4" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4" s="144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="56">
+        <v>8500</v>
+      </c>
+      <c r="G5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="121"/>
+      <c r="L5" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="M5" t="s">
+        <v>284</v>
+      </c>
+      <c r="N5" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="O5" s="144">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6">
+        <v>8500</v>
+      </c>
+      <c r="F6" s="56">
+        <v>5000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="121"/>
+      <c r="L6" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="M6" t="s">
+        <v>285</v>
+      </c>
+      <c r="N6" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="O6" s="144" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="56">
+        <v>105000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="121"/>
+      <c r="L7" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="M7" t="s">
+        <v>286</v>
+      </c>
+      <c r="N7" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="O7" s="144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="56">
+        <v>45000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="M8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N8" s="144" t="s">
+        <v>299</v>
+      </c>
+      <c r="O8" s="144" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="56">
+        <v>15000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="121"/>
+      <c r="L9" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="M9" t="s">
+        <v>301</v>
+      </c>
+      <c r="N9" s="144" t="s">
+        <v>299</v>
+      </c>
+      <c r="O9" s="144" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10">
+        <v>3200</v>
+      </c>
+      <c r="F10" s="56">
+        <v>150000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" t="s">
+        <v>314</v>
+      </c>
+      <c r="I10" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="121"/>
+      <c r="L10" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" s="144" t="s">
+        <v>299</v>
+      </c>
+      <c r="O10" s="144" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11">
+        <v>5800</v>
+      </c>
+      <c r="F11" s="56">
+        <v>125999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="121"/>
+      <c r="L11" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="M11" t="s">
+        <v>302</v>
+      </c>
+      <c r="N11" s="144" t="s">
+        <v>299</v>
+      </c>
+      <c r="O11" s="144" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12">
+        <v>3500</v>
+      </c>
+      <c r="F12" s="56">
+        <v>65000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I12" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="121"/>
+      <c r="L12" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="M12" t="s">
+        <v>305</v>
+      </c>
+      <c r="N12" s="144" t="s">
+        <v>299</v>
+      </c>
+      <c r="O12" s="144" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13">
+        <v>8000</v>
+      </c>
+      <c r="F13" s="56">
+        <v>2000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="121"/>
+      <c r="L13" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="M13" t="s">
+        <v>307</v>
+      </c>
+      <c r="N13" s="144" t="s">
+        <v>299</v>
+      </c>
+      <c r="O13" s="144" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="56">
+        <v>15000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" t="s">
+        <v>320</v>
+      </c>
+      <c r="I14" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15">
+        <v>25000</v>
+      </c>
+      <c r="F15" s="56">
+        <v>35000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>315</v>
+      </c>
+      <c r="I15" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16">
+        <v>5400</v>
+      </c>
+      <c r="F16" s="56">
+        <v>85999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" t="s">
+        <v>316</v>
+      </c>
+      <c r="I16" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="56">
+        <v>95600</v>
+      </c>
+      <c r="G17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" t="b">
+        <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="K8:K13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F156BBC2-D5F8-4285-8278-9DFCEF9B0C2E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I17">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="verdadero">
+      <formula>NOT(ISERROR(SEARCH("verdadero",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F156BBC2-D5F8-4285-8278-9DFCEF9B0C2E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8185,7 +10002,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3DB1F2-14DB-456A-A763-772918DD3A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53260A3B-4575-4E6D-AE88-C9D8B7E8AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A9001261-B951-436E-B7B5-5E5DD5F49FEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
+    <sheet name="listas" sheetId="2" r:id="rId2"/>
+    <sheet name="f(x)" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>Tipos</t>
   </si>
@@ -166,22 +190,214 @@
   </si>
   <si>
     <t>1:1;</t>
+  </si>
+  <si>
+    <t>dias</t>
+  </si>
+  <si>
+    <t>meses</t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>minutos</t>
+  </si>
+  <si>
+    <t>fechas</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>fac_A001</t>
+  </si>
+  <si>
+    <t>fac_A002</t>
+  </si>
+  <si>
+    <t>fac_A003</t>
+  </si>
+  <si>
+    <t>fac_A004</t>
+  </si>
+  <si>
+    <t>fac_A005</t>
+  </si>
+  <si>
+    <t>fac_A006</t>
+  </si>
+  <si>
+    <t>fac_A007</t>
+  </si>
+  <si>
+    <t>fac_A008</t>
+  </si>
+  <si>
+    <t>fac_A009</t>
+  </si>
+  <si>
+    <t>fac_A010</t>
+  </si>
+  <si>
+    <t>miercoles</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>miércoles</t>
+  </si>
+  <si>
+    <t>octubre</t>
+  </si>
+  <si>
+    <t>noviembre</t>
+  </si>
+  <si>
+    <t>diciembre</t>
+  </si>
+  <si>
+    <t>enero</t>
+  </si>
+  <si>
+    <t>febrero</t>
+  </si>
+  <si>
+    <t>marzo</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>mayo</t>
+  </si>
+  <si>
+    <t>junio</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
+  <si>
+    <t>fac_A011</t>
+  </si>
+  <si>
+    <t>fac_A012</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>septiembre</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>formulas</t>
+  </si>
+  <si>
+    <t>funciones</t>
+  </si>
+  <si>
+    <t>errores</t>
+  </si>
+  <si>
+    <t>operaciones matematicas que utilizan valores numericos de referencia, los cuales deben ser utilizables, ya que de lo contrario arrojara un error</t>
+  </si>
+  <si>
+    <t>palabras reservadas que se utilizan para realizar alguna operación en particular, trabajan con rangos y suelen ignorar aquellos valores no utilizables</t>
+  </si>
+  <si>
+    <t>Mensaje que aparece dentro de la celda y que hace referencia a un problema ocurrido con la formula o funcion correspondiente</t>
+  </si>
+  <si>
+    <t>operaciones</t>
+  </si>
+  <si>
+    <t>valor a</t>
+  </si>
+  <si>
+    <t>valor b</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>resta</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>SUMA()</t>
+  </si>
+  <si>
+    <t>CONTAR()</t>
+  </si>
+  <si>
+    <t>PRODUCTO()</t>
+  </si>
+  <si>
+    <t>RESIDUO()</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>significado</t>
+  </si>
+  <si>
+    <t>El valor utilizado no se reconoce</t>
+  </si>
+  <si>
+    <t>El tipo de dato utilizado es incorrecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se encuentra la celda o rango </t>
+  </si>
+  <si>
+    <t>No se puede dividir entre 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$-2C0A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-2C0A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +413,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -205,25 +428,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,6 +451,50 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,19 +522,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
@@ -314,13 +561,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,84 +595,120 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="20" fontId="1" fillId="6" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="20" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="10">
+    <cellStyle name="40% - Énfasis6" xfId="1" builtinId="51"/>
+    <cellStyle name="60% - Énfasis1" xfId="2" builtinId="32"/>
+    <cellStyle name="60% - Énfasis2" xfId="3" builtinId="36"/>
+    <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
+    <cellStyle name="Énfasis2" xfId="5" builtinId="33"/>
+    <cellStyle name="Énfasis3" xfId="6" builtinId="37"/>
+    <cellStyle name="Énfasis6" xfId="7" builtinId="49"/>
+    <cellStyle name="Moneda" xfId="8" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="9" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,6 +721,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,11 +1032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F7159-F93E-4F91-852E-B17342539A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +1044,8 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
@@ -971,4 +1288,873 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:A65536"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="L1" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="M1" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="N1" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="O1" s="40">
+        <v>1</v>
+      </c>
+      <c r="P1" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="Q1" s="40">
+        <v>1.4</v>
+      </c>
+      <c r="R1" s="40">
+        <v>1.6</v>
+      </c>
+      <c r="S1" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="T1" s="40">
+        <v>2</v>
+      </c>
+      <c r="U1" s="40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V1" s="40">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="45">
+        <v>0.625</v>
+      </c>
+      <c r="G2" s="47">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H2" s="49">
+        <v>44853</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G3" s="47">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H3" s="49">
+        <v>44854</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="G4" s="47">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="H4" s="49">
+        <v>44855</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="47">
+        <v>2.77777777777777E-2</v>
+      </c>
+      <c r="H5" s="49">
+        <v>44856</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="45">
+        <v>0.625</v>
+      </c>
+      <c r="L5" s="45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="N5" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="45">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="P5" s="45">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="R5" s="45">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="S5" s="45">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="T5" s="45">
+        <v>1</v>
+      </c>
+      <c r="U5" s="45">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="V5" s="45">
+        <v>1.0833333333333299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="G6" s="47">
+        <v>3.4722222222222203E-2</v>
+      </c>
+      <c r="H6" s="49">
+        <v>44857</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="47">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="L6" s="47">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="M6" s="47">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="N6" s="47">
+        <v>2.77777777777777E-2</v>
+      </c>
+      <c r="O6" s="47">
+        <v>3.4722222222222203E-2</v>
+      </c>
+      <c r="P6" s="47">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="R6" s="47">
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="S6" s="47">
+        <v>6.25E-2</v>
+      </c>
+      <c r="T6" s="47">
+        <v>6.9444444444444406E-2</v>
+      </c>
+      <c r="U6" s="47">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="V6" s="47">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G7" s="47">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="H7" s="49">
+        <v>44858</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="49">
+        <v>44853</v>
+      </c>
+      <c r="L7" s="49">
+        <v>44854</v>
+      </c>
+      <c r="M7" s="49">
+        <v>44855</v>
+      </c>
+      <c r="N7" s="49">
+        <v>44856</v>
+      </c>
+      <c r="O7" s="49">
+        <v>44857</v>
+      </c>
+      <c r="P7" s="49">
+        <v>44858</v>
+      </c>
+      <c r="Q7" s="49">
+        <v>44859</v>
+      </c>
+      <c r="R7" s="49">
+        <v>44860</v>
+      </c>
+      <c r="S7" s="49">
+        <v>44861</v>
+      </c>
+      <c r="T7" s="49">
+        <v>44862</v>
+      </c>
+      <c r="U7" s="49">
+        <v>44863</v>
+      </c>
+      <c r="V7" s="49">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="G8" s="47">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="H8" s="49">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40">
+        <v>1.6</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="G9" s="47">
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="H9" s="49">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40">
+        <v>1.8</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="G10" s="47">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H10" s="49">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40">
+        <v>2</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="45">
+        <v>1</v>
+      </c>
+      <c r="G11" s="47">
+        <v>6.9444444444444406E-2</v>
+      </c>
+      <c r="H11" s="49">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="45">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="G12" s="47">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="H12" s="49">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="45">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="G13" s="47">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H13" s="49">
+        <v>44864</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="F1" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="K1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="31">
+        <v>5</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="57">
+        <f>B3+C3</f>
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="31">
+        <v>5</v>
+      </c>
+      <c r="H3" s="31">
+        <v>2</v>
+      </c>
+      <c r="I3" s="57">
+        <f>SUM(F3:H3)</f>
+        <v>7</v>
+      </c>
+      <c r="K3" s="11" t="e" cm="1">
+        <f t="array" ref="K3">personal</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="32">
+        <v>7</v>
+      </c>
+      <c r="C4" s="32">
+        <v>4</v>
+      </c>
+      <c r="D4" s="58">
+        <f>B4-C4</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="32">
+        <v>7</v>
+      </c>
+      <c r="H4" s="32">
+        <v>4</v>
+      </c>
+      <c r="I4" s="58">
+        <f>COUNT(F4:H4)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="14" t="e">
+        <f>F4+G4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="31">
+        <v>3</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57">
+        <f>B5*C5</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="31">
+        <v>3</v>
+      </c>
+      <c r="H5" s="31">
+        <v>2</v>
+      </c>
+      <c r="I5" s="57">
+        <f>PRODUCT(F5:H5)</f>
+        <v>6</v>
+      </c>
+      <c r="K5" s="11" t="e">
+        <f>[1]hoja1!A4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="56">
+        <f>B6/C6</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="56">
+        <f>MOD(G6,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="55" t="e">
+        <f>10/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53260A3B-4575-4E6D-AE88-C9D8B7E8AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4D3614-EE57-4A07-8FB7-C8B244B3C988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>Tipos</t>
   </si>
@@ -382,13 +382,16 @@
   </si>
   <si>
     <t>No se puede dividir entre 0</t>
+  </si>
+  <si>
+    <t>El contenido no cabe en la celda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
@@ -396,6 +399,7 @@
     <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="169" formatCode="[$-2C0A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -587,7 +591,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,13 +686,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -697,6 +695,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="40% - Énfasis6" xfId="1" builtinId="51"/>
@@ -1032,10 +1037,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1291,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1931,11 +1936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,35 +1953,35 @@
     <col min="7" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="2.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="F1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
       <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2020,7 +2025,7 @@
       <c r="C3" s="31">
         <v>2</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="55">
         <f>B3+C3</f>
         <v>7</v>
       </c>
@@ -2033,7 +2038,7 @@
       <c r="H3" s="31">
         <v>2</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="55">
         <f>SUM(F3:H3)</f>
         <v>7</v>
       </c>
@@ -2041,7 +2046,7 @@
         <f t="array" ref="K3">personal</f>
         <v>#NAME?</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="55" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2055,7 +2060,7 @@
       <c r="C4" s="32">
         <v>4</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="56">
         <f>B4-C4</f>
         <v>3</v>
       </c>
@@ -2068,7 +2073,7 @@
       <c r="H4" s="32">
         <v>4</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="56">
         <f>COUNT(F4:H4)</f>
         <v>2</v>
       </c>
@@ -2076,7 +2081,7 @@
         <f>F4+G4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="56" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2090,7 +2095,7 @@
       <c r="C5" s="31">
         <v>2</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="55">
         <f>B5*C5</f>
         <v>6</v>
       </c>
@@ -2103,7 +2108,7 @@
       <c r="H5" s="31">
         <v>2</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="55">
         <f>PRODUCT(F5:H5)</f>
         <v>6</v>
       </c>
@@ -2111,12 +2116,12 @@
         <f>[1]hoja1!A4</f>
         <v>#REF!</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="55" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="6">
@@ -2125,11 +2130,11 @@
       <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="54">
         <f>B6/C6</f>
         <v>2</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="53" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="6">
@@ -2138,16 +2143,24 @@
       <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="54">
         <f>MOD(G6,H6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="55" t="e">
+      <c r="K6" s="53" t="e">
         <f>10/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="54" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K7" s="59">
+        <v>33346</v>
+      </c>
+      <c r="L7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABE31F6-D1F8-4AF4-8A13-1D5349354E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0D0CA4-08D8-473F-9E85-805C8C9824C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="410" firstSheet="4" activeTab="6" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="410" activeTab="1" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="326">
   <si>
     <t>apellido</t>
   </si>
@@ -855,9 +855,6 @@
     <t>mm</t>
   </si>
   <si>
-    <t>producto</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
@@ -1078,6 +1075,12 @@
   </si>
   <si>
     <t>reponer</t>
+  </si>
+  <si>
+    <t>articulo</t>
+  </si>
+  <si>
+    <t>Larralde</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="170" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1603,6 +1606,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1636,23 +1656,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -1667,780 +1670,7 @@
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkVertical">
-          <fgColor theme="9"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     </dxf>
@@ -2554,6 +1784,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -3503,6 +2748,714 @@
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4741,8 +4694,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="categoria">
@@ -4765,7 +4718,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4819,8 +4772,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="proveedor">
@@ -4843,7 +4796,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5077,60 +5030,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}" name="empleados" displayName="empleados" ref="D1:S12" totalsRowCount="1" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}" name="empleados" displayName="empleados" ref="D1:S12" totalsRowCount="1" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="D1:S11" xr:uid="{A66DC253-4297-42E8-811E-51DF8355CE68}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{AD2BFDC6-9212-4AF1-A883-4F5292CC8670}" name="EMPLEADO" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{AD2BFDC6-9212-4AF1-A883-4F5292CC8670}" name="EMPLEADO" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>asistencia!A2</calculatedColumnFormula>
       <totalsRowFormula>COUNTA(empleados[EMPLEADO])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9941B11B-F67E-4F32-82D2-B86FEB7E9F6E}" name="APELLIDO" dataDxfId="35" totalsRowDxfId="19">
+    <tableColumn id="8" xr3:uid="{9941B11B-F67E-4F32-82D2-B86FEB7E9F6E}" name="APELLIDO" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DEEF5E54-5054-45B9-B8EE-A5D09A981708}" name="NOMBRE" dataDxfId="34" totalsRowDxfId="18">
+    <tableColumn id="9" xr3:uid="{DEEF5E54-5054-45B9-B8EE-A5D09A981708}" name="NOMBRE" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4F40C219-FD97-4CAB-B243-ECFB4C424AFF}" name="CUIL" dataDxfId="33" totalsRowDxfId="17">
+    <tableColumn id="2" xr3:uid="{4F40C219-FD97-4CAB-B243-ECFB4C424AFF}" name="CUIL" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>introduccion!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{62C6429F-DFB5-4F13-9C8C-F4F9A8B2BFF4}" name="TIPO" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="16">
+    <tableColumn id="3" xr3:uid="{62C6429F-DFB5-4F13-9C8C-F4F9A8B2BFF4}" name="TIPO" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</calculatedColumnFormula>
       <totalsRowFormula>MODE(empleados[TIPO])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{19B71444-5CC4-45F1-8222-5A8DBAD1B101}" name="DOCUMENTO" dataDxfId="31" totalsRowDxfId="15" dataCellStyle="Millares">
+    <tableColumn id="4" xr3:uid="{19B71444-5CC4-45F1-8222-5A8DBAD1B101}" name="DOCUMENTO" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Millares">
       <calculatedColumnFormula>MID(empleados[[#This Row],[CUIL]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E886725E-39BE-415C-979A-1175DA7DBC26}" name="VERIF" dataDxfId="30" totalsRowDxfId="14">
+    <tableColumn id="5" xr3:uid="{E886725E-39BE-415C-979A-1175DA7DBC26}" name="VERIF" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>RIGHT(empleados[[#This Row],[CUIL]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C0528248-53F2-4B9A-B0FC-54DAC797D388}" name="CHAR" dataDxfId="29" totalsRowDxfId="13">
+    <tableColumn id="6" xr3:uid="{C0528248-53F2-4B9A-B0FC-54DAC797D388}" name="CHAR" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>FIND(separador,empleados[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7ACF23E0-4058-4529-87E3-89A0F10EDEE7}" name="LARGO" totalsRowFunction="max" dataDxfId="28" totalsRowDxfId="12">
+    <tableColumn id="7" xr3:uid="{7ACF23E0-4058-4529-87E3-89A0F10EDEE7}" name="LARGO" totalsRowFunction="max" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>LEN(empleados[[#This Row],[EMPLEADO]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C0311DC3-1821-46B4-BAF2-F825CC93183C}" name="NACIMIENTO" dataDxfId="27" totalsRowDxfId="11">
+    <tableColumn id="10" xr3:uid="{C0311DC3-1821-46B4-BAF2-F825CC93183C}" name="NACIMIENTO" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>introduccion!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C5EF39FB-0151-4B57-8F47-0735E6F3917B}" name="EDAD" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="10">
+    <tableColumn id="11" xr3:uid="{C5EF39FB-0151-4B57-8F47-0735E6F3917B}" name="EDAD" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>(datos_hoy - empleados[[#This Row],[NACIMIENTO]]) / 365</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(empleados[EDAD])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A025954B-A9FF-49BA-A580-9FA9F8B233C2}" name="AÑOS" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="9">
+    <tableColumn id="12" xr3:uid="{A025954B-A9FF-49BA-A580-9FA9F8B233C2}" name="AÑOS" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(empleados[AÑOS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{2EAA4AB1-5773-4D81-8119-48C5A0C08F69}" name="entrada" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="8">
+    <tableColumn id="13" xr3:uid="{2EAA4AB1-5773-4D81-8119-48C5A0C08F69}" name="entrada" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="50">
       <totalsRowFormula>MEDIAN(empleados[entrada])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{341FD674-15E1-44A6-B749-E39DAB5E740A}" name="salida" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="7">
+    <tableColumn id="14" xr3:uid="{341FD674-15E1-44A6-B749-E39DAB5E740A}" name="salida" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>MEDIAN(empleados[salida])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{3C8E616C-CB51-4D78-B9BD-1CEB59933A8F}" name="H" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="6">
+    <tableColumn id="17" xr3:uid="{3C8E616C-CB51-4D78-B9BD-1CEB59933A8F}" name="H" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(empleados[H])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{21F27A62-D009-45A5-A9C8-60FBC9C20CF7}" name="mm" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="18" xr3:uid="{21F27A62-D009-45A5-A9C8-60FBC9C20CF7}" name="mm" totalsRowFunction="custom" dataDxfId="45">
       <calculatedColumnFormula>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(empleados[mm])</totalsRowFormula>
     </tableColumn>
@@ -5140,109 +5093,109 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}" name="asistencia" displayName="asistencia" ref="A1:AH12" totalsRowCount="1" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}" name="asistencia" displayName="asistencia" ref="A1:AH12" totalsRowCount="1" tableBorderDxfId="44">
   <autoFilter ref="A1:AH11" xr:uid="{EB255E47-4E76-4E15-B9ED-DABF169EDCDF}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{FFB40CFD-2FB0-4BA8-9AD2-20F41FFE821E}" name="EMPLEADOS" totalsRowLabel="Total" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{FFB40CFD-2FB0-4BA8-9AD2-20F41FFE821E}" name="EMPLEADOS" totalsRowLabel="Total" dataDxfId="43">
       <calculatedColumnFormula>_xlfn.CONCAT(introduccion!C2&amp;", "&amp;introduccion!B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7CD2E68C-D07C-4635-B469-EBACA13F9D82}" name="01/09/22" totalsRowFunction="custom" dataDxfId="77">
+    <tableColumn id="2" xr3:uid="{7CD2E68C-D07C-4635-B469-EBACA13F9D82}" name="01/09/22" totalsRowFunction="custom" dataDxfId="42">
       <totalsRowFormula>COUNTA($A$2:$A$11) - COUNTBLANK(B2:B11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6782312C-2AED-4FF2-B804-F6EC82A9B619}" name="02/09/22" totalsRowFunction="custom" dataDxfId="76">
+    <tableColumn id="3" xr3:uid="{6782312C-2AED-4FF2-B804-F6EC82A9B619}" name="02/09/22" totalsRowFunction="custom" dataDxfId="41">
       <totalsRowFormula>COUNTBLANK(C2:C11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6A44F1E-D0D7-4343-B875-865BCF5DE859}" name="03/09/22" totalsRowFunction="custom" dataDxfId="75">
+    <tableColumn id="4" xr3:uid="{C6A44F1E-D0D7-4343-B875-865BCF5DE859}" name="03/09/22" totalsRowFunction="custom" dataDxfId="40">
       <totalsRowFormula>COUNTBLANK(D2:D11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1B6A406D-2E5A-4E52-9AF8-9BBB22029492}" name="04/09/22" totalsRowFunction="custom" dataDxfId="74">
+    <tableColumn id="5" xr3:uid="{1B6A406D-2E5A-4E52-9AF8-9BBB22029492}" name="04/09/22" totalsRowFunction="custom" dataDxfId="39">
       <totalsRowFormula>COUNTBLANK(E2:E11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8B393F8F-816E-412F-8868-DE374FC96561}" name="05/09/22" totalsRowFunction="custom" dataDxfId="73">
+    <tableColumn id="6" xr3:uid="{8B393F8F-816E-412F-8868-DE374FC96561}" name="05/09/22" totalsRowFunction="custom" dataDxfId="38">
       <totalsRowFormula>COUNTBLANK(F2:F11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A3EEB526-D699-481A-B321-F21F70B94670}" name="06/09/22" totalsRowFunction="custom" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{A3EEB526-D699-481A-B321-F21F70B94670}" name="06/09/22" totalsRowFunction="custom" dataDxfId="37">
       <totalsRowFormula>COUNTBLANK(G2:G11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F22C56C5-CB9F-40AD-81E2-33C9F951222A}" name="07/09/22" totalsRowFunction="custom" dataDxfId="71">
+    <tableColumn id="8" xr3:uid="{F22C56C5-CB9F-40AD-81E2-33C9F951222A}" name="07/09/22" totalsRowFunction="custom" dataDxfId="36">
       <totalsRowFormula>COUNTBLANK(H2:H11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{73160653-73D2-4AB2-AF88-C92D864411FC}" name="08/09/22" totalsRowFunction="custom" dataDxfId="70">
+    <tableColumn id="9" xr3:uid="{73160653-73D2-4AB2-AF88-C92D864411FC}" name="08/09/22" totalsRowFunction="custom" dataDxfId="35">
       <totalsRowFormula>COUNTBLANK(I2:I11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{81C87D0C-5C80-4ADA-9017-C1883C821D5F}" name="09/09/22" totalsRowFunction="custom" dataDxfId="69">
+    <tableColumn id="10" xr3:uid="{81C87D0C-5C80-4ADA-9017-C1883C821D5F}" name="09/09/22" totalsRowFunction="custom" dataDxfId="34">
       <totalsRowFormula>COUNTBLANK(J2:J11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C452CA74-AE98-4EBE-B4AF-BFD228DE07E6}" name="10/09/22" totalsRowFunction="custom" dataDxfId="68">
+    <tableColumn id="11" xr3:uid="{C452CA74-AE98-4EBE-B4AF-BFD228DE07E6}" name="10/09/22" totalsRowFunction="custom" dataDxfId="33">
       <totalsRowFormula>COUNTBLANK(K2:K11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{58FFD11A-AC9F-4F8E-8D7E-4F699E6FFAF5}" name="11/09/22" totalsRowFunction="custom" dataDxfId="67">
+    <tableColumn id="12" xr3:uid="{58FFD11A-AC9F-4F8E-8D7E-4F699E6FFAF5}" name="11/09/22" totalsRowFunction="custom" dataDxfId="32">
       <totalsRowFormula>COUNTBLANK(L2:L11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{EF89081F-FC50-4D28-B748-E215BB32BF49}" name="12/09/22" totalsRowFunction="custom" dataDxfId="66">
+    <tableColumn id="13" xr3:uid="{EF89081F-FC50-4D28-B748-E215BB32BF49}" name="12/09/22" totalsRowFunction="custom" dataDxfId="31">
       <totalsRowFormula>COUNTBLANK(M2:M11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9DC5AC26-133B-4292-A104-18BDAEB4A78F}" name="13/09/22" totalsRowFunction="custom" dataDxfId="65">
+    <tableColumn id="14" xr3:uid="{9DC5AC26-133B-4292-A104-18BDAEB4A78F}" name="13/09/22" totalsRowFunction="custom" dataDxfId="30">
       <totalsRowFormula>COUNTBLANK(N2:N11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A771D892-D621-46F4-9537-1B265C8E9A36}" name="14/09/22" totalsRowFunction="custom" dataDxfId="64">
+    <tableColumn id="15" xr3:uid="{A771D892-D621-46F4-9537-1B265C8E9A36}" name="14/09/22" totalsRowFunction="custom" dataDxfId="29">
       <totalsRowFormula>COUNTBLANK(O2:O11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1F6F4D30-C62F-4312-9A7E-E1167AF5A05D}" name="15/09/22" totalsRowFunction="custom" dataDxfId="63">
+    <tableColumn id="16" xr3:uid="{1F6F4D30-C62F-4312-9A7E-E1167AF5A05D}" name="15/09/22" totalsRowFunction="custom" dataDxfId="28">
       <totalsRowFormula>COUNTBLANK(P2:P11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2D64B6B4-4A83-487B-9E69-1C35894B58C5}" name="16/09/22" totalsRowFunction="custom" dataDxfId="62">
+    <tableColumn id="17" xr3:uid="{2D64B6B4-4A83-487B-9E69-1C35894B58C5}" name="16/09/22" totalsRowFunction="custom" dataDxfId="27">
       <totalsRowFormula>COUNTBLANK(Q2:Q11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{66F27389-1D9E-4B4E-AF0D-D7BB5386C4E2}" name="17/09/22" totalsRowFunction="custom" dataDxfId="61">
+    <tableColumn id="18" xr3:uid="{66F27389-1D9E-4B4E-AF0D-D7BB5386C4E2}" name="17/09/22" totalsRowFunction="custom" dataDxfId="26">
       <totalsRowFormula>COUNTBLANK(R2:R11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DC182874-F7F9-48B4-BA09-DF7DD0C46D02}" name="18/09/22" totalsRowFunction="custom" dataDxfId="60">
+    <tableColumn id="19" xr3:uid="{DC182874-F7F9-48B4-BA09-DF7DD0C46D02}" name="18/09/22" totalsRowFunction="custom" dataDxfId="25">
       <totalsRowFormula>COUNTBLANK(S2:S11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{F211762A-904D-400D-8935-B6F09029DC73}" name="19/09/22" totalsRowFunction="custom" dataDxfId="59">
+    <tableColumn id="20" xr3:uid="{F211762A-904D-400D-8935-B6F09029DC73}" name="19/09/22" totalsRowFunction="custom" dataDxfId="24">
       <totalsRowFormula>COUNTBLANK(T2:T11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{3C17D129-9505-44DD-BBE0-ABF261CDE4BE}" name="20/09/22" totalsRowFunction="custom" dataDxfId="58">
+    <tableColumn id="21" xr3:uid="{3C17D129-9505-44DD-BBE0-ABF261CDE4BE}" name="20/09/22" totalsRowFunction="custom" dataDxfId="23">
       <totalsRowFormula>COUNTBLANK(U2:U11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3839BFCA-649A-4DA4-9CC5-401179A69E94}" name="21/09/22" totalsRowFunction="custom" dataDxfId="57">
+    <tableColumn id="22" xr3:uid="{3839BFCA-649A-4DA4-9CC5-401179A69E94}" name="21/09/22" totalsRowFunction="custom" dataDxfId="22">
       <totalsRowFormula>COUNTBLANK(V2:V11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{CFA2F06A-8EE1-416E-910B-59D7BC443557}" name="22/09/22" totalsRowFunction="custom" dataDxfId="56">
+    <tableColumn id="23" xr3:uid="{CFA2F06A-8EE1-416E-910B-59D7BC443557}" name="22/09/22" totalsRowFunction="custom" dataDxfId="21">
       <totalsRowFormula>COUNTBLANK(W2:W11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{FF543CC5-D769-401F-B919-8083D15D1E25}" name="23/09/22" totalsRowFunction="custom" dataDxfId="55">
+    <tableColumn id="24" xr3:uid="{FF543CC5-D769-401F-B919-8083D15D1E25}" name="23/09/22" totalsRowFunction="custom" dataDxfId="20">
       <totalsRowFormula>COUNTBLANK(X2:X11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{19785421-596B-4949-9FE6-AC04B9A8A0B8}" name="24/09/22" totalsRowFunction="custom" dataDxfId="54">
+    <tableColumn id="25" xr3:uid="{19785421-596B-4949-9FE6-AC04B9A8A0B8}" name="24/09/22" totalsRowFunction="custom" dataDxfId="19">
       <totalsRowFormula>COUNTBLANK(Y2:Y11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{77DCF724-123A-4A25-A01B-4B525F174906}" name="25/09/22" totalsRowFunction="custom" dataDxfId="53">
+    <tableColumn id="26" xr3:uid="{77DCF724-123A-4A25-A01B-4B525F174906}" name="25/09/22" totalsRowFunction="custom" dataDxfId="18">
       <totalsRowFormula>COUNTBLANK(Z2:Z11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{AC499496-18FA-4796-B6D1-8CB8B24D4635}" name="26/09/22" totalsRowFunction="custom" dataDxfId="52">
+    <tableColumn id="27" xr3:uid="{AC499496-18FA-4796-B6D1-8CB8B24D4635}" name="26/09/22" totalsRowFunction="custom" dataDxfId="17">
       <totalsRowFormula>COUNTBLANK(AA2:AA11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{D4ED44DE-9137-499F-85ED-BCD7ECD9A1EA}" name="27/09/22" totalsRowFunction="custom" dataDxfId="51">
+    <tableColumn id="28" xr3:uid="{D4ED44DE-9137-499F-85ED-BCD7ECD9A1EA}" name="27/09/22" totalsRowFunction="custom" dataDxfId="16">
       <totalsRowFormula>COUNTBLANK(AB2:AB11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{E385E835-FA8B-4251-9748-1E5B35CF35FC}" name="28/09/22" totalsRowFunction="custom" dataDxfId="50">
+    <tableColumn id="29" xr3:uid="{E385E835-FA8B-4251-9748-1E5B35CF35FC}" name="28/09/22" totalsRowFunction="custom" dataDxfId="15">
       <totalsRowFormula>COUNTBLANK(AC2:AC11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{0D4459DA-D655-4F90-A83C-FD20F4AD3F3E}" name="29/09/22" totalsRowFunction="custom" dataDxfId="49">
+    <tableColumn id="30" xr3:uid="{0D4459DA-D655-4F90-A83C-FD20F4AD3F3E}" name="29/09/22" totalsRowFunction="custom" dataDxfId="14">
       <totalsRowFormula>COUNTBLANK(AD2:AD11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{32451497-3DB8-4B31-ADDF-E9C1A2599C46}" name="30/09/22" totalsRowFunction="custom" dataDxfId="48">
+    <tableColumn id="31" xr3:uid="{32451497-3DB8-4B31-ADDF-E9C1A2599C46}" name="30/09/22" totalsRowFunction="custom" dataDxfId="13">
       <totalsRowFormula>COUNTBLANK(AE2:AE11)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{3DD562B3-0719-4D45-8340-C2ACEA5547A7}" name="Aus." totalsRowFunction="sum" dataDxfId="47">
+    <tableColumn id="32" xr3:uid="{3DD562B3-0719-4D45-8340-C2ACEA5547A7}" name="Aus." totalsRowFunction="sum" dataDxfId="12">
       <calculatedColumnFormula>COUNTBLANK(B2:AE2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{FB33E439-6F10-43AB-8172-EF83DE1E891A}" name="Asist." totalsRowFunction="sum" dataDxfId="46">
+    <tableColumn id="33" xr3:uid="{FB33E439-6F10-43AB-8172-EF83DE1E891A}" name="Asist." totalsRowFunction="sum" dataDxfId="11">
       <calculatedColumnFormula>COUNTA($B$1:$AE$1) - AF2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{0D66ED41-FA53-4A07-8873-DA93C74A6065}" name="sueldo" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="34" xr3:uid="{0D66ED41-FA53-4A07-8873-DA93C74A6065}" name="sueldo" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula array="1">AG2*valor_hora*jornada</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5258,12 +5211,12 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{219F5B7E-D8F1-4D71-A7D2-CE12FFC1D082}" name="codigo"/>
-    <tableColumn id="2" xr3:uid="{466C7B34-0A79-4FE0-9FA5-31DEDBF20899}" name="producto"/>
+    <tableColumn id="2" xr3:uid="{466C7B34-0A79-4FE0-9FA5-31DEDBF20899}" name="articulo"/>
     <tableColumn id="3" xr3:uid="{A6107C8B-32BB-4ED2-B185-CE6F6D183D48}" name="stock"/>
     <tableColumn id="4" xr3:uid="{767E403C-9FBB-4BCE-9865-EF64259A8953}" name="precio" dataCellStyle="Moneda"/>
     <tableColumn id="7" xr3:uid="{A963D90F-E9F8-4FC4-8718-F7142DB1FD23}" name="categoria"/>
     <tableColumn id="5" xr3:uid="{94932026-CF59-4D21-87B8-F036F8B814F6}" name="proveedor"/>
-    <tableColumn id="6" xr3:uid="{07D0E63B-FFEF-4AD5-9550-F9F71A9F24CB}" name="reponer" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{07D0E63B-FFEF-4AD5-9550-F9F71A9F24CB}" name="reponer" dataDxfId="7">
       <calculatedColumnFormula>Tabla2[[#This Row],[stock]]&lt;=5000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5272,22 +5225,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}" name="ventas" displayName="ventas" ref="D1:J19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Moneda" dataCellStyle="Moneda">
   <autoFilter ref="D1:J19" xr:uid="{68D78FFC-D445-4B32-A094-B9AA947FC8E6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3AC5DBD6-A04E-4E7D-B94E-AE2A136DF070}" name="codigo"/>
     <tableColumn id="2" xr3:uid="{274BE5D4-57A6-4F62-AF29-6B2030F1B528}" name="cant"/>
-    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="41" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="40" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{0F9DC028-3A53-4886-8D0D-ED861C2A3CEB}" name="precio" dataDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{48AEC4E8-96DE-4725-B4D9-EBB0B8B700CF}" name="total" dataDxfId="3" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="39" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{83C20BB9-A623-4746-82D5-84E408BD5E76}" name="iva" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*iva_ventas</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="38" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{9587F797-1F6A-4699-95ED-8F390E0DAC4F}" name="precio+iva" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>ventas[[#This Row],[total]]+ventas[[#This Row],[iva]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{710A6C7B-EF76-4F87-B111-6E49C18F5053}" name="fecha" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5596,7 +5549,7 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5605,12 +5558,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="134" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="120" t="s">
         <v>234</v>
       </c>
@@ -5628,12 +5581,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="134" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="120" t="s">
         <v>238</v>
       </c>
@@ -5675,9 +5628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117B3FF-61B0-4BBD-B7C7-F6DFDE9130BD}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5974,7 +5927,7 @@
         <v>157</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>212</v>
@@ -6731,7 +6684,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6749,31 +6702,31 @@
       <c r="A1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
       <c r="F1" s="48"/>
       <c r="G1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
       <c r="M1" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="131" t="s">
+      <c r="N1" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -6809,12 +6762,12 @@
       <c r="M2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="127" t="s">
+      <c r="N2" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="128"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="141"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -6853,12 +6806,12 @@
         <f>$B3+$C3+D3+A3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N3" s="129" t="s">
+      <c r="N3" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="130"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="143"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -6897,12 +6850,12 @@
         <f t="array" ref="M4">$B4-$C4-D4-resta</f>
         <v>#NAME?</v>
       </c>
-      <c r="N4" s="124" t="s">
+      <c r="N4" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="125"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="138"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -6943,12 +6896,12 @@
         <f>-D5*[1]pepe!A3</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" s="122" t="s">
+      <c r="N5" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="123"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="136"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -6989,12 +6942,12 @@
         <f>$B6/$C6/D6/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="124" t="s">
+      <c r="N6" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="125"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="138"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -7033,12 +6986,12 @@
         <f t="array" aca="1" ref="M7" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="122" t="s">
+      <c r="N7" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="123"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7085,8 +7038,8 @@
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" style="142" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="139" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.28515625" style="131" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="128" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7134,13 +7087,13 @@
       <c r="O1" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="P1" s="140" t="s">
+      <c r="P1" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="Q1" s="140" t="s">
+      <c r="Q1" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="R1" s="138" t="s">
+      <c r="R1" s="127" t="s">
         <v>248</v>
       </c>
       <c r="S1" s="104" t="s">
@@ -7164,7 +7117,7 @@
         <f>introduccion!D2</f>
         <v>20-35336446-5</v>
       </c>
-      <c r="H2" s="137">
+      <c r="H2" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
@@ -7196,17 +7149,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>31</v>
       </c>
-      <c r="P2" s="141">
+      <c r="P2" s="130">
         <v>0.42708333333333331</v>
       </c>
-      <c r="Q2" s="141">
+      <c r="Q2" s="130">
         <v>0.5</v>
       </c>
       <c r="R2" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>2</v>
       </c>
-      <c r="S2" s="135">
+      <c r="S2" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>45</v>
       </c>
@@ -7234,7 +7187,7 @@
         <f>introduccion!D3</f>
         <v>20-43128323-1</v>
       </c>
-      <c r="H3" s="137">
+      <c r="H3" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
@@ -7266,17 +7219,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>25</v>
       </c>
-      <c r="P3" s="141">
+      <c r="P3" s="130">
         <v>0.41666666666666669</v>
       </c>
-      <c r="Q3" s="141">
+      <c r="Q3" s="130">
         <v>0.50694444444444442</v>
       </c>
       <c r="R3" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>2</v>
       </c>
-      <c r="S3" s="135">
+      <c r="S3" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>10</v>
       </c>
@@ -7306,7 +7259,7 @@
         <f>introduccion!D4</f>
         <v>20-30283492-6</v>
       </c>
-      <c r="H4" s="137">
+      <c r="H4" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
@@ -7338,17 +7291,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>35</v>
       </c>
-      <c r="P4" s="141">
+      <c r="P4" s="130">
         <v>0.41666666666666669</v>
       </c>
-      <c r="Q4" s="141">
+      <c r="Q4" s="130">
         <v>0.5</v>
       </c>
       <c r="R4" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>2</v>
       </c>
-      <c r="S4" s="135">
+      <c r="S4" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>0</v>
       </c>
@@ -7357,9 +7310,9 @@
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="132">
+      <c r="B5" s="121">
         <f ca="1">NOW()</f>
-        <v>44845.496178703703</v>
+        <v>44845.499446759262</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>asistencia!A5</f>
@@ -7377,7 +7330,7 @@
         <f>introduccion!D5</f>
         <v>27-33230498-2</v>
       </c>
-      <c r="H5" s="137">
+      <c r="H5" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>27</v>
       </c>
@@ -7409,17 +7362,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>33</v>
       </c>
-      <c r="P5" s="141">
+      <c r="P5" s="130">
         <v>0.4375</v>
       </c>
-      <c r="Q5" s="141">
+      <c r="Q5" s="130">
         <v>0.53125</v>
       </c>
       <c r="R5" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>2</v>
       </c>
-      <c r="S5" s="135">
+      <c r="S5" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>15</v>
       </c>
@@ -7448,7 +7401,7 @@
         <f>introduccion!D6</f>
         <v>27-38578293-4</v>
       </c>
-      <c r="H6" s="137">
+      <c r="H6" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>27</v>
       </c>
@@ -7480,17 +7433,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>29</v>
       </c>
-      <c r="P6" s="141">
+      <c r="P6" s="130">
         <v>0.42708333333333331</v>
       </c>
-      <c r="Q6" s="141">
+      <c r="Q6" s="130">
         <v>0.50694444444444442</v>
       </c>
       <c r="R6" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>2</v>
       </c>
-      <c r="S6" s="135">
+      <c r="S6" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>55</v>
       </c>
@@ -7519,7 +7472,7 @@
         <f>introduccion!D7</f>
         <v>20-28234973-3</v>
       </c>
-      <c r="H7" s="137">
+      <c r="H7" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
@@ -7551,17 +7504,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>35</v>
       </c>
-      <c r="P7" s="141">
+      <c r="P7" s="130">
         <v>0.41666666666666669</v>
       </c>
-      <c r="Q7" s="141">
+      <c r="Q7" s="130">
         <v>0.5</v>
       </c>
       <c r="R7" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>2</v>
       </c>
-      <c r="S7" s="135">
+      <c r="S7" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>0</v>
       </c>
@@ -7590,7 +7543,7 @@
         <f>introduccion!D8</f>
         <v>20-39128371-1</v>
       </c>
-      <c r="H8" s="137">
+      <c r="H8" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
@@ -7622,17 +7575,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>28</v>
       </c>
-      <c r="P8" s="141">
+      <c r="P8" s="130">
         <v>0.375</v>
       </c>
-      <c r="Q8" s="141">
+      <c r="Q8" s="130">
         <v>0.54166666666666663</v>
       </c>
       <c r="R8" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>4</v>
       </c>
-      <c r="S8" s="135">
+      <c r="S8" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>0</v>
       </c>
@@ -7661,7 +7614,7 @@
         <f>introduccion!D9</f>
         <v>20-45019105-2</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>20</v>
       </c>
@@ -7693,17 +7646,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>19</v>
       </c>
-      <c r="P9" s="141">
+      <c r="P9" s="130">
         <v>0.4375</v>
       </c>
-      <c r="Q9" s="141">
+      <c r="Q9" s="130">
         <v>0.50694444444444442</v>
       </c>
       <c r="R9" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>2</v>
       </c>
-      <c r="S9" s="135">
+      <c r="S9" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>40</v>
       </c>
@@ -7714,7 +7667,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">MINUTE(B5)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D10" s="51" t="str">
         <f>asistencia!A10</f>
@@ -7732,7 +7685,7 @@
         <f>introduccion!D10</f>
         <v>27-31203948-8</v>
       </c>
-      <c r="H10" s="137">
+      <c r="H10" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>27</v>
       </c>
@@ -7764,17 +7717,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>36</v>
       </c>
-      <c r="P10" s="141">
+      <c r="P10" s="130">
         <v>0.42708333333333331</v>
       </c>
-      <c r="Q10" s="141">
+      <c r="Q10" s="130">
         <v>0.54166666666666663</v>
       </c>
       <c r="R10" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>3</v>
       </c>
-      <c r="S10" s="135">
+      <c r="S10" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>45</v>
       </c>
@@ -7785,15 +7738,15 @@
       </c>
       <c r="B11" s="49">
         <f ca="1">SECOND(B5)</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D11" s="52" t="str">
         <f>asistencia!A11</f>
-        <v>Lopez, Laura</v>
+        <v>Larralde, Laura</v>
       </c>
       <c r="E11" s="52" t="str">
         <f>LEFT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[CHAR]] - 1)</f>
-        <v>Lopez</v>
+        <v>Larralde</v>
       </c>
       <c r="F11" s="52" t="str">
         <f>RIGHT(empleados[[#This Row],[EMPLEADO]], empleados[[#This Row],[LARGO]] - (LEN(empleados[[#This Row],[APELLIDO]]) + 2))</f>
@@ -7803,7 +7756,7 @@
         <f>introduccion!D11</f>
         <v>27-30192834-4</v>
       </c>
-      <c r="H11" s="137">
+      <c r="H11" s="126">
         <f>_xlfn.NUMBERVALUE(LEFT(empleados[[#This Row],[CUIL]],2))</f>
         <v>27</v>
       </c>
@@ -7817,11 +7770,11 @@
       </c>
       <c r="K11" s="52">
         <f>FIND(separador,empleados[[#This Row],[EMPLEADO]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L11" s="52">
         <f>LEN(empleados[[#This Row],[EMPLEADO]])</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M11" s="105">
         <f>introduccion!E11</f>
@@ -7835,17 +7788,17 @@
         <f ca="1">$B$6 - YEAR(empleados[[#This Row],[NACIMIENTO]])</f>
         <v>37</v>
       </c>
-      <c r="P11" s="141">
+      <c r="P11" s="130">
         <v>0.41666666666666669</v>
       </c>
-      <c r="Q11" s="141">
+      <c r="Q11" s="130">
         <v>0.53125</v>
       </c>
       <c r="R11" s="108">
         <f>HOUR(empleados[[#This Row],[salida]]) - HOUR(empleados[[#This Row],[entrada]])</f>
         <v>2</v>
       </c>
-      <c r="S11" s="135">
+      <c r="S11" s="124">
         <f>MINUTE(empleados[[#This Row],[salida]]-empleados[[#This Row],[entrada]])</f>
         <v>45</v>
       </c>
@@ -7855,21 +7808,21 @@
         <f>COUNTA(empleados[EMPLEADO])</f>
         <v>10</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="136">
+      <c r="H12" s="125">
         <f>MODE(empleados[TIPO])</f>
         <v>20</v>
       </c>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133">
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122">
         <f>SUBTOTAL(104,empleados[LARGO])</f>
         <v>18</v>
       </c>
-      <c r="M12" s="134"/>
+      <c r="M12" s="123"/>
       <c r="N12" s="106">
         <f ca="1">AVERAGE(empleados[EDAD])</f>
         <v>31.11698630136986</v>
@@ -7878,15 +7831,15 @@
         <f ca="1">AVERAGE(empleados[AÑOS])</f>
         <v>30.8</v>
       </c>
-      <c r="P12" s="142">
+      <c r="P12" s="131">
         <f>MEDIAN(empleados[entrada])</f>
         <v>0.421875</v>
       </c>
-      <c r="Q12" s="142">
+      <c r="Q12" s="131">
         <f>MEDIAN(empleados[salida])</f>
         <v>0.50694444444444442</v>
       </c>
-      <c r="R12" s="139">
+      <c r="R12" s="128">
         <f>AVERAGE(empleados[H])</f>
         <v>2.2999999999999998</v>
       </c>
@@ -9007,7 +8960,7 @@
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="str">
         <f>_xlfn.CONCAT(introduccion!C11&amp;", "&amp;introduccion!B11)</f>
-        <v>Lopez, Laura</v>
+        <v>Larralde, Laura</v>
       </c>
       <c r="B11" s="77" t="s">
         <v>158</v>
@@ -9322,8 +9275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DFCC1-0733-4BBC-8410-31F61302687F}">
   <dimension ref="C1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9350,37 +9303,37 @@
         <v>97</v>
       </c>
       <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
         <v>250</v>
-      </c>
-      <c r="E1" t="s">
-        <v>251</v>
       </c>
       <c r="F1" s="56" t="s">
         <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" s="143" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" s="132" t="s">
+        <v>271</v>
+      </c>
+      <c r="M1" t="s">
         <v>272</v>
       </c>
-      <c r="M1" t="s">
-        <v>273</v>
-      </c>
       <c r="N1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" t="s">
         <v>287</v>
-      </c>
-      <c r="O1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
@@ -9388,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2">
         <v>300</v>
@@ -9397,28 +9350,28 @@
         <v>3800</v>
       </c>
       <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" t="s">
         <v>255</v>
-      </c>
-      <c r="H2" t="s">
-        <v>256</v>
       </c>
       <c r="I2" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>1</v>
       </c>
-      <c r="K2" s="121" t="s">
-        <v>270</v>
+      <c r="K2" s="134" t="s">
+        <v>269</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N2" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="144">
+        <v>280</v>
+      </c>
+      <c r="N2" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="O2" s="133">
         <v>2</v>
       </c>
     </row>
@@ -9427,7 +9380,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3">
         <v>1200</v>
@@ -9436,27 +9389,27 @@
         <v>25800</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I3" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>1</v>
       </c>
-      <c r="K3" s="121"/>
+      <c r="K3" s="134"/>
       <c r="L3" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M3" t="s">
-        <v>282</v>
-      </c>
-      <c r="N3" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="N3" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="O3" s="133" t="s">
         <v>289</v>
-      </c>
-      <c r="O3" s="144" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
@@ -9464,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4">
         <v>5000</v>
@@ -9473,26 +9426,26 @@
         <v>17800</v>
       </c>
       <c r="G4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" t="s">
         <v>260</v>
-      </c>
-      <c r="H4" t="s">
-        <v>261</v>
       </c>
       <c r="I4" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>1</v>
       </c>
-      <c r="K4" s="121"/>
+      <c r="K4" s="134"/>
       <c r="L4" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M4" t="s">
-        <v>283</v>
-      </c>
-      <c r="N4" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="O4" s="144">
+        <v>282</v>
+      </c>
+      <c r="N4" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="O4" s="133">
         <v>1</v>
       </c>
     </row>
@@ -9501,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5">
         <v>2000</v>
@@ -9510,26 +9463,26 @@
         <v>8500</v>
       </c>
       <c r="G5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" t="s">
         <v>263</v>
-      </c>
-      <c r="H5" t="s">
-        <v>264</v>
       </c>
       <c r="I5" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>1</v>
       </c>
-      <c r="K5" s="121"/>
+      <c r="K5" s="134"/>
       <c r="L5" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M5" t="s">
-        <v>284</v>
-      </c>
-      <c r="N5" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="O5" s="144">
+        <v>283</v>
+      </c>
+      <c r="N5" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="O5" s="133">
         <v>1.2</v>
       </c>
     </row>
@@ -9538,7 +9491,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6">
         <v>8500</v>
@@ -9547,27 +9500,27 @@
         <v>5000</v>
       </c>
       <c r="G6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" t="s">
         <v>263</v>
-      </c>
-      <c r="H6" t="s">
-        <v>264</v>
       </c>
       <c r="I6" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>0</v>
       </c>
-      <c r="K6" s="121"/>
+      <c r="K6" s="134"/>
       <c r="L6" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M6" t="s">
-        <v>285</v>
-      </c>
-      <c r="N6" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="O6" s="144" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="N6" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="O6" s="133" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
@@ -9575,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7">
         <v>15000</v>
@@ -9584,27 +9537,27 @@
         <v>105000</v>
       </c>
       <c r="G7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" t="s">
         <v>267</v>
-      </c>
-      <c r="H7" t="s">
-        <v>268</v>
       </c>
       <c r="I7" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>0</v>
       </c>
-      <c r="K7" s="121"/>
+      <c r="K7" s="134"/>
       <c r="L7" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M7" t="s">
-        <v>286</v>
-      </c>
-      <c r="N7" s="144" t="s">
-        <v>289</v>
-      </c>
-      <c r="O7" s="144" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="N7" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="O7" s="133" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
@@ -9612,7 +9565,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8">
         <v>3000</v>
@@ -9621,29 +9574,29 @@
         <v>45000</v>
       </c>
       <c r="G8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I8" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>1</v>
       </c>
-      <c r="K8" s="121" t="s">
-        <v>271</v>
+      <c r="K8" s="134" t="s">
+        <v>270</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N8" s="133" t="s">
         <v>298</v>
       </c>
-      <c r="N8" s="144" t="s">
-        <v>299</v>
-      </c>
-      <c r="O8" s="144" t="s">
-        <v>297</v>
+      <c r="O8" s="133" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
@@ -9651,7 +9604,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E9">
         <v>2000</v>
@@ -9660,27 +9613,27 @@
         <v>15000</v>
       </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I9" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>1</v>
       </c>
-      <c r="K9" s="121"/>
+      <c r="K9" s="134"/>
       <c r="L9" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M9" t="s">
-        <v>301</v>
-      </c>
-      <c r="N9" s="144" t="s">
+        <v>300</v>
+      </c>
+      <c r="N9" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="O9" s="133" t="s">
         <v>299</v>
-      </c>
-      <c r="O9" s="144" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
@@ -9688,7 +9641,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10">
         <v>3200</v>
@@ -9697,27 +9650,27 @@
         <v>150000</v>
       </c>
       <c r="G10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I10" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>1</v>
       </c>
-      <c r="K10" s="121"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M10" t="s">
-        <v>303</v>
-      </c>
-      <c r="N10" s="144" t="s">
-        <v>299</v>
-      </c>
-      <c r="O10" s="144" t="s">
-        <v>297</v>
+        <v>302</v>
+      </c>
+      <c r="N10" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="O10" s="133" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
@@ -9725,7 +9678,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11">
         <v>5800</v>
@@ -9734,27 +9687,27 @@
         <v>125999</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I11" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>0</v>
       </c>
-      <c r="K11" s="121"/>
+      <c r="K11" s="134"/>
       <c r="L11" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M11" t="s">
-        <v>302</v>
-      </c>
-      <c r="N11" s="144" t="s">
-        <v>299</v>
-      </c>
-      <c r="O11" s="144" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="N11" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="O11" s="133" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
@@ -9762,7 +9715,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E12">
         <v>3500</v>
@@ -9771,27 +9724,27 @@
         <v>65000</v>
       </c>
       <c r="G12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I12" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>1</v>
       </c>
-      <c r="K12" s="121"/>
+      <c r="K12" s="134"/>
       <c r="L12" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M12" t="s">
+        <v>304</v>
+      </c>
+      <c r="N12" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="O12" s="133" t="s">
         <v>305</v>
-      </c>
-      <c r="N12" s="144" t="s">
-        <v>299</v>
-      </c>
-      <c r="O12" s="144" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
@@ -9799,7 +9752,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E13">
         <v>8000</v>
@@ -9808,27 +9761,27 @@
         <v>2000</v>
       </c>
       <c r="G13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" t="s">
         <v>255</v>
-      </c>
-      <c r="H13" t="s">
-        <v>256</v>
       </c>
       <c r="I13" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
         <v>0</v>
       </c>
-      <c r="K13" s="121"/>
+      <c r="K13" s="134"/>
       <c r="L13" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M13" t="s">
+        <v>306</v>
+      </c>
+      <c r="N13" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="O13" s="133" t="s">
         <v>307</v>
-      </c>
-      <c r="N13" s="144" t="s">
-        <v>299</v>
-      </c>
-      <c r="O13" s="144" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
@@ -9836,7 +9789,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E14">
         <v>25000</v>
@@ -9845,10 +9798,10 @@
         <v>15000</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I14" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
@@ -9860,7 +9813,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E15">
         <v>25000</v>
@@ -9869,10 +9822,10 @@
         <v>35000</v>
       </c>
       <c r="G15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I15" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
@@ -9884,7 +9837,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E16">
         <v>5400</v>
@@ -9893,10 +9846,10 @@
         <v>85999</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I16" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
@@ -9908,7 +9861,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E17">
         <v>2000</v>
@@ -9917,10 +9870,10 @@
         <v>95600</v>
       </c>
       <c r="G17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I17" t="b">
         <f>Tabla2[[#This Row],[stock]]&lt;=5000</f>
@@ -9960,7 +9913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="verdadero">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="verdadero">
       <formula>NOT(ISERROR(SEARCH("verdadero",I2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-mj10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C23B09-F10B-489A-9514-5E03DC260CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F39CE-6B65-492E-AF04-149AA3A0763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="11" xr2:uid="{141573A4-CDA2-4761-B364-CE062A8F3AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <sheet name="ventas" sheetId="4" r:id="rId8"/>
     <sheet name="estadisticas" sheetId="11" r:id="rId9"/>
     <sheet name="notas" sheetId="12" r:id="rId10"/>
+    <sheet name="prod" sheetId="14" r:id="rId11"/>
+    <sheet name="vent" sheetId="17" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">empleados!$D$2:$D$6</definedName>
@@ -48,16 +50,20 @@
     <definedName name="valor_hora">asistencia!$AP$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId14"/>
+    <pivotCache cacheId="18" r:id="rId15"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId12"/>
-        <x14:slicerCache r:id="rId13"/>
-        <x14:slicerCache r:id="rId14"/>
-        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
+        <x14:slicerCache r:id="rId17"/>
+        <x14:slicerCache r:id="rId18"/>
+        <x14:slicerCache r:id="rId19"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -114,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="343">
   <si>
     <t>apellido</t>
   </si>
@@ -1122,6 +1128,27 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Suma de stock</t>
+  </si>
+  <si>
+    <t>(Todas)</t>
+  </si>
+  <si>
+    <t>FALSO</t>
+  </si>
+  <si>
+    <t>Suma de total</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1444,7 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1702,6 +1729,13 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -6794,7 +6828,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5257197967614875E-2"/>
+          <c:y val="0.12840823415729086"/>
+          <c:w val="0.89591196075070667"/>
+          <c:h val="0.59841102807142221"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -12739,10 +12783,10 @@
       <xdr:rowOff>2563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10242</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12769,16 +12813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>757902</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10241</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12808,15 +12852,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>20484</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>734490</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157713</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12845,16 +12889,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7326</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8154</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>36635</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>143768</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12883,16 +12927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19707</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>40454</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>27034</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>750363</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12921,16 +12965,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>26275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19707</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>26019</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>39413</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19707</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>733834</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139547</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12999,6 +13043,792 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3 35 3201,'0'0'2512,"0"-34"-2457</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 3896,'-1'16'-375</inkml:trace>
 </inkml:ink>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="EducacionIT" refreshedDate="44854.485887847222" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="16" xr:uid="{ABDC1EAB-3D4A-49B5-8604-54CECC6AC04C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:I17" sheet="productos"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="codigo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="16"/>
+    </cacheField>
+    <cacheField name="articulo" numFmtId="0">
+      <sharedItems count="16">
+        <s v="Teclado"/>
+        <s v="monitor"/>
+        <s v="campera"/>
+        <s v="pesas"/>
+        <s v="pelotas tenis 3u"/>
+        <s v="placard 6 puertas"/>
+        <s v="Tablet 10''"/>
+        <s v="Microondas"/>
+        <s v="Lavarropas"/>
+        <s v="LED SmartTv 49''"/>
+        <s v="Consola SONY PS4"/>
+        <s v="Mouse"/>
+        <s v="Pantalones"/>
+        <s v="Horno Electrico"/>
+        <s v="Consola XBOX One"/>
+        <s v="aire acondicionado 3500w"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="stock" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="25000"/>
+    </cacheField>
+    <cacheField name="precio" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="150000" count="15">
+        <n v="3800"/>
+        <n v="25800"/>
+        <n v="17800"/>
+        <n v="8500"/>
+        <n v="5000"/>
+        <n v="105000"/>
+        <n v="45000"/>
+        <n v="15000"/>
+        <n v="150000"/>
+        <n v="125999"/>
+        <n v="65000"/>
+        <n v="2000"/>
+        <n v="35000"/>
+        <n v="85999"/>
+        <n v="95600"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="categoria" numFmtId="0">
+      <sharedItems count="6">
+        <s v="tecnologia"/>
+        <s v="indumentaria"/>
+        <s v="deportes"/>
+        <s v="muebles"/>
+        <s v="electrodomesticos"/>
+        <s v="entretenimiento"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="proveedor" numFmtId="0">
+      <sharedItems count="9">
+        <s v="logitech"/>
+        <s v="samsung"/>
+        <s v="adidas"/>
+        <s v="dunlop"/>
+        <s v="ikkea"/>
+        <s v="drean"/>
+        <s v="sony"/>
+        <s v="levis"/>
+        <s v="microsoft"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="reponer" numFmtId="0">
+      <sharedItems count="2">
+        <b v="1"/>
+        <b v="0"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="EducacionIT" refreshedDate="44854.499485416665" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="18" xr:uid="{5621DA04-48F7-40AC-878B-FDE4E6637F51}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="ventas"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="codigo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="44" count="10">
+        <n v="3"/>
+        <n v="5"/>
+        <n v="10"/>
+        <n v="20"/>
+        <n v="29"/>
+        <n v="44"/>
+        <n v="21"/>
+        <n v="33"/>
+        <n v="11"/>
+        <n v="40"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cant" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="precio" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3500" maxValue="9400"/>
+    </cacheField>
+    <cacheField name="total" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3500" maxValue="36500"/>
+    </cacheField>
+    <cacheField name="iva" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="735" maxValue="7665"/>
+    </cacheField>
+    <cacheField name="precio+iva" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4235" maxValue="44165"/>
+    </cacheField>
+    <cacheField name="fecha" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-09-02T00:00:00" maxDate="2022-09-28T00:00:00" count="9">
+        <d v="2022-09-20T00:00:00"/>
+        <d v="2022-09-21T00:00:00"/>
+        <d v="2022-09-22T00:00:00"/>
+        <d v="2022-09-23T00:00:00"/>
+        <d v="2022-09-24T00:00:00"/>
+        <d v="2022-09-25T00:00:00"/>
+        <d v="2022-09-26T00:00:00"/>
+        <d v="2022-09-27T00:00:00"/>
+        <d v="2022-09-02T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Empleado" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="3"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="300"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="1200"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="5000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="2000"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="8500"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="15000"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+    <n v="3000"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2000"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="8"/>
+    <n v="3200"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="9"/>
+    <n v="5800"/>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="10"/>
+    <n v="3500"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="11"/>
+    <n v="8000"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="12"/>
+    <n v="25000"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="13"/>
+    <n v="25000"/>
+    <x v="12"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="14"/>
+    <n v="5400"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="15"/>
+    <n v="2000"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="18">
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="5600"/>
+    <n v="28000"/>
+    <n v="5880"/>
+    <n v="33880"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8000"/>
+    <n v="16000"/>
+    <n v="3360"/>
+    <n v="19360"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="7300"/>
+    <n v="21900"/>
+    <n v="4599"/>
+    <n v="26499"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="3500"/>
+    <n v="3500"/>
+    <n v="735"/>
+    <n v="4235"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="5600"/>
+    <n v="11200"/>
+    <n v="2352"/>
+    <n v="13552"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="9400"/>
+    <n v="28200"/>
+    <n v="5922"/>
+    <n v="34122"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="8500"/>
+    <n v="8500"/>
+    <n v="1785"/>
+    <n v="10285"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="4500"/>
+    <n v="13500"/>
+    <n v="2835"/>
+    <n v="16335"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="7200"/>
+    <n v="14400"/>
+    <n v="3024"/>
+    <n v="17424"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="3500"/>
+    <n v="17500"/>
+    <n v="3675"/>
+    <n v="21175"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4"/>
+    <n v="4400"/>
+    <n v="17600"/>
+    <n v="3696"/>
+    <n v="21296"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="3500"/>
+    <n v="10500"/>
+    <n v="2205"/>
+    <n v="12705"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="7300"/>
+    <n v="14600"/>
+    <n v="3066"/>
+    <n v="17666"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3"/>
+    <n v="6200"/>
+    <n v="18600"/>
+    <n v="3906"/>
+    <n v="22506"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="3500"/>
+    <n v="7000"/>
+    <n v="1470"/>
+    <n v="8470"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="4400"/>
+    <n v="8800"/>
+    <n v="1848"/>
+    <n v="10648"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="7300"/>
+    <n v="36500"/>
+    <n v="7665"/>
+    <n v="44165"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="5600"/>
+    <n v="11200"/>
+    <n v="2352"/>
+    <n v="13552"/>
+    <x v="8"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70675D46-2B39-4E77-9BEC-5E8EA8D1566D}" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:I13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="15"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="16">
+        <item x="11"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de stock" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1141D58E-27FA-48B8-8BE3-3FB8D01AADF5}" name="TablaDinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="166" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de total" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13758,7 +14588,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14048,6 +14878,562 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4CE44B-647C-4EF5-ADEC-7620D048C926}">
+  <dimension ref="A2:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="148" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="148" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="149" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>25000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>5400</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5800</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5400</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5800</v>
+      </c>
+      <c r="H13" s="1">
+        <v>25000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>92700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7357C7B2-2198-4B92-9554-24502FE06DEC}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="148" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="150">
+        <v>44806</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11200</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="150">
+        <v>44824</v>
+      </c>
+      <c r="B6" s="1">
+        <v>28000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21900</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>65900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="150">
+        <v>44825</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11200</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="150">
+        <v>44826</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>28200</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="150">
+        <v>44827</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>13500</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>14400</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>8500</v>
+      </c>
+      <c r="L9" s="1">
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="150">
+        <v>44828</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>17600</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17500</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="150">
+        <v>44829</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>14600</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>10500</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="150">
+        <v>44830</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>8800</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>18600</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="150">
+        <v>44831</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>36500</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="150" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="1">
+        <v>50400</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>73000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>26400</v>
+      </c>
+      <c r="F14" s="1">
+        <v>38500</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13500</v>
+      </c>
+      <c r="H14" s="1">
+        <v>28200</v>
+      </c>
+      <c r="I14" s="1">
+        <v>14400</v>
+      </c>
+      <c r="J14" s="1">
+        <v>18600</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8500</v>
+      </c>
+      <c r="L14" s="1">
+        <v>287500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15739,7 +17125,7 @@
       </c>
       <c r="B5" s="121">
         <f ca="1">NOW()</f>
-        <v>44854.468736574076</v>
+        <v>44854.502357175923</v>
       </c>
       <c r="D5" s="52" t="str">
         <f>asistencia!A5</f>
@@ -16023,7 +17409,7 @@
       </c>
       <c r="B9" s="53">
         <f ca="1">HOUR(B5)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="52" t="str">
         <f>asistencia!A9</f>
@@ -16094,7 +17480,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">MINUTE(B5)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D10" s="51" t="str">
         <f>asistencia!A10</f>
@@ -16165,7 +17551,7 @@
       </c>
       <c r="B11" s="49">
         <f ca="1">SECOND(B5)</f>
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D11" s="52" t="str">
         <f>asistencia!A11</f>
@@ -17748,7 +19134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DFCC1-0733-4BBC-8410-31F61302687F}">
   <dimension ref="C1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -18425,10 +19811,10 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19155,8 +20541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E28C210-9361-4884-A24E-4D87058CC858}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="J9" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4D3614-EE57-4A07-8FB7-C8B244B3C988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089FCF54-B27F-4977-86B2-C37EC955B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
     <sheet name="listas" sheetId="2" r:id="rId2"/>
     <sheet name="f(x)" sheetId="3" r:id="rId3"/>
+    <sheet name="filtros" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
   <si>
     <t>Tipos</t>
   </si>
@@ -385,6 +386,99 @@
   </si>
   <si>
     <t>El contenido no cabe en la celda</t>
+  </si>
+  <si>
+    <t>es igual a</t>
+  </si>
+  <si>
+    <t>es menor que</t>
+  </si>
+  <si>
+    <t>es menor o igual a</t>
+  </si>
+  <si>
+    <t>es mayor que</t>
+  </si>
+  <si>
+    <t>es mayor o igual a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es igual a </t>
+  </si>
+  <si>
+    <t>contiene</t>
+  </si>
+  <si>
+    <t>no contiene</t>
+  </si>
+  <si>
+    <t>empieza por</t>
+  </si>
+  <si>
+    <t>termina con</t>
+  </si>
+  <si>
+    <t>No es igual a</t>
+  </si>
+  <si>
+    <t>Entre</t>
+  </si>
+  <si>
+    <t>referencia</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>2 Y 4</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>1,2,4,5,6,7</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>alfa, bravo, charlie, delta</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>bravo, charlie, delta</t>
+  </si>
+  <si>
+    <t>charlie, delta</t>
+  </si>
+  <si>
+    <t>alfa, bravo</t>
+  </si>
+  <si>
+    <t>alfa, delta</t>
   </si>
 </sst>
 </file>
@@ -399,7 +493,7 @@
     <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="169" formatCode="[$-2C0A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -591,7 +685,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,13 +789,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="40% - Énfasis6" xfId="1" builtinId="51"/>
@@ -715,7 +815,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="9" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -739,6 +849,32 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEC6AD2A-72FF-4680-9EF3-C2D11F01182E}" name="Tabla1" displayName="Tabla1" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{EEC6AD2A-72FF-4680-9EF3-C2D11F01182E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EA6C3CAF-FB06-48FD-826F-9ACD5BB921A9}" name="Numero"/>
+    <tableColumn id="4" xr3:uid="{556D6157-E57C-44AB-A177-96B4714CA3E8}" name="valor" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{66EF1D8B-6C80-4F9C-90D2-9B94D5695E1D}" name="referencia" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FE5AF678-CBCB-4B16-B981-A8578600942A}" name="resultado" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BFD16820-0B6A-4732-84CC-3A8DC1480203}" name="Tabla2" displayName="Tabla2" ref="A10:D16" totalsRowShown="0">
+  <autoFilter ref="A10:D16" xr:uid="{BFD16820-0B6A-4732-84CC-3A8DC1480203}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C90747EF-6B89-48CB-94E5-F6FFCE4BBBDB}" name="Texto"/>
+    <tableColumn id="2" xr3:uid="{1B33FF03-35E1-48B8-ACD2-AB2C1A363A8D}" name="Valor"/>
+    <tableColumn id="3" xr3:uid="{6764C023-BE86-4536-A67B-85F2A882EB1B}" name="referencia"/>
+    <tableColumn id="4" xr3:uid="{CF8F8CDC-56B2-4730-AB17-18E30DDFC3F9}" name="Resultado"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1939,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1961,19 +2097,19 @@
       <c r="A1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="F1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="K1" t="s">
         <v>86</v>
       </c>
@@ -2156,7 +2292,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K7" s="59">
+      <c r="K7" s="57">
         <v>33346</v>
       </c>
       <c r="L7" t="s">
@@ -2170,4 +2306,244 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE41BFDD-BABC-49DE-937D-B2ACC3FCC68D}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="61">
+        <v>3</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="61">
+        <v>3</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="61">
+        <v>3</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="61">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="61">
+        <v>3</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="61">
+        <v>3</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="61">
+        <v>3</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\excel-x15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089FCF54-B27F-4977-86B2-C37EC955B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D763F07-EFFF-4499-BF5F-E01DE3EC62F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,9 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">filtros!$F$11:$F$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
   <si>
     <t>Tipos</t>
   </si>
@@ -479,6 +482,21 @@
   </si>
   <si>
     <t>alfa, delta</t>
+  </si>
+  <si>
+    <t>filtro</t>
+  </si>
+  <si>
+    <t>2 O 4</t>
+  </si>
+  <si>
+    <t>bravo</t>
+  </si>
+  <si>
+    <t>charlie</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -791,16 +809,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -852,8 +870,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEC6AD2A-72FF-4680-9EF3-C2D11F01182E}" name="Tabla1" displayName="Tabla1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{EEC6AD2A-72FF-4680-9EF3-C2D11F01182E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEC6AD2A-72FF-4680-9EF3-C2D11F01182E}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9" xr:uid="{EEC6AD2A-72FF-4680-9EF3-C2D11F01182E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EA6C3CAF-FB06-48FD-826F-9ACD5BB921A9}" name="Numero"/>
     <tableColumn id="4" xr3:uid="{556D6157-E57C-44AB-A177-96B4714CA3E8}" name="valor" dataDxfId="2"/>
@@ -865,8 +883,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BFD16820-0B6A-4732-84CC-3A8DC1480203}" name="Tabla2" displayName="Tabla2" ref="A10:D16" totalsRowShown="0">
-  <autoFilter ref="A10:D16" xr:uid="{BFD16820-0B6A-4732-84CC-3A8DC1480203}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BFD16820-0B6A-4732-84CC-3A8DC1480203}" name="Tabla2" displayName="Tabla2" ref="A11:D17" totalsRowShown="0">
+  <autoFilter ref="A11:D17" xr:uid="{BFD16820-0B6A-4732-84CC-3A8DC1480203}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C90747EF-6B89-48CB-94E5-F6FFCE4BBBDB}" name="Texto"/>
     <tableColumn id="2" xr3:uid="{1B33FF03-35E1-48B8-ACD2-AB2C1A363A8D}" name="Valor"/>
@@ -2097,19 +2115,19 @@
       <c r="A1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="F1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="K1" t="s">
         <v>86</v>
       </c>
@@ -2310,167 +2328,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE41BFDD-BABC-49DE-937D-B2ACC3FCC68D}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="59" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="59">
         <v>3</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="59">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="59">
         <v>3</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="59" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="59">
         <v>3</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="59">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="59">
         <v>3</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="59" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="59">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="59" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="59">
         <v>3</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="59" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="59" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>123</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>121</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>133</v>
@@ -2479,26 +2524,32 @@
         <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>134</v>
@@ -2507,26 +2558,32 @@
         <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>135</v>
@@ -2535,10 +2592,25 @@
         <v>132</v>
       </c>
       <c r="D16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F11:F15" xr:uid="{BE41BFDD-BABC-49DE-937D-B2ACC3FCC68D}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-j12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{543F48E0-8F2F-400F-85AF-902F602466DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E636B6-B1C5-490F-B11D-9991DE8665CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{BFB0CF28-7797-46CE-98B8-81D14DF3A489}"/>
   </bookViews>
@@ -238,7 +238,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -306,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -322,7 +322,7 @@
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -333,26 +333,10 @@
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BC2E6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -384,14 +368,14 @@
     <tableColumn id="2" xr3:uid="{F9786D07-A25E-46C4-8F4C-B1F74B14B6B7}" name="apellido"/>
     <tableColumn id="3" xr3:uid="{FCCC3292-CE00-46E4-99EF-A7B83DE3E0D4}" name="nombre"/>
     <tableColumn id="4" xr3:uid="{FC499D72-DF7E-4830-BC33-62AA7AA4E98D}" name="cuil"/>
-    <tableColumn id="5" xr3:uid="{B4AA7946-4A8E-4BD2-ACD2-0F203177260B}" name="nacimiento" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{BAEFA1B4-2343-469D-9B64-5970EFC08CDD}" name="g" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{B4AA7946-4A8E-4BD2-ACD2-0F203177260B}" name="nacimiento" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{BAEFA1B4-2343-469D-9B64-5970EFC08CDD}" name="g" dataDxfId="5">
       <calculatedColumnFormula>LEFT(clientes[[#This Row],[cuil]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{84DE9DBC-2D64-4B7C-8C7D-9559321338F2}" name="documento" dataDxfId="5" dataCellStyle="Millares">
+    <tableColumn id="15" xr3:uid="{84DE9DBC-2D64-4B7C-8C7D-9559321338F2}" name="documento" dataDxfId="4" dataCellStyle="Millares">
       <calculatedColumnFormula>MID(clientes[[#This Row],[cuil]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3CFA528C-5846-49FA-BE4E-FBBD381023D2}" name="edad" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{3CFA528C-5846-49FA-BE4E-FBBD381023D2}" name="edad" dataDxfId="3">
       <calculatedColumnFormula>(hoy-E2)/365</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{BFE4F650-E152-4B99-A905-3D8E7294215D}" name="direccion"/>
@@ -803,15 +787,15 @@
         <v>85495939</v>
       </c>
       <c r="H2" s="3">
-        <f ca="1">(hoy-E2)/365</f>
-        <v>21.167123287671235</v>
+        <f t="shared" ref="H2:H12" ca="1" si="0">(hoy-E2)/365</f>
+        <v>21.186301369863013</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="M2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44875</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -839,8 +823,8 @@
         <v>82491289</v>
       </c>
       <c r="H3" s="3">
-        <f ca="1">(hoy-E3)/365</f>
-        <v>24.079452054794519</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.098630136986301</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
@@ -871,8 +855,8 @@
         <v>92918234</v>
       </c>
       <c r="H4" s="3">
-        <f ca="1">(hoy-E4)/365</f>
-        <v>46.493150684931507</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46.512328767123286</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
@@ -903,8 +887,8 @@
         <v>38109230</v>
       </c>
       <c r="H5" s="3">
-        <f ca="1">(hoy-E5)/365</f>
-        <v>26.715068493150685</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.734246575342464</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
@@ -935,8 +919,8 @@
         <v>24759283</v>
       </c>
       <c r="H6" s="3">
-        <f ca="1">(hoy-E6)/365</f>
-        <v>53.282191780821918</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53.301369863013697</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
@@ -967,8 +951,8 @@
         <v>12834917</v>
       </c>
       <c r="H7" s="3">
-        <f ca="1">(hoy-E7)/365</f>
-        <v>91.920547945205485</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>91.939726027397256</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
@@ -999,8 +983,8 @@
         <v>35336446</v>
       </c>
       <c r="H8" s="3">
-        <f ca="1">(hoy-E8)/365</f>
-        <v>31.586301369863012</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.605479452054794</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -1037,8 +1021,8 @@
         <v>38885460</v>
       </c>
       <c r="H9" s="3">
-        <f ca="1">(hoy-E9)/365</f>
-        <v>29.098630136986301</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.117808219178084</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -1069,8 +1053,8 @@
         <v>43892348</v>
       </c>
       <c r="H10" s="3">
-        <f ca="1">(hoy-E10)/365</f>
-        <v>18.87123287671233</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18.890410958904109</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
@@ -1101,8 +1085,8 @@
         <v>28309239</v>
       </c>
       <c r="H11" s="3">
-        <f ca="1">(hoy-E11)/365</f>
-        <v>36.334246575342469</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.353424657534248</v>
       </c>
       <c r="J11" t="s">
         <v>43</v>
@@ -1133,8 +1117,8 @@
         <v>27381823</v>
       </c>
       <c r="H12" s="3">
-        <f ca="1">(hoy-E12)/365</f>
-        <v>52.375342465753427</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52.394520547945206</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1175,7 +1159,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-j12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E636B6-B1C5-490F-B11D-9991DE8665CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC3370-30BF-47CA-9604-1CACAA13760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{BFB0CF28-7797-46CE-98B8-81D14DF3A489}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{BFB0CF28-7797-46CE-98B8-81D14DF3A489}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
     <sheet name="productos" sheetId="2" r:id="rId2"/>
     <sheet name="ventas" sheetId="3" r:id="rId3"/>
+    <sheet name="condicion" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="hoy">'clientes'!$M$2</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>codigo</t>
   </si>
@@ -229,6 +230,30 @@
   </si>
   <si>
     <t>recaudacion</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>c1V</t>
+  </si>
+  <si>
+    <t>c1F</t>
+  </si>
+  <si>
+    <t>c2F</t>
+  </si>
+  <si>
+    <t>c2V</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -288,12 +313,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -302,7 +342,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -316,6 +356,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -788,14 +838,14 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H12" ca="1" si="0">(hoy-E2)/365</f>
-        <v>21.186301369863013</v>
+        <v>21.205479452054796</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="M2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44882</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -824,7 +874,7 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>24.098630136986301</v>
+        <v>24.117808219178084</v>
       </c>
       <c r="J3" t="s">
         <v>45</v>
@@ -856,7 +906,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>46.512328767123286</v>
+        <v>46.531506849315072</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
@@ -888,7 +938,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>26.734246575342464</v>
+        <v>26.753424657534246</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
@@ -920,7 +970,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>53.301369863013697</v>
+        <v>53.320547945205476</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
@@ -952,7 +1002,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>91.939726027397256</v>
+        <v>91.958904109589042</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
@@ -984,7 +1034,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.605479452054794</v>
+        <v>31.624657534246577</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -1022,7 +1072,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.117808219178084</v>
+        <v>29.136986301369863</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -1054,7 +1104,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18.890410958904109</v>
+        <v>18.909589041095892</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
@@ -1086,7 +1136,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.353424657534248</v>
+        <v>36.372602739726027</v>
       </c>
       <c r="J11" t="s">
         <v>43</v>
@@ -1118,7 +1168,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52.394520547945206</v>
+        <v>52.413698630136984</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1158,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC0D93B-ACC2-4839-99DE-1DE6441724B2}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1394,4 +1444,105 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437EFC27-ED6E-448A-9430-0407D4655551}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="14">
+        <v>33346</v>
+      </c>
+      <c r="J1" s="1">
+        <v>33346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-j12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC3370-30BF-47CA-9604-1CACAA13760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4E067-C394-4669-809F-87FFA395487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{BFB0CF28-7797-46CE-98B8-81D14DF3A489}"/>
   </bookViews>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E59C7E7-B946-4045-AE06-60E66816AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEAA19B-E171-4E55-92EF-2BC31E83A4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2B3C686B-3C6E-4EC4-BBA6-231B205C55CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{2B3C686B-3C6E-4EC4-BBA6-231B205C55CD}"/>
   </bookViews>
   <sheets>
     <sheet name="formatos" sheetId="1" r:id="rId1"/>
+    <sheet name="series" sheetId="2" r:id="rId2"/>
+    <sheet name="f(x)" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +38,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>texto</t>
   </si>
@@ -73,6 +115,231 @@
   </si>
   <si>
     <t>científica</t>
+  </si>
+  <si>
+    <t>Rangos</t>
+  </si>
+  <si>
+    <t>Columna</t>
+  </si>
+  <si>
+    <t>Fila</t>
+  </si>
+  <si>
+    <t>Celda</t>
+  </si>
+  <si>
+    <t>Conjunto</t>
+  </si>
+  <si>
+    <t>Relativos</t>
+  </si>
+  <si>
+    <t>Absolutos</t>
+  </si>
+  <si>
+    <t>A:A; A1:A10</t>
+  </si>
+  <si>
+    <t>1:1; A1:C1</t>
+  </si>
+  <si>
+    <t>A1; B1; C1</t>
+  </si>
+  <si>
+    <t>A1:C10</t>
+  </si>
+  <si>
+    <t>$A:$A</t>
+  </si>
+  <si>
+    <t>$1:$1</t>
+  </si>
+  <si>
+    <t>$A$1</t>
+  </si>
+  <si>
+    <t>$A$1:$C$10</t>
+  </si>
+  <si>
+    <t>dias</t>
+  </si>
+  <si>
+    <t>meses</t>
+  </si>
+  <si>
+    <t>numeros</t>
+  </si>
+  <si>
+    <t>intervalos</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>miércoles</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>noviembre</t>
+  </si>
+  <si>
+    <t>diciembre</t>
+  </si>
+  <si>
+    <t>enero</t>
+  </si>
+  <si>
+    <t>febrero</t>
+  </si>
+  <si>
+    <t>marzo</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>mayo</t>
+  </si>
+  <si>
+    <t>junio</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>septiembre</t>
+  </si>
+  <si>
+    <t>octubre</t>
+  </si>
+  <si>
+    <t>textos</t>
+  </si>
+  <si>
+    <t>factura-A-0001</t>
+  </si>
+  <si>
+    <t>factura-A-0002</t>
+  </si>
+  <si>
+    <t>factura-A-0003</t>
+  </si>
+  <si>
+    <t>factura-A-0004</t>
+  </si>
+  <si>
+    <t>factura-A-0005</t>
+  </si>
+  <si>
+    <t>factura-A-0006</t>
+  </si>
+  <si>
+    <t>factura-A-0007</t>
+  </si>
+  <si>
+    <t>factura-A-0008</t>
+  </si>
+  <si>
+    <t>factura-A-0009</t>
+  </si>
+  <si>
+    <t>factura-A-0010</t>
+  </si>
+  <si>
+    <t>factura-A-0011</t>
+  </si>
+  <si>
+    <t>factura-A-0012</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>valor 1</t>
+  </si>
+  <si>
+    <t>valor 2</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>resta</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>potencia</t>
+  </si>
+  <si>
+    <t>Operaciones aritmeticas que utilizan los valores de las celdas, los cuales deben ser validos, ya que de lo contrario arrojara un error</t>
+  </si>
+  <si>
+    <t>contar</t>
+  </si>
+  <si>
+    <t>residuo</t>
+  </si>
+  <si>
+    <t>Palabras reservadas que se utilizan para realizar una operación, reciben argumentos y suelen ignorar los valores que no sean validos</t>
+  </si>
+  <si>
+    <t>ERRORES</t>
+  </si>
+  <si>
+    <t>FUNCIONES</t>
+  </si>
+  <si>
+    <t>FORMULAS</t>
+  </si>
+  <si>
+    <t>tipo de dato erroneo</t>
+  </si>
+  <si>
+    <t>division entre 0</t>
+  </si>
+  <si>
+    <t>referencia no encontrada</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>contenido supera el limite</t>
+  </si>
+  <si>
+    <t>Valores que indican algun inconveniente con la formula de la celda que lo contiene, normalmente incluyen un detalle que indica el motivo del mismo y como resoverlo.</t>
+  </si>
+  <si>
+    <t>celda demasiado angosta</t>
   </si>
 </sst>
 </file>
@@ -82,14 +349,14 @@
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-2C0A]\ * #,##0_-;\-[$$-2C0A]\ * #,##0_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="174" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="176" formatCode="[$-2C0A]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-2C0A]\ * #,##0_-;\-[$$-2C0A]\ * #,##0_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-2C0A]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +371,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,26 +457,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="14">
+    <cellStyle name="40% - Énfasis1" xfId="5" builtinId="31"/>
+    <cellStyle name="40% - Énfasis2" xfId="7" builtinId="35"/>
+    <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39"/>
+    <cellStyle name="40% - Énfasis4" xfId="11" builtinId="43"/>
+    <cellStyle name="40% - Énfasis6" xfId="13" builtinId="51"/>
+    <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
+    <cellStyle name="Énfasis2" xfId="6" builtinId="33"/>
+    <cellStyle name="Énfasis3" xfId="8" builtinId="37"/>
+    <cellStyle name="Énfasis4" xfId="10" builtinId="41"/>
+    <cellStyle name="Énfasis6" xfId="12" builtinId="49"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,6 +537,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="estadisticas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>0</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,19 +911,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAC9467-D7D2-43FD-A5FA-A2B7A0C40AC7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -479,8 +935,17 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -490,8 +955,17 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -501,8 +975,17 @@
       <c r="C3">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -513,8 +996,17 @@
         <v>33346</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -525,8 +1017,17 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -537,7 +1038,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -548,7 +1049,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -559,7 +1060,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -576,4 +1077,738 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849FD030-11BB-4D13-9822-3406A3DE4631}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>30</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>25</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>2</v>
+      </c>
+      <c r="J3" s="14">
+        <v>3</v>
+      </c>
+      <c r="K3" s="14">
+        <v>4</v>
+      </c>
+      <c r="L3" s="14">
+        <v>5</v>
+      </c>
+      <c r="M3" s="14">
+        <v>6</v>
+      </c>
+      <c r="N3" s="14">
+        <v>7</v>
+      </c>
+      <c r="O3" s="14">
+        <v>8</v>
+      </c>
+      <c r="P3" s="14">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>10</v>
+      </c>
+      <c r="R3" s="14">
+        <v>11</v>
+      </c>
+      <c r="S3" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="15">
+        <v>30</v>
+      </c>
+      <c r="I4" s="15">
+        <v>25</v>
+      </c>
+      <c r="J4" s="15">
+        <v>20</v>
+      </c>
+      <c r="K4" s="15">
+        <v>15</v>
+      </c>
+      <c r="L4" s="15">
+        <v>10</v>
+      </c>
+      <c r="M4" s="15">
+        <v>5</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>-5</v>
+      </c>
+      <c r="P4" s="15">
+        <v>-10</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>-15</v>
+      </c>
+      <c r="R4" s="15">
+        <v>-20</v>
+      </c>
+      <c r="S4" s="15">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15">
+        <v>5</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>-5</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="14">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15">
+        <v>-10</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>-15</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="14">
+        <v>11</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-20</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="14">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15">
+        <v>-25</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A781DEF4-4409-4A93-A784-F4AB839DC094}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="K1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>B5+C5</f>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f>SUM(F5:H5)</f>
+        <v>7</v>
+      </c>
+      <c r="K5" t="e">
+        <f>I5+K4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>COUNT(F6:H6)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" t="e">
+        <f>[1]estadisticas!A1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>B7*C7</f>
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f>PRODUCT(F7:H7)</f>
+        <v>10</v>
+      </c>
+      <c r="K7" t="e">
+        <f>G8/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>B8/C8</f>
+        <v>2.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f>MOD(G8,H8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="K8" ca="1">A:A</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>B9^C9</f>
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f>POWER(G9,H9)</f>
+        <v>25</v>
+      </c>
+      <c r="K9" s="24">
+        <f>2^128</f>
+        <v>3.4028236692093846E+38</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-x13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8127ED38-A423-461E-950F-D4D4C2E0651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60BDC6B-15C9-4DE3-AF17-6ED760CA266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{EFD60C52-CD72-4385-B132-B164210610CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{EFD60C52-CD72-4385-B132-B164210610CA}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
     <sheet name="series" sheetId="2" r:id="rId2"/>
+    <sheet name="f(x)" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +38,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>Formatos</t>
   </si>
@@ -116,6 +157,198 @@
   </si>
   <si>
     <t>A1:C8</t>
+  </si>
+  <si>
+    <t>DIAS</t>
+  </si>
+  <si>
+    <t>MESES</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>SALTOS</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
+    <t>FAC_0001</t>
+  </si>
+  <si>
+    <t>FAC_0002</t>
+  </si>
+  <si>
+    <t>FAC_0003</t>
+  </si>
+  <si>
+    <t>FAC_0004</t>
+  </si>
+  <si>
+    <t>FAC_0005</t>
+  </si>
+  <si>
+    <t>FAC_0006</t>
+  </si>
+  <si>
+    <t>FAC_0007</t>
+  </si>
+  <si>
+    <t>FAC_0008</t>
+  </si>
+  <si>
+    <t>FAC_0009</t>
+  </si>
+  <si>
+    <t>FAC_0010</t>
+  </si>
+  <si>
+    <t>FAC_0011</t>
+  </si>
+  <si>
+    <t>FAC_0012</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>FORMULAS</t>
+  </si>
+  <si>
+    <t>FUNCIONES</t>
+  </si>
+  <si>
+    <t>ERRORES</t>
+  </si>
+  <si>
+    <t>Expresion aritmetica que utiliza comunmente los valores de las celdas referenciadas, teniendo en cuenta que estos deben ser validos.</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Valor A</t>
+  </si>
+  <si>
+    <t>valor B</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor B </t>
+  </si>
+  <si>
+    <t>Palabra reservada que se utiliza para realizar alguna operación y a diferencia de las formulas, suelen distinguir entre valores utilizables.</t>
+  </si>
+  <si>
+    <t>Valor devuelto por una expresion cuando esta no pudo llevarse a cabo debido a una inconsistencia de la misma, hasta que se resuelva.</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>RESTA</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>POTENCIA</t>
+  </si>
+  <si>
+    <t>CONTAR</t>
+  </si>
+  <si>
+    <t>RESIDUO</t>
+  </si>
+  <si>
+    <t>tipo de dato erroneo</t>
+  </si>
+  <si>
+    <t>celda/s no encontradas</t>
+  </si>
+  <si>
+    <t>division entre cero</t>
+  </si>
+  <si>
+    <t>supera la capacidad de la celda</t>
+  </si>
+  <si>
+    <t>celda demasiado angosta</t>
   </si>
 </sst>
 </file>
@@ -128,7 +361,7 @@
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="[$-2C0A]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,13 +376,98 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,12 +479,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -183,8 +507,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
+    <cellStyle name="40% - Énfasis2" xfId="4" builtinId="35"/>
+    <cellStyle name="40% - Énfasis3" xfId="5" builtinId="39"/>
+    <cellStyle name="40% - Énfasis4" xfId="6" builtinId="43"/>
+    <cellStyle name="40% - Énfasis5" xfId="7" builtinId="47"/>
+    <cellStyle name="40% - Énfasis6" xfId="8" builtinId="51"/>
+    <cellStyle name="60% - Énfasis1" xfId="3" builtinId="32"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
@@ -200,6 +579,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="estadisticas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>0</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,9 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CAC900-002C-44D6-8AFF-72364C5436D0}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -657,12 +1109,804 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F2C232-DE91-48B0-BEA0-CD62BAA0EDFE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="22">
+        <v>44895</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24">
+        <v>5</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="22">
+        <v>44896</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>10</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="22">
+        <v>44895</v>
+      </c>
+      <c r="J3" s="22">
+        <v>44896</v>
+      </c>
+      <c r="K3" s="22">
+        <v>44897</v>
+      </c>
+      <c r="L3" s="22">
+        <v>44898</v>
+      </c>
+      <c r="M3" s="22">
+        <v>44899</v>
+      </c>
+      <c r="N3" s="22">
+        <v>44900</v>
+      </c>
+      <c r="O3" s="22">
+        <v>44901</v>
+      </c>
+      <c r="P3" s="22">
+        <v>44902</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>44903</v>
+      </c>
+      <c r="R3" s="22">
+        <v>44904</v>
+      </c>
+      <c r="S3" s="22">
+        <v>44905</v>
+      </c>
+      <c r="T3" s="22">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="22">
+        <v>44897</v>
+      </c>
+      <c r="D4" s="23">
+        <v>3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>15</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="23">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23">
+        <v>2</v>
+      </c>
+      <c r="K4" s="23">
+        <v>3</v>
+      </c>
+      <c r="L4" s="23">
+        <v>4</v>
+      </c>
+      <c r="M4" s="23">
+        <v>5</v>
+      </c>
+      <c r="N4" s="23">
+        <v>6</v>
+      </c>
+      <c r="O4" s="23">
+        <v>7</v>
+      </c>
+      <c r="P4" s="23">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>9</v>
+      </c>
+      <c r="R4" s="23">
+        <v>10</v>
+      </c>
+      <c r="S4" s="23">
+        <v>11</v>
+      </c>
+      <c r="T4" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="22">
+        <v>44898</v>
+      </c>
+      <c r="D5" s="23">
+        <v>4</v>
+      </c>
+      <c r="E5" s="24">
+        <v>20</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="24">
+        <v>5</v>
+      </c>
+      <c r="J5" s="24">
+        <v>10</v>
+      </c>
+      <c r="K5" s="24">
+        <v>15</v>
+      </c>
+      <c r="L5" s="24">
+        <v>20</v>
+      </c>
+      <c r="M5" s="24">
+        <v>25</v>
+      </c>
+      <c r="N5" s="24">
+        <v>30</v>
+      </c>
+      <c r="O5" s="24">
+        <v>35</v>
+      </c>
+      <c r="P5" s="24">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>45</v>
+      </c>
+      <c r="R5" s="24">
+        <v>50</v>
+      </c>
+      <c r="S5" s="24">
+        <v>55</v>
+      </c>
+      <c r="T5" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="22">
+        <v>44899</v>
+      </c>
+      <c r="D6" s="23">
+        <v>5</v>
+      </c>
+      <c r="E6" s="24">
+        <v>25</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="22">
+        <v>44900</v>
+      </c>
+      <c r="D7" s="23">
+        <v>6</v>
+      </c>
+      <c r="E7" s="24">
+        <v>30</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="22">
+        <v>44901</v>
+      </c>
+      <c r="D8" s="23">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24">
+        <v>35</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="22">
+        <v>44902</v>
+      </c>
+      <c r="D9" s="23">
+        <v>8</v>
+      </c>
+      <c r="E9" s="24">
+        <v>40</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="22">
+        <v>44903</v>
+      </c>
+      <c r="D10" s="23">
+        <v>9</v>
+      </c>
+      <c r="E10" s="24">
+        <v>45</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="22">
+        <v>44904</v>
+      </c>
+      <c r="D11" s="23">
+        <v>10</v>
+      </c>
+      <c r="E11" s="24">
+        <v>50</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="22">
+        <v>44905</v>
+      </c>
+      <c r="D12" s="23">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24">
+        <v>55</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="22">
+        <v>44906</v>
+      </c>
+      <c r="D13" s="23">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24">
+        <v>60</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C93F49-09C0-4AF4-8061-9241DC8CCF25}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="K2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>B5+C5</f>
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f>SUM(F5:H5)</f>
+        <v>7</v>
+      </c>
+      <c r="K5" s="13" t="e">
+        <f>F5+G5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>COUNT(F6:H6)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="13" t="e">
+        <f>[1]estadisticas!A1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>B7*C7</f>
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f>PRODUCT(F7:H7)</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="13" t="e">
+        <f>I7/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>B8/C8</f>
+        <v>2.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f>MOD(G8,H8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="13" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="K8" ca="1">A:A</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>B9^C9</f>
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f>POWER(G9,H9)</f>
+        <v>25</v>
+      </c>
+      <c r="K9" s="30">
+        <f>2^128</f>
+        <v>3.4028236692093846E+38</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-mjv13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E70D117A-2083-47FC-A076-718222A882F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF53D2-72FB-49FE-90DA-F5EC0688DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{44E4B5B3-C772-453D-BEBC-9CD9829342C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{44E4B5B3-C772-453D-BEBC-9CD9829342C4}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
     <sheet name="series" sheetId="2" r:id="rId2"/>
+    <sheet name="f(x)" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +38,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
   <si>
     <t>Formato</t>
   </si>
@@ -227,14 +268,84 @@
   </si>
   <si>
     <t>fechas</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Expresion aritmetica que se utiliza para obtener un resultado y cuyos valores utilizados deben ser validos obligatoriamente</t>
+  </si>
+  <si>
+    <t>Palabra reservada que se utiliza para realizar una operación, esta recibe argumentos y generalmente omite valores invalidos</t>
+  </si>
+  <si>
+    <t>Valor A</t>
+  </si>
+  <si>
+    <t>Valor B</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>RESTA</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>POTENCIA</t>
+  </si>
+  <si>
+    <t>CONTAR</t>
+  </si>
+  <si>
+    <t>RESIDUO</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Mensaje que devuelve una formula cuando no puede obtener un resultado debido a que alguno de sus valores no es valido.</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>El tipo de datos no corresponde con la operación</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>No se ha encontrado la referencia utilizada</t>
+  </si>
+  <si>
+    <t>Division entre cero o celda vacia (indeterminado)</t>
+  </si>
+  <si>
+    <t>No se identifica el valor utilizado en la operación</t>
+  </si>
+  <si>
+    <t>El contenido supera la capacidad de la planilla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="[$-2C0A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="178" formatCode="[$-2C0A]h:mm:ss\ AM/PM;@"/>
@@ -243,7 +354,7 @@
     <numFmt numFmtId="183" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +365,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +432,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -322,46 +453,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="183" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="184" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - Énfasis1" xfId="4" builtinId="30"/>
-    <cellStyle name="Énfasis1" xfId="3" builtinId="29"/>
-    <cellStyle name="Énfasis5" xfId="5" builtinId="45"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
+    <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
+    <cellStyle name="Énfasis5" xfId="6" builtinId="45"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,6 +609,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="referencia"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>0</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,9 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67EDF2A-E7B8-4D84-90D3-20AD7654EF69}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -850,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C31556D-7CEB-4551-9CEB-CC729C9AB617}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1359,7 +1667,281 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21F6C61-1FE4-4F06-937E-D3FFD98D1F9B}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="31">
+        <v>5</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32">
+        <f>B5+C5</f>
+        <v>7</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="31">
+        <v>5</v>
+      </c>
+      <c r="H5" s="31">
+        <v>2</v>
+      </c>
+      <c r="I5" s="32">
+        <f>SUM(F5:H5)</f>
+        <v>7</v>
+      </c>
+      <c r="K5" s="30" t="e">
+        <f>F5+G5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="34">
+        <v>5</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="35">
+        <f>B6-C6</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="34">
+        <v>5</v>
+      </c>
+      <c r="H6" s="34">
+        <v>2</v>
+      </c>
+      <c r="I6" s="35">
+        <f>COUNT(F6:H6)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="33" t="e">
+        <f>[1]referencia!A1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="31">
+        <v>2</v>
+      </c>
+      <c r="D7" s="32">
+        <f>B7*C7</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="31">
+        <v>5</v>
+      </c>
+      <c r="H7" s="31">
+        <v>2</v>
+      </c>
+      <c r="I7" s="32">
+        <f>PRODUCT(F7:H7)</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="30" t="e">
+        <f>H7/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="34">
+        <v>5</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2</v>
+      </c>
+      <c r="D8" s="35">
+        <f>B8/C8</f>
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="34">
+        <v>5</v>
+      </c>
+      <c r="H8" s="34">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35">
+        <f>MOD(G8,H8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="33" t="e" cm="1">
+        <f t="array" ref="K8">K</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="25">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2</v>
+      </c>
+      <c r="D9" s="26">
+        <f>B9^C9</f>
+        <v>25</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="25">
+        <v>5</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2</v>
+      </c>
+      <c r="I9" s="26">
+        <f>POWER(G9,H9)</f>
+        <v>25</v>
+      </c>
+      <c r="K9" s="24" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="K9" ca="1">A:A</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-j12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4E067-C394-4669-809F-87FFA395487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9D8CD8-F4B0-40BD-BAB2-A9BE85F8F028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{BFB0CF28-7797-46CE-98B8-81D14DF3A489}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{BFB0CF28-7797-46CE-98B8-81D14DF3A489}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="condicion" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="hoy">'clientes'!$M$2</definedName>
-    <definedName name="iva">ventas!$J$2</definedName>
+    <definedName name="hoy">'clientes'!$P$2</definedName>
+    <definedName name="iva">ventas!$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
   <si>
     <t>codigo</t>
   </si>
@@ -196,9 +197,6 @@
     <t>producto</t>
   </si>
   <si>
-    <t>cantidad</t>
-  </si>
-  <si>
     <t>precio</t>
   </si>
   <si>
@@ -254,18 +252,184 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Víveres</t>
+  </si>
+  <si>
+    <t>Carnes</t>
+  </si>
+  <si>
+    <t>Verduras</t>
+  </si>
+  <si>
+    <t>Productos Lácteos</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>vendido</t>
+  </si>
+  <si>
+    <t>identificacion</t>
+  </si>
+  <si>
+    <t>Frutas</t>
+  </si>
+  <si>
+    <t>Muebles</t>
+  </si>
+  <si>
+    <t>Monitores</t>
+  </si>
+  <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>Modulares</t>
+  </si>
+  <si>
+    <t>Automoviles</t>
+  </si>
+  <si>
+    <t>Harinas</t>
+  </si>
+  <si>
+    <t>Pastas</t>
+  </si>
+  <si>
+    <t>recaudado</t>
+  </si>
+  <si>
+    <t>a-007</t>
+  </si>
+  <si>
+    <t>a-008</t>
+  </si>
+  <si>
+    <t>a-009</t>
+  </si>
+  <si>
+    <t>a-010</t>
+  </si>
+  <si>
+    <t>a-011</t>
+  </si>
+  <si>
+    <t>a-012</t>
+  </si>
+  <si>
+    <t>a-013</t>
+  </si>
+  <si>
+    <t>a-014</t>
+  </si>
+  <si>
+    <t>a-015</t>
+  </si>
+  <si>
+    <t>a-016</t>
+  </si>
+  <si>
+    <t>a-017</t>
+  </si>
+  <si>
+    <t>a-018</t>
+  </si>
+  <si>
+    <t>a-019</t>
+  </si>
+  <si>
+    <t>a-020</t>
+  </si>
+  <si>
+    <t>a-021</t>
+  </si>
+  <si>
+    <t>a-022</t>
+  </si>
+  <si>
+    <t>a-023</t>
+  </si>
+  <si>
+    <t>a-024</t>
+  </si>
+  <si>
+    <t>a-025</t>
+  </si>
+  <si>
+    <t>a-026</t>
+  </si>
+  <si>
+    <t>a-027</t>
+  </si>
+  <si>
+    <t>a-028</t>
+  </si>
+  <si>
+    <t>a-029</t>
+  </si>
+  <si>
+    <t>a-030</t>
+  </si>
+  <si>
+    <t>cant</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>cliente del mes</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>articulos</t>
+  </si>
+  <si>
+    <t>gastos</t>
+  </si>
+  <si>
+    <t>compra minima</t>
+  </si>
+  <si>
+    <t>compra maxima</t>
+  </si>
+  <si>
+    <t>articulo mas vendido</t>
+  </si>
+  <si>
+    <t>articulo menos vendido</t>
+  </si>
+  <si>
+    <t>condicion</t>
+  </si>
+  <si>
+    <t>clientes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +450,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +484,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -336,16 +514,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -366,13 +598,123 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -381,6 +723,50 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -408,50 +794,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CEABC2-7360-40F7-A276-B10AC9350DC7}" name="clientes" displayName="clientes" ref="A1:K12" totalsRowShown="0">
-  <autoFilter ref="A1:K12" xr:uid="{67CEABC2-7360-40F7-A276-B10AC9350DC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67CEABC2-7360-40F7-A276-B10AC9350DC7}" name="clientes" displayName="clientes" ref="A1:N12" totalsRowShown="0">
+  <autoFilter ref="A1:N12" xr:uid="{67CEABC2-7360-40F7-A276-B10AC9350DC7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K12">
-    <sortCondition ref="B1:B12"/>
+    <sortCondition ref="A1:A12"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{5F4F4898-BF98-4C96-928F-25613FE445C3}" name="codigo"/>
     <tableColumn id="2" xr3:uid="{F9786D07-A25E-46C4-8F4C-B1F74B14B6B7}" name="apellido"/>
     <tableColumn id="3" xr3:uid="{FCCC3292-CE00-46E4-99EF-A7B83DE3E0D4}" name="nombre"/>
     <tableColumn id="4" xr3:uid="{FC499D72-DF7E-4830-BC33-62AA7AA4E98D}" name="cuil"/>
-    <tableColumn id="5" xr3:uid="{B4AA7946-4A8E-4BD2-ACD2-0F203177260B}" name="nacimiento" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{BAEFA1B4-2343-469D-9B64-5970EFC08CDD}" name="g" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{B4AA7946-4A8E-4BD2-ACD2-0F203177260B}" name="nacimiento" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{BAEFA1B4-2343-469D-9B64-5970EFC08CDD}" name="g" dataDxfId="19">
       <calculatedColumnFormula>LEFT(clientes[[#This Row],[cuil]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{84DE9DBC-2D64-4B7C-8C7D-9559321338F2}" name="documento" dataDxfId="4" dataCellStyle="Millares">
+    <tableColumn id="15" xr3:uid="{84DE9DBC-2D64-4B7C-8C7D-9559321338F2}" name="documento" dataDxfId="18" dataCellStyle="Millares">
       <calculatedColumnFormula>MID(clientes[[#This Row],[cuil]],4,8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3CFA528C-5846-49FA-BE4E-FBBD381023D2}" name="edad" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{3CFA528C-5846-49FA-BE4E-FBBD381023D2}" name="edad" dataDxfId="17">
       <calculatedColumnFormula>(hoy-E2)/365</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{BFE4F650-E152-4B99-A905-3D8E7294215D}" name="direccion"/>
     <tableColumn id="8" xr3:uid="{588966A8-0EED-4620-8E40-A23F5136FC0F}" name="localidad"/>
     <tableColumn id="9" xr3:uid="{9F6CA625-7D9B-4362-96A0-C1AD7B4BC154}" name="telefono"/>
+    <tableColumn id="10" xr3:uid="{B64FC09A-B066-4B9E-8F34-B019F420AE28}" name="compras" dataDxfId="2">
+      <calculatedColumnFormula>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{D490ABFE-1392-4278-905F-A5A3370FC760}" name="articulos" dataDxfId="1">
+      <calculatedColumnFormula>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{95945192-27E5-4CCA-A1C5-945DD020CCFE}" name="gastos" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CEA19E0-CEAE-4074-B6C7-1B54832DE3C7}" name="ventas" displayName="ventas" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{2CEA19E0-CEAE-4074-B6C7-1B54832DE3C7}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B576B205-AD9B-4722-BAFB-7F6EBCB6C0D2}" name="articulos" displayName="articulos" ref="A1:F14" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:F14" xr:uid="{B576B205-AD9B-4722-BAFB-7F6EBCB6C0D2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+    <sortCondition ref="A1:A14"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F58E7C4A-A7EC-4429-96E6-F28D037EBCB8}" name="id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D2440142-4537-4313-812B-CAEBA8AB4F25}" name="producto" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{BAD69A3D-7698-4EA0-A319-E137946ABD97}" name="precio" dataDxfId="8" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{0406DA2C-1ED9-4590-A8DF-83746DD6FDB6}" name="stock" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{46FCF387-EAD9-4FAD-ABCF-071E8F00968B}" name="vendido" dataDxfId="7">
+      <calculatedColumnFormula>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7EE7D304-C6D9-410D-835A-CECF99260BC2}" name="recaudado" dataDxfId="3" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CEA19E0-CEAE-4074-B6C7-1B54832DE3C7}" name="ventas" displayName="ventas" ref="A1:K31" totalsRowShown="0">
+  <autoFilter ref="A1:K31" xr:uid="{2CEA19E0-CEAE-4074-B6C7-1B54832DE3C7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
+    <sortCondition ref="E1:E31"/>
+  </sortState>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F08D01A5-4598-4E78-8A06-8025E55FD07E}" name="remito"/>
     <tableColumn id="2" xr3:uid="{E5E33F78-9134-4C96-AD10-FD25F17F61FE}" name="cliente"/>
-    <tableColumn id="3" xr3:uid="{764F3563-2814-4A1B-84CE-A518C7A31212}" name="producto"/>
-    <tableColumn id="4" xr3:uid="{E3627B31-CD0F-4A50-8D59-023859B36094}" name="cantidad"/>
+    <tableColumn id="9" xr3:uid="{B0912C86-6446-4927-83EB-B21AF2AC68C6}" name="identificacion" dataDxfId="14">
+      <calculatedColumnFormula>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{B4A2966A-2CED-4D1F-AAD9-1C09C4B0498B}" name="cuil" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{764F3563-2814-4A1B-84CE-A518C7A31212}" name="art" dataDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{E3627B31-CD0F-4A50-8D59-023859B36094}" name="cant"/>
+    <tableColumn id="12" xr3:uid="{2D5BE966-664A-421E-A03E-0DBD1FEB202C}" name="producto" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{E6C40B31-E999-40C0-98A2-3C887EB25A28}" name="precio" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{4E9D6CA3-5455-41CF-A268-8848AC3AF925}" name="total" dataDxfId="2">
-      <calculatedColumnFormula>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{4E9D6CA3-5455-41CF-A268-8848AC3AF925}" name="total" dataDxfId="13">
+      <calculatedColumnFormula>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6833DC81-2A88-4BBC-814B-405FA5232053}" name="iva" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{6833DC81-2A88-4BBC-814B-405FA5232053}" name="iva" dataDxfId="12">
       <calculatedColumnFormula>ventas[[#This Row],[total]]*iva</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{281C7C37-2C29-4E25-9506-14BF43E34C46}" name="final" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{281C7C37-2C29-4E25-9506-14BF43E34C46}" name="final" dataDxfId="11">
       <calculatedColumnFormula>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -756,10 +1183,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2E9176-A1DD-40DC-9461-B95CAF9AA49B}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,11 +1200,13 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,370 +1240,511 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
       <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="7">
-        <v>37149</v>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
+        <v>33346</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>85495939</v>
-      </c>
-      <c r="H2" s="3">
+        <v>35336446</v>
+      </c>
+      <c r="H2" s="2">
         <f t="shared" ref="H2:H12" ca="1" si="0">(hoy-E2)/365</f>
-        <v>21.205479452054796</v>
+        <v>31.643835616438356</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>110303456</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>40</v>
+      </c>
+      <c r="N2" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>6334000</v>
+      </c>
+      <c r="P2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5">
-        <v>36086</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>34254</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>82491289</v>
-      </c>
-      <c r="H3" s="3">
+        <v>38885460</v>
+      </c>
+      <c r="H3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.117808219178084</v>
+        <v>29.156164383561645</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>12</v>
+      </c>
+      <c r="N3" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>140500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6">
-        <v>27905</v>
+        <v>31</v>
+      </c>
+      <c r="E4" s="5">
+        <v>25758</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="str">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>92918234</v>
-      </c>
-      <c r="H4" s="3">
+        <v>27381823</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46.531506849315072</v>
+        <v>52.43287671232877</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>7</v>
+      </c>
+      <c r="N4" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5">
-        <v>35124</v>
+        <v>27905</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>38109230</v>
-      </c>
-      <c r="H5" s="3">
+        <v>92918234</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26.753424657534246</v>
+        <v>46.550684931506851</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6">
-        <v>25427</v>
+        <v>33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>11324</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>24759283</v>
-      </c>
-      <c r="H6" s="3">
+        <v>12834917</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>53.320547945205476</v>
+        <v>91.978082191780828</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>21</v>
+      </c>
+      <c r="N6" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>7213800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6">
-        <v>11324</v>
+        <v>37987</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>27</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>12834917</v>
-      </c>
-      <c r="H7" s="3">
+        <v>43892348</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>91.958904109589042</v>
+        <v>18.92876712328767</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="5">
-        <v>33346</v>
+        <v>31613</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>35336446</v>
-      </c>
-      <c r="H8" s="3">
+        <v>28309239</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31.624657534246577</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
+        <v>36.391780821917806</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>110303456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5">
-        <v>34254</v>
+        <v>36</v>
+      </c>
+      <c r="E9" s="4">
+        <v>35124</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>38885460</v>
-      </c>
-      <c r="H9" s="3">
+        <v>38109230</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29.136986301369863</v>
+        <v>26.772602739726029</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="7">
-        <v>37987</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="5">
+        <v>25427</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>27</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>43892348</v>
-      </c>
-      <c r="H10" s="3">
+        <v>24759283</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.909589041095892</v>
+        <v>53.339726027397262</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="L10">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6">
-        <v>31613</v>
+        <v>37149</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
         <v>20</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G11" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>28309239</v>
-      </c>
-      <c r="H11" s="3">
+        <v>85495939</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36.372602739726027</v>
+        <v>21.224657534246575</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>12</v>
+      </c>
+      <c r="N11" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>346300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6">
-        <v>25758</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="4">
+        <v>36086</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>LEFT(clientes[[#This Row],[cuil]],2)</f>
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="str">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3" t="str">
         <f>MID(clientes[[#This Row],[cuil]],4,8)</f>
-        <v>27381823</v>
-      </c>
-      <c r="H12" s="3">
+        <v>82491289</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52.413698630136984</v>
+        <v>24.136986301369863</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIF(ventas[cliente],clientes[[#This Row],[codigo]])</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[cant])</f>
+        <v>3</v>
+      </c>
+      <c r="N12" s="8">
+        <f>SUMIF(ventas[cliente],clientes[[#This Row],[codigo]],ventas[total])</f>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -1194,36 +1767,359 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E5B50E-C0AF-4663-8F44-BD4EF7258344}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="21">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="25">
+        <v>293847</v>
+      </c>
+      <c r="E2">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="21">
+        <v>25000</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1037821.8</v>
+      </c>
+      <c r="E3">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>9</v>
+      </c>
+      <c r="F3" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="21">
+        <v>45000</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1110669.5</v>
+      </c>
+      <c r="E4">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>17</v>
+      </c>
+      <c r="F4" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1183517.2</v>
+      </c>
+      <c r="E5">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>14</v>
+      </c>
+      <c r="F5" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="21">
+        <v>8500</v>
+      </c>
+      <c r="D6" s="25">
+        <v>290348</v>
+      </c>
+      <c r="E6">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>13</v>
+      </c>
+      <c r="F6" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>110500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="23">
+        <v>23500</v>
+      </c>
+      <c r="D7" s="25">
+        <v>819278.7</v>
+      </c>
+      <c r="E7" s="17">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="21">
+        <v>120800</v>
+      </c>
+      <c r="D8" s="25">
+        <v>892126.4</v>
+      </c>
+      <c r="E8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>120800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="21">
+        <v>56000</v>
+      </c>
+      <c r="D9" s="25">
+        <v>964974.1</v>
+      </c>
+      <c r="E9">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="21">
+        <v>254800</v>
+      </c>
+      <c r="D10" s="25">
+        <v>192834</v>
+      </c>
+      <c r="E10">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="21">
+        <v>300000</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1298340</v>
+      </c>
+      <c r="E11">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1254360</v>
+      </c>
+      <c r="D12" s="25">
+        <v>928309</v>
+      </c>
+      <c r="E12">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>6271800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="21">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1256364.8999999999</v>
+      </c>
+      <c r="E13">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="21">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1329212.6000000001</v>
+      </c>
+      <c r="E14">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[cant])</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <f>SUMIF(ventas[art],articulos[[#This Row],[id]],ventas[total])</f>
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC0D93B-ACC2-4839-99DE-1DE6441724B2}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1231,209 +2127,1380 @@
         <v>48</v>
       </c>
       <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="7">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo abel</v>
+      </c>
+      <c r="D2" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-38885460-5</v>
+      </c>
+      <c r="E2" s="27">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Bebidas</v>
+      </c>
+      <c r="H2" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>5000</v>
+      </c>
+      <c r="I2" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>30000</v>
+      </c>
+      <c r="J2" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>6300</v>
+      </c>
+      <c r="K2" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo cristian</v>
+      </c>
+      <c r="D3" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-35336446-5</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Bebidas</v>
+      </c>
+      <c r="H3" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>5000</v>
+      </c>
+      <c r="I3" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>15000</v>
+      </c>
+      <c r="J3" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>3150</v>
+      </c>
+      <c r="K3" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>18150</v>
+      </c>
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N3" s="9">
+        <f>SUM(ventas[final])</f>
+        <v>17689111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gimenez ignacio</v>
+      </c>
+      <c r="D4" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-85495939-1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Bebidas</v>
+      </c>
+      <c r="H4" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>5000</v>
+      </c>
+      <c r="I4" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>10000</v>
+      </c>
+      <c r="J4" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>2100</v>
+      </c>
+      <c r="K4" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>12100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4">
+        <f>COUNT(ventas[cliente])</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>lopez luciana</v>
+      </c>
+      <c r="D5" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-12834917-4</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Bebidas</v>
+      </c>
+      <c r="H5" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>5000</v>
+      </c>
+      <c r="I5" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>10000</v>
+      </c>
+      <c r="J5" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>2100</v>
+      </c>
+      <c r="K5" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>12100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5">
+        <f>MODE(ventas[cliente])</f>
+        <v>5</v>
+      </c>
+      <c r="O5" t="str">
+        <f>VLOOKUP(N5,clientes[],2)</f>
+        <v>lopez</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gimenez ignacio</v>
+      </c>
+      <c r="D6" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-85495939-1</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Bebidas</v>
+      </c>
+      <c r="H6" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>5000</v>
+      </c>
+      <c r="I6" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>10000</v>
+      </c>
+      <c r="J6" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>2100</v>
+      </c>
+      <c r="K6" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>12100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6">
+        <f>MAX(ventas[cant])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gomez gabriel</v>
+      </c>
+      <c r="D7" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-92918234-3</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Víveres</v>
+      </c>
+      <c r="H7" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>25000</v>
+      </c>
+      <c r="I7" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>125000</v>
+      </c>
+      <c r="J7" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>26250</v>
+      </c>
+      <c r="K7" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>151250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7">
+        <f>MIN(ventas[cant])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo cristian</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-35336446-5</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Víveres</v>
+      </c>
+      <c r="H8" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>25000</v>
+      </c>
+      <c r="I8" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>50000</v>
+      </c>
+      <c r="J8" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>10500</v>
+      </c>
+      <c r="K8" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>60500</v>
+      </c>
+      <c r="M8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8">
+        <f>VLOOKUP(MIN(ventas[cant]),ventas[[#All],[art]:[cant]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="O8" t="str">
+        <f>VLOOKUP(N8,articulos[],2)</f>
+        <v>Víveres</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo cristian</v>
+      </c>
+      <c r="D9" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-35336446-5</v>
+      </c>
+      <c r="E9" s="27">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Víveres</v>
+      </c>
+      <c r="H9" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>25000</v>
+      </c>
+      <c r="I9" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>25000</v>
+      </c>
+      <c r="J9" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>5250</v>
+      </c>
+      <c r="K9" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>30250</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9">
+        <f>VLOOKUP(MAX(ventas[cant]),ventas[[#All],[art]:[cant]],1)</f>
+        <v>13</v>
+      </c>
+      <c r="O9" t="str">
+        <f>VLOOKUP(N9,articulos[],2)</f>
+        <v>Pastas</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo abel</v>
+      </c>
+      <c r="D10" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-38885460-5</v>
+      </c>
+      <c r="E10" s="27">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Víveres</v>
+      </c>
+      <c r="H10" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>25000</v>
+      </c>
+      <c r="I10" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>25000</v>
+      </c>
+      <c r="J10" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>5250</v>
+      </c>
+      <c r="K10" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>30250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>sanchez sofia</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-27381823-7</v>
+      </c>
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Carnes</v>
+      </c>
+      <c r="H11" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>45000</v>
+      </c>
+      <c r="I11" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>315000</v>
+      </c>
+      <c r="J11" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>66150</v>
+      </c>
+      <c r="K11" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>381150</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>lopez luciana</v>
+      </c>
+      <c r="D12" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-12834917-4</v>
+      </c>
+      <c r="E12" s="27">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Carnes</v>
+      </c>
+      <c r="H12" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>45000</v>
+      </c>
+      <c r="I12" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>225000</v>
+      </c>
+      <c r="J12" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>47250</v>
+      </c>
+      <c r="K12" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>272250</v>
+      </c>
+      <c r="M12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="8">
+        <v>5000</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gimenez ignacio</v>
+      </c>
+      <c r="D13" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-85495939-1</v>
+      </c>
+      <c r="E13" s="27">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Carnes</v>
+      </c>
+      <c r="H13" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>45000</v>
+      </c>
+      <c r="I13" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>180000</v>
+      </c>
+      <c r="J13" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>37800</v>
+      </c>
+      <c r="K13" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>217800</v>
+      </c>
+      <c r="M13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" t="e">
+        <f>DMAX(ventas[],N11,N12)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo abel</v>
+      </c>
+      <c r="D14" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-38885460-5</v>
+      </c>
+      <c r="E14" s="27">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Carnes</v>
+      </c>
+      <c r="H14" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>45000</v>
+      </c>
+      <c r="I14" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>45000</v>
+      </c>
+      <c r="J14" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>9450</v>
+      </c>
+      <c r="K14" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>54450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo cristian</v>
+      </c>
+      <c r="D15" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-35336446-5</v>
+      </c>
+      <c r="E15" s="27">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Verduras</v>
+      </c>
+      <c r="H15" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>15000</v>
+      </c>
+      <c r="I15" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>150000</v>
+      </c>
+      <c r="J15" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>31500</v>
+      </c>
+      <c r="K15" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>181500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gomez gabriel</v>
+      </c>
+      <c r="D16" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-92918234-3</v>
+      </c>
+      <c r="E16" s="27">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Verduras</v>
+      </c>
+      <c r="H16" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>15000</v>
+      </c>
+      <c r="I16" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>45000</v>
+      </c>
+      <c r="J16" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>9450</v>
+      </c>
+      <c r="K16" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>54450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo abel</v>
+      </c>
+      <c r="D17" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-38885460-5</v>
+      </c>
+      <c r="E17" s="27">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Verduras</v>
+      </c>
+      <c r="H17" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>15000</v>
+      </c>
+      <c r="I17" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>15000</v>
+      </c>
+      <c r="J17" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>3150</v>
+      </c>
+      <c r="K17" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>18150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B2">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>lopez luciana</v>
+      </c>
+      <c r="D18" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-12834917-4</v>
+      </c>
+      <c r="E18" s="27">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Productos Lácteos</v>
+      </c>
+      <c r="H18" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>8500</v>
+      </c>
+      <c r="I18" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>34000</v>
+      </c>
+      <c r="J18" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>7140</v>
+      </c>
+      <c r="K18" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>41140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gimenez ignacio</v>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-85495939-1</v>
+      </c>
+      <c r="E19" s="27">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Productos Lácteos</v>
+      </c>
+      <c r="H19" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>8500</v>
+      </c>
+      <c r="I19" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>25500</v>
+      </c>
+      <c r="J19" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>5355</v>
+      </c>
+      <c r="K19" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>30855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo abel</v>
+      </c>
+      <c r="D20" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-38885460-5</v>
+      </c>
+      <c r="E20" s="27">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Productos Lácteos</v>
+      </c>
+      <c r="H20" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>8500</v>
+      </c>
+      <c r="I20" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>25500</v>
+      </c>
+      <c r="J20" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>5355</v>
+      </c>
+      <c r="K20" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>30855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>lopez luciana</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-12834917-4</v>
+      </c>
+      <c r="E21" s="27">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Productos Lácteos</v>
+      </c>
+      <c r="H21" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>8500</v>
+      </c>
+      <c r="I21" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>17000</v>
+      </c>
+      <c r="J21" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>3570</v>
+      </c>
+      <c r="K21" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>20570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>ramirez raquel</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-43892348-2</v>
+      </c>
+      <c r="E22" s="27">
+        <v>5</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="G22" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Productos Lácteos</v>
+      </c>
+      <c r="H22" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>8500</v>
+      </c>
+      <c r="I22" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>8500</v>
+      </c>
+      <c r="J22" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>1785</v>
+      </c>
+      <c r="K22" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>10285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo cristian</v>
+      </c>
+      <c r="D23" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-35336446-5</v>
+      </c>
+      <c r="E23" s="27">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Frutas</v>
+      </c>
+      <c r="H23" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>23500</v>
+      </c>
+      <c r="I23" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>94000</v>
+      </c>
+      <c r="J23" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>19740</v>
+      </c>
+      <c r="K23" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>113740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="C24" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gimenez ignacio</v>
+      </c>
+      <c r="D24" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-85495939-1</v>
+      </c>
+      <c r="E24" s="27">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Muebles</v>
+      </c>
+      <c r="H24" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>120800</v>
+      </c>
+      <c r="I24" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>120800</v>
+      </c>
+      <c r="J24" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>25368</v>
+      </c>
+      <c r="K24" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>146168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>lopez luciana</v>
+      </c>
+      <c r="D25" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-12834917-4</v>
+      </c>
+      <c r="E25" s="27">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Monitores</v>
+      </c>
+      <c r="H25" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>56000</v>
+      </c>
+      <c r="I25" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>56000</v>
+      </c>
+      <c r="J25" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>11760</v>
+      </c>
+      <c r="K25" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>67760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gutierrez graciela</v>
+      </c>
+      <c r="D26" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-24759283-8</v>
+      </c>
+      <c r="E26" s="27">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Monitores</v>
+      </c>
+      <c r="H26" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>56000</v>
+      </c>
+      <c r="I26" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>56000</v>
+      </c>
+      <c r="J26" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>11760</v>
+      </c>
+      <c r="K26" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>67760</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>racedo cristian</v>
+      </c>
+      <c r="D27" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-35336446-5</v>
+      </c>
+      <c r="E27" s="27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Modulares</v>
+      </c>
+      <c r="H27" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>300000</v>
+      </c>
+      <c r="I27" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>6000000</v>
+      </c>
+      <c r="J27" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>1260000</v>
+      </c>
+      <c r="K27" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>7260000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>lopez luciana</v>
+      </c>
+      <c r="D28" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-12834917-4</v>
+      </c>
+      <c r="E28" s="27">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Modulares</v>
+      </c>
+      <c r="H28" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>300000</v>
+      </c>
+      <c r="I28" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>600000</v>
+      </c>
+      <c r="J28" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>126000</v>
+      </c>
+      <c r="K28" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>726000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>lopez luciana</v>
+      </c>
+      <c r="D29" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>27-12834917-4</v>
+      </c>
+      <c r="E29" s="27">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Automoviles</v>
+      </c>
+      <c r="H29" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>1254360</v>
+      </c>
+      <c r="I29" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>6271800</v>
+      </c>
+      <c r="J29" s="9">
+        <f>ventas[[#This Row],[total]]*iva</f>
+        <v>1317078</v>
+      </c>
+      <c r="K29" s="9">
+        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
+        <v>7588878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gimenez ignacio</v>
+      </c>
+      <c r="D30" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-82491289-1</v>
+      </c>
+      <c r="E30" s="27">
+        <v>12</v>
+      </c>
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="E2" s="9">
-        <v>3000</v>
-      </c>
-      <c r="F2" s="10">
-        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
-        <v>9000</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="G30" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Harinas</v>
+      </c>
+      <c r="H30" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>5000</v>
+      </c>
+      <c r="I30" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
+        <v>15000</v>
+      </c>
+      <c r="J30" s="9">
         <f>ventas[[#This Row],[total]]*iva</f>
-        <v>1890</v>
-      </c>
-      <c r="H2" s="10">
+        <v>3150</v>
+      </c>
+      <c r="K30" s="9">
         <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
-        <v>10890</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+        <v>18150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31">
         <v>4</v>
       </c>
-      <c r="E3" s="9">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="10">
-        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
+      <c r="C31" s="13" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(ventas[[#This Row],[cliente]],clientes[],2)&amp;" "&amp;VLOOKUP(ventas[[#This Row],[cliente]],clientes[],3))</f>
+        <v>gomez gabriel</v>
+      </c>
+      <c r="D31" s="16" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[cliente]],clientes[],4)</f>
+        <v>20-92918234-3</v>
+      </c>
+      <c r="E31" s="27">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],2)</f>
+        <v>Pastas</v>
+      </c>
+      <c r="H31" s="8">
+        <f>VLOOKUP(ventas[[#This Row],[art]],articulos[],3)</f>
+        <v>10000</v>
+      </c>
+      <c r="I31" s="9">
+        <f>ventas[[#This Row],[cant]]*ventas[[#This Row],[precio]]</f>
         <v>20000</v>
       </c>
-      <c r="G3" s="10">
+      <c r="J31" s="9">
         <f>ventas[[#This Row],[total]]*iva</f>
         <v>4200</v>
       </c>
-      <c r="H3" s="10">
+      <c r="K31" s="9">
         <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
         <v>24200</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>2500</v>
-      </c>
-      <c r="F4" s="10">
-        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
-        <v>5000</v>
-      </c>
-      <c r="G4" s="10">
-        <f>ventas[[#This Row],[total]]*iva</f>
-        <v>1050</v>
-      </c>
-      <c r="H4" s="10">
-        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
-        <v>6050</v>
-      </c>
-      <c r="J4" s="10">
-        <f>SUM(ventas[final])</f>
-        <v>60500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>6000</v>
-      </c>
-      <c r="F5" s="10">
-        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
-        <v>6000</v>
-      </c>
-      <c r="G5" s="10">
-        <f>ventas[[#This Row],[total]]*iva</f>
-        <v>1260</v>
-      </c>
-      <c r="H5" s="10">
-        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
-        <v>7260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2500</v>
-      </c>
-      <c r="F6" s="10">
-        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
-        <v>5000</v>
-      </c>
-      <c r="G6" s="10">
-        <f>ventas[[#This Row],[total]]*iva</f>
-        <v>1050</v>
-      </c>
-      <c r="H6" s="10">
-        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
-        <v>6050</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2500</v>
-      </c>
-      <c r="F7" s="10">
-        <f>ventas[[#This Row],[cantidad]]*ventas[[#This Row],[precio]]</f>
-        <v>5000</v>
-      </c>
-      <c r="G7" s="10">
-        <f>ventas[[#This Row],[total]]*iva</f>
-        <v>1050</v>
-      </c>
-      <c r="H7" s="10">
-        <f>SUM(ventas[[#This Row],[total]],ventas[[#This Row],[iva]])</f>
-        <v>6050</v>
       </c>
     </row>
   </sheetData>
@@ -1443,6 +3510,21 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ingrese un valor que numerico" prompt="el valor debe existir en la tabla productos como codigo valido para la insercion del mismo" xr:uid="{AFA29D85-1C16-48F9-9167-F9E38A73F282}">
+          <x14:formula1>
+            <xm:f>productos!A2</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>productos!A14</xm:f>
+          </x14:formula2>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1450,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437EFC27-ED6E-448A-9430-0407D4655551}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,26 +3549,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="14">
+      <c r="I1" s="13">
         <v>33346</v>
       </c>
       <c r="J1" s="1">
@@ -1494,24 +3576,24 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1521,24 +3603,24 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>69</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-mjv13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF53D2-72FB-49FE-90DA-F5EC0688DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F158BC-DBFF-4496-B8A4-D1EDE887EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{44E4B5B3-C772-453D-BEBC-9CD9829342C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{44E4B5B3-C772-453D-BEBC-9CD9829342C4}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
     <sheet name="series" sheetId="2" r:id="rId2"/>
     <sheet name="f(x)" sheetId="3" r:id="rId3"/>
+    <sheet name="y|o" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'y|o'!$E$1:$F$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>Formato</t>
   </si>
@@ -337,6 +341,48 @@
   </si>
   <si>
     <t>El contenido supera la capacidad de la planilla</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>C1F</t>
+  </si>
+  <si>
+    <t>C1V</t>
+  </si>
+  <si>
+    <t>C2F</t>
+  </si>
+  <si>
+    <t>C2V</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>zetta</t>
   </si>
 </sst>
 </file>
@@ -346,13 +392,13 @@
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-2C0A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="178" formatCode="[$-2C0A]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-2C0A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-2C0A]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -391,7 +437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +490,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -521,6 +579,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -531,38 +617,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -588,6 +665,46 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
@@ -1676,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21F6C61-1FE4-4F06-937E-D3FFD98D1F9B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -1689,250 +1806,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="K1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="K2" s="21" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="K2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>5</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="28">
         <v>2</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="29">
         <f>B5+C5</f>
         <v>7</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="28">
         <v>5</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="28">
         <v>2</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="29">
         <f>SUM(F5:H5)</f>
         <v>7</v>
       </c>
-      <c r="K5" s="30" t="e">
+      <c r="K5" s="27" t="e">
         <f>F5+G5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="31">
         <v>5</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>2</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <f>B6-C6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="31">
         <v>5</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="31">
         <v>2</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="32">
         <f>COUNT(F6:H6)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="33" t="e">
+      <c r="K6" s="30" t="e">
         <f>[1]referencia!A1</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="28">
         <v>2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <f>B7*C7</f>
         <v>10</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="28">
         <v>5</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="28">
         <v>2</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="29">
         <f>PRODUCT(F7:H7)</f>
         <v>10</v>
       </c>
-      <c r="K7" s="30" t="e">
+      <c r="K7" s="27" t="e">
         <f>H7/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="31">
         <v>5</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="32">
         <f>B8/C8</f>
         <v>2.5</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="31">
         <v>5</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="31">
         <v>2</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="32">
         <f>MOD(G8,H8)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="33" t="e" cm="1">
+      <c r="K8" s="30" t="e" cm="1">
         <f t="array" ref="K8">K</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>5</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="23">
         <f>B9^C9</f>
         <v>25</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <v>5</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="22">
         <v>2</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <f>POWER(G9,H9)</f>
         <v>25</v>
       </c>
-      <c r="K9" s="24" t="e" cm="1" vm="1">
+      <c r="K9" s="21" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="K9" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K10" s="39"/>
+      <c r="K10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1944,4 +2061,134 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432EBE62-8C0F-4C94-A8DF-2FF7B345E0C7}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="51">
+        <v>1</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="52">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="51">
+        <v>3</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="52">
+        <v>4</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="51">
+        <v>5</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="49">
+        <v>6</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:F7" xr:uid="{432EBE62-8C0F-4C94-A8DF-2FF7B345E0C7}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEAA19B-E171-4E55-92EF-2BC31E83A4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FEF219-2002-4930-A539-80D4CA7E40F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{2B3C686B-3C6E-4EC4-BBA6-231B205C55CD}"/>
   </bookViews>
@@ -498,17 +498,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="40% - Énfasis1" xfId="5" builtinId="31"/>
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,44 +1542,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1609,11 +1609,11 @@
       <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1646,11 +1646,11 @@
         <f>I5+K4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1683,11 +1683,11 @@
         <f>[1]estadisticas!A1</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1720,11 +1720,11 @@
         <f>G8/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1757,11 +1757,11 @@
         <f t="array" aca="1" ref="K8" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1790,15 +1790,15 @@
         <f>POWER(G9,H9)</f>
         <v>25</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="22">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FEF219-2002-4930-A539-80D4CA7E40F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BD6F2A-AEF5-4BC3-80E7-C4E19B49DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{2B3C686B-3C6E-4EC4-BBA6-231B205C55CD}"/>
   </bookViews>
@@ -339,7 +339,7 @@
     <t>Valores que indican algun inconveniente con la formula de la celda que lo contiene, normalmente incluyen un detalle que indica el motivo del mismo y como resoverlo.</t>
   </si>
   <si>
-    <t>celda demasiado angosta</t>
+    <t>texto no reconocido</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -498,7 +498,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="12"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1521,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A781DEF4-4409-4A93-A784-F4AB839DC094}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,44 +1541,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="K2" s="25" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1609,11 +1608,11 @@
       <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1646,11 +1645,11 @@
         <f>I5+K4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1683,11 +1682,11 @@
         <f>[1]estadisticas!A1</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1720,11 +1719,11 @@
         <f>G8/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1757,11 +1756,11 @@
         <f t="array" aca="1" ref="K8" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1790,15 +1789,15 @@
         <f>POWER(G9,H9)</f>
         <v>25</v>
       </c>
-      <c r="K9" s="22">
-        <f>2^128</f>
-        <v>3.4028236692093846E+38</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="K9" t="e" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">cuenta()</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-mjv13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F158BC-DBFF-4496-B8A4-D1EDE887EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78190300-7ED0-469E-84AE-F0C0AFEA4A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{44E4B5B3-C772-453D-BEBC-9CD9829342C4}"/>
+    <workbookView xWindow="-15" yWindow="5385" windowWidth="20520" windowHeight="5430" activeTab="3" xr2:uid="{44E4B5B3-C772-453D-BEBC-9CD9829342C4}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
@@ -665,15 +665,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,6 +696,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis1" xfId="5" builtinId="30"/>
@@ -1806,40 +1806,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="F1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="K1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="K2" s="39" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="39"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -2067,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432EBE62-8C0F-4C94-A8DF-2FF7B345E0C7}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2078,112 +2078,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="48">
         <v>1</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="48" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="49">
         <v>2</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="49" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="51">
+      <c r="E4" s="48">
         <v>3</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="48" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="49">
         <v>4</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="48">
         <v>5</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="48" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="46">
         <v>6</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="46" t="s">
         <v>100</v>
       </c>
     </row>

--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-x13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60BDC6B-15C9-4DE3-AF17-6ED760CA266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E619B7-3D8C-435D-B97B-53047AEC218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{EFD60C52-CD72-4385-B132-B164210610CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{EFD60C52-CD72-4385-B132-B164210610CA}"/>
   </bookViews>
   <sheets>
     <sheet name="intro" sheetId="1" r:id="rId1"/>
     <sheet name="series" sheetId="2" r:id="rId2"/>
     <sheet name="f(x)" sheetId="3" r:id="rId3"/>
+    <sheet name="y|o" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'y|o'!$E$1:$F$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
   <si>
     <t>Formatos</t>
   </si>
@@ -349,6 +353,63 @@
   </si>
   <si>
     <t>celda demasiado angosta</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>C1F</t>
+  </si>
+  <si>
+    <t>C1V</t>
+  </si>
+  <si>
+    <t>C2F</t>
+  </si>
+  <si>
+    <t>C2V</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Numeros</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gama</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>zeta</t>
+  </si>
+  <si>
+    <t>dseta</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>iota</t>
+  </si>
+  <si>
+    <t>kappa</t>
   </si>
 </sst>
 </file>
@@ -357,11 +418,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="[$-2C0A]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-2C0A]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,8 +450,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,12 +546,110 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -490,15 +665,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -543,12 +718,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -556,6 +725,51 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Énfasis2" xfId="4" builtinId="35"/>
@@ -1634,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C93F49-09C0-4AF4-8061-9241DC8CCF25}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1655,40 +1869,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="K2" s="27" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1700,7 +1914,7 @@
       <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="s">
@@ -1753,7 +1967,7 @@
         <f>F5+G5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="27" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1788,7 +2002,7 @@
         <f>[1]estadisticas!A1</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1823,7 +2037,7 @@
         <f>I7/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="27" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1858,7 +2072,7 @@
         <f t="array" aca="1" ref="K8" ca="1">A:A</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="27" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1889,11 +2103,11 @@
         <f>POWER(G9,H9)</f>
         <v>25</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="28">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="27" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1909,4 +2123,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F052E8C9-94AB-4189-96D8-AFD4335A045F}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="35">
+        <v>5</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="50">
+        <v>10</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="35">
+        <v>15</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="50">
+        <v>20</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="35">
+        <v>25</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="50">
+        <v>30</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="35">
+        <v>35</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="50">
+        <v>40</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="35">
+        <v>45</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="31">
+        <v>50</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:F11" xr:uid="{F052E8C9-94AB-4189-96D8-AFD4335A045F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/introduccion.xlsx
+++ b/introduccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls-x13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E619B7-3D8C-435D-B97B-53047AEC218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A471C49-F434-41E8-8F0F-A85A3DFF22CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{EFD60C52-CD72-4385-B132-B164210610CA}"/>
   </bookViews>
